--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB577EFD-AF49-4EA3-89DA-B54B0EFE566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA781D0-5FDE-42A7-A2F9-C59592080ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="330" windowWidth="15105" windowHeight="14835" tabRatio="912" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="622">
   <si>
     <t>2022-23</t>
   </si>
@@ -3895,6 +3895,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3909,17 +3918,44 @@
     <xf numFmtId="174" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3931,42 +3967,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="40" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="40" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4381,11 +4381,11 @@
       </c>
       <c r="D9" s="3">
         <f>'SnyB202-22'!E4</f>
-        <v>120000</v>
+        <v>146000</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="F9" s="4">
         <f>'SnyB202-22'!D6</f>
@@ -4521,11 +4521,11 @@
       </c>
       <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
-        <v>627468.97</v>
+        <v>653468.97</v>
       </c>
       <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
-        <v>161999.99909485455</v>
+        <v>135999.99909485455</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
@@ -8914,21 +8914,21 @@
       <c r="D2" s="156"/>
       <c r="E2" s="157"/>
       <c r="F2" s="156"/>
-      <c r="G2" s="368" t="s">
+      <c r="G2" s="363" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="368"/>
+      <c r="H2" s="363"/>
+      <c r="I2" s="363"/>
+      <c r="J2" s="363"/>
+      <c r="K2" s="363"/>
       <c r="L2" s="156"/>
-      <c r="M2" s="368" t="s">
+      <c r="M2" s="363" t="s">
         <v>478</v>
       </c>
-      <c r="N2" s="368"/>
-      <c r="O2" s="368"/>
-      <c r="P2" s="368"/>
-      <c r="Q2" s="368"/>
+      <c r="N2" s="363"/>
+      <c r="O2" s="363"/>
+      <c r="P2" s="363"/>
+      <c r="Q2" s="363"/>
       <c r="R2" s="156"/>
       <c r="S2" s="158"/>
     </row>
@@ -8940,23 +8940,23 @@
       <c r="E3" s="160" t="s">
         <v>480</v>
       </c>
-      <c r="G3" s="369" t="s">
+      <c r="G3" s="364" t="s">
         <v>481</v>
       </c>
-      <c r="H3" s="369"/>
-      <c r="J3" s="370" t="s">
+      <c r="H3" s="364"/>
+      <c r="J3" s="365" t="s">
         <v>482</v>
       </c>
-      <c r="K3" s="370"/>
-      <c r="M3" s="369" t="s">
+      <c r="K3" s="365"/>
+      <c r="M3" s="364" t="s">
         <v>481</v>
       </c>
-      <c r="N3" s="369"/>
-      <c r="O3" s="369"/>
-      <c r="P3" s="370" t="s">
+      <c r="N3" s="364"/>
+      <c r="O3" s="364"/>
+      <c r="P3" s="365" t="s">
         <v>482</v>
       </c>
-      <c r="Q3" s="370"/>
+      <c r="Q3" s="365"/>
       <c r="S3" s="161" t="s">
         <v>362</v>
       </c>
@@ -9019,11 +9019,11 @@
         <v>450000</v>
       </c>
       <c r="F5" s="157"/>
-      <c r="G5" s="363">
+      <c r="G5" s="366">
         <f>K5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="H5" s="363"/>
+      <c r="H5" s="366"/>
       <c r="I5" s="176"/>
       <c r="J5" s="177" t="s">
         <v>486</v>
@@ -9032,11 +9032,11 @@
         <v>225000</v>
       </c>
       <c r="L5" s="178"/>
-      <c r="M5" s="364">
+      <c r="M5" s="367">
         <f>Q5/$E$5</f>
         <v>0.5</v>
       </c>
-      <c r="N5" s="364"/>
+      <c r="N5" s="367"/>
       <c r="O5" s="179"/>
       <c r="P5" s="176"/>
       <c r="Q5" s="175">
@@ -9056,11 +9056,11 @@
         <v>487</v>
       </c>
       <c r="F6" s="165"/>
-      <c r="G6" s="365">
+      <c r="G6" s="368">
         <f>K6/$E$5</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="H6" s="365"/>
+      <c r="H6" s="368"/>
       <c r="I6" s="183" t="s">
         <v>488</v>
       </c>
@@ -9072,11 +9072,11 @@
         <v>351562.54</v>
       </c>
       <c r="L6" s="165"/>
-      <c r="M6" s="365">
+      <c r="M6" s="368">
         <f>Q6/$E$5</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="N6" s="365"/>
+      <c r="N6" s="368"/>
       <c r="O6" s="186" t="s">
         <v>489</v>
       </c>
@@ -12139,23 +12139,23 @@
     </row>
     <row r="65" spans="1:19" ht="11.25" customHeight="1">
       <c r="A65" s="159"/>
-      <c r="C65" s="366" t="s">
+      <c r="C65" s="369" t="s">
         <v>515</v>
       </c>
-      <c r="D65" s="366"/>
-      <c r="E65" s="366"/>
-      <c r="G65" s="367" t="e">
+      <c r="D65" s="369"/>
+      <c r="E65" s="369"/>
+      <c r="G65" s="370" t="e">
         <f>G64</f>
         <v>#REF!</v>
       </c>
-      <c r="H65" s="367"/>
+      <c r="H65" s="370"/>
       <c r="I65" s="151"/>
       <c r="J65" s="147"/>
-      <c r="M65" s="367" t="e">
+      <c r="M65" s="370" t="e">
         <f>M64</f>
         <v>#REF!</v>
       </c>
-      <c r="N65" s="367"/>
+      <c r="N65" s="370"/>
       <c r="P65" s="147"/>
       <c r="Q65" s="149"/>
       <c r="R65" s="147"/>
@@ -12163,15 +12163,15 @@
     </row>
     <row r="66" spans="1:19" ht="11.25" customHeight="1">
       <c r="A66" s="159"/>
-      <c r="C66" s="366"/>
-      <c r="D66" s="366"/>
-      <c r="E66" s="366"/>
-      <c r="G66" s="367"/>
-      <c r="H66" s="367"/>
+      <c r="C66" s="369"/>
+      <c r="D66" s="369"/>
+      <c r="E66" s="369"/>
+      <c r="G66" s="370"/>
+      <c r="H66" s="370"/>
       <c r="I66" s="151"/>
       <c r="J66" s="147"/>
-      <c r="M66" s="367"/>
-      <c r="N66" s="367"/>
+      <c r="M66" s="370"/>
+      <c r="N66" s="370"/>
       <c r="P66" s="147"/>
       <c r="Q66" s="149"/>
       <c r="R66" s="147"/>
@@ -12598,12 +12598,6 @@
     <row r="1048548" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="G6:H6"/>
@@ -12611,6 +12605,12 @@
     <mergeCell ref="C65:E66"/>
     <mergeCell ref="G65:H66"/>
     <mergeCell ref="M65:N66"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12884,7 +12884,7 @@
       <c r="G1" s="147"/>
       <c r="O1" s="150"/>
       <c r="T1" s="147"/>
-      <c r="V1" s="381" t="s">
+      <c r="V1" s="376" t="s">
         <v>523</v>
       </c>
       <c r="W1" s="253" t="s">
@@ -12913,24 +12913,24 @@
       <c r="E2" s="258"/>
       <c r="F2" s="259"/>
       <c r="G2" s="257"/>
-      <c r="H2" s="387" t="s">
+      <c r="H2" s="375" t="s">
         <v>477</v>
       </c>
-      <c r="I2" s="387"/>
-      <c r="J2" s="387"/>
-      <c r="K2" s="387"/>
-      <c r="L2" s="387"/>
+      <c r="I2" s="375"/>
+      <c r="J2" s="375"/>
+      <c r="K2" s="375"/>
+      <c r="L2" s="375"/>
       <c r="M2" s="257"/>
-      <c r="N2" s="387" t="s">
+      <c r="N2" s="375" t="s">
         <v>478</v>
       </c>
-      <c r="O2" s="387"/>
-      <c r="P2" s="387"/>
-      <c r="Q2" s="387"/>
-      <c r="R2" s="387"/>
+      <c r="O2" s="375"/>
+      <c r="P2" s="375"/>
+      <c r="Q2" s="375"/>
+      <c r="R2" s="375"/>
       <c r="S2" s="257"/>
       <c r="T2" s="260"/>
-      <c r="V2" s="381"/>
+      <c r="V2" s="376"/>
       <c r="W2" s="261" t="s">
         <v>283</v>
       </c>
@@ -13078,11 +13078,11 @@
       </c>
       <c r="F5" s="276"/>
       <c r="G5" s="165"/>
-      <c r="H5" s="386">
+      <c r="H5" s="372">
         <f>L5/$E$4</f>
         <v>0.78125008888888881</v>
       </c>
-      <c r="I5" s="386"/>
+      <c r="I5" s="372"/>
       <c r="J5" s="183" t="s">
         <v>529</v>
       </c>
@@ -13094,11 +13094,11 @@
         <v>351562.54</v>
       </c>
       <c r="M5" s="165"/>
-      <c r="N5" s="386">
+      <c r="N5" s="372">
         <f>R5/$E$4</f>
         <v>0.21874991111111111</v>
       </c>
-      <c r="O5" s="386"/>
+      <c r="O5" s="372"/>
       <c r="P5" s="186" t="s">
         <v>489</v>
       </c>
@@ -13236,49 +13236,49 @@
       </c>
       <c r="F8" s="280"/>
       <c r="G8" s="157"/>
-      <c r="H8" s="378" t="s">
+      <c r="H8" s="373" t="s">
         <v>481</v>
       </c>
-      <c r="I8" s="378"/>
+      <c r="I8" s="373"/>
       <c r="J8" s="157"/>
-      <c r="K8" s="379" t="s">
+      <c r="K8" s="374" t="s">
         <v>482</v>
       </c>
-      <c r="L8" s="379"/>
+      <c r="L8" s="374"/>
       <c r="M8" s="157"/>
-      <c r="N8" s="378" t="s">
+      <c r="N8" s="373" t="s">
         <v>481</v>
       </c>
-      <c r="O8" s="378"/>
-      <c r="P8" s="378"/>
-      <c r="Q8" s="379" t="s">
+      <c r="O8" s="373"/>
+      <c r="P8" s="373"/>
+      <c r="Q8" s="374" t="s">
         <v>482</v>
       </c>
-      <c r="R8" s="379"/>
+      <c r="R8" s="374"/>
       <c r="S8" s="157"/>
       <c r="T8" s="275" t="s">
         <v>362</v>
       </c>
-      <c r="V8" s="384" t="s">
+      <c r="V8" s="382" t="s">
         <v>531</v>
       </c>
-      <c r="W8" s="385">
+      <c r="W8" s="383">
         <f>SUM(W3:W7)</f>
         <v>626102.71</v>
       </c>
-      <c r="X8" s="376">
+      <c r="X8" s="380">
         <f>SUM(X3:X7)</f>
         <v>626102.71</v>
       </c>
-      <c r="Y8" s="377" t="e">
+      <c r="Y8" s="381" t="e">
         <f>SUM(Y3:Y7)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z8" s="376" t="e">
+      <c r="Z8" s="380" t="e">
         <f>SUM(Z3:Z7)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA8" s="377" t="e">
+      <c r="AA8" s="381" t="e">
         <f>SUM(AA3:AA7)</f>
         <v>#REF!</v>
       </c>
@@ -13338,16 +13338,16 @@
       <c r="T9" s="286" t="s">
         <v>484</v>
       </c>
-      <c r="V9" s="384"/>
-      <c r="W9" s="385"/>
-      <c r="X9" s="376"/>
-      <c r="Y9" s="377"/>
-      <c r="Z9" s="376"/>
-      <c r="AA9" s="377"/>
-      <c r="AB9" s="380" t="s">
+      <c r="V9" s="382"/>
+      <c r="W9" s="383"/>
+      <c r="X9" s="380"/>
+      <c r="Y9" s="381"/>
+      <c r="Z9" s="380"/>
+      <c r="AA9" s="381"/>
+      <c r="AB9" s="377" t="s">
         <v>533</v>
       </c>
-      <c r="AC9" s="380"/>
+      <c r="AC9" s="377"/>
     </row>
     <row r="10" spans="1:30" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="190">
@@ -13435,10 +13435,10 @@
       <c r="T11" s="268">
         <v>5.52</v>
       </c>
-      <c r="V11" s="381" t="s">
+      <c r="V11" s="376" t="s">
         <v>534</v>
       </c>
-      <c r="W11" s="382" t="e">
+      <c r="W11" s="378" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
@@ -13514,8 +13514,8 @@
       <c r="T12" s="268">
         <v>5.52</v>
       </c>
-      <c r="V12" s="381"/>
-      <c r="W12" s="382"/>
+      <c r="V12" s="376"/>
+      <c r="W12" s="378"/>
       <c r="X12" s="262" t="s">
         <v>283</v>
       </c>
@@ -13557,7 +13557,7 @@
       <c r="V13" s="268">
         <v>2018</v>
       </c>
-      <c r="W13" s="382"/>
+      <c r="W13" s="378"/>
       <c r="X13" s="270">
         <f>I15</f>
         <v>16406.251866666666</v>
@@ -13608,7 +13608,7 @@
       <c r="V14" s="268">
         <v>2019</v>
       </c>
-      <c r="W14" s="382"/>
+      <c r="W14" s="378"/>
       <c r="X14" s="270">
         <f>I25</f>
         <v>20699.204717171131</v>
@@ -13673,7 +13673,7 @@
       <c r="V15" s="268">
         <v>2020</v>
       </c>
-      <c r="W15" s="382"/>
+      <c r="W15" s="378"/>
       <c r="X15" s="270">
         <f>I42</f>
         <v>50197.878908060913</v>
@@ -13736,7 +13736,7 @@
       <c r="V16" s="268">
         <v>2021</v>
       </c>
-      <c r="W16" s="382"/>
+      <c r="W16" s="378"/>
       <c r="X16" s="270">
         <f>I60</f>
         <v>118343.48939231082</v>
@@ -13806,7 +13806,7 @@
       <c r="V17" s="268">
         <v>2022</v>
       </c>
-      <c r="W17" s="382"/>
+      <c r="W17" s="378"/>
       <c r="X17" s="270" t="e">
         <f>I86</f>
         <v>#REF!</v>
@@ -13847,23 +13847,23 @@
       <c r="P18" s="151"/>
       <c r="R18" s="197"/>
       <c r="T18" s="268"/>
-      <c r="V18" s="383" t="s">
+      <c r="V18" s="379" t="s">
         <v>531</v>
       </c>
-      <c r="W18" s="382"/>
-      <c r="X18" s="376" t="e">
+      <c r="W18" s="378"/>
+      <c r="X18" s="380" t="e">
         <f>SUM(X13:X17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y18" s="377" t="e">
+      <c r="Y18" s="381" t="e">
         <f>SUM(Y13:Y17)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z18" s="376" t="e">
+      <c r="Z18" s="380" t="e">
         <f>SUM(Z13:Z17)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA18" s="377" t="e">
+      <c r="AA18" s="381" t="e">
         <f>SUM(AA13:AA17)</f>
         <v>#REF!</v>
       </c>
@@ -13899,16 +13899,16 @@
       <c r="R19" s="158"/>
       <c r="S19" s="156"/>
       <c r="T19" s="290"/>
-      <c r="V19" s="383"/>
-      <c r="W19" s="382"/>
-      <c r="X19" s="376"/>
-      <c r="Y19" s="377"/>
-      <c r="Z19" s="376"/>
-      <c r="AA19" s="377"/>
-      <c r="AB19" s="380" t="s">
+      <c r="V19" s="379"/>
+      <c r="W19" s="378"/>
+      <c r="X19" s="380"/>
+      <c r="Y19" s="381"/>
+      <c r="Z19" s="380"/>
+      <c r="AA19" s="381"/>
+      <c r="AB19" s="377" t="s">
         <v>539</v>
       </c>
-      <c r="AC19" s="380"/>
+      <c r="AC19" s="377"/>
     </row>
     <row r="20" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A20" s="159" t="s">
@@ -14035,10 +14035,10 @@
       <c r="T21" s="268">
         <v>5.73</v>
       </c>
-      <c r="V21" s="381" t="s">
+      <c r="V21" s="376" t="s">
         <v>540</v>
       </c>
-      <c r="W21" s="382" t="e">
+      <c r="W21" s="378" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
@@ -14114,8 +14114,8 @@
       <c r="T22" s="268">
         <v>5.73</v>
       </c>
-      <c r="V22" s="381"/>
-      <c r="W22" s="382"/>
+      <c r="V22" s="376"/>
+      <c r="W22" s="378"/>
       <c r="X22" s="262" t="s">
         <v>283</v>
       </c>
@@ -14147,7 +14147,7 @@
       <c r="V23" s="268">
         <v>2018</v>
       </c>
-      <c r="W23" s="382"/>
+      <c r="W23" s="378"/>
       <c r="X23" s="270">
         <f>O15</f>
         <v>4593.7481333333335</v>
@@ -14199,7 +14199,7 @@
       <c r="V24" s="268">
         <v>2019</v>
       </c>
-      <c r="W24" s="382"/>
+      <c r="W24" s="378"/>
       <c r="X24" s="270">
         <f>O25</f>
         <v>5800.7952828288689</v>
@@ -14263,7 +14263,7 @@
       <c r="V25" s="268">
         <v>2020</v>
       </c>
-      <c r="W25" s="382"/>
+      <c r="W25" s="378"/>
       <c r="X25" s="270">
         <f>O42</f>
         <v>14302.121091939091</v>
@@ -14326,7 +14326,7 @@
       <c r="V26" s="268">
         <v>2021</v>
       </c>
-      <c r="W26" s="382"/>
+      <c r="W26" s="378"/>
       <c r="X26" s="270">
         <f>O60</f>
         <v>33916.510607689197</v>
@@ -14396,7 +14396,7 @@
       <c r="V27" s="268">
         <v>2022</v>
       </c>
-      <c r="W27" s="382"/>
+      <c r="W27" s="378"/>
       <c r="X27" s="270" t="e">
         <f>O86</f>
         <v>#REF!</v>
@@ -14433,23 +14433,23 @@
       <c r="P28" s="151"/>
       <c r="R28" s="197"/>
       <c r="T28" s="268"/>
-      <c r="V28" s="383" t="s">
+      <c r="V28" s="379" t="s">
         <v>531</v>
       </c>
-      <c r="W28" s="382"/>
-      <c r="X28" s="376" t="e">
+      <c r="W28" s="378"/>
+      <c r="X28" s="380" t="e">
         <f>SUM(X23:X27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y28" s="377" t="e">
+      <c r="Y28" s="381" t="e">
         <f>SUM(Y23:Y27)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z28" s="376" t="e">
+      <c r="Z28" s="380" t="e">
         <f>SUM(Z23:Z27)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA28" s="377" t="e">
+      <c r="AA28" s="381" t="e">
         <f>SUM(AA23:AA27)</f>
         <v>#REF!</v>
       </c>
@@ -14485,16 +14485,16 @@
       <c r="R29" s="158"/>
       <c r="S29" s="156"/>
       <c r="T29" s="290"/>
-      <c r="V29" s="383"/>
-      <c r="W29" s="382"/>
-      <c r="X29" s="376"/>
-      <c r="Y29" s="377"/>
-      <c r="Z29" s="376"/>
-      <c r="AA29" s="377"/>
-      <c r="AB29" s="380" t="s">
+      <c r="V29" s="379"/>
+      <c r="W29" s="378"/>
+      <c r="X29" s="380"/>
+      <c r="Y29" s="381"/>
+      <c r="Z29" s="380"/>
+      <c r="AA29" s="381"/>
+      <c r="AB29" s="377" t="s">
         <v>545</v>
       </c>
-      <c r="AC29" s="380"/>
+      <c r="AC29" s="377"/>
     </row>
     <row r="30" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A30" s="159" t="s">
@@ -14627,14 +14627,14 @@
         <v>519</v>
       </c>
       <c r="Y31" s="371"/>
-      <c r="Z31" s="372" t="s">
+      <c r="Z31" s="384" t="s">
         <v>28</v>
       </c>
-      <c r="AA31" s="372"/>
-      <c r="AB31" s="373" t="s">
+      <c r="AA31" s="384"/>
+      <c r="AB31" s="385" t="s">
         <v>525</v>
       </c>
-      <c r="AC31" s="373"/>
+      <c r="AC31" s="385"/>
     </row>
     <row r="32" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A32" s="159" t="s">
@@ -14778,23 +14778,23 @@
       <c r="T33" s="268">
         <v>7.93</v>
       </c>
-      <c r="V33" s="375" t="s">
+      <c r="V33" s="387" t="s">
         <v>546</v>
       </c>
-      <c r="W33" s="375"/>
-      <c r="X33" s="376" t="e">
+      <c r="W33" s="387"/>
+      <c r="X33" s="380" t="e">
         <f>X28+X18</f>
         <v>#REF!</v>
       </c>
-      <c r="Y33" s="377" t="e">
+      <c r="Y33" s="381" t="e">
         <f>Y28+Y18</f>
         <v>#REF!</v>
       </c>
-      <c r="Z33" s="376" t="e">
+      <c r="Z33" s="380" t="e">
         <f>Z28+Z18</f>
         <v>#REF!</v>
       </c>
-      <c r="AA33" s="377" t="e">
+      <c r="AA33" s="381" t="e">
         <f>AA28+AA18</f>
         <v>#REF!</v>
       </c>
@@ -14866,16 +14866,16 @@
       <c r="T34" s="268">
         <v>7.93</v>
       </c>
-      <c r="V34" s="375"/>
-      <c r="W34" s="375"/>
-      <c r="X34" s="376"/>
-      <c r="Y34" s="377"/>
-      <c r="Z34" s="376"/>
-      <c r="AA34" s="377"/>
-      <c r="AB34" s="380" t="s">
+      <c r="V34" s="387"/>
+      <c r="W34" s="387"/>
+      <c r="X34" s="380"/>
+      <c r="Y34" s="381"/>
+      <c r="Z34" s="380"/>
+      <c r="AA34" s="381"/>
+      <c r="AB34" s="377" t="s">
         <v>533</v>
       </c>
-      <c r="AC34" s="380"/>
+      <c r="AC34" s="377"/>
     </row>
     <row r="35" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A35" s="159" t="s">
@@ -15059,16 +15059,16 @@
       <c r="T37" s="268">
         <v>8.7899999999999991</v>
       </c>
-      <c r="V37" s="375" t="s">
+      <c r="V37" s="387" t="s">
         <v>547</v>
       </c>
-      <c r="W37" s="375"/>
-      <c r="X37" s="375"/>
-      <c r="Y37" s="375"/>
-      <c r="Z37" s="375"/>
-      <c r="AA37" s="375"/>
-      <c r="AB37" s="375"/>
-      <c r="AC37" s="375"/>
+      <c r="W37" s="387"/>
+      <c r="X37" s="387"/>
+      <c r="Y37" s="387"/>
+      <c r="Z37" s="387"/>
+      <c r="AA37" s="387"/>
+      <c r="AB37" s="387"/>
+      <c r="AC37" s="387"/>
     </row>
     <row r="38" spans="1:29" s="145" customFormat="1" ht="11.25" customHeight="1">
       <c r="A38" s="159" t="s">
@@ -15472,25 +15472,25 @@
       </c>
       <c r="F45" s="280"/>
       <c r="G45" s="157"/>
-      <c r="H45" s="378" t="s">
+      <c r="H45" s="373" t="s">
         <v>481</v>
       </c>
-      <c r="I45" s="378"/>
+      <c r="I45" s="373"/>
       <c r="J45" s="157"/>
-      <c r="K45" s="379" t="s">
+      <c r="K45" s="374" t="s">
         <v>482</v>
       </c>
-      <c r="L45" s="379"/>
+      <c r="L45" s="374"/>
       <c r="M45" s="157"/>
-      <c r="N45" s="378" t="s">
+      <c r="N45" s="373" t="s">
         <v>481</v>
       </c>
-      <c r="O45" s="378"/>
-      <c r="P45" s="378"/>
-      <c r="Q45" s="379" t="s">
+      <c r="O45" s="373"/>
+      <c r="P45" s="373"/>
+      <c r="Q45" s="374" t="s">
         <v>482</v>
       </c>
-      <c r="R45" s="379"/>
+      <c r="R45" s="374"/>
       <c r="S45" s="157"/>
       <c r="T45" s="275" t="s">
         <v>362</v>
@@ -19587,22 +19587,22 @@
         <v>567</v>
       </c>
       <c r="G84" s="334"/>
-      <c r="H84" s="374" t="e">
+      <c r="H84" s="386" t="e">
         <f>H83</f>
         <v>#REF!</v>
       </c>
-      <c r="I84" s="374"/>
+      <c r="I84" s="386"/>
       <c r="J84" s="335" t="s">
         <v>477</v>
       </c>
       <c r="K84" s="334"/>
       <c r="L84" s="336"/>
       <c r="M84" s="332"/>
-      <c r="N84" s="374" t="e">
+      <c r="N84" s="386" t="e">
         <f>N83</f>
         <v>#REF!</v>
       </c>
-      <c r="O84" s="374"/>
+      <c r="O84" s="386"/>
       <c r="P84" s="337" t="s">
         <v>478</v>
       </c>
@@ -48509,18 +48509,35 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="V33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="V37:AC37"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W29"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="W11:W19"/>
@@ -48537,35 +48554,18 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W29"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="V33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="V37:AC37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -49714,8 +49714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -49780,11 +49780,11 @@
       </c>
       <c r="E4" s="16">
         <f>SUM(E9:E20)</f>
-        <v>120000</v>
+        <v>146000</v>
       </c>
       <c r="F4" s="17">
         <f>F20</f>
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -49824,7 +49824,7 @@
       </c>
       <c r="F7" s="25">
         <f>E4-D5</f>
-        <v>120000</v>
+        <v>146000</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -49946,12 +49946,19 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="30"/>
+      <c r="A16" s="30">
+        <v>45296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>599</v>
+      </c>
       <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="32">
+        <v>26000</v>
+      </c>
       <c r="F16" s="27">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -49960,7 +49967,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="27">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -49969,7 +49976,7 @@
       <c r="E18" s="32"/>
       <c r="F18" s="27">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -49978,7 +49985,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="27">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -49987,7 +49994,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="33">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -55137,7 +55144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C37B7B4-DA37-4154-8E6B-95B230D7B6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{271E298A-939E-44AA-8DF7-BB255CFA627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="4230" windowWidth="12150" windowHeight="11040" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM 24" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="02-13-BKY" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,9 +36,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2505,7 +2503,7 @@
       </c>
       <c r="F9" s="4">
         <f>SnyB202!D6</f>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2529,7 +2527,7 @@
       </c>
       <c r="F10" s="4">
         <f>SnyC301!D6</f>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2577,7 +2575,7 @@
       </c>
       <c r="F12" s="4">
         <f>SnyF601!E6</f>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2645,7 +2643,7 @@
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
-        <v>198.66000000000054</v>
+        <v>-392.52999999999952</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -4284,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4377,7 +4375,7 @@
       </c>
       <c r="D6" s="23">
         <f>F37</f>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="24"/>
@@ -4612,7 +4610,7 @@
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38">
-        <v>1000.12</v>
+        <v>987.04</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4621,17 +4619,17 @@
         <v>100</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D25" s="38">
-        <v>1299.72</v>
+        <v>999.4</v>
       </c>
       <c r="E25" s="38">
-        <v>1158.4000000000001</v>
+        <v>900.36</v>
       </c>
       <c r="F25" s="38">
         <f t="shared" ref="F25:F37" si="1">D25-E25+F24</f>
-        <v>1141.44</v>
+        <v>1086.08</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -4644,14 +4642,14 @@
         <v>0</v>
       </c>
       <c r="D26" s="38">
-        <v>999.4</v>
+        <v>967.88</v>
       </c>
       <c r="E26" s="38">
-        <v>900.36</v>
+        <v>841.46</v>
       </c>
       <c r="F26" s="38">
         <f t="shared" si="1"/>
-        <v>1240.48</v>
+        <v>1212.5</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -4660,18 +4658,11 @@
       <c r="B27" t="s">
         <v>324</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="38">
-        <v>967.88</v>
-      </c>
-      <c r="E27" s="38">
-        <v>841.46</v>
-      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="38">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -4684,7 +4675,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -4697,7 +4688,7 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -4710,7 +4701,7 @@
       <c r="E30" s="38"/>
       <c r="F30" s="38">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -4723,7 +4714,7 @@
       <c r="E31" s="38"/>
       <c r="F31" s="38">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -4736,7 +4727,7 @@
       <c r="E32" s="38"/>
       <c r="F32" s="38">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -4749,7 +4740,7 @@
       <c r="E33" s="38"/>
       <c r="F33" s="38">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -4762,7 +4753,7 @@
       <c r="E34" s="38"/>
       <c r="F34" s="38">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -4775,7 +4766,7 @@
       <c r="E35" s="38"/>
       <c r="F35" s="38">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -4789,7 +4780,7 @@
       <c r="E36" s="41"/>
       <c r="F36" s="42">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -4802,13 +4793,13 @@
       </c>
       <c r="C37" s="45">
         <f>SUM(C24:C36)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="47"/>
       <c r="F37" s="48">
         <f t="shared" si="1"/>
-        <v>1366.9</v>
+        <v>1212.5</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5192,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="B13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5279,7 +5270,7 @@
       </c>
       <c r="D6" s="66">
         <f>F36</f>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="24"/>
@@ -5473,16 +5464,16 @@
         <v>100</v>
       </c>
       <c r="C25" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>1232.42</v>
+        <v>875.64</v>
       </c>
       <c r="E25" s="3">
-        <v>1232.42</v>
-      </c>
-      <c r="F25" s="38">
-        <f t="shared" ref="F25:F37" si="1">D25-E25+F24</f>
+        <v>875.64</v>
+      </c>
+      <c r="F25" s="64">
+        <f>-D25+E25+F24</f>
         <v>-3924.11</v>
       </c>
     </row>
@@ -5495,14 +5486,14 @@
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>875.64</v>
+        <v>1192</v>
       </c>
       <c r="E26" s="3">
-        <v>875.64</v>
+        <v>1036.52</v>
       </c>
       <c r="F26" s="38">
-        <f t="shared" si="1"/>
-        <v>-3924.11</v>
+        <f>-D26+E26+F25</f>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5510,18 +5501,9 @@
       <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1192</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1036.52</v>
-      </c>
-      <c r="F27" s="38">
-        <f t="shared" si="1"/>
-        <v>-3768.63</v>
+      <c r="F27" s="64">
+        <f t="shared" ref="F27:F36" si="1">-D27+E27+F26</f>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5529,9 +5511,9 @@
       <c r="B28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="64">
         <f t="shared" si="1"/>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5539,9 +5521,9 @@
       <c r="B29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="64">
         <f t="shared" si="1"/>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5549,9 +5531,9 @@
       <c r="B30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="64">
         <f t="shared" si="1"/>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5559,9 +5541,9 @@
       <c r="B31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="64">
         <f t="shared" si="1"/>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5569,9 +5551,9 @@
       <c r="B32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="64">
         <f t="shared" si="1"/>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5579,9 +5561,9 @@
       <c r="B33" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="64">
         <f t="shared" si="1"/>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5589,9 +5571,9 @@
       <c r="B34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="64">
         <f t="shared" si="1"/>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5601,9 +5583,9 @@
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="38"/>
-      <c r="F35" s="38">
+      <c r="F35" s="64">
         <f t="shared" si="1"/>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5614,9 +5596,9 @@
       <c r="C36" s="26"/>
       <c r="D36" s="40"/>
       <c r="E36" s="41"/>
-      <c r="F36" s="42">
+      <c r="F36" s="64">
         <f t="shared" si="1"/>
-        <v>-3768.63</v>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5628,13 +5610,13 @@
       </c>
       <c r="C37" s="45">
         <f>SUM(C25:C36)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="47"/>
       <c r="F37" s="48">
-        <f t="shared" si="1"/>
-        <v>-3768.63</v>
+        <f t="shared" ref="F37" si="2">D37-E37+F36</f>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5898,7 +5880,7 @@
         <v>34.450000000000003</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" ref="E70:E81" si="2">E69+C70-D70</f>
+        <f t="shared" ref="E70:E81" si="3">E69+C70-D70</f>
         <v>-76.52000000000001</v>
       </c>
     </row>
@@ -5910,7 +5892,7 @@
         <v>20.05</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-96.570000000000007</v>
       </c>
     </row>
@@ -5922,7 +5904,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-131.27000000000001</v>
       </c>
     </row>
@@ -5934,7 +5916,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-165.61</v>
       </c>
     </row>
@@ -5946,7 +5928,7 @@
         <v>-65.91</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-99.700000000000017</v>
       </c>
     </row>
@@ -5958,7 +5940,7 @@
         <v>31.54</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-131.24</v>
       </c>
     </row>
@@ -5970,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-131.24</v>
       </c>
     </row>
@@ -5982,7 +5964,7 @@
         <v>45.99</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-177.23000000000002</v>
       </c>
     </row>
@@ -5994,7 +5976,7 @@
         <v>42.89</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-220.12</v>
       </c>
     </row>
@@ -6006,7 +5988,7 @@
         <v>34.979999999999997</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-255.1</v>
       </c>
     </row>
@@ -6018,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-255.1</v>
       </c>
     </row>
@@ -6029,7 +6011,7 @@
       <c r="C81" s="65"/>
       <c r="D81" s="1"/>
       <c r="E81" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-255.1</v>
       </c>
     </row>
@@ -6051,7 +6033,7 @@
         <v>30.04</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" ref="E85:E100" si="3">E84+C85-D85</f>
+        <f t="shared" ref="E85:E100" si="4">E84+C85-D85</f>
         <v>-285.14</v>
       </c>
     </row>
@@ -6063,7 +6045,7 @@
         <v>135.32</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-420.46</v>
       </c>
     </row>
@@ -6075,7 +6057,7 @@
         <v>98.9</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-519.36</v>
       </c>
     </row>
@@ -6087,7 +6069,7 @@
         <v>135.6</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-654.96</v>
       </c>
     </row>
@@ -6099,7 +6081,7 @@
         <v>214.37</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-869.33</v>
       </c>
     </row>
@@ -6111,7 +6093,7 @@
         <v>427.65</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1296.98</v>
       </c>
     </row>
@@ -6123,7 +6105,7 @@
         <v>446.55</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1743.53</v>
       </c>
     </row>
@@ -6135,7 +6117,7 @@
         <v>333.96</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2077.4899999999998</v>
       </c>
     </row>
@@ -6147,7 +6129,7 @@
         <v>324.51</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2402</v>
       </c>
     </row>
@@ -6159,7 +6141,7 @@
         <v>331.27</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2733.27</v>
       </c>
     </row>
@@ -6171,7 +6153,7 @@
         <v>50</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2683.27</v>
       </c>
     </row>
@@ -6183,7 +6165,7 @@
         <v>412.42</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3095.69</v>
       </c>
     </row>
@@ -6195,7 +6177,7 @@
         <v>426.12</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3521.81</v>
       </c>
     </row>
@@ -6207,7 +6189,7 @@
         <v>2000</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1521.81</v>
       </c>
     </row>
@@ -6219,7 +6201,7 @@
         <v>500</v>
       </c>
       <c r="E99" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1021.81</v>
       </c>
     </row>
@@ -6228,7 +6210,7 @@
         <v>173</v>
       </c>
       <c r="E100" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1021.81</v>
       </c>
     </row>
@@ -6242,8 +6224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6510,17 +6492,17 @@
         <v>100</v>
       </c>
       <c r="C25" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25" s="38">
-        <v>288.67</v>
+        <v>431.36</v>
       </c>
       <c r="E25" s="38">
-        <v>288.67</v>
+        <v>381.33</v>
       </c>
       <c r="F25" s="38">
         <f t="shared" ref="F25:F37" si="1">D25-E25+F24</f>
-        <v>800</v>
+        <v>850.03</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6532,10 +6514,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="38">
-        <v>431.36</v>
+        <v>237.14</v>
       </c>
       <c r="E26" s="38">
-        <v>381.33</v>
+        <v>237.14</v>
       </c>
       <c r="F26" s="38">
         <f t="shared" si="1"/>
@@ -6547,15 +6529,8 @@
       <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="38">
-        <v>237.14</v>
-      </c>
-      <c r="E27" s="38">
-        <v>237.14</v>
-      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="38">
         <f t="shared" si="1"/>
         <v>850.03</v>
@@ -6679,7 +6654,7 @@
       </c>
       <c r="C37" s="45">
         <f>SUM(C25:C36)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="47"/>
@@ -6974,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6990,7 +6965,9 @@
     <col min="8" max="8" width="1.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
     <col min="10" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="14" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
     <col min="15" max="61" width="12.140625" customWidth="1"/>
     <col min="62" max="62" width="9.140625" customWidth="1"/>
   </cols>
@@ -7071,7 +7048,7 @@
       <c r="C6" s="22"/>
       <c r="E6" s="23">
         <f>G37</f>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="24"/>
@@ -7324,10 +7301,6 @@
         <v>2510.63</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="33"/>
@@ -7335,17 +7308,17 @@
         <v>100</v>
       </c>
       <c r="D25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>1174.3800000000001</v>
+        <v>891.32</v>
       </c>
       <c r="F25" s="3">
-        <v>1048.55</v>
+        <v>781.86</v>
       </c>
       <c r="G25" s="38">
         <f t="shared" ref="G25:G37" si="1">E25-F25+G24</f>
-        <v>2636.46</v>
+        <v>2620.09</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -7360,14 +7333,14 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>891.32</v>
+        <v>2248.8000000000002</v>
       </c>
       <c r="F26" s="3">
-        <v>781.86</v>
+        <v>2044.36</v>
       </c>
       <c r="G26" s="38">
         <f t="shared" si="1"/>
-        <v>2745.92</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
@@ -7379,18 +7352,9 @@
       <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2248.8000000000002</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2044.36</v>
-      </c>
       <c r="G27" s="38">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
@@ -7404,7 +7368,7 @@
       </c>
       <c r="G28" s="38">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="3"/>
@@ -7418,7 +7382,7 @@
       </c>
       <c r="G29" s="38">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="3"/>
@@ -7432,7 +7396,7 @@
       </c>
       <c r="G30" s="38">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="3"/>
@@ -7446,7 +7410,7 @@
       </c>
       <c r="G31" s="38">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="3"/>
@@ -7460,7 +7424,7 @@
       </c>
       <c r="G32" s="38">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="3"/>
@@ -7474,7 +7438,7 @@
       </c>
       <c r="G33" s="38">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="3"/>
@@ -7490,7 +7454,7 @@
       <c r="F34" s="65"/>
       <c r="G34" s="38">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="3"/>
@@ -7506,7 +7470,7 @@
       <c r="F35" s="38"/>
       <c r="G35" s="38">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -7525,7 +7489,7 @@
       <c r="F36" s="41"/>
       <c r="G36" s="42">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="I36" s="1"/>
       <c r="K36" s="77"/>
@@ -7542,13 +7506,13 @@
       <c r="C37" s="44"/>
       <c r="D37" s="45">
         <f>SUM(D25:D36)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="47"/>
       <c r="G37" s="48">
         <f t="shared" si="1"/>
-        <v>2950.3600000000006</v>
+        <v>2824.5300000000007</v>
       </c>
       <c r="I37" s="1"/>
       <c r="K37" s="77"/>
@@ -8270,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="B8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -8593,10 +8557,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="38">
-        <v>447.82</v>
+        <v>483.72</v>
       </c>
       <c r="E25" s="38">
-        <v>447.82</v>
+        <v>483.72</v>
       </c>
       <c r="F25" s="38">
         <f t="shared" ref="F25:F37" si="1">D25-E25+F24</f>
@@ -8612,11 +8576,11 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" s="38">
-        <v>483.72</v>
-      </c>
-      <c r="E26" s="38">
-        <v>483.72</v>
+      <c r="D26" s="64">
+        <v>439.85</v>
+      </c>
+      <c r="E26" s="64">
+        <v>439.85</v>
       </c>
       <c r="F26" s="38">
         <f t="shared" si="1"/>
@@ -8629,15 +8593,8 @@
       <c r="B27" t="s">
         <v>102</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="38">
-        <v>439.85</v>
-      </c>
-      <c r="E27" s="38">
-        <v>439.85</v>
-      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="38">
         <f t="shared" si="1"/>
         <v>-1200</v>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{271E298A-939E-44AA-8DF7-BB255CFA627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB333E33-D1B9-4EF2-90BA-9E7F0BFC310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13830" yWindow="1380" windowWidth="15420" windowHeight="14550" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM 24" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="02-13-BKY" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="328">
   <si>
     <t>2022-23</t>
   </si>
@@ -1083,6 +1082,9 @@
   </si>
   <si>
     <t>( 3100 TL )</t>
+  </si>
+  <si>
+    <t>ortak hesaptan ödeme 18-03-24</t>
   </si>
 </sst>
 </file>
@@ -3214,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3549,6 +3551,15 @@
     <row r="27" spans="1:7">
       <c r="A27" s="33" t="s">
         <v>45</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27">
+        <v>-52.17</v>
+      </c>
+      <c r="D27">
+        <v>2231.5</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
@@ -6949,7 +6960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FF1A8E-53DA-423C-B099-C3468782805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E39600F-B2D4-4468-8779-3FD909E46075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1035" windowWidth="20205" windowHeight="14550" tabRatio="912" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -3765,7 +3765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5994,11 +5994,11 @@
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="3">
-        <f>C14*E13</f>
+        <f t="shared" ref="D14:D19" si="1">C14*E13</f>
         <v>0</v>
       </c>
       <c r="E14" s="158">
-        <f>D14+E13</f>
+        <f t="shared" ref="E14:E19" si="2">D14+E13</f>
         <v>20000</v>
       </c>
       <c r="F14" s="29"/>
@@ -6014,11 +6014,11 @@
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="3">
-        <f>C15*E14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="158">
-        <f>D15+E14</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="F15" s="29"/>
@@ -6034,11 +6034,11 @@
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="3">
-        <f>C16*E15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16" s="158">
-        <f>D16+E15</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="F16" s="29"/>
@@ -6054,11 +6054,11 @@
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="3">
-        <f>C17*E16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17" s="158">
-        <f>D17+E16</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="F17" s="32"/>
@@ -6074,11 +6074,11 @@
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="3">
-        <f>C18*E17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18" s="158">
-        <f>D18+E17</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="F18" s="32"/>
@@ -6094,11 +6094,11 @@
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="3">
-        <f>C19*E18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" s="158">
-        <f>D19+E18</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="F19" s="32"/>
@@ -6197,7 +6197,7 @@
         <v>875.64</v>
       </c>
       <c r="G26" s="35">
-        <f t="shared" ref="G26:G37" si="1">E26-F26+G25</f>
+        <f t="shared" ref="G26:G37" si="3">E26-F26+G25</f>
         <v>-3924.11</v>
       </c>
     </row>
@@ -6217,7 +6217,7 @@
         <v>1192</v>
       </c>
       <c r="G27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       <c r="D28"/>
       <c r="F28"/>
       <c r="G28" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       <c r="D29"/>
       <c r="F29"/>
       <c r="G29" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6256,7 +6256,7 @@
       <c r="D30"/>
       <c r="F30"/>
       <c r="G30" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
       <c r="D31"/>
       <c r="F31"/>
       <c r="G31" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
       <c r="D32"/>
       <c r="F32"/>
       <c r="G32" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       <c r="D33"/>
       <c r="F33"/>
       <c r="G33" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6308,7 +6308,7 @@
       <c r="D34"/>
       <c r="F34"/>
       <c r="G34" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       <c r="D35"/>
       <c r="F35"/>
       <c r="G35" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       <c r="E36" s="34"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
       <c r="G37" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
         <v>34.450000000000003</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" ref="F71:F82" si="2">F70+D71-E71</f>
+        <f t="shared" ref="F71:F82" si="4">F70+D71-E71</f>
         <v>-76.52000000000001</v>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
         <v>20.05</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-96.570000000000007</v>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-131.27000000000001</v>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-165.61</v>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
         <v>-65.91</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-99.700000000000017</v>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
         <v>31.54</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-131.24</v>
       </c>
     </row>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-131.24</v>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
         <v>45.99</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-177.23000000000002</v>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
         <v>42.89</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-220.12</v>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
         <v>34.979999999999997</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-255.1</v>
       </c>
     </row>
@@ -6820,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-255.1</v>
       </c>
     </row>
@@ -6832,7 +6832,7 @@
       <c r="D82" s="57"/>
       <c r="E82" s="1"/>
       <c r="F82" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-255.1</v>
       </c>
     </row>
@@ -6856,7 +6856,7 @@
         <v>30.04</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" ref="F86:F101" si="3">F85+D86-E86</f>
+        <f t="shared" ref="F86:F101" si="5">F85+D86-E86</f>
         <v>-285.14</v>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
         <v>135.32</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-420.46</v>
       </c>
     </row>
@@ -6882,7 +6882,7 @@
         <v>98.9</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-519.36</v>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
         <v>135.6</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-654.96</v>
       </c>
     </row>
@@ -6908,7 +6908,7 @@
         <v>214.37</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-869.33</v>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
         <v>427.65</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1296.98</v>
       </c>
     </row>
@@ -6934,7 +6934,7 @@
         <v>446.55</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1743.53</v>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
         <v>333.96</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2077.4899999999998</v>
       </c>
     </row>
@@ -6960,7 +6960,7 @@
         <v>324.51</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2402</v>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
         <v>331.27</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2733.27</v>
       </c>
     </row>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="E96"/>
       <c r="F96" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2683.27</v>
       </c>
     </row>
@@ -7000,7 +7000,7 @@
         <v>412.42</v>
       </c>
       <c r="F97" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3095.69</v>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
         <v>426.12</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3521.81</v>
       </c>
     </row>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="E99"/>
       <c r="F99" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1521.81</v>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="E100"/>
       <c r="F100" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1021.81</v>
       </c>
     </row>
@@ -7052,7 +7052,7 @@
       <c r="C101"/>
       <c r="E101"/>
       <c r="F101" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1021.81</v>
       </c>
     </row>
@@ -7973,8 +7973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E39600F-B2D4-4468-8779-3FD909E46075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EAC786-EDBF-4E42-9BB9-2A4D49431D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="362">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -952,9 +952,6 @@
     <t>Nakit Ödeme</t>
   </si>
   <si>
-    <t>31-3-2022 Asgari ücret 4253 TL</t>
-  </si>
-  <si>
     <t>Hisse Oranı</t>
   </si>
   <si>
@@ -1157,6 +1154,24 @@
   </si>
   <si>
     <t>Ödeme Umuta bankadan</t>
+  </si>
+  <si>
+    <t>snyF-işbanktan</t>
+  </si>
+  <si>
+    <t>snyE- Nakit</t>
+  </si>
+  <si>
+    <t>snyE Nakit</t>
+  </si>
+  <si>
+    <t>snyE İADE</t>
+  </si>
+  <si>
+    <t>snyE- işbanktan</t>
+  </si>
+  <si>
+    <t>31-3-2022 Asgari ücret 4253 TL -  48000TL = 12 asgari ücret</t>
   </si>
 </sst>
 </file>
@@ -2097,8 +2112,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}" name="Tablo14" displayName="Tablo14" ref="A22:H37" totalsRowShown="0">
-  <autoFilter ref="A22:H37" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}" name="Tablo14" displayName="Tablo14" ref="A22:H38" totalsRowShown="0">
+  <autoFilter ref="A22:H38" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D3DD65DA-8808-4B04-9C86-0D85ADD82B5F}" name="Tarih"/>
     <tableColumn id="2" xr3:uid="{5717C5FB-B766-4D73-8672-0AAAD2937C24}" name="Açıklama"/>
@@ -2412,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2423,7 +2438,7 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2714,7 +2729,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C23" s="3">
         <v>170</v>
@@ -2734,7 +2749,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C24" s="3">
         <v>170</v>
@@ -2870,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
-  <dimension ref="A2:J50"/>
+  <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2891,18 +2906,18 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -2931,7 +2946,7 @@
       <c r="E5" s="116"/>
       <c r="F5" s="116"/>
       <c r="G5" s="137" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H5" s="138">
         <f>D5</f>
@@ -2941,18 +2956,18 @@
     <row r="6" spans="1:8" ht="14.25">
       <c r="D6" s="109"/>
       <c r="G6" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H6" s="139">
         <f>H23*-1</f>
-        <v>39984</v>
+        <v>102076.79999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="D7" s="109"/>
       <c r="H7" s="139">
         <f>H6+H5</f>
-        <v>161014.76</v>
+        <v>223107.56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2964,18 +2979,18 @@
       </c>
       <c r="D8" s="104">
         <f>H7-C8</f>
-        <v>151014.76</v>
+        <v>213107.56</v>
       </c>
       <c r="E8" s="141">
         <v>10000</v>
       </c>
       <c r="F8" s="142"/>
       <c r="G8" s="142" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H8" s="143">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
-        <v>151014.76</v>
+        <v>213107.56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2987,18 +3002,18 @@
       </c>
       <c r="D9" s="104">
         <f t="shared" ref="D9:D19" si="1">D8-C9</f>
-        <v>141014.76</v>
+        <v>203107.56</v>
       </c>
       <c r="E9" s="141">
         <v>10000</v>
       </c>
       <c r="F9" s="142"/>
       <c r="G9" s="142" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H9" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>203107.56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3010,11 +3025,18 @@
       </c>
       <c r="D10" s="104">
         <f t="shared" si="1"/>
-        <v>131014.76000000001</v>
+        <v>193107.56</v>
+      </c>
+      <c r="E10" s="141">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142" t="s">
+        <v>343</v>
       </c>
       <c r="H10" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>193107.56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3026,11 +3048,18 @@
       </c>
       <c r="D11" s="104">
         <f t="shared" si="1"/>
-        <v>121014.76000000001</v>
+        <v>183107.56</v>
+      </c>
+      <c r="E11" s="141">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142" t="s">
+        <v>343</v>
       </c>
       <c r="H11" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>183107.56</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3042,11 +3071,11 @@
       </c>
       <c r="D12" s="104">
         <f t="shared" si="1"/>
-        <v>111014.76000000001</v>
+        <v>173107.56</v>
       </c>
       <c r="H12" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>183107.56</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3058,11 +3087,11 @@
       </c>
       <c r="D13" s="104">
         <f t="shared" si="1"/>
-        <v>101014.76000000001</v>
+        <v>163107.56</v>
       </c>
       <c r="H13" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>183107.56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3074,11 +3103,11 @@
       </c>
       <c r="D14" s="104">
         <f t="shared" si="1"/>
-        <v>91014.760000000009</v>
+        <v>153107.56</v>
       </c>
       <c r="H14" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>183107.56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3090,11 +3119,11 @@
       </c>
       <c r="D15" s="104">
         <f t="shared" si="1"/>
-        <v>81014.760000000009</v>
+        <v>143107.56</v>
       </c>
       <c r="H15" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>183107.56</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3106,11 +3135,11 @@
       </c>
       <c r="D16" s="104">
         <f t="shared" si="1"/>
-        <v>71014.760000000009</v>
+        <v>133107.56</v>
       </c>
       <c r="H16" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>183107.56</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3122,11 +3151,11 @@
       </c>
       <c r="D17" s="104">
         <f t="shared" si="1"/>
-        <v>61014.760000000009</v>
+        <v>123107.56</v>
       </c>
       <c r="H17" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>183107.56</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3138,11 +3167,11 @@
       </c>
       <c r="D18" s="104">
         <f t="shared" si="1"/>
-        <v>51014.760000000009</v>
+        <v>113107.56</v>
       </c>
       <c r="H18" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>183107.56</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3154,11 +3183,11 @@
       </c>
       <c r="D19" s="104">
         <f t="shared" si="1"/>
-        <v>39984.000000000007</v>
+        <v>102076.8</v>
       </c>
       <c r="H19" s="104">
         <f t="shared" si="0"/>
-        <v>141014.76</v>
+        <v>183107.56</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3169,7 +3198,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="B21" s="110" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D21" s="144">
         <v>0.76480000000000004</v>
@@ -3188,19 +3217,19 @@
         <v>24</v>
       </c>
       <c r="C22" s="145" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" s="146" t="s">
         <v>290</v>
       </c>
-      <c r="D22" s="146" t="s">
+      <c r="E22" s="145" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="145" t="s">
+      <c r="F22" s="147" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="147" t="s">
+      <c r="G22" s="145" t="s">
         <v>293</v>
-      </c>
-      <c r="G22" s="145" t="s">
-        <v>294</v>
       </c>
       <c r="H22" s="148" t="s">
         <v>248</v>
@@ -3209,28 +3238,28 @@
     <row r="23" spans="1:10">
       <c r="A23" s="133"/>
       <c r="B23" s="134" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C23" s="135">
-        <f>SUBTOTAL(109,C24:C37)</f>
-        <v>347000</v>
+        <f>SUBTOTAL(109,C24:C38)</f>
+        <v>611000</v>
       </c>
       <c r="D23" s="135">
-        <f>SUBTOTAL(109,$E$24:$E$37)</f>
-        <v>-41630.399999999994</v>
+        <f>SUBTOTAL(109,D24:D38)</f>
+        <v>434000</v>
       </c>
       <c r="E23" s="135">
-        <f>SUM(E24:E37)</f>
+        <f>SUM(E24:E38)</f>
         <v>-41630.399999999994</v>
       </c>
       <c r="F23" s="134"/>
       <c r="G23" s="135">
-        <f>SUBTOTAL(109,$H$24:$H$37)</f>
-        <v>-502387.20000000001</v>
+        <f>SUBTOTAL(109,$G$24:$G$38)</f>
+        <v>-102076.79999999999</v>
       </c>
       <c r="H23" s="135">
         <f>H24</f>
-        <v>-39984</v>
+        <v>-102076.79999999999</v>
       </c>
       <c r="J23" s="112"/>
     </row>
@@ -3239,26 +3268,26 @@
         <v>45656</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" s="114">
-        <f t="shared" ref="D24:D37" si="2">IF(F24=1,$D24,0)</f>
+        <f>IF(F24=1,$C24,0)</f>
         <v>0</v>
       </c>
       <c r="E24" s="115">
-        <f t="shared" ref="E24:E37" si="3">IF(F24=0,C24*$E$21*-1,0)</f>
+        <f t="shared" ref="E24:E38" si="2">IF(F24=0,C24*$E$21*-1,0)</f>
         <v>0</v>
       </c>
       <c r="F24" s="111">
         <v>0</v>
       </c>
       <c r="G24" s="114">
-        <f t="shared" ref="G24:G37" si="4">IF(F24=1,C24*$E$21*-1,0)</f>
+        <f t="shared" ref="G24:G38" si="3">IF(F24=1,C24*$E$21*-1,0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="109">
-        <f t="shared" ref="H24:H36" si="5">H25+G24</f>
-        <v>-39984</v>
+        <f t="shared" ref="H24:H37" si="4">H25+G24</f>
+        <v>-102076.79999999999</v>
       </c>
       <c r="J24" s="112"/>
     </row>
@@ -3267,23 +3296,23 @@
       <c r="B25" s="150"/>
       <c r="C25" s="151"/>
       <c r="D25" s="114">
+        <f>IF(F25=1,$C25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E25" s="115">
+      <c r="F25" s="111">
+        <v>0</v>
+      </c>
+      <c r="G25" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F25" s="111">
-        <v>0</v>
-      </c>
-      <c r="G25" s="114">
+      <c r="H25" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="109">
-        <f t="shared" si="5"/>
-        <v>-39984</v>
+        <v>-102076.79999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3291,23 +3320,23 @@
       <c r="B26" s="153"/>
       <c r="C26" s="154"/>
       <c r="D26" s="114">
+        <f>IF(F26=1,$C26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E26" s="115">
+      <c r="F26" s="111">
+        <v>0</v>
+      </c>
+      <c r="G26" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F26" s="111">
-        <v>0</v>
-      </c>
-      <c r="G26" s="114">
+      <c r="H26" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="109">
-        <f t="shared" si="5"/>
-        <v>-39984</v>
+        <v>-102076.79999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3315,23 +3344,23 @@
       <c r="B27" s="153"/>
       <c r="C27" s="154"/>
       <c r="D27" s="114">
+        <f>IF(F27=1,$C27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E27" s="115">
+      <c r="F27" s="111">
+        <v>0</v>
+      </c>
+      <c r="G27" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F27" s="111">
-        <v>0</v>
-      </c>
-      <c r="G27" s="114">
+      <c r="H27" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="109">
-        <f t="shared" si="5"/>
-        <v>-39984</v>
+        <v>-102076.79999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3339,419 +3368,473 @@
       <c r="B28" s="150"/>
       <c r="C28" s="151"/>
       <c r="D28" s="114">
+        <f>IF(F28=1,$C28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E28" s="115">
+      <c r="F28" s="111">
+        <v>0</v>
+      </c>
+      <c r="G28" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F28" s="111">
-        <v>0</v>
-      </c>
-      <c r="G28" s="114">
+      <c r="H28" s="109">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="109">
-        <f t="shared" si="5"/>
+        <v>-102076.79999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="149">
+        <v>45405</v>
+      </c>
+      <c r="B29" s="150" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="151">
+        <v>33000</v>
+      </c>
+      <c r="D29" s="114">
+        <f>IF(F29=1,$C29,0)</f>
+        <v>33000</v>
+      </c>
+      <c r="E29" s="115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="111">
+        <v>1</v>
+      </c>
+      <c r="G29" s="114">
+        <f t="shared" si="3"/>
+        <v>-7761.5999999999985</v>
+      </c>
+      <c r="H29" s="109">
+        <f t="shared" si="4"/>
+        <v>-102076.79999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="149">
+        <v>45405</v>
+      </c>
+      <c r="B30" s="150" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="151">
+        <v>170000</v>
+      </c>
+      <c r="D30" s="114">
+        <f>IF(F30=1,$C30,0)</f>
+        <v>170000</v>
+      </c>
+      <c r="E30" s="115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="111">
+        <v>1</v>
+      </c>
+      <c r="G30" s="114">
+        <f t="shared" si="3"/>
+        <v>-39983.999999999993</v>
+      </c>
+      <c r="H30" s="109">
+        <f t="shared" si="4"/>
+        <v>-94315.199999999983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="149">
+        <v>45405</v>
+      </c>
+      <c r="B31" s="150" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="151">
+        <v>-25000</v>
+      </c>
+      <c r="D31" s="114">
+        <f>IF(F31=1,$C31,0)</f>
+        <v>-25000</v>
+      </c>
+      <c r="E31" s="115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="111">
+        <v>1</v>
+      </c>
+      <c r="G31" s="114">
+        <f t="shared" si="3"/>
+        <v>5879.9999999999991</v>
+      </c>
+      <c r="H31" s="109">
+        <f t="shared" si="4"/>
+        <v>-54331.199999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="149">
+        <v>45397</v>
+      </c>
+      <c r="B32" s="150" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="151">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="114">
+        <f>IF(F32=1,$C32,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="E32" s="115">
+        <f t="shared" ref="E32" si="5">IF(F32=0,C32*$E$21*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="111">
+        <v>1</v>
+      </c>
+      <c r="G32" s="114">
+        <f t="shared" ref="G32" si="6">IF(F32=1,C32*$E$21*-1,0)</f>
+        <v>-235.19999999999996</v>
+      </c>
+      <c r="H32" s="109">
+        <f t="shared" si="4"/>
+        <v>-60211.199999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="152">
+        <v>45397</v>
+      </c>
+      <c r="B33" s="153" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="154">
+        <v>85000</v>
+      </c>
+      <c r="D33" s="114">
+        <f>IF(F33=1,$C33,0)</f>
+        <v>85000</v>
+      </c>
+      <c r="E33" s="115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="111">
+        <v>1</v>
+      </c>
+      <c r="G33" s="114">
+        <f t="shared" si="3"/>
+        <v>-19991.999999999996</v>
+      </c>
+      <c r="H33" s="109">
+        <f t="shared" si="4"/>
+        <v>-59976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="113">
+        <v>45321</v>
+      </c>
+      <c r="B34" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="119">
+        <v>7000</v>
+      </c>
+      <c r="D34" s="114">
+        <f>IF(F34=1,$C34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="115">
+        <f t="shared" si="2"/>
+        <v>-1646.3999999999999</v>
+      </c>
+      <c r="F34" s="111">
+        <v>0</v>
+      </c>
+      <c r="G34" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="109">
+        <f t="shared" si="4"/>
         <v>-39984</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="149"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="114">
+    <row r="35" spans="1:10">
+      <c r="A35" s="152"/>
+      <c r="B35" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" s="154">
+        <v>24000</v>
+      </c>
+      <c r="D35" s="114">
+        <f>IF(F35=1,$C35,0)</f>
+        <v>24000</v>
+      </c>
+      <c r="E35" s="115">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="111">
-        <v>0</v>
-      </c>
-      <c r="G29" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="109">
-        <f t="shared" si="5"/>
-        <v>-39984</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="149"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="111">
-        <v>0</v>
-      </c>
-      <c r="G30" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="109">
-        <f t="shared" si="5"/>
-        <v>-39984</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="149"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="111">
-        <v>0</v>
-      </c>
-      <c r="G31" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="109">
-        <f t="shared" si="5"/>
-        <v>-39984</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="152"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="111">
-        <v>0</v>
-      </c>
-      <c r="G32" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="109">
-        <f t="shared" si="5"/>
-        <v>-39984</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="113">
-        <v>45321</v>
-      </c>
-      <c r="B33" s="118" t="s">
-        <v>296</v>
-      </c>
-      <c r="C33" s="119">
-        <v>7000</v>
-      </c>
-      <c r="D33" s="114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="115">
-        <f t="shared" si="3"/>
-        <v>-1646.3999999999999</v>
-      </c>
-      <c r="F33" s="111">
-        <v>0</v>
-      </c>
-      <c r="G33" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="109">
-        <f t="shared" si="5"/>
-        <v>-39984</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="152"/>
-      <c r="B34" s="153" t="s">
-        <v>345</v>
-      </c>
-      <c r="C34" s="154">
-        <v>24000</v>
-      </c>
-      <c r="D34" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>24000</v>
-      </c>
-      <c r="E34" s="115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="111">
-        <v>1</v>
-      </c>
-      <c r="G34" s="114">
-        <f t="shared" si="4"/>
-        <v>-5644.7999999999993</v>
-      </c>
-      <c r="H34" s="109">
-        <f t="shared" si="5"/>
-        <v>-39984</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="152">
-        <v>45296</v>
-      </c>
-      <c r="B35" s="153" t="s">
-        <v>346</v>
-      </c>
-      <c r="C35" s="154">
-        <v>26000</v>
-      </c>
-      <c r="D35" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>26000</v>
-      </c>
-      <c r="E35" s="115">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" s="111">
         <v>1</v>
       </c>
       <c r="G35" s="114">
+        <f t="shared" si="3"/>
+        <v>-5644.7999999999993</v>
+      </c>
+      <c r="H35" s="109">
         <f t="shared" si="4"/>
-        <v>-6115.1999999999989</v>
-      </c>
-      <c r="H35" s="109">
-        <f t="shared" si="5"/>
-        <v>-34339.199999999997</v>
+        <v>-39984</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="149">
-        <v>45295</v>
+      <c r="A36" s="152">
+        <v>45296</v>
       </c>
       <c r="B36" s="153" t="s">
-        <v>346</v>
-      </c>
-      <c r="C36" s="151">
-        <v>120000</v>
+        <v>345</v>
+      </c>
+      <c r="C36" s="154">
+        <v>26000</v>
       </c>
       <c r="D36" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>120000</v>
+        <f>IF(F36=1,$C36,0)</f>
+        <v>26000</v>
       </c>
       <c r="E36" s="115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F36" s="111">
         <v>1</v>
       </c>
       <c r="G36" s="114">
+        <f t="shared" si="3"/>
+        <v>-6115.1999999999989</v>
+      </c>
+      <c r="H36" s="109">
+        <f t="shared" si="4"/>
+        <v>-34339.199999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="149">
+        <v>45295</v>
+      </c>
+      <c r="B37" s="153" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" s="151">
+        <v>120000</v>
+      </c>
+      <c r="D37" s="114">
+        <f>IF(F37=1,$C37,0)</f>
+        <v>120000</v>
+      </c>
+      <c r="E37" s="115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="111">
+        <v>1</v>
+      </c>
+      <c r="G37" s="114">
+        <f t="shared" si="3"/>
+        <v>-28223.999999999996</v>
+      </c>
+      <c r="H37" s="109">
         <f t="shared" si="4"/>
         <v>-28223.999999999996</v>
       </c>
-      <c r="H36" s="109">
-        <f t="shared" si="5"/>
-        <v>-28223.999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="152">
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="152">
         <v>45292</v>
       </c>
-      <c r="B37" s="153" t="s">
+      <c r="B38" s="153" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="155">
+      <c r="C38" s="155">
         <v>170000</v>
       </c>
-      <c r="D37" s="114">
+      <c r="D38" s="114">
+        <f>IF(F38=1,$C38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="115">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="115">
+        <v>-39983.999999999993</v>
+      </c>
+      <c r="F38" s="120">
+        <v>0</v>
+      </c>
+      <c r="G38" s="114">
         <f t="shared" si="3"/>
-        <v>-39983.999999999993</v>
-      </c>
-      <c r="F37" s="120">
-        <v>0</v>
-      </c>
-      <c r="G37" s="114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="109">
-        <f>G37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="109">
+        <f>G38</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="C41" s="114" t="s">
         <v>252</v>
       </c>
-      <c r="D40" s="109" t="s">
+      <c r="D41" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="109" t="s">
         <v>298</v>
       </c>
-      <c r="E40" s="109" t="s">
-        <v>299</v>
-      </c>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="122"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75">
-      <c r="B41" t="s">
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="122"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75">
+      <c r="B42" t="s">
         <v>250</v>
       </c>
-      <c r="C41" s="123">
+      <c r="C42" s="123">
         <v>1</v>
       </c>
-      <c r="D41" s="156">
+      <c r="D42" s="156">
         <f>D21</f>
         <v>0.76480000000000004</v>
       </c>
-      <c r="E41" s="156">
-        <f>1-D41</f>
+      <c r="E42" s="156">
+        <f>1-D42</f>
         <v>0.23519999999999996</v>
-      </c>
-      <c r="H41" s="109"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="B42" t="s">
-        <v>300</v>
-      </c>
-      <c r="C42" s="124">
-        <f>$D$23*C41</f>
-        <v>-41630.399999999994</v>
-      </c>
-      <c r="D42" s="125">
-        <f>$D$23*D41</f>
-        <v>-31838.929919999999</v>
-      </c>
-      <c r="E42" s="125">
-        <f>$D$23*E41</f>
-        <v>-9791.4700799999973</v>
       </c>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" t="s">
-        <v>251</v>
-      </c>
-      <c r="C43" s="114">
-        <f>D43+E43</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="109">
-        <f>E43/D41*E41</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="109">
-        <f>$I$23*-1</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="126"/>
+        <v>299</v>
+      </c>
+      <c r="C43" s="124">
+        <f>$D$23*C42</f>
+        <v>434000</v>
+      </c>
+      <c r="D43" s="125">
+        <f>$D$23*D42</f>
+        <v>331923.20000000001</v>
+      </c>
+      <c r="E43" s="125">
+        <f>$D$23*E42</f>
+        <v>102076.79999999999</v>
+      </c>
       <c r="H43" s="109"/>
-      <c r="J43" s="109"/>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="C44" s="114">
-        <f>C42-C43</f>
-        <v>-41630.399999999994</v>
+        <f>D44+E44</f>
+        <v>0</v>
       </c>
       <c r="D44" s="109">
-        <f>D42-D43</f>
-        <v>-31838.929919999999</v>
+        <f>E44/D42*E42</f>
+        <v>0</v>
       </c>
       <c r="E44" s="109">
-        <f>E42-E43</f>
-        <v>-9791.4700799999973</v>
-      </c>
-      <c r="G44" s="109"/>
+        <f>$I$23*-1</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="126"/>
       <c r="H44" s="109"/>
       <c r="J44" s="109"/>
     </row>
-    <row r="45" spans="1:10" ht="13.5" thickBot="1">
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
+    <row r="45" spans="1:10">
+      <c r="B45" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" s="114">
+        <f>C43-C44</f>
+        <v>434000</v>
+      </c>
+      <c r="D45" s="109">
+        <f>D43-D44</f>
+        <v>331923.20000000001</v>
+      </c>
+      <c r="E45" s="109">
+        <f>E43-E44</f>
+        <v>102076.79999999999</v>
+      </c>
       <c r="G45" s="109"/>
       <c r="H45" s="109"/>
       <c r="J45" s="109"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" ht="13.5" thickBot="1">
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="G46" s="109"/>
       <c r="H46" s="109"/>
       <c r="J46" s="109"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="C47" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G47" s="109"/>
       <c r="H47" s="109"/>
       <c r="J47" s="109"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="C48" s="109"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="109"/>
+      <c r="C48" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" s="109"/>
       <c r="H48" s="109"/>
       <c r="J48" s="109"/>
     </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="109" t="s">
+    <row r="49" spans="2:10">
+      <c r="C49" s="109"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="J49" s="109"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="109">
-        <f>D43</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="52">
+      <c r="C50" s="109">
+        <f>D44</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E49" s="109">
-        <f>C49*D49</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="109"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="E50" s="109"/>
-      <c r="G50" s="109"/>
+      <c r="E50" s="109">
+        <f>C50*D50</f>
+        <v>0</v>
+      </c>
       <c r="H50" s="109"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="E51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3888,7 +3971,7 @@
         <v>45197</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E9" s="28">
         <v>45000</v>
@@ -3901,7 +3984,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
@@ -4049,7 +4132,7 @@
         <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C25">
         <v>24.8</v>
@@ -4070,7 +4153,7 @@
         <v>275</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26">
         <v>-21.12</v>
@@ -4091,7 +4174,7 @@
         <v>276</v>
       </c>
       <c r="B27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C27">
         <v>-52.17</v>
@@ -4108,7 +4191,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -4119,7 +4202,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -4887,7 +4970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -5017,7 +5100,7 @@
         <v>45291</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5029,7 +5112,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -5041,7 +5124,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
@@ -5056,7 +5139,7 @@
         <v>45295</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
@@ -5091,7 +5174,7 @@
         <v>45295</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D14" s="31">
         <v>-12432</v>
@@ -5107,7 +5190,7 @@
         <v>45295</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32">
@@ -5123,7 +5206,7 @@
         <v>45296</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32">
@@ -5139,7 +5222,7 @@
         <v>45299</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32">
@@ -5456,7 +5539,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8"/>
@@ -5464,7 +5547,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -5474,7 +5557,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="B48" s="130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C48" s="130"/>
       <c r="D48" s="130">
@@ -5776,7 +5859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -5819,7 +5902,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
@@ -5896,7 +5979,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8"/>
@@ -5954,7 +6037,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -6030,7 +6113,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="30"/>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="3">
@@ -6050,7 +6133,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="30"/>
       <c r="B17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="3">
@@ -6447,7 +6530,7 @@
     <row r="46" spans="1:7">
       <c r="A46" s="7"/>
       <c r="B46" s="132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="132"/>
       <c r="D46" s="131">
@@ -7067,8 +7150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7184,7 +7267,7 @@
         <v>45167</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="28">
@@ -7198,7 +7281,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="28"/>
@@ -7353,7 +7436,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7973,8 +8056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8020,7 +8103,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -8167,7 +8250,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -8184,7 +8267,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -8320,7 +8403,7 @@
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -8635,7 +8718,7 @@
         <v>45315</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -9439,10 +9522,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
-  <dimension ref="B4:I24"/>
+  <dimension ref="B4:I25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H27"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9457,60 +9540,44 @@
   <sheetData>
     <row r="4" spans="2:9">
       <c r="C4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="C5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6" t="s">
         <v>286</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>36000</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <f>H4+E5-F5</f>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <f>H4+E6-F6</f>
         <v>36000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="60">
-        <v>44651</v>
-      </c>
-      <c r="C6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6">
-        <v>28000</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" ref="G6:G11" si="0">G5+E6-F6</f>
-        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="60">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7">
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <f t="shared" ref="G7:G12" si="0">G6+E7-F7</f>
+        <v>8000</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="60">
-        <v>44711</v>
+        <v>44681</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8">
@@ -9518,17 +9585,20 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="60">
-        <v>44742</v>
+        <v>44711</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="3"/>
+      <c r="F9">
+        <v>4000</v>
+      </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9536,7 +9606,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="60">
-        <v>44772</v>
+        <v>44742</v>
       </c>
       <c r="C10" t="s">
         <v>285</v>
@@ -9549,7 +9619,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="60">
-        <v>44803</v>
+        <v>44772</v>
       </c>
       <c r="C11" t="s">
         <v>285</v>
@@ -9561,220 +9631,233 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="I12" s="3"/>
+      <c r="B12" s="60">
+        <v>44803</v>
+      </c>
+      <c r="C12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="60">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="60">
         <v>44957</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>274</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>6.65</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E14" s="66">
         <v>6920</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F14" s="29">
         <v>6920</v>
       </c>
-      <c r="G13" s="27">
-        <f>E13-F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="C14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14">
-        <v>3.15</v>
-      </c>
-      <c r="E14" s="66">
-        <f t="shared" ref="E14:E24" si="1">E13+(E13*D13/100)</f>
-        <v>7380.18</v>
-      </c>
-      <c r="F14" s="29"/>
       <c r="G14" s="27">
-        <f t="shared" ref="G14:G24" si="2">E14-F14+G13</f>
-        <v>7380.18</v>
+        <f>E14-F14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="C15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15">
+        <v>3.15</v>
+      </c>
+      <c r="E15" s="66">
+        <f t="shared" ref="E15:E25" si="1">E14+(E14*D14/100)</f>
+        <v>7380.18</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="27">
+        <f t="shared" ref="G15:G25" si="2">E15-F15+G14</f>
+        <v>7380.18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" t="s">
         <v>276</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>2.29</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E16" s="66">
         <f t="shared" si="1"/>
         <v>7612.6556700000001</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27">
+      <c r="F16" s="29"/>
+      <c r="G16" s="27">
         <f t="shared" si="2"/>
         <v>14992.83567</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="C16" t="s">
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
         <v>278</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>2.39</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E17" s="66">
         <f t="shared" si="1"/>
         <v>7786.9854848430004</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F17" s="29">
         <v>8425.4599999999991</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G17" s="27">
         <f t="shared" si="2"/>
         <v>14354.361154843002</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
-      <c r="C17" t="s">
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
         <v>277</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>5.32</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E18" s="66">
         <f t="shared" si="1"/>
         <v>7973.0944379307484</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F18" s="29">
         <v>28080</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G18" s="27">
         <f t="shared" si="2"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
-      <c r="C18" t="s">
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
         <v>279</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>3.92</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E19" s="66">
         <f t="shared" si="1"/>
         <v>8397.2630620286636</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="27">
+      <c r="F19" s="32"/>
+      <c r="G19" s="27">
         <f t="shared" si="2"/>
         <v>2644.7186548024129</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
-      <c r="C19" t="s">
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
         <v>280</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>9.49</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E20" s="66">
         <f t="shared" si="1"/>
         <v>8726.4357740601881</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F20" s="32">
         <v>50000</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G20" s="27">
         <f t="shared" si="2"/>
         <v>-38628.845571137404</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
-      <c r="C20" t="s">
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
         <v>281</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>9.09</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E21" s="66">
         <f t="shared" si="1"/>
         <v>9554.5745290185005</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="27">
-        <f t="shared" si="2"/>
-        <v>-29074.271042118904</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" t="s">
-        <v>282</v>
-      </c>
-      <c r="D21">
-        <v>5.37</v>
-      </c>
-      <c r="E21" s="66">
-        <f t="shared" si="1"/>
-        <v>10423.085353706283</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="27">
         <f t="shared" si="2"/>
-        <v>-18651.185688412621</v>
+        <v>-29074.271042118904</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D22">
-        <v>4.75</v>
+        <v>5.37</v>
       </c>
       <c r="E22" s="66">
         <f t="shared" si="1"/>
-        <v>10982.805037200311</v>
+        <v>10423.085353706283</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="27">
         <f t="shared" si="2"/>
-        <v>-7668.3806512123101</v>
+        <v>-18651.185688412621</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23">
         <v>4.75</v>
       </c>
       <c r="E23" s="66">
         <f t="shared" si="1"/>
-        <v>11504.488276467326</v>
-      </c>
-      <c r="F23" s="32">
-        <v>15887.06</v>
-      </c>
+        <v>10982.805037200311</v>
+      </c>
+      <c r="F23" s="32"/>
       <c r="G23" s="27">
         <f t="shared" si="2"/>
-        <v>-12050.952374744984</v>
+        <v>-7668.3806512123101</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D24">
         <v>4.75</v>
       </c>
       <c r="E24" s="66">
         <f t="shared" si="1"/>
+        <v>11504.488276467326</v>
+      </c>
+      <c r="F24" s="32">
+        <v>15887.06</v>
+      </c>
+      <c r="G24" s="27">
+        <f t="shared" si="2"/>
+        <v>-12050.952374744984</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25">
+        <v>4.75</v>
+      </c>
+      <c r="E25" s="66">
+        <f t="shared" si="1"/>
         <v>12050.951469599524</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33">
+      <c r="F25" s="32"/>
+      <c r="G25" s="33">
         <f t="shared" si="2"/>
         <v>-9.0514545991027262E-4</v>
       </c>
@@ -9925,7 +10008,7 @@
         <v>45194</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -10658,7 +10741,7 @@
         <v>44956</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -10675,7 +10758,7 @@
         <v>44985</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -10689,7 +10772,7 @@
         <v>45015</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -10703,7 +10786,7 @@
         <v>45046</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -10717,7 +10800,7 @@
         <v>45076</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -10759,7 +10842,7 @@
         <v>45107</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -10773,7 +10856,7 @@
         <v>45137</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -10787,7 +10870,7 @@
         <v>45168</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -10801,7 +10884,7 @@
         <v>45199</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -10815,7 +10898,7 @@
         <v>45229</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -10857,7 +10940,7 @@
         <v>45260</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -10871,7 +10954,7 @@
         <v>45290</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C21"/>
       <c r="G21" s="3">

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EAC786-EDBF-4E42-9BB9-2A4D49431D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52C9FF3-A711-4F1E-8BD1-A3EDE7A50315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
     <sheet name="SnyA105-22" sheetId="2" r:id="rId2"/>
     <sheet name="SnyB202-22" sheetId="3" r:id="rId3"/>
     <sheet name="SnyC301-22" sheetId="4" r:id="rId4"/>
-    <sheet name="SnyE502-22" sheetId="5" r:id="rId5"/>
-    <sheet name="SnyF601-22" sheetId="6" r:id="rId6"/>
-    <sheet name="Sayfa1" sheetId="15" r:id="rId7"/>
-    <sheet name="SnyG702-22" sheetId="7" r:id="rId8"/>
-    <sheet name="SnH_yazıhane" sheetId="8" r:id="rId9"/>
-    <sheet name="NAZAN" sheetId="16" r:id="rId10"/>
+    <sheet name="SnyE503-24" sheetId="17" r:id="rId5"/>
+    <sheet name="SnyE502-22" sheetId="5" r:id="rId6"/>
+    <sheet name="SnyF601-22" sheetId="6" r:id="rId7"/>
+    <sheet name="Sayfa1" sheetId="15" r:id="rId8"/>
+    <sheet name="SnyG702-22" sheetId="7" r:id="rId9"/>
+    <sheet name="SnH_yazıhane" sheetId="8" r:id="rId10"/>
+    <sheet name="NAZAN" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="404">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -943,9 +944,6 @@
     <t>20-06-2022   - 4000 nakit ödeme</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ödeme yapılmadı 4000</t>
-  </si>
-  <si>
     <t>31-3-2022 - 31-12-2022 9 aylık tutar</t>
   </si>
   <si>
@@ -1093,9 +1091,6 @@
     <t>23-24 bedel 135000</t>
   </si>
   <si>
-    <t>4 aylık * 17</t>
-  </si>
-  <si>
     <t>Gelen giden yok</t>
   </si>
   <si>
@@ -1172,13 +1167,145 @@
   </si>
   <si>
     <t>31-3-2022 Asgari ücret 4253 TL -  48000TL = 12 asgari ücret</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ödeme yapılmadı 4000   Ocak 2023 ödenmedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ödeme yapılmadı 4000   Şubat 2023 ödenmedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ödeme yapılmadı 4000   Mart 2023 ödenmedi</t>
+  </si>
+  <si>
+    <t>Ocak 2023 ile yeni fiyat (6920) ve yeni dönem uygulandı</t>
+  </si>
+  <si>
+    <t>Son 3 ayın ödemesi yapılmadığı için (3x4000) ilk kira dönemi Nisan Aralık olarak kapatıldı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayıs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eylül </t>
+  </si>
+  <si>
+    <t>30-04-2024 tarihinde hesap yapıldı</t>
+  </si>
+  <si>
+    <t>BAKİYE</t>
+  </si>
+  <si>
+    <t>Başlangıç Tarihi</t>
+  </si>
+  <si>
+    <t>Bitiş Tarihi</t>
+  </si>
+  <si>
+    <t>Nakit Ödeme  65000</t>
+  </si>
+  <si>
+    <t>Taksit 1 6000</t>
+  </si>
+  <si>
+    <t>Taksit 2 6000</t>
+  </si>
+  <si>
+    <t>Taksit 3 6000</t>
+  </si>
+  <si>
+    <t>Taksit 4 6000</t>
+  </si>
+  <si>
+    <t>Taksit 5 7000</t>
+  </si>
+  <si>
+    <t>ÖDENMEDİ</t>
+  </si>
+  <si>
+    <t>Gün sayısı</t>
+  </si>
+  <si>
+    <t>2023-24 günlük TL</t>
+  </si>
+  <si>
+    <t>HESAPLAMA tarihi</t>
+  </si>
+  <si>
+    <t>Hesap gün sayısı</t>
+  </si>
+  <si>
+    <t>Hesaplanan bedel</t>
+  </si>
+  <si>
+    <t>İADE bedeli</t>
+  </si>
+  <si>
+    <t>İADE edilecek HESAP toplam</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>İADE Elektrik Teminat Bedeli</t>
+  </si>
+  <si>
+    <t>Nisan 2024 fatura</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>İADE su bedeli</t>
+  </si>
+  <si>
+    <t>ÖDENMEYEN Taksit 5</t>
+  </si>
+  <si>
+    <t>İADE edilecek GENEL TOPLAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 2024 -</t>
+  </si>
+  <si>
+    <t>Kasım - Aralık dahil hesap sıfırlandı</t>
+  </si>
+  <si>
+    <t>06-06-2024-05-06-2025 Bedeli</t>
+  </si>
+  <si>
+    <t>işbank umut ortak hesap</t>
+  </si>
+  <si>
+    <t>nakit</t>
+  </si>
+  <si>
+    <t>indirim</t>
+  </si>
+  <si>
+    <t>Süleyman AKAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-25 kira bedeli </t>
+  </si>
+  <si>
+    <t>Kira gün sayısı (1,5 ay ek süre verildi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakit Ödeme  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 asgari ücret 17002*12 = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy;@"/>
     <numFmt numFmtId="165" formatCode="[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
@@ -1193,8 +1320,9 @@
     <numFmt numFmtId="175" formatCode="d\.mm\.yyyy"/>
     <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="177" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="45">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1449,8 +1577,75 @@
       <name val="Liberation Sans1"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1595,8 +1790,32 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1781,6 +2000,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1804,7 +2032,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1934,16 +2162,7 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1951,11 +2170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2075,6 +2289,63 @@
     </xf>
     <xf numFmtId="4" fontId="18" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="40" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="42" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2443,7 +2714,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="157">
+      <c r="A6" s="151">
         <v>2024</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2572,15 +2843,15 @@
       </c>
       <c r="C12" s="3">
         <f>'SnyF601-22'!E4</f>
-        <v>17333.018250000001</v>
+        <v>374001.70146702649</v>
       </c>
       <c r="D12" s="3">
         <f>'SnyF601-22'!F4</f>
-        <v>0</v>
+        <v>184917.52</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>17333.018250000001</v>
+        <v>189084.1814670265</v>
       </c>
       <c r="F12" s="4">
         <f>'SnyF601-22'!E6</f>
@@ -2640,15 +2911,15 @@
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
-        <v>518255.92825</v>
+        <v>874924.61146702652</v>
       </c>
       <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
-        <v>304922.90999999997</v>
+        <v>489840.43</v>
       </c>
       <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
-        <v>213333.01824999999</v>
+        <v>385084.18146702647</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
@@ -2656,10 +2927,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="D18" s="104"/>
+      <c r="D18" s="98"/>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="157">
+      <c r="A19" s="151">
         <v>2025</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2729,7 +3000,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C23" s="3">
         <v>170</v>
@@ -2749,7 +3020,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C24" s="3">
         <v>170</v>
@@ -2804,9 +3075,9 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="F26" s="4">
-        <f>'SnyF601-22'!E19</f>
-        <v>0</v>
+      <c r="F26" s="4" t="e">
+        <f>'SnyF601-22'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2871,9 +3142,9 @@
         <f>SUM(E21:E28)</f>
         <v>1250</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="6" t="e">
         <f>SUM(F21:F28)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -2884,6 +3155,373 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
+    <col min="8" max="59" width="12.140625" customWidth="1"/>
+    <col min="60" max="60" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="123">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="57">
+        <f>SUM(F6:F55)</f>
+        <v>77.09</v>
+      </c>
+      <c r="G2" s="57">
+        <f>F2</f>
+        <v>77.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="F5" s="91"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="60">
+        <v>44956</v>
+      </c>
+      <c r="B6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="F6" s="3">
+        <v>77.09</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ref="G6:G22" si="0">G5+E6-F6</f>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="60">
+        <v>44985</v>
+      </c>
+      <c r="B7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="60">
+        <v>45015</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="60">
+        <v>45046</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="60">
+        <v>45076</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="95">
+        <v>45060</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="95">
+        <v>45060</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="60">
+        <v>45107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="60">
+        <v>45137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="60">
+        <v>45168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="60">
+        <v>45199</v>
+      </c>
+      <c r="B16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="60">
+        <v>45229</v>
+      </c>
+      <c r="B17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="95">
+        <v>45213</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="95">
+        <v>45213</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="60">
+        <v>45260</v>
+      </c>
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="60">
+        <v>45290</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21"/>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>-77.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="60"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="60"/>
+      <c r="B26" s="3"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="60"/>
+      <c r="B27" s="3"/>
+      <c r="D27"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="60"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="60"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="60"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="G47" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J51"/>
   <sheetViews>
@@ -2905,19 +3543,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="B2" s="107" t="s">
-        <v>346</v>
+      <c r="B2" s="101" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -2925,7 +3563,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="130" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2940,901 +3578,901 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
-      <c r="D5" s="117">
+      <c r="D5" s="111">
         <v>121030.76</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="137" t="s">
-        <v>341</v>
-      </c>
-      <c r="H5" s="138">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="131" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="132">
         <f>D5</f>
         <v>121030.76</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="D6" s="109"/>
+      <c r="D6" s="103"/>
       <c r="G6" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H6" s="139">
+        <v>340</v>
+      </c>
+      <c r="H6" s="133">
         <f>H23*-1</f>
         <v>102076.79999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="D7" s="109"/>
-      <c r="H7" s="139">
+      <c r="D7" s="103"/>
+      <c r="H7" s="133">
         <f>H6+H5</f>
         <v>223107.56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="140">
+      <c r="A8" s="134">
         <v>45295</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="102">
         <v>10000</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="98">
         <f>H7-C8</f>
         <v>213107.56</v>
       </c>
-      <c r="E8" s="141">
+      <c r="E8" s="135">
         <v>10000</v>
       </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142" t="s">
-        <v>343</v>
-      </c>
-      <c r="H8" s="143">
+      <c r="F8" s="136"/>
+      <c r="G8" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="H8" s="137">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
         <v>213107.56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="140">
+      <c r="A9" s="134">
         <v>45323</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="102">
         <v>10000</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="98">
         <f t="shared" ref="D9:D19" si="1">D8-C9</f>
         <v>203107.56</v>
       </c>
-      <c r="E9" s="141">
+      <c r="E9" s="135">
         <v>10000</v>
       </c>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142" t="s">
-        <v>343</v>
-      </c>
-      <c r="H9" s="104">
+      <c r="F9" s="136"/>
+      <c r="G9" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="98">
         <f t="shared" si="0"/>
         <v>203107.56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="140">
+      <c r="A10" s="134">
         <v>45352</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="102">
         <v>10000</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="98">
         <f t="shared" si="1"/>
         <v>193107.56</v>
       </c>
-      <c r="E10" s="141">
+      <c r="E10" s="135">
         <v>10000</v>
       </c>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142" t="s">
-        <v>343</v>
-      </c>
-      <c r="H10" s="104">
+      <c r="F10" s="136"/>
+      <c r="G10" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="H10" s="98">
         <f t="shared" si="0"/>
         <v>193107.56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="140">
+      <c r="A11" s="134">
         <v>45383</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="102">
         <v>10000</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="98">
         <f t="shared" si="1"/>
         <v>183107.56</v>
       </c>
-      <c r="E11" s="141">
+      <c r="E11" s="135">
         <v>10000</v>
       </c>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142" t="s">
-        <v>343</v>
-      </c>
-      <c r="H11" s="104">
+      <c r="F11" s="136"/>
+      <c r="G11" s="136" t="s">
+        <v>341</v>
+      </c>
+      <c r="H11" s="98">
         <f t="shared" si="0"/>
         <v>183107.56</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="140">
+      <c r="A12" s="134">
         <v>45413</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="102">
         <v>10000</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="98">
         <f t="shared" si="1"/>
         <v>173107.56</v>
       </c>
-      <c r="H12" s="104">
+      <c r="H12" s="98">
         <f t="shared" si="0"/>
         <v>183107.56</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="140">
+      <c r="A13" s="134">
         <v>45444</v>
       </c>
-      <c r="C13" s="108">
+      <c r="C13" s="102">
         <v>10000</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="98">
         <f t="shared" si="1"/>
         <v>163107.56</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="98">
         <f t="shared" si="0"/>
         <v>183107.56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="140">
+      <c r="A14" s="134">
         <v>45474</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="102">
         <v>10000</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="98">
         <f t="shared" si="1"/>
         <v>153107.56</v>
       </c>
-      <c r="H14" s="104">
+      <c r="H14" s="98">
         <f t="shared" si="0"/>
         <v>183107.56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="140">
+      <c r="A15" s="134">
         <v>45505</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="102">
         <v>10000</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="98">
         <f t="shared" si="1"/>
         <v>143107.56</v>
       </c>
-      <c r="H15" s="104">
+      <c r="H15" s="98">
         <f t="shared" si="0"/>
         <v>183107.56</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="140">
+      <c r="A16" s="134">
         <v>45536</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="102">
         <v>10000</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="98">
         <f t="shared" si="1"/>
         <v>133107.56</v>
       </c>
-      <c r="H16" s="104">
+      <c r="H16" s="98">
         <f t="shared" si="0"/>
         <v>183107.56</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="140">
+      <c r="A17" s="134">
         <v>45566</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="102">
         <v>10000</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="98">
         <f t="shared" si="1"/>
         <v>123107.56</v>
       </c>
-      <c r="H17" s="104">
+      <c r="H17" s="98">
         <f t="shared" si="0"/>
         <v>183107.56</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="140">
+      <c r="A18" s="134">
         <v>45597</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="102">
         <v>10000</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="98">
         <f t="shared" si="1"/>
         <v>113107.56</v>
       </c>
-      <c r="H18" s="104">
+      <c r="H18" s="98">
         <f t="shared" si="0"/>
         <v>183107.56</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="140">
+      <c r="A19" s="134">
         <v>45627</v>
       </c>
-      <c r="C19" s="108">
+      <c r="C19" s="102">
         <v>11030.76</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="98">
         <f t="shared" si="1"/>
         <v>102076.8</v>
       </c>
-      <c r="H19" s="104">
+      <c r="H19" s="98">
         <f t="shared" si="0"/>
         <v>183107.56</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="C20" s="108"/>
-      <c r="D20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="109"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="103"/>
     </row>
     <row r="21" spans="1:10" ht="15.75">
-      <c r="B21" s="110" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="144">
+      <c r="B21" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="138">
         <v>0.76480000000000004</v>
       </c>
-      <c r="E21" s="144">
+      <c r="E21" s="138">
         <f>1-D21</f>
         <v>0.23519999999999996</v>
       </c>
-      <c r="H21" s="109"/>
+      <c r="H21" s="103"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="145" t="s">
+      <c r="C22" s="139" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="140" t="s">
         <v>289</v>
       </c>
-      <c r="D22" s="146" t="s">
+      <c r="E22" s="139" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="145" t="s">
+      <c r="F22" s="141" t="s">
         <v>291</v>
       </c>
-      <c r="F22" s="147" t="s">
+      <c r="G22" s="139" t="s">
         <v>292</v>
       </c>
-      <c r="G22" s="145" t="s">
-        <v>293</v>
-      </c>
-      <c r="H22" s="148" t="s">
+      <c r="H22" s="142" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134" t="s">
-        <v>296</v>
-      </c>
-      <c r="C23" s="135">
+      <c r="A23" s="127"/>
+      <c r="B23" s="128" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="129">
         <f>SUBTOTAL(109,C24:C38)</f>
         <v>611000</v>
       </c>
-      <c r="D23" s="135">
+      <c r="D23" s="129">
         <f>SUBTOTAL(109,D24:D38)</f>
         <v>434000</v>
       </c>
-      <c r="E23" s="135">
+      <c r="E23" s="129">
         <f>SUM(E24:E38)</f>
         <v>-41630.399999999994</v>
       </c>
-      <c r="F23" s="134"/>
-      <c r="G23" s="135">
+      <c r="F23" s="128"/>
+      <c r="G23" s="129">
         <f>SUBTOTAL(109,$G$24:$G$38)</f>
         <v>-102076.79999999999</v>
       </c>
-      <c r="H23" s="135">
+      <c r="H23" s="129">
         <f>H24</f>
         <v>-102076.79999999999</v>
       </c>
-      <c r="J23" s="112"/>
+      <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="113">
+      <c r="A24" s="107">
         <v>45656</v>
       </c>
       <c r="B24" t="s">
+        <v>293</v>
+      </c>
+      <c r="D24" s="108">
+        <f t="shared" ref="D24:D38" si="2">IF(F24=1,$C24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="109">
+        <f t="shared" ref="E24:E38" si="3">IF(F24=0,C24*$E$21*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="105">
+        <v>0</v>
+      </c>
+      <c r="G24" s="108">
+        <f t="shared" ref="G24:G38" si="4">IF(F24=1,C24*$E$21*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="103">
+        <f t="shared" ref="H24:H37" si="5">H25+G24</f>
+        <v>-102076.79999999999</v>
+      </c>
+      <c r="J24" s="106"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="105">
+        <v>0</v>
+      </c>
+      <c r="G25" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="103">
+        <f t="shared" si="5"/>
+        <v>-102076.79999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="146"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="105">
+        <v>0</v>
+      </c>
+      <c r="G26" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="103">
+        <f t="shared" si="5"/>
+        <v>-102076.79999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="146"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="105">
+        <v>0</v>
+      </c>
+      <c r="G27" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="103">
+        <f t="shared" si="5"/>
+        <v>-102076.79999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="105">
+        <v>0</v>
+      </c>
+      <c r="G28" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="103">
+        <f t="shared" si="5"/>
+        <v>-102076.79999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="143">
+        <v>45405</v>
+      </c>
+      <c r="B29" s="144" t="s">
+        <v>358</v>
+      </c>
+      <c r="C29" s="145">
+        <v>33000</v>
+      </c>
+      <c r="D29" s="108">
+        <f t="shared" si="2"/>
+        <v>33000</v>
+      </c>
+      <c r="E29" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="105">
+        <v>1</v>
+      </c>
+      <c r="G29" s="108">
+        <f t="shared" si="4"/>
+        <v>-7761.5999999999985</v>
+      </c>
+      <c r="H29" s="103">
+        <f t="shared" si="5"/>
+        <v>-102076.79999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="143">
+        <v>45405</v>
+      </c>
+      <c r="B30" s="144" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" s="145">
+        <v>170000</v>
+      </c>
+      <c r="D30" s="108">
+        <f t="shared" si="2"/>
+        <v>170000</v>
+      </c>
+      <c r="E30" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="105">
+        <v>1</v>
+      </c>
+      <c r="G30" s="108">
+        <f t="shared" si="4"/>
+        <v>-39983.999999999993</v>
+      </c>
+      <c r="H30" s="103">
+        <f t="shared" si="5"/>
+        <v>-94315.199999999983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="143">
+        <v>45405</v>
+      </c>
+      <c r="B31" s="144" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="145">
+        <v>-25000</v>
+      </c>
+      <c r="D31" s="108">
+        <f t="shared" si="2"/>
+        <v>-25000</v>
+      </c>
+      <c r="E31" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="105">
+        <v>1</v>
+      </c>
+      <c r="G31" s="108">
+        <f t="shared" si="4"/>
+        <v>5879.9999999999991</v>
+      </c>
+      <c r="H31" s="103">
+        <f t="shared" si="5"/>
+        <v>-54331.199999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="143">
+        <v>45397</v>
+      </c>
+      <c r="B32" s="144" t="s">
+        <v>356</v>
+      </c>
+      <c r="C32" s="145">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="108">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="E32" s="109">
+        <f t="shared" ref="E32" si="6">IF(F32=0,C32*$E$21*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="105">
+        <v>1</v>
+      </c>
+      <c r="G32" s="108">
+        <f t="shared" ref="G32" si="7">IF(F32=1,C32*$E$21*-1,0)</f>
+        <v>-235.19999999999996</v>
+      </c>
+      <c r="H32" s="103">
+        <f t="shared" si="5"/>
+        <v>-60211.199999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="146">
+        <v>45397</v>
+      </c>
+      <c r="B33" s="147" t="s">
+        <v>354</v>
+      </c>
+      <c r="C33" s="148">
+        <v>85000</v>
+      </c>
+      <c r="D33" s="108">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
+      <c r="E33" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="105">
+        <v>1</v>
+      </c>
+      <c r="G33" s="108">
+        <f t="shared" si="4"/>
+        <v>-19991.999999999996</v>
+      </c>
+      <c r="H33" s="103">
+        <f t="shared" si="5"/>
+        <v>-59976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="107">
+        <v>45321</v>
+      </c>
+      <c r="B34" s="112" t="s">
         <v>294</v>
       </c>
-      <c r="D24" s="114">
-        <f>IF(F24=1,$C24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="115">
-        <f t="shared" ref="E24:E38" si="2">IF(F24=0,C24*$E$21*-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="111">
-        <v>0</v>
-      </c>
-      <c r="G24" s="114">
-        <f t="shared" ref="G24:G38" si="3">IF(F24=1,C24*$E$21*-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="109">
-        <f t="shared" ref="H24:H37" si="4">H25+G24</f>
-        <v>-102076.79999999999</v>
-      </c>
-      <c r="J24" s="112"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="149"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="114">
-        <f>IF(F25=1,$C25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="115">
+      <c r="C34" s="113">
+        <v>7000</v>
+      </c>
+      <c r="D34" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F25" s="111">
-        <v>0</v>
-      </c>
-      <c r="G25" s="114">
+      <c r="E34" s="109">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="109">
+        <v>-1646.3999999999999</v>
+      </c>
+      <c r="F34" s="105">
+        <v>0</v>
+      </c>
+      <c r="G34" s="108">
         <f t="shared" si="4"/>
-        <v>-102076.79999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="152"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="114">
-        <f>IF(F26=1,$C26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="115">
+        <v>0</v>
+      </c>
+      <c r="H34" s="103">
+        <f t="shared" si="5"/>
+        <v>-39984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="146"/>
+      <c r="B35" s="147" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" s="148">
+        <v>24000</v>
+      </c>
+      <c r="D35" s="108">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="111">
-        <v>0</v>
-      </c>
-      <c r="G26" s="114">
+        <v>24000</v>
+      </c>
+      <c r="E35" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H26" s="109">
+      <c r="F35" s="105">
+        <v>1</v>
+      </c>
+      <c r="G35" s="108">
         <f t="shared" si="4"/>
-        <v>-102076.79999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="152"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="114">
-        <f>IF(F27=1,$C27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="115">
+        <v>-5644.7999999999993</v>
+      </c>
+      <c r="H35" s="103">
+        <f t="shared" si="5"/>
+        <v>-39984</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="146">
+        <v>45296</v>
+      </c>
+      <c r="B36" s="147" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36" s="148">
+        <v>26000</v>
+      </c>
+      <c r="D36" s="108">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="111">
-        <v>0</v>
-      </c>
-      <c r="G27" s="114">
+        <v>26000</v>
+      </c>
+      <c r="E36" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H27" s="109">
+      <c r="F36" s="105">
+        <v>1</v>
+      </c>
+      <c r="G36" s="108">
         <f t="shared" si="4"/>
-        <v>-102076.79999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="149"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="114">
-        <f>IF(F28=1,$C28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="115">
+        <v>-6115.1999999999989</v>
+      </c>
+      <c r="H36" s="103">
+        <f t="shared" si="5"/>
+        <v>-34339.199999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="143">
+        <v>45295</v>
+      </c>
+      <c r="B37" s="147" t="s">
+        <v>343</v>
+      </c>
+      <c r="C37" s="145">
+        <v>120000</v>
+      </c>
+      <c r="D37" s="108">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="111">
-        <v>0</v>
-      </c>
-      <c r="G28" s="114">
+        <v>120000</v>
+      </c>
+      <c r="E37" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H28" s="109">
+      <c r="F37" s="105">
+        <v>1</v>
+      </c>
+      <c r="G37" s="108">
         <f t="shared" si="4"/>
-        <v>-102076.79999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="149">
-        <v>45405</v>
-      </c>
-      <c r="B29" s="150" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29" s="151">
-        <v>33000</v>
-      </c>
-      <c r="D29" s="114">
-        <f>IF(F29=1,$C29,0)</f>
-        <v>33000</v>
-      </c>
-      <c r="E29" s="115">
+        <v>-28223.999999999996</v>
+      </c>
+      <c r="H37" s="103">
+        <f t="shared" si="5"/>
+        <v>-28223.999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="146">
+        <v>45292</v>
+      </c>
+      <c r="B38" s="147" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="149">
+        <v>170000</v>
+      </c>
+      <c r="D38" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="111">
-        <v>1</v>
-      </c>
-      <c r="G29" s="114">
-        <f t="shared" si="3"/>
-        <v>-7761.5999999999985</v>
-      </c>
-      <c r="H29" s="109">
-        <f t="shared" si="4"/>
-        <v>-102076.79999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="149">
-        <v>45405</v>
-      </c>
-      <c r="B30" s="150" t="s">
-        <v>357</v>
-      </c>
-      <c r="C30" s="151">
-        <v>170000</v>
-      </c>
-      <c r="D30" s="114">
-        <f>IF(F30=1,$C30,0)</f>
-        <v>170000</v>
-      </c>
-      <c r="E30" s="115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="111">
-        <v>1</v>
-      </c>
-      <c r="G30" s="114">
+      <c r="E38" s="109">
         <f t="shared" si="3"/>
         <v>-39983.999999999993</v>
       </c>
-      <c r="H30" s="109">
+      <c r="F38" s="114">
+        <v>0</v>
+      </c>
+      <c r="G38" s="108">
         <f t="shared" si="4"/>
-        <v>-94315.199999999983</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="149">
-        <v>45405</v>
-      </c>
-      <c r="B31" s="150" t="s">
-        <v>359</v>
-      </c>
-      <c r="C31" s="151">
-        <v>-25000</v>
-      </c>
-      <c r="D31" s="114">
-        <f>IF(F31=1,$C31,0)</f>
-        <v>-25000</v>
-      </c>
-      <c r="E31" s="115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="111">
-        <v>1</v>
-      </c>
-      <c r="G31" s="114">
-        <f t="shared" si="3"/>
-        <v>5879.9999999999991</v>
-      </c>
-      <c r="H31" s="109">
-        <f t="shared" si="4"/>
-        <v>-54331.199999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="149">
-        <v>45397</v>
-      </c>
-      <c r="B32" s="150" t="s">
-        <v>358</v>
-      </c>
-      <c r="C32" s="151">
-        <v>1000</v>
-      </c>
-      <c r="D32" s="114">
-        <f>IF(F32=1,$C32,0)</f>
-        <v>1000</v>
-      </c>
-      <c r="E32" s="115">
-        <f t="shared" ref="E32" si="5">IF(F32=0,C32*$E$21*-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="111">
-        <v>1</v>
-      </c>
-      <c r="G32" s="114">
-        <f t="shared" ref="G32" si="6">IF(F32=1,C32*$E$21*-1,0)</f>
-        <v>-235.19999999999996</v>
-      </c>
-      <c r="H32" s="109">
-        <f t="shared" si="4"/>
-        <v>-60211.199999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="152">
-        <v>45397</v>
-      </c>
-      <c r="B33" s="153" t="s">
-        <v>356</v>
-      </c>
-      <c r="C33" s="154">
-        <v>85000</v>
-      </c>
-      <c r="D33" s="114">
-        <f>IF(F33=1,$C33,0)</f>
-        <v>85000</v>
-      </c>
-      <c r="E33" s="115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="111">
-        <v>1</v>
-      </c>
-      <c r="G33" s="114">
-        <f t="shared" si="3"/>
-        <v>-19991.999999999996</v>
-      </c>
-      <c r="H33" s="109">
-        <f t="shared" si="4"/>
-        <v>-59976</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="113">
-        <v>45321</v>
-      </c>
-      <c r="B34" s="118" t="s">
-        <v>295</v>
-      </c>
-      <c r="C34" s="119">
-        <v>7000</v>
-      </c>
-      <c r="D34" s="114">
-        <f>IF(F34=1,$C34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="115">
-        <f t="shared" si="2"/>
-        <v>-1646.3999999999999</v>
-      </c>
-      <c r="F34" s="111">
-        <v>0</v>
-      </c>
-      <c r="G34" s="114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="109">
-        <f t="shared" si="4"/>
-        <v>-39984</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="152"/>
-      <c r="B35" s="153" t="s">
-        <v>344</v>
-      </c>
-      <c r="C35" s="154">
-        <v>24000</v>
-      </c>
-      <c r="D35" s="114">
-        <f>IF(F35=1,$C35,0)</f>
-        <v>24000</v>
-      </c>
-      <c r="E35" s="115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="111">
-        <v>1</v>
-      </c>
-      <c r="G35" s="114">
-        <f t="shared" si="3"/>
-        <v>-5644.7999999999993</v>
-      </c>
-      <c r="H35" s="109">
-        <f t="shared" si="4"/>
-        <v>-39984</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="152">
-        <v>45296</v>
-      </c>
-      <c r="B36" s="153" t="s">
-        <v>345</v>
-      </c>
-      <c r="C36" s="154">
-        <v>26000</v>
-      </c>
-      <c r="D36" s="114">
-        <f>IF(F36=1,$C36,0)</f>
-        <v>26000</v>
-      </c>
-      <c r="E36" s="115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="111">
-        <v>1</v>
-      </c>
-      <c r="G36" s="114">
-        <f t="shared" si="3"/>
-        <v>-6115.1999999999989</v>
-      </c>
-      <c r="H36" s="109">
-        <f t="shared" si="4"/>
-        <v>-34339.199999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="149">
-        <v>45295</v>
-      </c>
-      <c r="B37" s="153" t="s">
-        <v>345</v>
-      </c>
-      <c r="C37" s="151">
-        <v>120000</v>
-      </c>
-      <c r="D37" s="114">
-        <f>IF(F37=1,$C37,0)</f>
-        <v>120000</v>
-      </c>
-      <c r="E37" s="115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="111">
-        <v>1</v>
-      </c>
-      <c r="G37" s="114">
-        <f t="shared" si="3"/>
-        <v>-28223.999999999996</v>
-      </c>
-      <c r="H37" s="109">
-        <f t="shared" si="4"/>
-        <v>-28223.999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="152">
-        <v>45292</v>
-      </c>
-      <c r="B38" s="153" t="s">
-        <v>254</v>
-      </c>
-      <c r="C38" s="155">
-        <v>170000</v>
-      </c>
-      <c r="D38" s="114">
-        <f>IF(F38=1,$C38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="115">
-        <f t="shared" si="2"/>
-        <v>-39983.999999999993</v>
-      </c>
-      <c r="F38" s="120">
-        <v>0</v>
-      </c>
-      <c r="G38" s="114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="109">
+        <v>0</v>
+      </c>
+      <c r="H38" s="103">
         <f>G38</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="C41" s="114" t="s">
+      <c r="C41" s="108" t="s">
         <v>252</v>
       </c>
-      <c r="D41" s="109" t="s">
+      <c r="D41" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="E41" s="109" t="s">
-        <v>298</v>
-      </c>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="122"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="116"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
       <c r="B42" t="s">
         <v>250</v>
       </c>
-      <c r="C42" s="123">
+      <c r="C42" s="117">
         <v>1</v>
       </c>
-      <c r="D42" s="156">
+      <c r="D42" s="150">
         <f>D21</f>
         <v>0.76480000000000004</v>
       </c>
-      <c r="E42" s="156">
+      <c r="E42" s="150">
         <f>1-D42</f>
         <v>0.23519999999999996</v>
       </c>
-      <c r="H42" s="109"/>
+      <c r="H42" s="103"/>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" t="s">
-        <v>299</v>
-      </c>
-      <c r="C43" s="124">
+        <v>298</v>
+      </c>
+      <c r="C43" s="118">
         <f>$D$23*C42</f>
         <v>434000</v>
       </c>
-      <c r="D43" s="125">
+      <c r="D43" s="119">
         <f>$D$23*D42</f>
         <v>331923.20000000001</v>
       </c>
-      <c r="E43" s="125">
+      <c r="E43" s="119">
         <f>$D$23*E42</f>
         <v>102076.79999999999</v>
       </c>
-      <c r="H43" s="109"/>
+      <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" t="s">
         <v>251</v>
       </c>
-      <c r="C44" s="114">
+      <c r="C44" s="108">
         <f>D44+E44</f>
         <v>0</v>
       </c>
-      <c r="D44" s="109">
+      <c r="D44" s="103">
         <f>E44/D42*E42</f>
         <v>0</v>
       </c>
-      <c r="E44" s="109">
+      <c r="E44" s="103">
         <f>$I$23*-1</f>
         <v>0</v>
       </c>
-      <c r="G44" s="126"/>
-      <c r="H44" s="109"/>
-      <c r="J44" s="109"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="103"/>
+      <c r="J44" s="103"/>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" t="s">
-        <v>300</v>
-      </c>
-      <c r="C45" s="114">
+        <v>299</v>
+      </c>
+      <c r="C45" s="108">
         <f>C43-C44</f>
         <v>434000</v>
       </c>
-      <c r="D45" s="109">
+      <c r="D45" s="103">
         <f>D43-D44</f>
         <v>331923.20000000001</v>
       </c>
-      <c r="E45" s="109">
+      <c r="E45" s="103">
         <f>E43-E44</f>
         <v>102076.79999999999</v>
       </c>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="J45" s="109"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="J45" s="103"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" thickBot="1">
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="J46" s="109"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="J46" s="103"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="H47" s="109"/>
-      <c r="J47" s="109"/>
+      <c r="H47" s="103"/>
+      <c r="J47" s="103"/>
     </row>
     <row r="48" spans="1:10">
       <c r="C48" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="J48" s="109"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="J48" s="103"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="C49" s="109"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="J49" s="109"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="J49" s="103"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="109" t="s">
+      <c r="B50" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="C50" s="109">
+      <c r="C50" s="103">
         <f>D44</f>
         <v>0</v>
       </c>
       <c r="D50" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E50" s="109">
+      <c r="E50" s="103">
         <f>C50*D50</f>
         <v>0</v>
       </c>
-      <c r="H50" s="109"/>
+      <c r="H50" s="103"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="E51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
+      <c r="E51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3904,7 +4542,7 @@
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="103"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
         <f>SUM(E9:E20)</f>
@@ -3971,7 +4609,7 @@
         <v>45197</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E9" s="28">
         <v>45000</v>
@@ -3984,7 +4622,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
@@ -4132,7 +4770,7 @@
         <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25">
         <v>24.8</v>
@@ -4153,7 +4791,7 @@
         <v>275</v>
       </c>
       <c r="B26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C26">
         <v>-21.12</v>
@@ -4174,7 +4812,7 @@
         <v>276</v>
       </c>
       <c r="B27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C27">
         <v>-52.17</v>
@@ -4191,7 +4829,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -4202,7 +4840,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -4317,7 +4955,7 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="96" t="s">
         <v>258</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -4970,7 +5608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -5100,7 +5738,7 @@
         <v>45291</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5112,7 +5750,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -5124,7 +5762,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
@@ -5138,8 +5776,8 @@
       <c r="A12" s="7">
         <v>45295</v>
       </c>
-      <c r="B12" s="105" t="s">
-        <v>326</v>
+      <c r="B12" s="99" t="s">
+        <v>325</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
@@ -5174,7 +5812,7 @@
         <v>45295</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D14" s="31">
         <v>-12432</v>
@@ -5190,7 +5828,7 @@
         <v>45295</v>
       </c>
       <c r="B15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32">
@@ -5206,7 +5844,7 @@
         <v>45296</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32">
@@ -5222,7 +5860,7 @@
         <v>45299</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32">
@@ -5503,7 +6141,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="96" t="s">
         <v>257</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -5539,7 +6177,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8"/>
@@ -5547,7 +6185,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -5556,11 +6194,11 @@
       <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="130" t="s">
-        <v>331</v>
-      </c>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130">
+      <c r="B48" s="124" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124">
         <v>170000</v>
       </c>
       <c r="F48" s="8"/>
@@ -5902,7 +6540,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
@@ -5920,7 +6558,7 @@
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="103"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
         <f>SUM(E9:E21)</f>
@@ -5979,7 +6617,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8"/>
@@ -6002,13 +6640,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="7"/>
-      <c r="B10" s="159"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="52"/>
       <c r="D10" s="3">
         <f>C10*E9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="158">
+      <c r="E10" s="152">
         <f>D10+E9</f>
         <v>0</v>
       </c>
@@ -6037,7 +6675,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -6052,7 +6690,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7"/>
-      <c r="B13" s="159">
+      <c r="B13" s="153">
         <v>45292</v>
       </c>
       <c r="C13" s="52"/>
@@ -6060,7 +6698,7 @@
         <f>C13*E11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="158">
+      <c r="E13" s="152">
         <f>D13+E11</f>
         <v>20000</v>
       </c>
@@ -6080,7 +6718,7 @@
         <f t="shared" ref="D14:D19" si="1">C14*E13</f>
         <v>0</v>
       </c>
-      <c r="E14" s="158">
+      <c r="E14" s="152">
         <f t="shared" ref="E14:E19" si="2">D14+E13</f>
         <v>20000</v>
       </c>
@@ -6100,7 +6738,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="158">
+      <c r="E15" s="152">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -6113,14 +6751,14 @@
     <row r="16" spans="1:7">
       <c r="A16" s="30"/>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="158">
+      <c r="E16" s="152">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -6133,14 +6771,14 @@
     <row r="17" spans="1:7">
       <c r="A17" s="30"/>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="158">
+      <c r="E17" s="152">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -6160,7 +6798,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="158">
+      <c r="E18" s="152">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -6180,7 +6818,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="158">
+      <c r="E19" s="152">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -6462,7 +7100,7 @@
       <c r="D39"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="96" t="s">
         <v>256</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -6529,11 +7167,11 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7"/>
-      <c r="B46" s="132" t="s">
-        <v>334</v>
-      </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="131">
+      <c r="B46" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" s="126"/>
+      <c r="D46" s="125">
         <v>135000</v>
       </c>
       <c r="E46" s="8"/>
@@ -7147,11 +7785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D669E-8356-4324-A959-1EA6F446C492}">
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7206,15 +7844,15 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15">
         <f>SUM(D9:D20)</f>
-        <v>75000</v>
+        <v>204024</v>
       </c>
       <c r="E4" s="16">
         <f>SUM(E9:E20)</f>
-        <v>0</v>
+        <v>204024</v>
       </c>
       <c r="F4" s="17">
         <f>F20</f>
-        <v>75000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7235,7 +7873,7 @@
       <c r="C6"/>
       <c r="D6" s="20">
         <f>F37</f>
-        <v>-850</v>
+        <v>-800</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="21"/>
@@ -7250,7 +7888,7 @@
       </c>
       <c r="F7" s="25">
         <f>E4-D5</f>
-        <v>0</v>
+        <v>204024</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7267,7 +7905,968 @@
         <v>45167</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>395</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" s="28">
+        <v>204024</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="27">
+        <f>D9-E9</f>
+        <v>204024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" ref="F10:F20" si="0">D10-E10+F9</f>
+        <v>203024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29">
+        <v>50000</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="0"/>
+        <v>153024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="100"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29">
+        <v>33000</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="0"/>
+        <v>120024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29">
+        <v>24</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32">
+        <v>120000</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="30"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="30"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="30"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="30"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="30"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="30"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="30"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="30"/>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="30"/>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35">
+        <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="30"/>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="30"/>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="30"/>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="30"/>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="30"/>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="30"/>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="30"/>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="30"/>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="30"/>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="30"/>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="36"/>
+      <c r="B36" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="42">
+        <f>SUM(C25:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45">
+        <f>D37-E37+F36</f>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="30"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49">
+        <f>SUM(E41:E49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="7">
+        <v>45402</v>
+      </c>
+      <c r="B43" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>400</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" s="3">
+        <v>204024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7">
+        <v>45402</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46"/>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7">
+        <v>45449</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C49">
+        <f>A48-A45</f>
+        <v>411</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="E51" s="63"/>
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="159">
+        <v>45402</v>
+      </c>
+      <c r="B52" t="s">
+        <v>399</v>
+      </c>
+      <c r="C52" s="161"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="162"/>
+      <c r="F52" s="162"/>
+      <c r="G52"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="161"/>
+      <c r="B53" s="160" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" s="161"/>
+      <c r="D53" s="162"/>
+      <c r="E53" s="162"/>
+      <c r="F53" s="162"/>
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="161"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="162" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="162" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="159"/>
+      <c r="B55" s="161" t="s">
+        <v>403</v>
+      </c>
+      <c r="C55" s="161"/>
+      <c r="D55" s="162">
+        <v>204024</v>
+      </c>
+      <c r="E55" s="162"/>
+      <c r="F55" s="162">
+        <f>D55-E55</f>
+        <v>204024</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="159"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="162">
+        <f t="shared" ref="F56:F63" si="2">F55+D56-E56</f>
+        <v>204024</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="159">
+        <v>45402</v>
+      </c>
+      <c r="B57" s="161" t="s">
+        <v>370</v>
+      </c>
+      <c r="C57" s="161"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162">
+        <f t="shared" si="2"/>
+        <v>204024</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="159">
+        <v>45813</v>
+      </c>
+      <c r="B58" s="161" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" s="161"/>
+      <c r="E58"/>
+      <c r="F58" s="162">
+        <f t="shared" si="2"/>
+        <v>204024</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="159">
+        <v>45170</v>
+      </c>
+      <c r="B59" s="161" t="s">
+        <v>402</v>
+      </c>
+      <c r="C59" s="161"/>
+      <c r="E59">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="162">
+        <f t="shared" si="2"/>
+        <v>203024</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="159">
+        <v>45199</v>
+      </c>
+      <c r="B60" s="161" t="s">
+        <v>402</v>
+      </c>
+      <c r="C60" s="161"/>
+      <c r="E60">
+        <v>50000</v>
+      </c>
+      <c r="F60" s="162">
+        <f t="shared" si="2"/>
+        <v>153024</v>
+      </c>
+      <c r="G60" s="52"/>
+      <c r="H60" s="57"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="159">
+        <v>45229</v>
+      </c>
+      <c r="B61" s="161" t="s">
+        <v>402</v>
+      </c>
+      <c r="C61" s="161"/>
+      <c r="E61">
+        <v>33000</v>
+      </c>
+      <c r="F61" s="162">
+        <f t="shared" si="2"/>
+        <v>120024</v>
+      </c>
+      <c r="G61" s="52"/>
+      <c r="H61" s="57"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="159">
+        <v>45260</v>
+      </c>
+      <c r="B62" s="161" t="s">
+        <v>402</v>
+      </c>
+      <c r="C62" s="161"/>
+      <c r="E62">
+        <v>120000</v>
+      </c>
+      <c r="F62" s="162">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G62" s="52"/>
+      <c r="H62" s="57"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="159"/>
+      <c r="B63" s="161" t="s">
+        <v>398</v>
+      </c>
+      <c r="C63" s="161"/>
+      <c r="E63">
+        <v>24</v>
+      </c>
+      <c r="F63" s="162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="52"/>
+      <c r="H63" s="57"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="159"/>
+      <c r="B64" s="161"/>
+      <c r="C64" s="161"/>
+      <c r="E64"/>
+      <c r="F64" s="162"/>
+    </row>
+    <row r="65" spans="1:6" ht="15">
+      <c r="A65" s="159"/>
+      <c r="B65" s="161" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" s="164">
+        <f>A58-A57</f>
+        <v>411</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" s="162"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="159"/>
+      <c r="B66" s="161" t="s">
+        <v>380</v>
+      </c>
+      <c r="C66" s="160">
+        <f>(D55-24)/C65</f>
+        <v>496.35036496350364</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" s="162"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A67" s="165">
+        <v>45813</v>
+      </c>
+      <c r="B67" s="166" t="s">
+        <v>381</v>
+      </c>
+      <c r="C67" s="167"/>
+      <c r="D67" s="168"/>
+      <c r="E67"/>
+      <c r="F67" s="162"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" thickTop="1">
+      <c r="A68"/>
+      <c r="B68" s="161" t="s">
+        <v>382</v>
+      </c>
+      <c r="C68" s="160">
+        <f>A67-A57</f>
+        <v>411</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68" s="162"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="159"/>
+      <c r="B69" s="161" t="s">
+        <v>383</v>
+      </c>
+      <c r="C69" s="161"/>
+      <c r="D69" s="3">
+        <f>C68*C66</f>
+        <v>204000</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" s="162"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="159"/>
+      <c r="B70" s="161" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" s="161"/>
+      <c r="D70" s="3">
+        <f>D55-24-D69</f>
+        <v>0</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" s="162"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A71" s="159"/>
+      <c r="B71" s="169" t="s">
+        <v>385</v>
+      </c>
+      <c r="C71" s="169" t="s">
+        <v>386</v>
+      </c>
+      <c r="D71" s="170">
+        <f>SUM(D70:D70)</f>
+        <v>0</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" s="162"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" thickTop="1">
+      <c r="A72" s="159"/>
+      <c r="B72" s="161" t="s">
+        <v>387</v>
+      </c>
+      <c r="C72" s="161" t="s">
+        <v>386</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" s="162"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="159"/>
+      <c r="B73" s="161" t="s">
+        <v>388</v>
+      </c>
+      <c r="C73" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" s="162"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="159"/>
+      <c r="B74" s="161" t="s">
+        <v>390</v>
+      </c>
+      <c r="C74" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" s="162"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A75" s="159"/>
+      <c r="B75" s="171"/>
+      <c r="C75" s="161"/>
+      <c r="E75"/>
+      <c r="F75" s="162"/>
+    </row>
+    <row r="76" spans="1:6" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A76" s="161"/>
+      <c r="B76" s="172" t="s">
+        <v>392</v>
+      </c>
+      <c r="C76" s="173" t="s">
+        <v>386</v>
+      </c>
+      <c r="D76" s="170">
+        <f>SUM(D71:D75)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="162"/>
+      <c r="F76" s="162"/>
+    </row>
+    <row r="77" spans="1:6" s="3" customFormat="1" ht="13.5" thickTop="1">
+      <c r="A77" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H98"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="3" customWidth="1"/>
+    <col min="9" max="60" width="12.140625" customWidth="1"/>
+    <col min="61" max="61" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="F1" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15">
+        <f>SUM(D9:D20)</f>
+        <v>75000</v>
+      </c>
+      <c r="E4" s="16">
+        <f>SUM(E9:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <f>F20</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18">
+        <f>F40</f>
+        <v>0</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" s="20">
+        <f>F37</f>
+        <v>-850</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="25">
+        <f>E4-D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <v>45167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>315</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="28">
@@ -7280,9 +8879,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="14" t="s">
-        <v>335</v>
-      </c>
+      <c r="B10" s="14"/>
       <c r="C10"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -7303,7 +8900,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12"/>
-      <c r="C12" s="106"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="F12" s="27">
@@ -7313,7 +8910,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13"/>
-      <c r="C13" s="106"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
       <c r="F13" s="27">
@@ -7323,7 +8920,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14"/>
-      <c r="C14" s="106"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="F14" s="27">
@@ -7338,7 +8935,7 @@
       <c r="B15" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="100">
         <v>45322</v>
       </c>
       <c r="D15" s="31">
@@ -7436,7 +9033,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7650,7 +9247,7 @@
       <c r="C39"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="96" t="s">
         <v>255</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -7875,7 +9472,7 @@
         <v>-141.51999999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="1:8">
       <c r="B65" t="s">
         <v>162</v>
       </c>
@@ -7891,7 +9488,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="1:8">
       <c r="B66" t="s">
         <v>163</v>
       </c>
@@ -7907,7 +9504,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="1:8">
       <c r="B67" t="s">
         <v>164</v>
       </c>
@@ -7925,7 +9522,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="1:8">
       <c r="B68" t="s">
         <v>165</v>
       </c>
@@ -7941,7 +9538,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="1:8">
       <c r="B69" t="s">
         <v>166</v>
       </c>
@@ -7957,7 +9554,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="1:8">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -7965,86 +9562,389 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="1:8">
       <c r="E71" s="63"/>
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="2:8">
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
+    <row r="72" spans="1:8">
+      <c r="A72" s="159">
+        <v>45139</v>
+      </c>
+      <c r="B72" s="160" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="161"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="162"/>
+      <c r="F72" s="162"/>
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73"/>
-      <c r="E73" s="57"/>
+    <row r="73" spans="1:8">
+      <c r="A73" s="161"/>
+      <c r="B73" s="160" t="s">
+        <v>368</v>
+      </c>
+      <c r="C73" s="161"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="162"/>
+      <c r="F73" s="162"/>
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="2:8">
-      <c r="B74"/>
-      <c r="C74"/>
+    <row r="74" spans="1:8">
+      <c r="A74" s="161"/>
+      <c r="B74" s="161"/>
+      <c r="C74" s="161"/>
+      <c r="D74" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="162" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="162" t="s">
+        <v>369</v>
+      </c>
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="2:8">
-      <c r="B75"/>
-      <c r="C75"/>
+    <row r="75" spans="1:8">
+      <c r="A75" s="159"/>
+      <c r="B75" s="161"/>
+      <c r="C75" s="161"/>
+      <c r="D75" s="162">
+        <v>96000</v>
+      </c>
+      <c r="E75" s="162"/>
+      <c r="F75" s="162">
+        <f>D75-E75</f>
+        <v>96000</v>
+      </c>
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="2:8">
-      <c r="B76"/>
-      <c r="C76"/>
+    <row r="76" spans="1:8">
+      <c r="A76" s="159"/>
+      <c r="B76" s="161"/>
+      <c r="C76" s="161"/>
+      <c r="D76" s="162"/>
+      <c r="E76" s="162"/>
+      <c r="F76" s="162">
+        <f t="shared" ref="F76:F84" si="3">F75+D76-E76</f>
+        <v>96000</v>
+      </c>
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="2:8">
-      <c r="B77"/>
-      <c r="C77"/>
+    <row r="77" spans="1:8">
+      <c r="A77" s="159">
+        <v>45168</v>
+      </c>
+      <c r="B77" s="161" t="s">
+        <v>370</v>
+      </c>
+      <c r="C77" s="161"/>
+      <c r="D77" s="162"/>
+      <c r="E77" s="162"/>
+      <c r="F77" s="162">
+        <f t="shared" si="3"/>
+        <v>96000</v>
+      </c>
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="2:8">
-      <c r="B78"/>
-      <c r="C78"/>
+    <row r="78" spans="1:8">
+      <c r="A78" s="159">
+        <v>45533</v>
+      </c>
+      <c r="B78" s="161" t="s">
+        <v>371</v>
+      </c>
+      <c r="C78" s="161"/>
+      <c r="E78"/>
+      <c r="F78" s="162">
+        <f t="shared" si="3"/>
+        <v>96000</v>
+      </c>
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="1:8">
+      <c r="A79" s="159">
+        <v>45170</v>
+      </c>
+      <c r="B79" s="161" t="s">
+        <v>372</v>
+      </c>
+      <c r="C79" s="161"/>
+      <c r="E79">
+        <v>65000</v>
+      </c>
+      <c r="F79" s="162">
+        <f t="shared" si="3"/>
+        <v>31000</v>
+      </c>
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="2:8">
-      <c r="F80" s="1"/>
+    <row r="80" spans="1:8">
+      <c r="A80" s="159">
+        <v>45199</v>
+      </c>
+      <c r="B80" s="161" t="s">
+        <v>373</v>
+      </c>
+      <c r="C80" s="161"/>
+      <c r="E80">
+        <v>6000</v>
+      </c>
+      <c r="F80" s="162">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
       <c r="G80" s="52"/>
       <c r="H80" s="57"/>
     </row>
-    <row r="81" spans="6:8">
-      <c r="F81" s="1"/>
+    <row r="81" spans="1:8">
+      <c r="A81" s="159">
+        <v>45229</v>
+      </c>
+      <c r="B81" s="161" t="s">
+        <v>374</v>
+      </c>
+      <c r="C81" s="161"/>
+      <c r="E81">
+        <v>6000</v>
+      </c>
+      <c r="F81" s="162">
+        <f t="shared" si="3"/>
+        <v>19000</v>
+      </c>
       <c r="G81" s="52"/>
       <c r="H81" s="57"/>
     </row>
-    <row r="82" spans="6:8">
-      <c r="F82" s="1"/>
+    <row r="82" spans="1:8">
+      <c r="A82" s="159">
+        <v>45260</v>
+      </c>
+      <c r="B82" s="161" t="s">
+        <v>375</v>
+      </c>
+      <c r="C82" s="161"/>
+      <c r="E82">
+        <v>6000</v>
+      </c>
+      <c r="F82" s="162">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
       <c r="G82" s="52"/>
       <c r="H82" s="57"/>
     </row>
-    <row r="83" spans="6:8">
-      <c r="F83" s="1"/>
+    <row r="83" spans="1:8">
+      <c r="A83" s="159">
+        <v>45290</v>
+      </c>
+      <c r="B83" s="161" t="s">
+        <v>376</v>
+      </c>
+      <c r="C83" s="161"/>
+      <c r="E83">
+        <v>6000</v>
+      </c>
+      <c r="F83" s="162">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
       <c r="G83" s="52"/>
       <c r="H83" s="57"/>
     </row>
-    <row r="84" spans="6:8">
-      <c r="F84" s="1"/>
+    <row r="84" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A84" s="159">
+        <v>45321</v>
+      </c>
+      <c r="B84" s="161" t="s">
+        <v>377</v>
+      </c>
+      <c r="C84" s="163" t="s">
+        <v>378</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" s="162">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
       <c r="G84" s="52"/>
       <c r="H84" s="57"/>
     </row>
+    <row r="85" spans="1:8" ht="13.5" thickTop="1">
+      <c r="A85" s="159"/>
+      <c r="B85" s="161"/>
+      <c r="C85" s="161"/>
+      <c r="E85"/>
+      <c r="F85" s="162"/>
+    </row>
+    <row r="86" spans="1:8" ht="15">
+      <c r="A86" s="159"/>
+      <c r="B86" s="161" t="s">
+        <v>379</v>
+      </c>
+      <c r="C86" s="164">
+        <f>A78-A77</f>
+        <v>365</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" s="162"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="159"/>
+      <c r="B87" s="161" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" s="160">
+        <f>D75/C86</f>
+        <v>263.01369863013701</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" s="162"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A88" s="165">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="166" t="s">
+        <v>381</v>
+      </c>
+      <c r="C88" s="167"/>
+      <c r="D88" s="168"/>
+      <c r="E88"/>
+      <c r="F88" s="162"/>
+    </row>
+    <row r="89" spans="1:8" ht="13.5" thickTop="1">
+      <c r="A89"/>
+      <c r="B89" s="161" t="s">
+        <v>382</v>
+      </c>
+      <c r="C89" s="160">
+        <f>A88-A77</f>
+        <v>244</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89" s="162"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="159"/>
+      <c r="B90" s="161" t="s">
+        <v>383</v>
+      </c>
+      <c r="C90" s="161"/>
+      <c r="D90" s="3">
+        <f>C89*C87</f>
+        <v>64175.342465753434</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" s="162"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="159"/>
+      <c r="B91" s="161" t="s">
+        <v>384</v>
+      </c>
+      <c r="C91" s="161"/>
+      <c r="D91" s="3">
+        <f>D75-D90</f>
+        <v>31824.657534246566</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" s="162"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A92" s="159"/>
+      <c r="B92" s="169" t="s">
+        <v>385</v>
+      </c>
+      <c r="C92" s="169" t="s">
+        <v>386</v>
+      </c>
+      <c r="D92" s="170">
+        <f>SUM(D91:D91)</f>
+        <v>31824.657534246566</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" s="162"/>
+    </row>
+    <row r="93" spans="1:8" ht="13.5" thickTop="1">
+      <c r="A93" s="159"/>
+      <c r="B93" s="161" t="s">
+        <v>387</v>
+      </c>
+      <c r="C93" s="161" t="s">
+        <v>386</v>
+      </c>
+      <c r="D93" s="3">
+        <v>850</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" s="162"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="159"/>
+      <c r="B94" s="161" t="s">
+        <v>388</v>
+      </c>
+      <c r="C94" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" s="162"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="159"/>
+      <c r="B95" s="161" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" s="162"/>
+    </row>
+    <row r="96" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A96" s="159"/>
+      <c r="B96" s="171" t="s">
+        <v>391</v>
+      </c>
+      <c r="C96" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="D96" s="3">
+        <f>F84*-1</f>
+        <v>-7000</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" s="162"/>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A97" s="161"/>
+      <c r="B97" s="172" t="s">
+        <v>392</v>
+      </c>
+      <c r="C97" s="173" t="s">
+        <v>386</v>
+      </c>
+      <c r="D97" s="170">
+        <f>SUM(D92:D96)</f>
+        <v>25474.657534246566</v>
+      </c>
+      <c r="E97" s="162"/>
+      <c r="F97" s="162"/>
+    </row>
+    <row r="98" spans="1:6" ht="13.5" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8052,17 +9952,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="182" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -8078,7 +9978,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7"/>
+      <c r="A1" s="175"/>
       <c r="B1" s="8" t="s">
         <v>167</v>
       </c>
@@ -8089,13 +9989,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7"/>
+      <c r="A2" s="175"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="176" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -8103,7 +10003,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -8116,54 +10016,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7"/>
+      <c r="A4" s="175"/>
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
-        <f>SUM(E9:E20)</f>
-        <v>17333.018250000001</v>
+        <f>SUM(E9:E38)</f>
+        <v>374001.70146702649</v>
       </c>
       <c r="F4" s="16">
-        <f>SUM(F9:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
-        <f>G20</f>
-        <v>17333.018250000001</v>
+        <f>SUM(F9:F38)</f>
+        <v>184917.52</v>
+      </c>
+      <c r="G4" s="17" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7"/>
+      <c r="A5" s="175"/>
       <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="18">
-        <f>G40</f>
+        <f>G58</f>
         <v>0</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7"/>
+      <c r="A6" s="175"/>
       <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" s="20">
-        <f>G37</f>
+        <f>G55</f>
         <v>-2824.5300000000007</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
+      <c r="A7" s="178" t="s">
+        <v>393</v>
+      </c>
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -8173,11 +10075,11 @@
       </c>
       <c r="G7" s="65">
         <f>F4-E5</f>
-        <v>0</v>
+        <v>184917.52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
+      <c r="A8" s="175"/>
       <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
@@ -8188,1344 +10090,1926 @@
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" t="s">
+      <c r="A9" s="181">
+        <v>44957</v>
+      </c>
+      <c r="B9" s="155" t="s">
         <v>274</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="C9">
+        <v>6.65</v>
+      </c>
       <c r="E9" s="66">
-        <v>14170</v>
-      </c>
-      <c r="F9" s="29"/>
+        <v>6920</v>
+      </c>
+      <c r="F9" s="29">
+        <v>6920</v>
+      </c>
       <c r="G9" s="27">
         <f>E9-F9</f>
-        <v>14170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="181"/>
+      <c r="B10" s="155" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="52">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10*E9</f>
-        <v>921.05000000000007</v>
-      </c>
-      <c r="E10" s="158">
-        <f>D10+E9</f>
-        <v>15091.05</v>
+      <c r="C10">
+        <v>3.15</v>
+      </c>
+      <c r="E10" s="66">
+        <f>E9+(E9*C9/100)</f>
+        <v>7380.18</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="27">
-        <f t="shared" ref="G10:G20" si="0">E10-F10+G9</f>
-        <v>29261.05</v>
+        <f t="shared" ref="G10:G38" si="0">E10-F10+G9</f>
+        <v>7380.18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="181"/>
+      <c r="B11" s="155" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="52">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11*E10</f>
-        <v>980.91824999999994</v>
-      </c>
-      <c r="E11" s="158">
-        <f>D11+E10</f>
-        <v>16071.96825</v>
+      <c r="C11">
+        <v>2.29</v>
+      </c>
+      <c r="E11" s="66">
+        <f>E10+(E10*C10/100)</f>
+        <v>7612.6556700000001</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="27">
         <f t="shared" si="0"/>
-        <v>45333.018250000001</v>
+        <v>14992.83567</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12" s="181"/>
+      <c r="B12" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12">
+        <v>2.39</v>
+      </c>
       <c r="E12" s="66">
-        <f>D12</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="29"/>
+        <f>E11+(E11*C11/100)</f>
+        <v>7786.9854848430004</v>
+      </c>
+      <c r="F12" s="29">
+        <v>8425.4599999999991</v>
+      </c>
       <c r="G12" s="27">
         <f t="shared" si="0"/>
-        <v>45333.018250000001</v>
+        <v>14354.361154843002</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="29"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="155" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="66">
+        <f>E12+(E12*C12/100)</f>
+        <v>7973.0944379307484</v>
+      </c>
+      <c r="F13" s="29">
+        <v>28080</v>
+      </c>
       <c r="G13" s="27">
         <f t="shared" si="0"/>
-        <v>45333.018250000001</v>
+        <v>-5752.5444072262508</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" s="66"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="155" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14">
+        <v>3.92</v>
+      </c>
+      <c r="E14" s="66">
+        <f>E13+(E13*C13/100)</f>
+        <v>7976.2836757059204</v>
+      </c>
       <c r="F14" s="32"/>
       <c r="G14" s="27">
         <f t="shared" si="0"/>
-        <v>45333.018250000001</v>
+        <v>2223.7392684796696</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="32"/>
+      <c r="A15" s="181"/>
+      <c r="B15" s="155" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15">
+        <v>9.49</v>
+      </c>
+      <c r="E15" s="66">
+        <f>E14+(E14*C14/100)</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F15" s="32">
+        <v>50000</v>
+      </c>
       <c r="G15" s="27">
         <f t="shared" si="0"/>
-        <v>45333.018250000001</v>
+        <v>-39487.306735726735</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="30"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" s="66"/>
+      <c r="A16" s="181"/>
+      <c r="B16" s="155" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16">
+        <v>9.09</v>
+      </c>
+      <c r="E16" s="66">
+        <f>E15+(E15*C15/100)</f>
+        <v>9075.5757299944034</v>
+      </c>
       <c r="F16" s="32"/>
       <c r="G16" s="27">
         <f t="shared" si="0"/>
-        <v>45333.018250000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="30"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" s="66"/>
+        <v>-30411.731005732334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="181"/>
+      <c r="B17" s="155" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17">
+        <v>4.75</v>
+      </c>
+      <c r="E17" s="66">
+        <f>E16+(E16*C16/100)</f>
+        <v>9900.5455638508938</v>
+      </c>
       <c r="F17" s="32"/>
       <c r="G17" s="27">
         <f t="shared" si="0"/>
-        <v>45333.018250000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="30"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" s="66"/>
+        <v>-20511.18544188144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="181"/>
+      <c r="B18" s="155" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18">
+        <v>3.43</v>
+      </c>
+      <c r="E18" s="66">
+        <f>E17+(E17*C17/100)</f>
+        <v>10370.821478133812</v>
+      </c>
       <c r="F18" s="32"/>
       <c r="G18" s="27">
         <f t="shared" si="0"/>
-        <v>45333.018250000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="67"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="32"/>
+        <v>-10140.363963747628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="181">
+        <v>45260</v>
+      </c>
+      <c r="B19" s="155" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19">
+        <v>42.645099999999999</v>
+      </c>
+      <c r="E19" s="66">
+        <f>E18+(E18*C18/100)</f>
+        <v>10726.540654833801</v>
+      </c>
+      <c r="F19" s="32">
+        <v>15887.06</v>
+      </c>
       <c r="G19" s="27">
         <f t="shared" si="0"/>
-        <v>45333.018250000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="30"/>
-      <c r="B20"/>
+        <v>-15300.883308913826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="181">
+        <v>45291</v>
+      </c>
+      <c r="B20" s="155" t="s">
+        <v>265</v>
+      </c>
       <c r="C20">
-        <v>-2</v>
-      </c>
-      <c r="D20">
-        <v>14000</v>
+        <v>2.93</v>
       </c>
       <c r="E20" s="66">
-        <f>D20*C20</f>
-        <v>-28000</v>
+        <f>E19+(E19*C19/100)</f>
+        <v>15300.884643628331</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="33">
         <f t="shared" si="0"/>
-        <v>17333.018250000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="30"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="30"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38" t="s">
+        <v>1.3347145049920073E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="181">
+        <v>45322</v>
+      </c>
+      <c r="B21" s="156" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21">
+        <v>6.71</v>
+      </c>
+      <c r="E21" s="66">
+        <v>14000</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33">
+        <f t="shared" si="0"/>
+        <v>14000.001334714505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="181"/>
+      <c r="B22" s="156" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22">
+        <v>4.53</v>
+      </c>
+      <c r="E22" s="66">
+        <f>E21+(E21*C21/100)</f>
+        <v>14939.4</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33">
+        <f t="shared" si="0"/>
+        <v>28939.401334714505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="181"/>
+      <c r="B23" s="156" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23">
+        <v>3.16</v>
+      </c>
+      <c r="E23" s="66">
+        <f>E22+(E22*C22/100)</f>
+        <v>15616.15482</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33">
+        <f t="shared" si="0"/>
+        <v>44555.556154714504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="181"/>
+      <c r="B24" s="158" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="30"/>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
       <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35">
-        <v>-2510.63</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="30"/>
-      <c r="B25" t="s">
-        <v>88</v>
+      <c r="E24" s="66"/>
+      <c r="F24" s="32">
+        <v>-3795</v>
+      </c>
+      <c r="G24" s="33">
+        <f t="shared" si="0"/>
+        <v>48350.556154714504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="181"/>
+      <c r="B25" s="156" t="s">
+        <v>365</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25" s="3">
-        <v>781.86</v>
-      </c>
-      <c r="F25" s="3">
-        <v>891.32</v>
-      </c>
-      <c r="G25" s="35">
-        <f t="shared" ref="G25:G36" si="1">E25-F25+G24</f>
-        <v>-2620.09</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="30"/>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26" s="3">
-        <v>2044.36</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2248.8000000000002</v>
-      </c>
-      <c r="G26" s="35">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="30"/>
-      <c r="B27" t="s">
-        <v>37</v>
+        <v>3.16</v>
+      </c>
+      <c r="E25" s="66">
+        <f>E23+(E23*C23/100)</f>
+        <v>16109.625312312</v>
+      </c>
+      <c r="F25" s="32">
+        <v>85000</v>
+      </c>
+      <c r="G25" s="33">
+        <f t="shared" si="0"/>
+        <v>-20539.818532973499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="181"/>
+      <c r="B26" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="32">
+        <v>-5600</v>
+      </c>
+      <c r="G26" s="33">
+        <f t="shared" si="0"/>
+        <v>-14939.818532973499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="181"/>
+      <c r="B27" s="157" t="s">
+        <v>366</v>
       </c>
       <c r="C27"/>
-      <c r="D27"/>
-      <c r="G27" s="35">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="30"/>
-      <c r="B28" t="s">
-        <v>38</v>
+      <c r="E27" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33">
+        <f t="shared" si="0"/>
+        <v>2062.1814670265012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="181"/>
+      <c r="B28" s="157" t="s">
+        <v>279</v>
       </c>
       <c r="C28"/>
-      <c r="D28"/>
-      <c r="G28" s="35">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="30"/>
-      <c r="B29" t="s">
-        <v>39</v>
+      <c r="E28" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" s="33">
+        <f t="shared" si="0"/>
+        <v>19064.181467026501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="181"/>
+      <c r="B29" s="157" t="s">
+        <v>280</v>
       </c>
       <c r="C29"/>
-      <c r="D29"/>
-      <c r="G29" s="35">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="30"/>
-      <c r="B30" t="s">
-        <v>89</v>
+      <c r="E29" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" s="33">
+        <f t="shared" si="0"/>
+        <v>36066.181467026501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="181"/>
+      <c r="B30" s="157" t="s">
+        <v>281</v>
       </c>
       <c r="C30"/>
-      <c r="D30"/>
-      <c r="G30" s="35">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="27"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="30"/>
-      <c r="B31" t="s">
-        <v>90</v>
+      <c r="E30" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" s="33">
+        <f t="shared" si="0"/>
+        <v>53068.181467026501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="181"/>
+      <c r="B31" s="157" t="s">
+        <v>367</v>
       </c>
       <c r="C31"/>
-      <c r="D31"/>
-      <c r="G31" s="35">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="27"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="30"/>
-      <c r="B32" t="s">
-        <v>91</v>
+      <c r="E31" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" s="33">
+        <f t="shared" si="0"/>
+        <v>70070.181467026501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="181"/>
+      <c r="B32" s="157" t="s">
+        <v>263</v>
       </c>
       <c r="C32"/>
-      <c r="D32"/>
-      <c r="G32" s="35">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="27"/>
+      <c r="E32" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32" s="33">
+        <f t="shared" si="0"/>
+        <v>87072.181467026501</v>
+      </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="30"/>
-      <c r="B33" t="s">
-        <v>92</v>
+      <c r="A33" s="181"/>
+      <c r="B33" s="157" t="s">
+        <v>264</v>
       </c>
       <c r="C33"/>
-      <c r="D33"/>
-      <c r="G33" s="35">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="27"/>
+      <c r="E33" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33" s="33">
+        <f t="shared" si="0"/>
+        <v>104074.1814670265</v>
+      </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="30"/>
-      <c r="B34" t="s">
-        <v>40</v>
+      <c r="A34" s="181"/>
+      <c r="B34" s="157" t="s">
+        <v>265</v>
       </c>
       <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="35">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="27"/>
+      <c r="E34" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34" s="33">
+        <f t="shared" si="0"/>
+        <v>121076.1814670265</v>
+      </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="30"/>
-      <c r="B35" t="s">
-        <v>41</v>
+      <c r="A35" s="181"/>
+      <c r="B35" s="157" t="s">
+        <v>274</v>
       </c>
       <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="27"/>
+      <c r="E35" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35" s="33">
+        <f t="shared" si="0"/>
+        <v>138078.1814670265</v>
+      </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="36"/>
-      <c r="B36" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39">
-        <f t="shared" si="1"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="27"/>
+      <c r="A36" s="181"/>
+      <c r="B36" s="157" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36"/>
+      <c r="E36" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36" s="33">
+        <f t="shared" si="0"/>
+        <v>155080.1814670265</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="42">
-        <f>SUM(C25:C36)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45">
-        <f>E37-F37+G36</f>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="27"/>
+      <c r="A37" s="181"/>
+      <c r="B37" s="157" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37"/>
+      <c r="E37" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" s="33">
+        <f t="shared" si="0"/>
+        <v>172082.1814670265</v>
+      </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="30"/>
-      <c r="B38"/>
+      <c r="A38" s="181"/>
+      <c r="B38" s="157" t="s">
+        <v>365</v>
+      </c>
       <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="38"/>
-      <c r="I38"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="27"/>
+      <c r="E38" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38" s="33">
+        <f t="shared" si="0"/>
+        <v>189084.1814670265</v>
+      </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="7"/>
+      <c r="A39" s="177"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="27"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49">
-        <f>SUM(F41:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="27"/>
+      <c r="A40" s="177"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
+      <c r="A41" s="178" t="str">
+        <f>A7</f>
+        <v xml:space="preserve"> - 2024 -</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="7">
-        <v>45315</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
+      <c r="A42" s="177"/>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35">
+        <v>-2510.63</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="69">
-        <v>45236</v>
-      </c>
+      <c r="A43" s="177"/>
       <c r="B43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43"/>
+        <v>88</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
       <c r="D43"/>
-      <c r="E43" s="68"/>
+      <c r="E43" s="3">
+        <v>781.86</v>
+      </c>
+      <c r="F43" s="3">
+        <v>891.32</v>
+      </c>
+      <c r="G43" s="35">
+        <f t="shared" ref="G43:G54" si="1">E43-F43+G42</f>
+        <v>-2620.09</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="69">
-        <v>45236</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44"/>
+      <c r="A44" s="177"/>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
       <c r="D44"/>
-      <c r="E44" s="68"/>
+      <c r="E44" s="3">
+        <v>2044.36</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2248.8000000000002</v>
+      </c>
+      <c r="G44" s="35">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="70"/>
-      <c r="B45"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
+      <c r="A45" s="177"/>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="G45" s="35">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="69">
-        <v>45236</v>
-      </c>
+      <c r="A46" s="177"/>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46" s="68"/>
+      <c r="G46" s="35">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="27"/>
     </row>
     <row r="47" spans="1:13">
+      <c r="A47" s="177"/>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
-      <c r="E47" s="68"/>
+      <c r="G47" s="35">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="27"/>
     </row>
     <row r="48" spans="1:13">
+      <c r="A48" s="177"/>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48" s="68"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="B49" s="3" t="s">
-        <v>174</v>
+      <c r="G48" s="35">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="27"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="177"/>
+      <c r="B49" t="s">
+        <v>90</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="G49" s="35">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="27"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="177"/>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="B51" s="3" t="s">
-        <v>176</v>
+      <c r="G50" s="35">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="177"/>
+      <c r="B51" t="s">
+        <v>92</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="G51" s="35">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="27"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="177"/>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="B53"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="35">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="27"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="177"/>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53" t="s">
-        <v>177</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="69">
-        <v>45236</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C54">
-        <v>0.65</v>
-      </c>
-      <c r="D54"/>
-      <c r="E54" s="3">
-        <v>84000</v>
-      </c>
-      <c r="F54" s="3">
-        <f>E54*C54</f>
-        <v>54600</v>
-      </c>
-      <c r="G54" s="3">
-        <f>F54+E54</f>
-        <v>138600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="27"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="178"/>
+      <c r="B54" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39">
+        <f t="shared" si="1"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="179">
+        <v>45657</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="42">
+        <f>SUM(C43:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="42"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45">
+        <f>E55-F55+G54</f>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="27"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="177"/>
       <c r="B56"/>
-    </row>
-    <row r="57" spans="1:10" ht="114.75">
-      <c r="A57" s="69">
-        <v>45236</v>
-      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="38"/>
+      <c r="I56"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="175"/>
       <c r="B57"/>
-      <c r="E57" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="F57" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="G57" s="72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="25.5">
-      <c r="B58" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>138000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="38.25">
-      <c r="B59" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="3">
-        <v>12</v>
-      </c>
-      <c r="E59">
-        <v>84000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="37.5" customHeight="1">
-      <c r="B60" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="3">
-        <v>14</v>
-      </c>
-      <c r="E60">
-        <v>98000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>14000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>168000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="74"/>
-      <c r="B61"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="B62"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="180" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="49">
+        <f>SUM(F59:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="175"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="175"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="175"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="181"/>
+      <c r="B62" t="s">
+        <v>359</v>
+      </c>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" ref="G63:G74" si="2">G62+E63-F63</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="181"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="181"/>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="C64"/>
-      <c r="D64"/>
-      <c r="F64" s="3">
-        <v>20.95</v>
+      <c r="E64" s="3">
+        <v>48000</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="2"/>
-        <v>-20.95</v>
-      </c>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:11">
+        <f>G62+E64-F64</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="181">
+        <v>44651</v>
+      </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="C65"/>
-      <c r="D65"/>
-      <c r="F65" s="3">
-        <v>11.93</v>
+      <c r="F65">
+        <v>28000</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="2"/>
-        <v>-32.879999999999995</v>
-      </c>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="74"/>
+        <f t="shared" ref="G65:G70" si="2">G64+E65-F65</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="181">
+        <v>44681</v>
+      </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="C66"/>
-      <c r="D66"/>
-      <c r="F66" s="3">
-        <v>0</v>
+      <c r="F66">
+        <v>4000</v>
       </c>
       <c r="G66" s="3">
         <f t="shared" si="2"/>
-        <v>-32.879999999999995</v>
-      </c>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="74"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="181">
+        <v>44711</v>
+      </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="C67"/>
-      <c r="D67"/>
-      <c r="F67" s="3">
-        <v>23.25</v>
+      <c r="F67">
+        <v>4000</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="2"/>
-        <v>-56.129999999999995</v>
-      </c>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="75"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="181">
+        <v>44742</v>
+      </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>360</v>
       </c>
       <c r="C68"/>
-      <c r="D68"/>
-      <c r="F68" s="3">
-        <v>42.14</v>
-      </c>
+      <c r="F68"/>
       <c r="G68" s="3">
         <f t="shared" si="2"/>
-        <v>-98.27</v>
-      </c>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:11">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="181">
+        <v>44772</v>
+      </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>361</v>
       </c>
       <c r="C69"/>
-      <c r="D69"/>
-      <c r="F69" s="3">
-        <v>39.369999999999997</v>
-      </c>
+      <c r="F69"/>
       <c r="G69" s="3">
         <f t="shared" si="2"/>
-        <v>-137.63999999999999</v>
-      </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="181">
+        <v>44803</v>
+      </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="C70"/>
-      <c r="D70"/>
-      <c r="F70" s="3">
-        <v>150.16</v>
-      </c>
+      <c r="F70"/>
       <c r="G70" s="3">
         <f t="shared" si="2"/>
-        <v>-287.79999999999995</v>
-      </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="B71" t="s">
-        <v>161</v>
-      </c>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="181"/>
+      <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
-      <c r="F71" s="3">
-        <v>216.76</v>
-      </c>
-      <c r="G71" s="3">
-        <f t="shared" si="2"/>
-        <v>-504.55999999999995</v>
-      </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
-      <c r="F72" s="3">
-        <v>132.72</v>
-      </c>
-      <c r="G72" s="3">
-        <f t="shared" si="2"/>
-        <v>-637.28</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="B73"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="B73" t="s">
+        <v>363</v>
+      </c>
       <c r="C73"/>
       <c r="D73"/>
-      <c r="E73" s="3">
-        <v>404.76</v>
-      </c>
-      <c r="G73" s="3">
-        <f t="shared" si="2"/>
-        <v>-232.51999999999998</v>
-      </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="B74" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57">
-        <f t="shared" si="2"/>
-        <v>-232.51999999999998</v>
-      </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="181"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="175"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="175"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
       <c r="E76"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="76"/>
-      <c r="B77" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="80"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="76"/>
-      <c r="B78" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78" s="82">
-        <v>48000</v>
-      </c>
-      <c r="F78" s="83">
-        <f>E78</f>
-        <v>48000</v>
-      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="175"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="175"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78"/>
+      <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="76"/>
-      <c r="B79" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="57">
-        <v>6920</v>
-      </c>
-      <c r="F79" s="85">
-        <f t="shared" ref="F79:F86" si="3">F78-E79</f>
-        <v>41080</v>
-      </c>
+    <row r="79" spans="1:7">
+      <c r="A79" s="175"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79"/>
+      <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:11">
-      <c r="B80" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="57">
-        <v>13000</v>
-      </c>
-      <c r="F80" s="85">
-        <f t="shared" si="3"/>
-        <v>28080</v>
-      </c>
+    <row r="80" spans="1:7" ht="20.25">
+      <c r="B80" s="174">
+        <v>2023</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80"/>
+      <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="C81"/>
-      <c r="D81"/>
+    <row r="81" spans="1:7">
+      <c r="A81" s="175"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
       <c r="E81"/>
-      <c r="F81" s="85">
-        <f t="shared" si="3"/>
-        <v>28080</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="C82"/>
-      <c r="D82"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="175">
+        <v>45315</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
       <c r="E82"/>
-      <c r="F82" s="85">
-        <f t="shared" si="3"/>
-        <v>28080</v>
-      </c>
+      <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="87" t="s">
-        <v>199</v>
+    <row r="83" spans="1:7">
+      <c r="A83" s="182">
+        <v>45236</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83" s="85">
-        <f t="shared" si="3"/>
-        <v>28080</v>
-      </c>
-      <c r="G83" s="57"/>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="88" t="s">
-        <v>200</v>
+      <c r="E83" s="67"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="182">
+        <v>45236</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84" s="85">
-        <f t="shared" si="3"/>
-        <v>28080</v>
-      </c>
-      <c r="G84" s="57"/>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85" s="85">
-        <f t="shared" si="3"/>
-        <v>28080</v>
-      </c>
-      <c r="G85" s="57"/>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="57">
-        <v>28080</v>
-      </c>
-      <c r="F86" s="85">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="57"/>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="87"/>
+      <c r="E84" s="67"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="184"/>
+      <c r="B85"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="182">
+        <v>45236</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86" s="67"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="57"/>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="87"/>
+      <c r="E87" s="67"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
       <c r="C88"/>
       <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="89"/>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="90" t="s">
-        <v>203</v>
+      <c r="E88" s="67"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="B89" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
-      <c r="E89" s="3">
-        <v>83000</v>
-      </c>
-      <c r="F89" s="85">
-        <v>83000</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="B90" s="87" t="s">
-        <v>198</v>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90" t="s">
+        <v>175</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
-      <c r="F90" s="85">
-        <f t="shared" ref="F90:F96" si="4">F89-E90</f>
-        <v>83000</v>
-      </c>
-      <c r="G90"/>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="87" t="s">
-        <v>199</v>
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="B91" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
-      <c r="F91" s="85">
-        <f t="shared" si="4"/>
-        <v>83000</v>
-      </c>
-      <c r="G91" s="57"/>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="91" t="s">
-        <v>204</v>
-      </c>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:7">
       <c r="C92"/>
       <c r="D92"/>
-      <c r="F92" s="85">
-        <f t="shared" si="4"/>
-        <v>83000</v>
-      </c>
-      <c r="G92" s="57"/>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="92" t="s">
-        <v>201</v>
-      </c>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
-      <c r="F93" s="85">
-        <f t="shared" si="4"/>
-        <v>83000</v>
-      </c>
-      <c r="G93" s="57"/>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="92"/>
-      <c r="C94"/>
+      <c r="E93" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="182">
+        <v>45236</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94">
+        <v>0.65</v>
+      </c>
       <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94" s="85">
-        <f t="shared" si="4"/>
-        <v>83000</v>
-      </c>
-      <c r="G94" s="57"/>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95" s="57">
-        <v>50000</v>
-      </c>
-      <c r="F95" s="85">
-        <f t="shared" si="4"/>
-        <v>33000</v>
-      </c>
-      <c r="G95" s="57"/>
-    </row>
-    <row r="96" spans="2:7" ht="13.5" thickBot="1">
-      <c r="B96" s="94" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="95"/>
-      <c r="D96" s="95"/>
-      <c r="E96" s="95"/>
-      <c r="F96" s="96">
-        <f t="shared" si="4"/>
-        <v>33000</v>
-      </c>
-      <c r="G96" s="57"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="B97" s="26"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="G97" s="57"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="B98" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="B99" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99" s="3">
-        <v>1252.54</v>
-      </c>
-      <c r="G99" s="57"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="B100" t="s">
-        <v>209</v>
-      </c>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100" s="3">
-        <v>375</v>
-      </c>
-      <c r="G100" s="57"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="B101" t="s">
-        <v>210</v>
-      </c>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G101" s="57"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="69">
-        <v>45015</v>
-      </c>
-      <c r="B102" t="s">
-        <v>211</v>
-      </c>
+      <c r="E94" s="3">
+        <v>84000</v>
+      </c>
+      <c r="F94" s="3">
+        <f>E94*C94</f>
+        <v>54600</v>
+      </c>
+      <c r="G94" s="3">
+        <f>F94+E94</f>
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="B96"/>
+    </row>
+    <row r="97" spans="1:11" ht="114.75">
+      <c r="A97" s="182">
+        <v>45236</v>
+      </c>
+      <c r="B97"/>
+      <c r="E97" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="G97" s="69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="25.5">
+      <c r="B98" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E98" s="3">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="38.25">
+      <c r="B99" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="3">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>84000</v>
+      </c>
+      <c r="F99" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G99" s="3">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="37.5" customHeight="1">
+      <c r="B100" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="3">
+        <v>14</v>
+      </c>
+      <c r="E100">
+        <v>98000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="185"/>
+      <c r="B101"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
-      <c r="E102" s="3">
-        <v>1447</v>
-      </c>
-      <c r="G102" s="57"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="B103" t="s">
-        <v>212</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="F103" s="57">
-        <v>4574.54</v>
-      </c>
-      <c r="G103" s="57"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="B104"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="B103" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" ref="G103:G114" si="3">G102+E103-F103</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="B104" t="s">
+        <v>187</v>
+      </c>
       <c r="C104"/>
       <c r="D104"/>
-      <c r="E104"/>
-      <c r="G104" s="57"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="B105"/>
+      <c r="F104" s="3">
+        <v>20.95</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="3"/>
+        <v>-20.95</v>
+      </c>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="B105" t="s">
+        <v>188</v>
+      </c>
       <c r="C105"/>
       <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="F105" s="3">
+        <v>11.93</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="3"/>
+        <v>-32.879999999999995</v>
+      </c>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="185"/>
+      <c r="B106" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="F106" s="3">
+        <v>0</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="3"/>
+        <v>-32.879999999999995</v>
+      </c>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="185"/>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
-      <c r="E107" s="3">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="F107" s="3">
+        <v>23.25</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="3"/>
+        <v>-56.129999999999995</v>
+      </c>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="186"/>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
-      <c r="F108" s="57">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="76"/>
+      <c r="F108" s="3">
+        <v>42.14</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="3"/>
+        <v>-98.27</v>
+      </c>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:11">
       <c r="B109" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C109"/>
       <c r="D109"/>
-      <c r="F109" s="57">
-        <v>4000</v>
-      </c>
-      <c r="G109"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="76"/>
+      <c r="F109" s="3">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" si="3"/>
+        <v>-137.63999999999999</v>
+      </c>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11">
       <c r="B110" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
-      <c r="F110" s="57">
+      <c r="F110" s="3">
+        <v>150.16</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" si="3"/>
+        <v>-287.79999999999995</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="B111" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="F111" s="3">
+        <v>216.76</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="3"/>
+        <v>-504.55999999999995</v>
+      </c>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="B112" t="s">
+        <v>191</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="F112" s="3">
+        <v>132.72</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="3"/>
+        <v>-637.28</v>
+      </c>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113" s="3">
+        <v>404.76</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" si="3"/>
+        <v>-232.51999999999998</v>
+      </c>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="B114" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57">
+        <f t="shared" si="3"/>
+        <v>-232.51999999999998</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11" ht="13.5" thickBot="1">
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="181"/>
+      <c r="B117" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="74"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="181"/>
+      <c r="B118" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118" s="76">
+        <v>48000</v>
+      </c>
+      <c r="F118" s="77">
+        <f>E118</f>
+        <v>48000</v>
+      </c>
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="181"/>
+      <c r="B119" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="57">
+        <v>6920</v>
+      </c>
+      <c r="F119" s="79">
+        <f t="shared" ref="F119:F126" si="4">F118-E119</f>
+        <v>41080</v>
+      </c>
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="B120" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="57">
+        <v>13000</v>
+      </c>
+      <c r="F120" s="79">
+        <f t="shared" si="4"/>
+        <v>28080</v>
+      </c>
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="B121" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121" s="79">
+        <f t="shared" si="4"/>
+        <v>28080</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="B122" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122" s="79">
+        <f t="shared" si="4"/>
+        <v>28080</v>
+      </c>
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="B123" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123" s="79">
+        <f t="shared" si="4"/>
+        <v>28080</v>
+      </c>
+      <c r="G123" s="57"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="B124" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124" s="79">
+        <f t="shared" si="4"/>
+        <v>28080</v>
+      </c>
+      <c r="G124" s="57"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="B125" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125" s="79">
+        <f t="shared" si="4"/>
+        <v>28080</v>
+      </c>
+      <c r="G125" s="57"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="B126" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="57">
+        <v>28080</v>
+      </c>
+      <c r="F126" s="79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="57"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="B127" s="81"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127" s="79"/>
+      <c r="G127" s="57"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="B128" s="81"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128" s="79"/>
+      <c r="G128" s="83"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="B129" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129" s="3">
+        <v>83000</v>
+      </c>
+      <c r="F129" s="79">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="B130" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="F130" s="79">
+        <f t="shared" ref="F130:F136" si="5">F129-E130</f>
+        <v>83000</v>
+      </c>
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="B131" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="F131" s="79">
+        <f t="shared" si="5"/>
+        <v>83000</v>
+      </c>
+      <c r="G131" s="57"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="B132" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="F132" s="79">
+        <f t="shared" si="5"/>
+        <v>83000</v>
+      </c>
+      <c r="G132" s="57"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="B133" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="F133" s="79">
+        <f t="shared" si="5"/>
+        <v>83000</v>
+      </c>
+      <c r="G133" s="57"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="B134" s="86"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134" s="79">
+        <f t="shared" si="5"/>
+        <v>83000</v>
+      </c>
+      <c r="G134" s="57"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="B135" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135" s="57">
+        <v>50000</v>
+      </c>
+      <c r="F135" s="79">
+        <f t="shared" si="5"/>
+        <v>33000</v>
+      </c>
+      <c r="G135" s="57"/>
+    </row>
+    <row r="136" spans="1:7" ht="13.5" thickBot="1">
+      <c r="B136" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="89"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="90">
+        <f t="shared" si="5"/>
+        <v>33000</v>
+      </c>
+      <c r="G136" s="57"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="B137" s="26"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="G137" s="57"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="B138" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F138" s="57"/>
+      <c r="G138" s="57"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="B139" t="s">
+        <v>208</v>
+      </c>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139" s="3">
+        <v>1252.54</v>
+      </c>
+      <c r="G139" s="57"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="B140" t="s">
+        <v>209</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140" s="3">
+        <v>375</v>
+      </c>
+      <c r="G140" s="57"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="B141" t="s">
+        <v>210</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G141" s="57"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="182">
+        <v>45015</v>
+      </c>
+      <c r="B142" t="s">
+        <v>211</v>
+      </c>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142" s="3">
+        <v>1447</v>
+      </c>
+      <c r="G142" s="57"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="B143" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="F143" s="57">
+        <v>4574.54</v>
+      </c>
+      <c r="G143" s="57"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="G144" s="57"/>
+    </row>
+    <row r="145" spans="1:7" ht="20.25">
+      <c r="A145" s="183">
+        <v>2021</v>
+      </c>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="B147" t="s">
+        <v>215</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147" s="3">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="B148" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="F148" s="57">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="181"/>
+      <c r="B149" t="s">
+        <v>217</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="F149" s="57">
         <v>4000</v>
       </c>
-      <c r="G110"/>
+      <c r="G149"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="181"/>
+      <c r="B150" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="F150" s="57">
+        <v>4000</v>
+      </c>
+      <c r="G150"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
-  <dimension ref="B4:I25"/>
+  <dimension ref="B4:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G46" sqref="B4:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9535,25 +12019,25 @@
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9">
       <c r="C4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="C6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E6" s="3">
-        <v>36000</v>
+        <v>48000</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
         <f>H4+E6-F6</f>
-        <v>36000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -9561,7 +12045,7 @@
         <v>44651</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7">
@@ -9569,7 +12053,7 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" ref="G7:G12" si="0">G6+E7-F7</f>
-        <v>8000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -9585,7 +12069,7 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -9601,7 +12085,7 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -9609,12 +12093,12 @@
         <v>44742</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -9622,12 +12106,12 @@
         <v>44772</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -9635,231 +12119,492 @@
         <v>44803</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="60">
+      <c r="B14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>363</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="60">
         <v>44957</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" s="155" t="s">
         <v>274</v>
       </c>
-      <c r="D14">
+      <c r="D17">
         <v>6.65</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E17" s="66">
         <v>6920</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F17" s="29">
         <v>6920</v>
       </c>
-      <c r="G14" s="27">
-        <f>E14-F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="C15" t="s">
+      <c r="G17" s="27">
+        <f>E17-F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18" s="155" t="s">
         <v>275</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <v>3.15</v>
       </c>
-      <c r="E15" s="66">
-        <f t="shared" ref="E15:E25" si="1">E14+(E14*D14/100)</f>
+      <c r="E18" s="66">
+        <f t="shared" ref="E18:E31" si="1">E17+(E17*D17/100)</f>
         <v>7380.18</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27">
-        <f t="shared" ref="G15:G25" si="2">E15-F15+G14</f>
+      <c r="F18" s="29"/>
+      <c r="G18" s="27">
+        <f t="shared" ref="G18:G46" si="2">E18-F18+G17</f>
         <v>7380.18</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="C16" t="s">
+    <row r="19" spans="2:7">
+      <c r="C19" s="155" t="s">
         <v>276</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>2.29</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E19" s="66">
         <f t="shared" si="1"/>
         <v>7612.6556700000001</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="27">
+      <c r="F19" s="29"/>
+      <c r="G19" s="27">
         <f t="shared" si="2"/>
         <v>14992.83567</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
-      <c r="C17" t="s">
+    <row r="20" spans="2:7">
+      <c r="C20" s="155" t="s">
         <v>278</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>2.39</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E20" s="66">
         <f t="shared" si="1"/>
         <v>7786.9854848430004</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F20" s="29">
         <v>8425.4599999999991</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G20" s="27">
         <f t="shared" si="2"/>
         <v>14354.361154843002</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
-      <c r="C18" t="s">
+    <row r="21" spans="2:7">
+      <c r="C21" s="155" t="s">
         <v>277</v>
       </c>
-      <c r="D18">
-        <v>5.32</v>
-      </c>
-      <c r="E18" s="66">
+      <c r="D21">
+        <v>0.04</v>
+      </c>
+      <c r="E21" s="66">
         <f t="shared" si="1"/>
         <v>7973.0944379307484</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F21" s="29">
         <v>28080</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G21" s="27">
         <f t="shared" si="2"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
-      <c r="C19" t="s">
+    <row r="22" spans="2:7">
+      <c r="C22" s="155" t="s">
         <v>279</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <v>3.92</v>
-      </c>
-      <c r="E19" s="66">
-        <f t="shared" si="1"/>
-        <v>8397.2630620286636</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="27">
-        <f t="shared" si="2"/>
-        <v>2644.7186548024129</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20">
-        <v>9.49</v>
-      </c>
-      <c r="E20" s="66">
-        <f t="shared" si="1"/>
-        <v>8726.4357740601881</v>
-      </c>
-      <c r="F20" s="32">
-        <v>50000</v>
-      </c>
-      <c r="G20" s="27">
-        <f t="shared" si="2"/>
-        <v>-38628.845571137404</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21">
-        <v>9.09</v>
-      </c>
-      <c r="E21" s="66">
-        <f t="shared" si="1"/>
-        <v>9554.5745290185005</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="27">
-        <f t="shared" si="2"/>
-        <v>-29074.271042118904</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" t="s">
-        <v>282</v>
-      </c>
-      <c r="D22">
-        <v>5.37</v>
       </c>
       <c r="E22" s="66">
         <f t="shared" si="1"/>
-        <v>10423.085353706283</v>
+        <v>7976.2836757059204</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="27">
         <f t="shared" si="2"/>
-        <v>-18651.185688412621</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" t="s">
-        <v>263</v>
+        <v>2223.7392684796696</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="C23" s="155" t="s">
+        <v>280</v>
       </c>
       <c r="D23">
-        <v>4.75</v>
+        <v>9.49</v>
       </c>
       <c r="E23" s="66">
         <f t="shared" si="1"/>
-        <v>10982.805037200311</v>
-      </c>
-      <c r="F23" s="32"/>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F23" s="32">
+        <v>50000</v>
+      </c>
       <c r="G23" s="27">
         <f t="shared" si="2"/>
-        <v>-7668.3806512123101</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" t="s">
-        <v>264</v>
+        <v>-39487.306735726735</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="C24" s="155" t="s">
+        <v>281</v>
       </c>
       <c r="D24">
-        <v>4.75</v>
+        <v>9.09</v>
       </c>
       <c r="E24" s="66">
         <f t="shared" si="1"/>
-        <v>11504.488276467326</v>
-      </c>
-      <c r="F24" s="32">
-        <v>15887.06</v>
-      </c>
+        <v>9075.5757299944034</v>
+      </c>
+      <c r="F24" s="32"/>
       <c r="G24" s="27">
         <f t="shared" si="2"/>
-        <v>-12050.952374744984</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" t="s">
-        <v>265</v>
+        <v>-30411.731005732334</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="C25" s="155" t="s">
+        <v>282</v>
       </c>
       <c r="D25">
         <v>4.75</v>
       </c>
       <c r="E25" s="66">
         <f t="shared" si="1"/>
-        <v>12050.951469599524</v>
+        <v>9900.5455638508938</v>
       </c>
       <c r="F25" s="32"/>
-      <c r="G25" s="33">
+      <c r="G25" s="27">
         <f t="shared" si="2"/>
-        <v>-9.0514545991027262E-4</v>
+        <v>-20511.18544188144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="C26" s="155" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26">
+        <v>3.43</v>
+      </c>
+      <c r="E26" s="66">
+        <f t="shared" si="1"/>
+        <v>10370.821478133812</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="27">
+        <f t="shared" si="2"/>
+        <v>-10140.363963747628</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="C27" s="155" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27">
+        <v>3.28</v>
+      </c>
+      <c r="E27" s="66">
+        <f t="shared" si="1"/>
+        <v>10726.540654833801</v>
+      </c>
+      <c r="F27" s="32">
+        <v>15887.06</v>
+      </c>
+      <c r="G27" s="27">
+        <f t="shared" si="2"/>
+        <v>-15300.883308913826</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="154">
+        <v>45291</v>
+      </c>
+      <c r="C28" s="155" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28">
+        <v>2.93</v>
+      </c>
+      <c r="E28" s="66">
+        <f t="shared" si="1"/>
+        <v>11078.371188312351</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33">
+        <f t="shared" si="2"/>
+        <v>-4222.5121206014755</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="154">
+        <v>45322</v>
+      </c>
+      <c r="C29" s="156" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29">
+        <v>6.71</v>
+      </c>
+      <c r="E29" s="66">
+        <v>14000</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33">
+        <f t="shared" si="2"/>
+        <v>9777.4878793985245</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="C30" s="156" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30">
+        <v>4.53</v>
+      </c>
+      <c r="E30" s="66">
+        <f t="shared" si="1"/>
+        <v>14939.4</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33">
+        <f t="shared" si="2"/>
+        <v>24716.887879398524</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="C31" s="156" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31">
+        <v>3.16</v>
+      </c>
+      <c r="E31" s="66">
+        <f t="shared" si="1"/>
+        <v>15616.15482</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33">
+        <f t="shared" si="2"/>
+        <v>40333.042699398524</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="C32" s="158" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" s="66"/>
+      <c r="F32" s="32">
+        <v>-3795</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" si="2"/>
+        <v>44128.042699398524</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="156" t="s">
+        <v>365</v>
+      </c>
+      <c r="D33">
+        <v>3.16</v>
+      </c>
+      <c r="E33" s="66">
+        <f>E31+(E31*D31/100)</f>
+        <v>16109.625312312</v>
+      </c>
+      <c r="F33" s="32">
+        <v>85000</v>
+      </c>
+      <c r="G33" s="33">
+        <f t="shared" si="2"/>
+        <v>-24762.331988289479</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="66"/>
+      <c r="F34" s="32">
+        <v>-5600</v>
+      </c>
+      <c r="G34" s="33">
+        <f t="shared" si="2"/>
+        <v>-19162.331988289479</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="157" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="66">
+        <v>17002</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33">
+        <f t="shared" si="2"/>
+        <v>-2160.3319882894793</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="157" t="s">
+        <v>279</v>
+      </c>
+      <c r="E36" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G36" s="33">
+        <f t="shared" si="2"/>
+        <v>14841.668011710521</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="157" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G37" s="33">
+        <f t="shared" si="2"/>
+        <v>31843.668011710521</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="157" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G38" s="33">
+        <f t="shared" si="2"/>
+        <v>48845.668011710521</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="157" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G39" s="33">
+        <f t="shared" si="2"/>
+        <v>65847.668011710513</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="157" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G40" s="33">
+        <f t="shared" si="2"/>
+        <v>82849.668011710513</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="157" t="s">
+        <v>264</v>
+      </c>
+      <c r="E41" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G41" s="33">
+        <f t="shared" si="2"/>
+        <v>99851.668011710513</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="157" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G42" s="33">
+        <f t="shared" si="2"/>
+        <v>116853.66801171051</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="157" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G43" s="33">
+        <f t="shared" si="2"/>
+        <v>133855.66801171051</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="157" t="s">
+        <v>275</v>
+      </c>
+      <c r="E44" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G44" s="33">
+        <f t="shared" si="2"/>
+        <v>150857.66801171051</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="157" t="s">
+        <v>276</v>
+      </c>
+      <c r="E45" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G45" s="33">
+        <f t="shared" si="2"/>
+        <v>167859.66801171051</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="157" t="s">
+        <v>365</v>
+      </c>
+      <c r="E46" s="66">
+        <v>17002</v>
+      </c>
+      <c r="G46" s="33">
+        <f t="shared" si="2"/>
+        <v>184861.66801171051</v>
       </c>
     </row>
   </sheetData>
@@ -9868,7 +12613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
@@ -9892,7 +12637,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="51"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="91" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10007,8 +12752,8 @@
       <c r="A10" s="60">
         <v>45194</v>
       </c>
-      <c r="B10" s="105" t="s">
-        <v>337</v>
+      <c r="B10" s="99" t="s">
+        <v>335</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -10040,7 +12785,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="106">
+      <c r="A13" s="100">
         <v>45244</v>
       </c>
       <c r="D13" s="28"/>
@@ -10354,7 +13099,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="96" t="s">
         <v>253</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -10405,7 +13150,7 @@
       <c r="F44" s="50"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="98">
+      <c r="A45" s="92">
         <v>45237</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -10664,371 +13409,4 @@
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G47"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
-    <col min="8" max="59" width="12.140625" customWidth="1"/>
-    <col min="60" max="60" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="129">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="57">
-        <f>SUM(F6:F55)</f>
-        <v>77.09</v>
-      </c>
-      <c r="G2" s="57">
-        <f>F2</f>
-        <v>77.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="F5" s="97"/>
-      <c r="G5" s="57"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="60">
-        <v>44956</v>
-      </c>
-      <c r="B6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="F6" s="3">
-        <v>77.09</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" ref="G6:G22" si="0">G5+E6-F6</f>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="60">
-        <v>44985</v>
-      </c>
-      <c r="B7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="60">
-        <v>45015</v>
-      </c>
-      <c r="B8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="60">
-        <v>45046</v>
-      </c>
-      <c r="B9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="60">
-        <v>45076</v>
-      </c>
-      <c r="B10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="101">
-        <v>45060</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="101">
-        <v>45060</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="60">
-        <v>45107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="60">
-        <v>45137</v>
-      </c>
-      <c r="B14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="60">
-        <v>45168</v>
-      </c>
-      <c r="B15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="60">
-        <v>45199</v>
-      </c>
-      <c r="B16" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="60">
-        <v>45229</v>
-      </c>
-      <c r="B17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="101">
-        <v>45213</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="101">
-        <v>45213</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="60">
-        <v>45260</v>
-      </c>
-      <c r="B20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="60">
-        <v>45290</v>
-      </c>
-      <c r="B21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C21"/>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>-77.09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="60"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="60"/>
-      <c r="B26" s="3"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="60"/>
-      <c r="B27" s="3"/>
-      <c r="D27"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="60"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="60"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="60"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="G47" s="57"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52C9FF3-A711-4F1E-8BD1-A3EDE7A50315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B71FFB4-74FD-4E48-811E-0756DC2577D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="411">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1034,9 +1034,6 @@
     <t>Elektrik 2-</t>
   </si>
   <si>
-    <t>30-8-2024-31-12-2024 Bedeli</t>
-  </si>
-  <si>
     <t>30-09-2024 – 31-12-2024</t>
   </si>
   <si>
@@ -1299,6 +1296,30 @@
   </si>
   <si>
     <t xml:space="preserve">12 asgari ücret 17002*12 = </t>
+  </si>
+  <si>
+    <t>gün</t>
+  </si>
+  <si>
+    <t>nakit ödenecek</t>
+  </si>
+  <si>
+    <t>xautryg</t>
+  </si>
+  <si>
+    <t>gram</t>
+  </si>
+  <si>
+    <t>görüşme yapıldı. hesap düzeltildi aşağıdaki şekle geldi 3 seçenekten tercih yapacaklar</t>
+  </si>
+  <si>
+    <t>1- ay sonuna kadar kalan kira borcu ödenecek</t>
+  </si>
+  <si>
+    <t>2- ödeme yapılmayacaksa dükkan boşaltılacak</t>
+  </si>
+  <si>
+    <t>3- ödeme ve tahliye olmazsa hukuk yolu açık</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1341,7 @@
     <numFmt numFmtId="175" formatCode="d\.mm\.yyyy"/>
     <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="177" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -2314,38 +2335,38 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2819,7 +2840,7 @@
       </c>
       <c r="C11" s="3">
         <f>'SnyE502-22'!D4</f>
-        <v>75000</v>
+        <v>7000</v>
       </c>
       <c r="D11" s="3">
         <f>'SnyE502-22'!E4</f>
@@ -2827,11 +2848,11 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>7000</v>
       </c>
       <c r="F11" s="4">
         <f>'SnyE502-22'!D6</f>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2911,7 +2932,7 @@
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
-        <v>874924.61146702652</v>
+        <v>806924.61146702652</v>
       </c>
       <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
@@ -2919,11 +2940,11 @@
       </c>
       <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
-        <v>385084.18146702647</v>
+        <v>317084.18146702647</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
-        <v>-10179.700000000001</v>
+        <v>-10124.300000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3000,7 +3021,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C23" s="3">
         <v>170</v>
@@ -3020,7 +3041,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C24" s="3">
         <v>170</v>
@@ -3544,18 +3565,18 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -3584,7 +3605,7 @@
       <c r="E5" s="110"/>
       <c r="F5" s="110"/>
       <c r="G5" s="131" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H5" s="132">
         <f>D5</f>
@@ -3594,7 +3615,7 @@
     <row r="6" spans="1:8" ht="14.25">
       <c r="D6" s="103"/>
       <c r="G6" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H6" s="133">
         <f>H23*-1</f>
@@ -3624,7 +3645,7 @@
       </c>
       <c r="F8" s="136"/>
       <c r="G8" s="136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H8" s="137">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
@@ -3647,7 +3668,7 @@
       </c>
       <c r="F9" s="136"/>
       <c r="G9" s="136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H9" s="98">
         <f t="shared" si="0"/>
@@ -3670,7 +3691,7 @@
       </c>
       <c r="F10" s="136"/>
       <c r="G10" s="136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H10" s="98">
         <f t="shared" si="0"/>
@@ -3693,7 +3714,7 @@
       </c>
       <c r="F11" s="136"/>
       <c r="G11" s="136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H11" s="98">
         <f t="shared" si="0"/>
@@ -4030,7 +4051,7 @@
         <v>45405</v>
       </c>
       <c r="B29" s="144" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C29" s="145">
         <v>33000</v>
@@ -4060,7 +4081,7 @@
         <v>45405</v>
       </c>
       <c r="B30" s="144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C30" s="145">
         <v>170000</v>
@@ -4090,7 +4111,7 @@
         <v>45405</v>
       </c>
       <c r="B31" s="144" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C31" s="145">
         <v>-25000</v>
@@ -4120,7 +4141,7 @@
         <v>45397</v>
       </c>
       <c r="B32" s="144" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C32" s="145">
         <v>1000</v>
@@ -4150,7 +4171,7 @@
         <v>45397</v>
       </c>
       <c r="B33" s="147" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C33" s="148">
         <v>85000</v>
@@ -4208,7 +4229,7 @@
     <row r="35" spans="1:10">
       <c r="A35" s="146"/>
       <c r="B35" s="147" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C35" s="148">
         <v>24000</v>
@@ -4238,7 +4259,7 @@
         <v>45296</v>
       </c>
       <c r="B36" s="147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C36" s="148">
         <v>26000</v>
@@ -4268,7 +4289,7 @@
         <v>45295</v>
       </c>
       <c r="B37" s="147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C37" s="145">
         <v>120000</v>
@@ -4609,7 +4630,7 @@
         <v>45197</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E9" s="28">
         <v>45000</v>
@@ -4622,7 +4643,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
@@ -4770,7 +4791,7 @@
         <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C25">
         <v>24.8</v>
@@ -4791,7 +4812,7 @@
         <v>275</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C26">
         <v>-21.12</v>
@@ -4812,7 +4833,7 @@
         <v>276</v>
       </c>
       <c r="B27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C27">
         <v>-52.17</v>
@@ -4829,7 +4850,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -4840,7 +4861,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -5738,7 +5759,7 @@
         <v>45291</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5750,7 +5771,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -5762,7 +5783,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
@@ -5777,7 +5798,7 @@
         <v>45295</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
@@ -5812,7 +5833,7 @@
         <v>45295</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D14" s="31">
         <v>-12432</v>
@@ -5828,7 +5849,7 @@
         <v>45295</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32">
@@ -5844,7 +5865,7 @@
         <v>45296</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32">
@@ -5860,7 +5881,7 @@
         <v>45299</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32">
@@ -6177,7 +6198,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8"/>
@@ -6185,7 +6206,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -6195,7 +6216,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="B48" s="124" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="124">
@@ -6540,7 +6561,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
@@ -6617,7 +6638,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8"/>
@@ -6675,7 +6696,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -6751,7 +6772,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="30"/>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="3">
@@ -6771,7 +6792,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="30"/>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="3">
@@ -7168,7 +7189,7 @@
     <row r="46" spans="1:7">
       <c r="A46" s="7"/>
       <c r="B46" s="126" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C46" s="126"/>
       <c r="D46" s="125">
@@ -7788,8 +7809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D669E-8356-4324-A959-1EA6F446C492}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7905,7 +7926,7 @@
         <v>45167</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="28">
@@ -7919,7 +7940,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="28"/>
@@ -7933,7 +7954,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="28"/>
@@ -7947,7 +7968,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C12" s="100"/>
       <c r="D12" s="28"/>
@@ -7961,7 +7982,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C13" s="100"/>
       <c r="D13" s="28"/>
@@ -7975,7 +7996,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C14" s="100"/>
       <c r="D14" s="31"/>
@@ -8083,7 +8104,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8321,13 +8342,13 @@
         <v>45402</v>
       </c>
       <c r="B43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C43"/>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="3">
@@ -8368,7 +8389,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C49">
         <f>A48-A45</f>
@@ -8395,7 +8416,7 @@
         <v>45402</v>
       </c>
       <c r="B52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C52" s="161"/>
       <c r="D52" s="162"/>
@@ -8407,7 +8428,7 @@
     <row r="53" spans="1:8">
       <c r="A53" s="161"/>
       <c r="B53" s="160" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C53" s="161"/>
       <c r="D53" s="162"/>
@@ -8427,7 +8448,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="162" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -8435,7 +8456,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="159"/>
       <c r="B55" s="161" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C55" s="161"/>
       <c r="D55" s="162">
@@ -8467,7 +8488,7 @@
         <v>45402</v>
       </c>
       <c r="B57" s="161" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C57" s="161"/>
       <c r="D57" s="162"/>
@@ -8484,7 +8505,7 @@
         <v>45813</v>
       </c>
       <c r="B58" s="161" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C58" s="161"/>
       <c r="E58"/>
@@ -8500,7 +8521,7 @@
         <v>45170</v>
       </c>
       <c r="B59" s="161" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C59" s="161"/>
       <c r="E59">
@@ -8518,7 +8539,7 @@
         <v>45199</v>
       </c>
       <c r="B60" s="161" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C60" s="161"/>
       <c r="E60">
@@ -8536,7 +8557,7 @@
         <v>45229</v>
       </c>
       <c r="B61" s="161" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C61" s="161"/>
       <c r="E61">
@@ -8554,7 +8575,7 @@
         <v>45260</v>
       </c>
       <c r="B62" s="161" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C62" s="161"/>
       <c r="E62">
@@ -8570,7 +8591,7 @@
     <row r="63" spans="1:8">
       <c r="A63" s="159"/>
       <c r="B63" s="161" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C63" s="161"/>
       <c r="E63">
@@ -8593,7 +8614,7 @@
     <row r="65" spans="1:6" ht="15">
       <c r="A65" s="159"/>
       <c r="B65" s="161" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C65" s="164">
         <f>A58-A57</f>
@@ -8605,7 +8626,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="159"/>
       <c r="B66" s="161" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C66" s="160">
         <f>(D55-24)/C65</f>
@@ -8619,7 +8640,7 @@
         <v>45813</v>
       </c>
       <c r="B67" s="166" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C67" s="167"/>
       <c r="D67" s="168"/>
@@ -8629,7 +8650,7 @@
     <row r="68" spans="1:6" ht="13.5" thickTop="1">
       <c r="A68"/>
       <c r="B68" s="161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C68" s="160">
         <f>A67-A57</f>
@@ -8642,7 +8663,7 @@
     <row r="69" spans="1:6">
       <c r="A69" s="159"/>
       <c r="B69" s="161" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C69" s="161"/>
       <c r="D69" s="3">
@@ -8655,7 +8676,7 @@
     <row r="70" spans="1:6">
       <c r="A70" s="159"/>
       <c r="B70" s="161" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C70" s="161"/>
       <c r="D70" s="3">
@@ -8668,10 +8689,10 @@
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
       <c r="A71" s="159"/>
       <c r="B71" s="169" t="s">
+        <v>384</v>
+      </c>
+      <c r="C71" s="169" t="s">
         <v>385</v>
-      </c>
-      <c r="C71" s="169" t="s">
-        <v>386</v>
       </c>
       <c r="D71" s="170">
         <f>SUM(D70:D70)</f>
@@ -8683,10 +8704,10 @@
     <row r="72" spans="1:6" ht="13.5" thickTop="1">
       <c r="A72" s="159"/>
       <c r="B72" s="161" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C72" s="161" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="162"/>
@@ -8694,10 +8715,10 @@
     <row r="73" spans="1:6">
       <c r="A73" s="159"/>
       <c r="B73" s="161" t="s">
+        <v>387</v>
+      </c>
+      <c r="C73" s="161" t="s">
         <v>388</v>
-      </c>
-      <c r="C73" s="161" t="s">
-        <v>389</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="162"/>
@@ -8705,10 +8726,10 @@
     <row r="74" spans="1:6">
       <c r="A74" s="159"/>
       <c r="B74" s="161" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C74" s="161" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E74"/>
       <c r="F74" s="162"/>
@@ -8723,10 +8744,10 @@
     <row r="76" spans="1:6" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="161"/>
       <c r="B76" s="172" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C76" s="173" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D76" s="170">
         <f>SUM(D71:D75)</f>
@@ -8747,10 +8768,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A87" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8805,7 +8826,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15">
         <f>SUM(D9:D20)</f>
-        <v>75000</v>
+        <v>7000</v>
       </c>
       <c r="E4" s="16">
         <f>SUM(E9:E20)</f>
@@ -8813,7 +8834,7 @@
       </c>
       <c r="F4" s="17">
         <f>F20</f>
-        <v>75000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8834,7 +8855,7 @@
       <c r="C6"/>
       <c r="D6" s="20">
         <f>F37</f>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="21"/>
@@ -8865,17 +8886,13 @@
       <c r="A9" s="7">
         <v>45167</v>
       </c>
-      <c r="B9" t="s">
-        <v>315</v>
-      </c>
+      <c r="B9"/>
       <c r="C9"/>
-      <c r="D9" s="28">
-        <v>68000</v>
-      </c>
+      <c r="D9" s="28"/>
       <c r="E9" s="29"/>
       <c r="F9" s="27">
         <f>D9-E9</f>
-        <v>68000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8885,7 +8902,7 @@
       <c r="E10" s="29"/>
       <c r="F10" s="27">
         <f t="shared" ref="F10:F20" si="0">D10-E10+F9</f>
-        <v>68000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8895,7 +8912,7 @@
       <c r="E11" s="29"/>
       <c r="F11" s="27">
         <f t="shared" si="0"/>
-        <v>68000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8905,7 +8922,7 @@
       <c r="E12" s="29"/>
       <c r="F12" s="27">
         <f t="shared" si="0"/>
-        <v>68000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8915,7 +8932,7 @@
       <c r="E13" s="29"/>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>68000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8925,7 +8942,7 @@
       <c r="E14" s="32"/>
       <c r="F14" s="27">
         <f t="shared" si="0"/>
-        <v>68000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8944,7 +8961,7 @@
       <c r="E15" s="32"/>
       <c r="F15" s="27">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8955,7 +8972,7 @@
       <c r="E16" s="32"/>
       <c r="F16" s="27">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8966,7 +8983,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="27">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8977,7 +8994,7 @@
       <c r="E18" s="32"/>
       <c r="F18" s="27">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8988,7 +9005,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="27">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8999,7 +9016,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="33">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9033,7 +9050,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9092,11 +9109,13 @@
         <v>37</v>
       </c>
       <c r="C27"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="35">
+        <v>55.4</v>
+      </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9109,7 +9128,7 @@
       <c r="E28" s="35"/>
       <c r="F28" s="35">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9122,7 +9141,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9135,7 +9154,7 @@
       <c r="E30" s="35"/>
       <c r="F30" s="35">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9148,7 +9167,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9161,7 +9180,7 @@
       <c r="E32" s="35"/>
       <c r="F32" s="35">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9174,7 +9193,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9187,7 +9206,7 @@
       <c r="E34" s="35"/>
       <c r="F34" s="35">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9200,7 +9219,7 @@
       <c r="E35" s="35"/>
       <c r="F35" s="35">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9213,7 +9232,7 @@
       <c r="E36" s="38"/>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9231,7 +9250,7 @@
       <c r="E37" s="44"/>
       <c r="F37" s="45">
         <f>D37-E37+F36</f>
-        <v>-850</v>
+        <v>-794.6</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9584,7 +9603,7 @@
     <row r="73" spans="1:8">
       <c r="A73" s="161"/>
       <c r="B73" s="160" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C73" s="161"/>
       <c r="D73" s="162"/>
@@ -9604,7 +9623,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="162" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -9642,7 +9661,7 @@
         <v>45168</v>
       </c>
       <c r="B77" s="161" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C77" s="161"/>
       <c r="D77" s="162"/>
@@ -9659,7 +9678,7 @@
         <v>45533</v>
       </c>
       <c r="B78" s="161" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C78" s="161"/>
       <c r="E78"/>
@@ -9675,7 +9694,7 @@
         <v>45170</v>
       </c>
       <c r="B79" s="161" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C79" s="161"/>
       <c r="E79">
@@ -9693,7 +9712,7 @@
         <v>45199</v>
       </c>
       <c r="B80" s="161" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C80" s="161"/>
       <c r="E80">
@@ -9711,7 +9730,7 @@
         <v>45229</v>
       </c>
       <c r="B81" s="161" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C81" s="161"/>
       <c r="E81">
@@ -9729,7 +9748,7 @@
         <v>45260</v>
       </c>
       <c r="B82" s="161" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C82" s="161"/>
       <c r="E82">
@@ -9747,7 +9766,7 @@
         <v>45290</v>
       </c>
       <c r="B83" s="161" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C83" s="161"/>
       <c r="E83">
@@ -9765,10 +9784,10 @@
         <v>45321</v>
       </c>
       <c r="B84" s="161" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" s="163" t="s">
         <v>377</v>
-      </c>
-      <c r="C84" s="163" t="s">
-        <v>378</v>
       </c>
       <c r="E84"/>
       <c r="F84" s="162">
@@ -9788,7 +9807,7 @@
     <row r="86" spans="1:8" ht="15">
       <c r="A86" s="159"/>
       <c r="B86" s="161" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C86" s="164">
         <f>A78-A77</f>
@@ -9800,7 +9819,7 @@
     <row r="87" spans="1:8">
       <c r="A87" s="159"/>
       <c r="B87" s="161" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C87" s="160">
         <f>D75/C86</f>
@@ -9811,51 +9830,48 @@
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="165">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="B88" s="166" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C88" s="167"/>
       <c r="D88" s="168"/>
       <c r="E88"/>
-      <c r="F88" s="162"/>
     </row>
     <row r="89" spans="1:8" ht="13.5" thickTop="1">
       <c r="A89"/>
       <c r="B89" s="161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C89" s="160">
         <f>A88-A77</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="162"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="159"/>
       <c r="B90" s="161" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C90" s="161"/>
       <c r="D90" s="3">
         <f>C89*C87</f>
-        <v>64175.342465753434</v>
+        <v>64438.356164383571</v>
       </c>
       <c r="E90"/>
-      <c r="F90" s="162"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="159"/>
       <c r="B91" s="161" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C91" s="161"/>
       <c r="D91" s="3">
         <f>D75-D90</f>
-        <v>31824.657534246566</v>
+        <v>31561.643835616429</v>
       </c>
       <c r="E91"/>
       <c r="F91" s="162"/>
@@ -9863,14 +9879,14 @@
     <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="159"/>
       <c r="B92" s="169" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" s="169" t="s">
         <v>385</v>
-      </c>
-      <c r="C92" s="169" t="s">
-        <v>386</v>
       </c>
       <c r="D92" s="170">
         <f>SUM(D91:D91)</f>
-        <v>31824.657534246566</v>
+        <v>31561.643835616429</v>
       </c>
       <c r="E92"/>
       <c r="F92" s="162"/>
@@ -9878,13 +9894,13 @@
     <row r="93" spans="1:8" ht="13.5" thickTop="1">
       <c r="A93" s="159"/>
       <c r="B93" s="161" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C93" s="161" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D93" s="3">
-        <v>850</v>
+        <v>794.6</v>
       </c>
       <c r="E93"/>
       <c r="F93" s="162"/>
@@ -9892,59 +9908,195 @@
     <row r="94" spans="1:8">
       <c r="A94" s="159"/>
       <c r="B94" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="C94" s="161" t="s">
         <v>388</v>
       </c>
-      <c r="C94" s="161" t="s">
-        <v>389</v>
-      </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-30</v>
       </c>
       <c r="E94"/>
       <c r="F94" s="162"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" ht="13.5" thickBot="1">
       <c r="A95" s="159"/>
-      <c r="B95" s="161" t="s">
+      <c r="B95" s="171" t="s">
         <v>390</v>
       </c>
       <c r="C95" s="161" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="D95" s="3">
+        <f>F84*-1</f>
+        <v>-7000</v>
       </c>
       <c r="E95"/>
       <c r="F95" s="162"/>
     </row>
-    <row r="96" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A96" s="159"/>
-      <c r="B96" s="171" t="s">
+    <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A96" s="161"/>
+      <c r="B96" s="172" t="s">
         <v>391</v>
       </c>
-      <c r="C96" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="D96" s="3">
-        <f>F84*-1</f>
-        <v>-7000</v>
-      </c>
-      <c r="E96"/>
+      <c r="C96" s="173" t="s">
+        <v>385</v>
+      </c>
+      <c r="D96" s="170">
+        <f>SUM(D92:D95)</f>
+        <v>25326.243835616428</v>
+      </c>
+      <c r="E96" s="162"/>
       <c r="F96" s="162"/>
     </row>
-    <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="161"/>
-      <c r="B97" s="172" t="s">
-        <v>392</v>
-      </c>
-      <c r="C97" s="173" t="s">
-        <v>386</v>
-      </c>
-      <c r="D97" s="170">
-        <f>SUM(D92:D96)</f>
-        <v>25474.657534246566</v>
-      </c>
-      <c r="E97" s="162"/>
-      <c r="F97" s="162"/>
-    </row>
-    <row r="98" spans="1:6" ht="13.5" thickTop="1"/>
+    <row r="97" spans="1:4" ht="13.5" thickTop="1">
+      <c r="A97" s="7">
+        <v>45412</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" s="3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="B98" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D98" s="3">
+        <f>D96-D97</f>
+        <v>1326.2438356164275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="D101" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="7">
+        <v>9</v>
+      </c>
+      <c r="D103" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="7">
+        <v>10</v>
+      </c>
+      <c r="D104" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="7">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="7">
+        <v>12</v>
+      </c>
+      <c r="D106" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="7">
+        <v>1</v>
+      </c>
+      <c r="D107" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="7">
+        <v>2</v>
+      </c>
+      <c r="D108" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="7">
+        <v>3</v>
+      </c>
+      <c r="D109" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="7">
+        <v>4</v>
+      </c>
+      <c r="D110" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="D111" s="3">
+        <f>SUM(D102:D110)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="162"/>
+      <c r="B114" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A115" s="165">
+        <v>45413</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1985</v>
+      </c>
+      <c r="D115" s="3">
+        <f>D114/B115</f>
+        <v>3.5264483627204029</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="14.25" thickTop="1" thickBot="1">
+      <c r="A116" s="165">
+        <v>45412</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2410</v>
+      </c>
+      <c r="D116" s="3">
+        <f>D115*B116</f>
+        <v>8498.7405541561711</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="13.5" thickTop="1">
+      <c r="D117" s="3">
+        <f>D114/B116</f>
+        <v>2.904564315352697</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9956,7 +10108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A129" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -10003,7 +10155,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -10064,7 +10216,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="178" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
@@ -10119,12 +10271,12 @@
         <v>3.15</v>
       </c>
       <c r="E10" s="66">
-        <f>E9+(E9*C9/100)</f>
+        <f t="shared" ref="E10:E20" si="0">E9+(E9*C9/100)</f>
         <v>7380.18</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="27">
-        <f t="shared" ref="G10:G38" si="0">E10-F10+G9</f>
+        <f t="shared" ref="G10:G38" si="1">E10-F10+G9</f>
         <v>7380.18</v>
       </c>
     </row>
@@ -10137,12 +10289,12 @@
         <v>2.29</v>
       </c>
       <c r="E11" s="66">
-        <f>E10+(E10*C10/100)</f>
+        <f t="shared" si="0"/>
         <v>7612.6556700000001</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14992.83567</v>
       </c>
     </row>
@@ -10155,14 +10307,14 @@
         <v>2.39</v>
       </c>
       <c r="E12" s="66">
-        <f>E11+(E11*C11/100)</f>
+        <f t="shared" si="0"/>
         <v>7786.9854848430004</v>
       </c>
       <c r="F12" s="29">
         <v>8425.4599999999991</v>
       </c>
       <c r="G12" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14354.361154843002</v>
       </c>
     </row>
@@ -10175,14 +10327,14 @@
         <v>0.04</v>
       </c>
       <c r="E13" s="66">
-        <f>E12+(E12*C12/100)</f>
+        <f t="shared" si="0"/>
         <v>7973.0944379307484</v>
       </c>
       <c r="F13" s="29">
         <v>28080</v>
       </c>
       <c r="G13" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
@@ -10195,12 +10347,12 @@
         <v>3.92</v>
       </c>
       <c r="E14" s="66">
-        <f>E13+(E13*C13/100)</f>
+        <f t="shared" si="0"/>
         <v>7976.2836757059204</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
@@ -10213,14 +10365,14 @@
         <v>9.49</v>
       </c>
       <c r="E15" s="66">
-        <f>E14+(E14*C14/100)</f>
+        <f t="shared" si="0"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F15" s="32">
         <v>50000</v>
       </c>
       <c r="G15" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
@@ -10233,12 +10385,12 @@
         <v>9.09</v>
       </c>
       <c r="E16" s="66">
-        <f>E15+(E15*C15/100)</f>
+        <f t="shared" si="0"/>
         <v>9075.5757299944034</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-30411.731005732334</v>
       </c>
     </row>
@@ -10251,12 +10403,12 @@
         <v>4.75</v>
       </c>
       <c r="E17" s="66">
-        <f>E16+(E16*C16/100)</f>
+        <f t="shared" si="0"/>
         <v>9900.5455638508938</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-20511.18544188144</v>
       </c>
     </row>
@@ -10269,12 +10421,12 @@
         <v>3.43</v>
       </c>
       <c r="E18" s="66">
-        <f>E17+(E17*C17/100)</f>
+        <f t="shared" si="0"/>
         <v>10370.821478133812</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10140.363963747628</v>
       </c>
     </row>
@@ -10283,20 +10435,20 @@
         <v>45260</v>
       </c>
       <c r="B19" s="155" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C19">
         <v>42.645099999999999</v>
       </c>
       <c r="E19" s="66">
-        <f>E18+(E18*C18/100)</f>
+        <f t="shared" si="0"/>
         <v>10726.540654833801</v>
       </c>
       <c r="F19" s="32">
         <v>15887.06</v>
       </c>
       <c r="G19" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-15300.883308913826</v>
       </c>
     </row>
@@ -10311,12 +10463,12 @@
         <v>2.93</v>
       </c>
       <c r="E20" s="66">
-        <f>E19+(E19*C19/100)</f>
+        <f t="shared" si="0"/>
         <v>15300.884643628331</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3347145049920073E-3</v>
       </c>
     </row>
@@ -10335,7 +10487,7 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14000.001334714505</v>
       </c>
     </row>
@@ -10353,7 +10505,7 @@
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28939.401334714505</v>
       </c>
     </row>
@@ -10371,14 +10523,14 @@
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44555.556154714504</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="181"/>
       <c r="B24" s="158" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C24"/>
       <c r="E24" s="66"/>
@@ -10386,14 +10538,14 @@
         <v>-3795</v>
       </c>
       <c r="G24" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48350.556154714504</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="181"/>
       <c r="B25" s="156" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C25">
         <v>3.16</v>
@@ -10406,7 +10558,7 @@
         <v>85000</v>
       </c>
       <c r="G25" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-20539.818532973499</v>
       </c>
     </row>
@@ -10421,14 +10573,14 @@
         <v>-5600</v>
       </c>
       <c r="G26" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14939.818532973499</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="181"/>
       <c r="B27" s="157" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C27"/>
       <c r="E27" s="66">
@@ -10436,7 +10588,7 @@
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2062.1814670265012</v>
       </c>
     </row>
@@ -10451,7 +10603,7 @@
       </c>
       <c r="F28"/>
       <c r="G28" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19064.181467026501</v>
       </c>
     </row>
@@ -10466,7 +10618,7 @@
       </c>
       <c r="F29"/>
       <c r="G29" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36066.181467026501</v>
       </c>
     </row>
@@ -10481,14 +10633,14 @@
       </c>
       <c r="F30"/>
       <c r="G30" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53068.181467026501</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="181"/>
       <c r="B31" s="157" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C31"/>
       <c r="E31" s="66">
@@ -10496,7 +10648,7 @@
       </c>
       <c r="F31"/>
       <c r="G31" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70070.181467026501</v>
       </c>
     </row>
@@ -10511,7 +10663,7 @@
       </c>
       <c r="F32"/>
       <c r="G32" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87072.181467026501</v>
       </c>
     </row>
@@ -10526,7 +10678,7 @@
       </c>
       <c r="F33"/>
       <c r="G33" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104074.1814670265</v>
       </c>
     </row>
@@ -10541,7 +10693,7 @@
       </c>
       <c r="F34"/>
       <c r="G34" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121076.1814670265</v>
       </c>
     </row>
@@ -10556,7 +10708,7 @@
       </c>
       <c r="F35"/>
       <c r="G35" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138078.1814670265</v>
       </c>
     </row>
@@ -10571,7 +10723,7 @@
       </c>
       <c r="F36"/>
       <c r="G36" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>155080.1814670265</v>
       </c>
     </row>
@@ -10586,14 +10738,14 @@
       </c>
       <c r="F37"/>
       <c r="G37" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>172082.1814670265</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="181"/>
       <c r="B38" s="157" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C38"/>
       <c r="E38" s="66">
@@ -10601,7 +10753,7 @@
       </c>
       <c r="F38"/>
       <c r="G38" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>189084.1814670265</v>
       </c>
     </row>
@@ -10640,7 +10792,7 @@
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -10677,7 +10829,7 @@
         <v>891.32</v>
       </c>
       <c r="G43" s="35">
-        <f t="shared" ref="G43:G54" si="1">E43-F43+G42</f>
+        <f t="shared" ref="G43:G54" si="2">E43-F43+G42</f>
         <v>-2620.09</v>
       </c>
       <c r="K43" s="3"/>
@@ -10700,7 +10852,7 @@
         <v>2248.8000000000002</v>
       </c>
       <c r="G44" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J44" s="1"/>
@@ -10716,7 +10868,7 @@
       <c r="C45"/>
       <c r="D45"/>
       <c r="G45" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J45" s="1"/>
@@ -10732,7 +10884,7 @@
       <c r="C46"/>
       <c r="D46"/>
       <c r="G46" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J46" s="1"/>
@@ -10748,7 +10900,7 @@
       <c r="C47"/>
       <c r="D47"/>
       <c r="G47" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J47" s="1"/>
@@ -10764,7 +10916,7 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="G48" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J48" s="1"/>
@@ -10780,7 +10932,7 @@
       <c r="C49"/>
       <c r="D49"/>
       <c r="G49" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J49" s="1"/>
@@ -10796,7 +10948,7 @@
       <c r="C50"/>
       <c r="D50"/>
       <c r="G50" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J50" s="1"/>
@@ -10812,7 +10964,7 @@
       <c r="C51"/>
       <c r="D51"/>
       <c r="G51" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J51" s="1"/>
@@ -10830,7 +10982,7 @@
       <c r="E52" s="57"/>
       <c r="F52" s="57"/>
       <c r="G52" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J52" s="1"/>
@@ -10848,7 +11000,7 @@
       <c r="E53" s="34"/>
       <c r="F53" s="35"/>
       <c r="G53" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="I53" s="1"/>
@@ -10867,7 +11019,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
       <c r="G54" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="I54" s="1"/>
@@ -10971,7 +11123,7 @@
     <row r="62" spans="1:13">
       <c r="A62" s="181"/>
       <c r="B62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -11014,7 +11166,7 @@
         <v>28000</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" ref="G65:G70" si="2">G64+E65-F65</f>
+        <f t="shared" ref="G65:G70" si="3">G64+E65-F65</f>
         <v>20000</v>
       </c>
     </row>
@@ -11030,7 +11182,7 @@
         <v>4000</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16000</v>
       </c>
     </row>
@@ -11046,7 +11198,7 @@
         <v>4000</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
     </row>
@@ -11055,12 +11207,12 @@
         <v>44742</v>
       </c>
       <c r="B68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C68"/>
       <c r="F68"/>
       <c r="G68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
     </row>
@@ -11069,12 +11221,12 @@
         <v>44772</v>
       </c>
       <c r="B69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C69"/>
       <c r="F69"/>
       <c r="G69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
     </row>
@@ -11083,12 +11235,12 @@
         <v>44803</v>
       </c>
       <c r="B70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C70"/>
       <c r="F70"/>
       <c r="G70" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
     </row>
@@ -11103,7 +11255,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="B72" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -11113,7 +11265,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="B73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -11199,7 +11351,7 @@
         <v>45315</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -11412,7 +11564,7 @@
         <v>186</v>
       </c>
       <c r="G103" s="3">
-        <f t="shared" ref="G103:G114" si="3">G102+E103-F103</f>
+        <f t="shared" ref="G103:G114" si="4">G102+E103-F103</f>
         <v>0</v>
       </c>
       <c r="J103" s="3"/>
@@ -11427,7 +11579,7 @@
         <v>20.95</v>
       </c>
       <c r="G104" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-20.95</v>
       </c>
       <c r="J104" s="3"/>
@@ -11442,7 +11594,7 @@
         <v>11.93</v>
       </c>
       <c r="G105" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-32.879999999999995</v>
       </c>
       <c r="J105" s="3"/>
@@ -11458,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-32.879999999999995</v>
       </c>
       <c r="J106" s="3"/>
@@ -11474,7 +11626,7 @@
         <v>23.25</v>
       </c>
       <c r="G107" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-56.129999999999995</v>
       </c>
       <c r="J107" s="3"/>
@@ -11490,7 +11642,7 @@
         <v>42.14</v>
       </c>
       <c r="G108" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-98.27</v>
       </c>
       <c r="J108" s="3"/>
@@ -11505,7 +11657,7 @@
         <v>39.369999999999997</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-137.63999999999999</v>
       </c>
       <c r="J109" s="3"/>
@@ -11521,7 +11673,7 @@
         <v>150.16</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-287.79999999999995</v>
       </c>
       <c r="J110" s="3"/>
@@ -11537,7 +11689,7 @@
         <v>216.76</v>
       </c>
       <c r="G111" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-504.55999999999995</v>
       </c>
       <c r="J111" s="3"/>
@@ -11553,7 +11705,7 @@
         <v>132.72</v>
       </c>
       <c r="G112" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-637.28</v>
       </c>
       <c r="J112" s="3"/>
@@ -11567,7 +11719,7 @@
         <v>404.76</v>
       </c>
       <c r="G113" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-232.51999999999998</v>
       </c>
       <c r="J113" s="3"/>
@@ -11582,7 +11734,7 @@
       <c r="E114" s="57"/>
       <c r="F114" s="57"/>
       <c r="G114" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-232.51999999999998</v>
       </c>
       <c r="J114" s="3"/>
@@ -11638,7 +11790,7 @@
         <v>6920</v>
       </c>
       <c r="F119" s="79">
-        <f t="shared" ref="F119:F126" si="4">F118-E119</f>
+        <f t="shared" ref="F119:F126" si="5">F118-E119</f>
         <v>41080</v>
       </c>
       <c r="G119"/>
@@ -11653,7 +11805,7 @@
         <v>13000</v>
       </c>
       <c r="F120" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28080</v>
       </c>
       <c r="G120"/>
@@ -11666,7 +11818,7 @@
       <c r="D121"/>
       <c r="E121"/>
       <c r="F121" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28080</v>
       </c>
     </row>
@@ -11678,7 +11830,7 @@
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28080</v>
       </c>
       <c r="G122"/>
@@ -11691,7 +11843,7 @@
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28080</v>
       </c>
       <c r="G123" s="57"/>
@@ -11704,7 +11856,7 @@
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28080</v>
       </c>
       <c r="G124" s="57"/>
@@ -11717,7 +11869,7 @@
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28080</v>
       </c>
       <c r="G125" s="57"/>
@@ -11732,7 +11884,7 @@
         <v>28080</v>
       </c>
       <c r="F126" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G126" s="57"/>
@@ -11773,7 +11925,7 @@
       <c r="C130"/>
       <c r="D130"/>
       <c r="F130" s="79">
-        <f t="shared" ref="F130:F136" si="5">F129-E130</f>
+        <f t="shared" ref="F130:F136" si="6">F129-E130</f>
         <v>83000</v>
       </c>
       <c r="G130"/>
@@ -11785,7 +11937,7 @@
       <c r="C131"/>
       <c r="D131"/>
       <c r="F131" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83000</v>
       </c>
       <c r="G131" s="57"/>
@@ -11797,7 +11949,7 @@
       <c r="C132"/>
       <c r="D132"/>
       <c r="F132" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83000</v>
       </c>
       <c r="G132" s="57"/>
@@ -11809,7 +11961,7 @@
       <c r="C133"/>
       <c r="D133"/>
       <c r="F133" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83000</v>
       </c>
       <c r="G133" s="57"/>
@@ -11820,7 +11972,7 @@
       <c r="D134"/>
       <c r="E134"/>
       <c r="F134" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83000</v>
       </c>
       <c r="G134" s="57"/>
@@ -11835,7 +11987,7 @@
         <v>50000</v>
       </c>
       <c r="F135" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33000</v>
       </c>
       <c r="G135" s="57"/>
@@ -11848,7 +12000,7 @@
       <c r="D136" s="89"/>
       <c r="E136" s="89"/>
       <c r="F136" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33000</v>
       </c>
       <c r="G136" s="57"/>
@@ -12006,10 +12158,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
-  <dimension ref="B4:I46"/>
+  <dimension ref="B4:I79"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G46" sqref="B4:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12020,11 +12172,16 @@
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9">
       <c r="C4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -12093,7 +12250,7 @@
         <v>44742</v>
       </c>
       <c r="C10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3">
@@ -12106,7 +12263,7 @@
         <v>44772</v>
       </c>
       <c r="C11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3">
@@ -12119,7 +12276,7 @@
         <v>44803</v>
       </c>
       <c r="C12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3">
@@ -12132,13 +12289,13 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -12179,7 +12336,7 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="27">
-        <f t="shared" ref="G18:G46" si="2">E18-F18+G17</f>
+        <f t="shared" ref="G18:G42" si="2">E18-F18+G17</f>
         <v>7380.18</v>
       </c>
     </row>
@@ -12419,7 +12576,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="C32" s="158" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E32" s="66"/>
       <c r="F32" s="32">
@@ -12430,9 +12587,9 @@
         <v>44128.042699398524</v>
       </c>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="2:7">
       <c r="C33" s="156" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D33">
         <v>3.16</v>
@@ -12449,7 +12606,7 @@
         <v>-24762.331988289479</v>
       </c>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="2:7">
       <c r="C34" s="158" t="s">
         <v>208</v>
       </c>
@@ -12462,9 +12619,9 @@
         <v>-19162.331988289479</v>
       </c>
     </row>
-    <row r="35" spans="3:7">
+    <row r="35" spans="2:7">
       <c r="C35" s="157" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E35" s="66">
         <v>17002</v>
@@ -12475,7 +12632,7 @@
         <v>-2160.3319882894793</v>
       </c>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="2:7">
       <c r="C36" s="157" t="s">
         <v>279</v>
       </c>
@@ -12487,7 +12644,7 @@
         <v>14841.668011710521</v>
       </c>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" spans="2:7">
       <c r="C37" s="157" t="s">
         <v>280</v>
       </c>
@@ -12499,7 +12656,7 @@
         <v>31843.668011710521</v>
       </c>
     </row>
-    <row r="38" spans="3:7">
+    <row r="38" spans="2:7">
       <c r="C38" s="157" t="s">
         <v>281</v>
       </c>
@@ -12511,9 +12668,9 @@
         <v>48845.668011710521</v>
       </c>
     </row>
-    <row r="39" spans="3:7">
+    <row r="39" spans="2:7">
       <c r="C39" s="157" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E39" s="66">
         <v>17002</v>
@@ -12523,7 +12680,7 @@
         <v>65847.668011710513</v>
       </c>
     </row>
-    <row r="40" spans="3:7">
+    <row r="40" spans="2:7">
       <c r="C40" s="157" t="s">
         <v>263</v>
       </c>
@@ -12535,7 +12692,7 @@
         <v>82849.668011710513</v>
       </c>
     </row>
-    <row r="41" spans="3:7">
+    <row r="41" spans="2:7">
       <c r="C41" s="157" t="s">
         <v>264</v>
       </c>
@@ -12547,7 +12704,7 @@
         <v>99851.668011710513</v>
       </c>
     </row>
-    <row r="42" spans="3:7">
+    <row r="42" spans="2:7">
       <c r="C42" s="157" t="s">
         <v>265</v>
       </c>
@@ -12559,52 +12716,461 @@
         <v>116853.66801171051</v>
       </c>
     </row>
-    <row r="43" spans="3:7">
-      <c r="C43" s="157" t="s">
+    <row r="47" spans="2:7">
+      <c r="B47" s="100">
+        <v>45421</v>
+      </c>
+      <c r="C47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="100"/>
+      <c r="C48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="100"/>
+      <c r="C49" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="100"/>
+      <c r="C50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="100"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="100"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="60">
+        <v>44957</v>
+      </c>
+      <c r="C54" s="155" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="66">
-        <v>17002</v>
-      </c>
-      <c r="G43" s="33">
-        <f t="shared" si="2"/>
-        <v>133855.66801171051</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="C44" s="157" t="s">
+      <c r="D54">
+        <v>6.65</v>
+      </c>
+      <c r="E54" s="66">
+        <v>6920</v>
+      </c>
+      <c r="F54" s="29">
+        <v>6920</v>
+      </c>
+      <c r="G54" s="27">
+        <f>E54-F54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="C55" s="155" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="66">
-        <v>17002</v>
-      </c>
-      <c r="G44" s="33">
-        <f t="shared" si="2"/>
-        <v>150857.66801171051</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7">
-      <c r="C45" s="157" t="s">
+      <c r="D55">
+        <v>3.15</v>
+      </c>
+      <c r="E55" s="66">
+        <f>E54+(E54*D54/100)</f>
+        <v>7380.18</v>
+      </c>
+      <c r="F55" s="29"/>
+      <c r="G55" s="27">
+        <f>E55-F55+G54</f>
+        <v>7380.18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="C56" s="155" t="s">
         <v>276</v>
       </c>
-      <c r="E45" s="66">
-        <v>17002</v>
-      </c>
-      <c r="G45" s="33">
-        <f t="shared" si="2"/>
-        <v>167859.66801171051</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="C46" s="157" t="s">
+      <c r="D56">
+        <v>2.29</v>
+      </c>
+      <c r="E56" s="66">
+        <f>E55+(E55*D55/100)</f>
+        <v>7612.6556700000001</v>
+      </c>
+      <c r="F56" s="29"/>
+      <c r="G56" s="27">
+        <f>E56-F56+G55</f>
+        <v>14992.83567</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="C57" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="D57">
+        <v>2.39</v>
+      </c>
+      <c r="E57" s="66">
+        <f>E56+(E56*D56/100)</f>
+        <v>7786.9854848430004</v>
+      </c>
+      <c r="F57" s="29">
+        <v>8425.4599999999991</v>
+      </c>
+      <c r="G57" s="27">
+        <f>E57-F57+G56</f>
+        <v>14354.361154843002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="C58" s="155" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58">
+        <v>0.04</v>
+      </c>
+      <c r="E58" s="66">
+        <f>E57+(E57*D57/100)</f>
+        <v>7973.0944379307484</v>
+      </c>
+      <c r="F58" s="29">
+        <v>28080</v>
+      </c>
+      <c r="G58" s="27">
+        <f>E58-F58+G57</f>
+        <v>-5752.5444072262508</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="C59" s="155" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59">
+        <v>3.92</v>
+      </c>
+      <c r="E59" s="66">
+        <f>E58+(E58*D58/100)</f>
+        <v>7976.2836757059204</v>
+      </c>
+      <c r="F59" s="32"/>
+      <c r="G59" s="27">
+        <f>E59-F59+G58</f>
+        <v>2223.7392684796696</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="C60" s="155" t="s">
+        <v>280</v>
+      </c>
+      <c r="D60">
+        <v>9.49</v>
+      </c>
+      <c r="E60" s="66">
+        <f>E59+(E59*D59/100)</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F60" s="32">
+        <v>50000</v>
+      </c>
+      <c r="G60" s="27">
+        <f>E60-F60+G59</f>
+        <v>-39487.306735726735</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="C61" s="155" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61">
+        <v>9.09</v>
+      </c>
+      <c r="E61" s="66">
+        <f>E60</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="27">
+        <f>E61-F61+G60</f>
+        <v>-31198.352739933143</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="C62" s="155" t="s">
+        <v>282</v>
+      </c>
+      <c r="D62">
+        <v>4.75</v>
+      </c>
+      <c r="E62" s="66">
+        <f t="shared" ref="E62:E65" si="3">E61</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="27">
+        <f>E62-F62+G61</f>
+        <v>-22909.398744139551</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="C63" s="155" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63">
+        <v>3.43</v>
+      </c>
+      <c r="E63" s="66">
+        <f t="shared" si="3"/>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F63" s="32"/>
+      <c r="G63" s="27">
+        <f>E63-F63+G62</f>
+        <v>-14620.444748345959</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="C64" s="155" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64">
+        <v>3.28</v>
+      </c>
+      <c r="E64" s="66">
+        <f t="shared" si="3"/>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F64" s="32">
+        <v>15887.06</v>
+      </c>
+      <c r="G64" s="27">
+        <f>E64-F64+G63</f>
+        <v>-22218.550752552364</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="154">
+        <v>45291</v>
+      </c>
+      <c r="C65" s="155" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65">
+        <v>2.93</v>
+      </c>
+      <c r="E65" s="66">
+        <f t="shared" si="3"/>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33">
+        <f>E65-F65+G64</f>
+        <v>-13929.596756758772</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="154">
+        <v>45322</v>
+      </c>
+      <c r="C66" s="156" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66">
+        <v>6.71</v>
+      </c>
+      <c r="E66" s="66">
+        <v>14000</v>
+      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="33">
+        <f>E66-F66+G65</f>
+        <v>70.403243241227756</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="C67" s="156" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67">
+        <v>4.53</v>
+      </c>
+      <c r="E67" s="66">
+        <f t="shared" ref="E67:E68" si="4">E66+(E66*D66/100)</f>
+        <v>14939.4</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="33">
+        <f>E67-F67+G66</f>
+        <v>15009.803243241227</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="C68" s="156" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68">
+        <v>3.16</v>
+      </c>
+      <c r="E68" s="66">
+        <f t="shared" si="4"/>
+        <v>15616.15482</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="33">
+        <f>E68-F68+G67</f>
+        <v>30625.958063241225</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="C69" s="158" t="s">
+        <v>350</v>
+      </c>
+      <c r="E69" s="66"/>
+      <c r="F69" s="32">
+        <v>-3795</v>
+      </c>
+      <c r="G69" s="33">
+        <f>E69-F69+G68</f>
+        <v>34420.958063241225</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="C70" s="156" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70">
+        <v>3.16</v>
+      </c>
+      <c r="E70" s="66">
+        <f>E68+(E68*D68/100)</f>
+        <v>16109.625312312</v>
+      </c>
+      <c r="F70" s="32">
+        <v>85000</v>
+      </c>
+      <c r="G70" s="33">
+        <f>E70-F70+G69</f>
+        <v>-34469.416624446778</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="C71" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71">
+        <v>5.54</v>
+      </c>
+      <c r="E71" s="66"/>
+      <c r="F71" s="32">
+        <v>-5600</v>
+      </c>
+      <c r="G71" s="33">
+        <f>E71-F71+G70</f>
+        <v>-28869.416624446778</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="C72" s="157" t="s">
         <v>365</v>
       </c>
-      <c r="E46" s="66">
-        <v>17002</v>
-      </c>
-      <c r="G46" s="33">
-        <f t="shared" si="2"/>
-        <v>184861.66801171051</v>
+      <c r="E72" s="66">
+        <f>E70+(E70*D71/100)</f>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="F72" s="32"/>
+      <c r="G72" s="33">
+        <f>E72-F72+G71</f>
+        <v>-11867.318069832694</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="C73" s="157" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" s="66">
+        <f>E72+(E72*D72/100)</f>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="G73" s="33">
+        <f>E73-F73+G72</f>
+        <v>5134.7804847813895</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="C74" s="157" t="s">
+        <v>280</v>
+      </c>
+      <c r="E74" s="66">
+        <f t="shared" ref="E74:E79" si="5">E73+(E73*D73/100)</f>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="G74" s="33">
+        <f>E74-F74+G73</f>
+        <v>22136.879039395473</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="C75" s="157" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" s="66">
+        <f t="shared" si="5"/>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="G75" s="33">
+        <f>E75-F75+G74</f>
+        <v>39138.977594009557</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="C76" s="157" t="s">
+        <v>366</v>
+      </c>
+      <c r="E76" s="66">
+        <f t="shared" si="5"/>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="G76" s="33">
+        <f>E76-F76+G75</f>
+        <v>56141.076148623644</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="C77" s="157" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" s="66">
+        <f t="shared" si="5"/>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="G77" s="33">
+        <f>E77-F77+G76</f>
+        <v>73143.174703237732</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="C78" s="157" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" s="66">
+        <f t="shared" si="5"/>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="G78" s="33">
+        <f>E78-F78+G77</f>
+        <v>90145.273257851819</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="C79" s="157" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" s="66">
+        <f t="shared" si="5"/>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="G79" s="33">
+        <f>E79-F79+G78</f>
+        <v>107147.37181246591</v>
       </c>
     </row>
   </sheetData>
@@ -12753,7 +13319,7 @@
         <v>45194</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B71FFB4-74FD-4E48-811E-0756DC2577D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4928FBEF-BDE4-4B23-80D4-0999F6D137CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="413">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1112,9 +1112,6 @@
     <t>nazan havale</t>
   </si>
   <si>
-    <t>snyB- bankadan umuta</t>
-  </si>
-  <si>
     <t>snyB- nakit</t>
   </si>
   <si>
@@ -1151,15 +1148,6 @@
     <t>snyF-işbanktan</t>
   </si>
   <si>
-    <t>snyE- Nakit</t>
-  </si>
-  <si>
-    <t>snyE Nakit</t>
-  </si>
-  <si>
-    <t>snyE İADE</t>
-  </si>
-  <si>
     <t>snyE- işbanktan</t>
   </si>
   <si>
@@ -1301,9 +1289,6 @@
     <t>gün</t>
   </si>
   <si>
-    <t>nakit ödenecek</t>
-  </si>
-  <si>
     <t>xautryg</t>
   </si>
   <si>
@@ -1320,6 +1305,49 @@
   </si>
   <si>
     <t>3- ödeme ve tahliye olmazsa hukuk yolu açık</t>
+  </si>
+  <si>
+    <t>snyE Nakit Slmn</t>
+  </si>
+  <si>
+    <t>snyE İADE Chn</t>
+  </si>
+  <si>
+    <t>snyE- Nakit Slmn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snyB- bankadan </t>
+  </si>
+  <si>
+    <t>nakit ödme</t>
+  </si>
+  <si>
+    <t>HESAP SIFIRLANDI</t>
+  </si>
+  <si>
+    <r>
+      <t>SnyE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu Condensed"/>
+      </rPr>
+      <t>.30.20240606.091</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve"> - SULEYMAN AKAN</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1343,7 +1371,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="178" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1665,8 +1693,22 @@
       <name val="Liberation Sans1"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu Condensed"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1833,6 +1875,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
         <bgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2053,7 +2113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2245,7 +2305,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="40" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="40" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2301,7 +2360,6 @@
     <xf numFmtId="175" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="40" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="32" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2367,6 +2425,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="40" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="2" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="36" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2735,7 +2803,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="151">
+      <c r="A6" s="149">
         <v>2024</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2951,7 +3019,7 @@
       <c r="D18" s="98"/>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="151">
+      <c r="A19" s="149">
         <v>2025</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3021,7 +3089,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C23" s="3">
         <v>170</v>
@@ -3041,7 +3109,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C24" s="3">
         <v>170</v>
@@ -3200,7 +3268,7 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="123">
+      <c r="A2" s="122">
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3546,14 +3614,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -3565,7 +3633,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3584,7 +3652,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="129" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3604,10 +3672,10 @@
       </c>
       <c r="E5" s="110"/>
       <c r="F5" s="110"/>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="H5" s="132">
+      <c r="H5" s="131">
         <f>D5</f>
         <v>121030.76</v>
       </c>
@@ -3617,20 +3685,20 @@
       <c r="G6" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H6" s="133">
+      <c r="H6" s="132">
         <f>H23*-1</f>
         <v>102076.79999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="D7" s="103"/>
-      <c r="H7" s="133">
+      <c r="H7" s="132">
         <f>H6+H5</f>
         <v>223107.56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="134">
+      <c r="A8" s="133">
         <v>45295</v>
       </c>
       <c r="C8" s="102">
@@ -3640,20 +3708,20 @@
         <f>H7-C8</f>
         <v>213107.56</v>
       </c>
-      <c r="E8" s="135">
+      <c r="E8" s="134">
         <v>10000</v>
       </c>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136" t="s">
+      <c r="F8" s="135"/>
+      <c r="G8" s="135" t="s">
         <v>340</v>
       </c>
-      <c r="H8" s="137">
+      <c r="H8" s="136">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
         <v>213107.56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="134">
+      <c r="A9" s="133">
         <v>45323</v>
       </c>
       <c r="C9" s="102">
@@ -3663,11 +3731,11 @@
         <f t="shared" ref="D9:D19" si="1">D8-C9</f>
         <v>203107.56</v>
       </c>
-      <c r="E9" s="135">
+      <c r="E9" s="134">
         <v>10000</v>
       </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136" t="s">
+      <c r="F9" s="135"/>
+      <c r="G9" s="135" t="s">
         <v>340</v>
       </c>
       <c r="H9" s="98">
@@ -3676,7 +3744,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="134">
+      <c r="A10" s="133">
         <v>45352</v>
       </c>
       <c r="C10" s="102">
@@ -3686,11 +3754,11 @@
         <f t="shared" si="1"/>
         <v>193107.56</v>
       </c>
-      <c r="E10" s="135">
+      <c r="E10" s="134">
         <v>10000</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136" t="s">
+      <c r="F10" s="135"/>
+      <c r="G10" s="135" t="s">
         <v>340</v>
       </c>
       <c r="H10" s="98">
@@ -3699,7 +3767,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="134">
+      <c r="A11" s="133">
         <v>45383</v>
       </c>
       <c r="C11" s="102">
@@ -3709,11 +3777,11 @@
         <f t="shared" si="1"/>
         <v>183107.56</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="134">
         <v>10000</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136" t="s">
+      <c r="F11" s="135"/>
+      <c r="G11" s="135" t="s">
         <v>340</v>
       </c>
       <c r="H11" s="98">
@@ -3722,7 +3790,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="134">
+      <c r="A12" s="133">
         <v>45413</v>
       </c>
       <c r="C12" s="102">
@@ -3732,13 +3800,20 @@
         <f t="shared" si="1"/>
         <v>173107.56</v>
       </c>
+      <c r="E12" s="134">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135" t="s">
+        <v>340</v>
+      </c>
       <c r="H12" s="98">
         <f t="shared" si="0"/>
-        <v>183107.56</v>
+        <v>173107.56</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="134">
+      <c r="A13" s="133">
         <v>45444</v>
       </c>
       <c r="C13" s="102">
@@ -3750,11 +3825,11 @@
       </c>
       <c r="H13" s="98">
         <f t="shared" si="0"/>
-        <v>183107.56</v>
+        <v>173107.56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="134">
+      <c r="A14" s="133">
         <v>45474</v>
       </c>
       <c r="C14" s="102">
@@ -3766,11 +3841,11 @@
       </c>
       <c r="H14" s="98">
         <f t="shared" si="0"/>
-        <v>183107.56</v>
+        <v>173107.56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="134">
+      <c r="A15" s="133">
         <v>45505</v>
       </c>
       <c r="C15" s="102">
@@ -3782,11 +3857,11 @@
       </c>
       <c r="H15" s="98">
         <f t="shared" si="0"/>
-        <v>183107.56</v>
+        <v>173107.56</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="134">
+      <c r="A16" s="133">
         <v>45536</v>
       </c>
       <c r="C16" s="102">
@@ -3798,11 +3873,11 @@
       </c>
       <c r="H16" s="98">
         <f t="shared" si="0"/>
-        <v>183107.56</v>
+        <v>173107.56</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="134">
+      <c r="A17" s="133">
         <v>45566</v>
       </c>
       <c r="C17" s="102">
@@ -3814,11 +3889,11 @@
       </c>
       <c r="H17" s="98">
         <f t="shared" si="0"/>
-        <v>183107.56</v>
+        <v>173107.56</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="134">
+      <c r="A18" s="133">
         <v>45597</v>
       </c>
       <c r="C18" s="102">
@@ -3830,11 +3905,11 @@
       </c>
       <c r="H18" s="98">
         <f t="shared" si="0"/>
-        <v>183107.56</v>
+        <v>173107.56</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="134">
+      <c r="A19" s="133">
         <v>45627</v>
       </c>
       <c r="C19" s="102">
@@ -3846,7 +3921,7 @@
       </c>
       <c r="H19" s="98">
         <f t="shared" si="0"/>
-        <v>183107.56</v>
+        <v>173107.56</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3859,64 +3934,64 @@
       <c r="B21" s="104" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="138">
+      <c r="D21" s="137">
         <v>0.76480000000000004</v>
       </c>
-      <c r="E21" s="138">
+      <c r="E21" s="137">
         <f>1-D21</f>
         <v>0.23519999999999996</v>
       </c>
       <c r="H21" s="103"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="138" t="s">
         <v>288</v>
       </c>
-      <c r="D22" s="140" t="s">
+      <c r="D22" s="139" t="s">
         <v>289</v>
       </c>
-      <c r="E22" s="139" t="s">
+      <c r="E22" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="F22" s="141" t="s">
+      <c r="F22" s="140" t="s">
         <v>291</v>
       </c>
-      <c r="G22" s="139" t="s">
+      <c r="G22" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="H22" s="142" t="s">
+      <c r="H22" s="141" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="127"/>
-      <c r="B23" s="128" t="s">
+      <c r="A23" s="126"/>
+      <c r="B23" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="129">
+      <c r="C23" s="128">
         <f>SUBTOTAL(109,C24:C38)</f>
         <v>611000</v>
       </c>
-      <c r="D23" s="129">
+      <c r="D23" s="128">
         <f>SUBTOTAL(109,D24:D38)</f>
         <v>434000</v>
       </c>
-      <c r="E23" s="129">
+      <c r="E23" s="128">
         <f>SUM(E24:E38)</f>
         <v>-41630.399999999994</v>
       </c>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129">
+      <c r="F23" s="127"/>
+      <c r="G23" s="128">
         <f>SUBTOTAL(109,$G$24:$G$38)</f>
         <v>-102076.79999999999</v>
       </c>
-      <c r="H23" s="129">
+      <c r="H23" s="128">
         <f>H24</f>
         <v>-102076.79999999999</v>
       </c>
@@ -3951,9 +4026,9 @@
       <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
+      <c r="A25" s="142"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3975,9 +4050,9 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="146"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="148"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3999,9 +4074,9 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="146"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="148"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4023,9 +4098,9 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="145"/>
+      <c r="A28" s="142"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
       <c r="D28" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4047,13 +4122,13 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="143">
+      <c r="A29" s="142">
         <v>45405</v>
       </c>
-      <c r="B29" s="144" t="s">
-        <v>357</v>
-      </c>
-      <c r="C29" s="145">
+      <c r="B29" s="191" t="s">
+        <v>353</v>
+      </c>
+      <c r="C29" s="192">
         <v>33000</v>
       </c>
       <c r="D29" s="108">
@@ -4077,13 +4152,13 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="143">
+      <c r="A30" s="142">
         <v>45405</v>
       </c>
-      <c r="B30" s="144" t="s">
-        <v>354</v>
-      </c>
-      <c r="C30" s="145">
+      <c r="B30" s="143" t="s">
+        <v>408</v>
+      </c>
+      <c r="C30" s="144">
         <v>170000</v>
       </c>
       <c r="D30" s="108">
@@ -4107,13 +4182,13 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="143">
+      <c r="A31" s="142">
         <v>45405</v>
       </c>
-      <c r="B31" s="144" t="s">
-        <v>356</v>
-      </c>
-      <c r="C31" s="145">
+      <c r="B31" s="143" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" s="144">
         <v>-25000</v>
       </c>
       <c r="D31" s="108">
@@ -4137,13 +4212,13 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="143">
+      <c r="A32" s="142">
         <v>45397</v>
       </c>
-      <c r="B32" s="144" t="s">
-        <v>355</v>
-      </c>
-      <c r="C32" s="145">
+      <c r="B32" s="143" t="s">
+        <v>406</v>
+      </c>
+      <c r="C32" s="144">
         <v>1000</v>
       </c>
       <c r="D32" s="108">
@@ -4167,13 +4242,13 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="146">
+      <c r="A33" s="145">
         <v>45397</v>
       </c>
-      <c r="B33" s="147" t="s">
-        <v>353</v>
-      </c>
-      <c r="C33" s="148">
+      <c r="B33" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="C33" s="147">
         <v>85000</v>
       </c>
       <c r="D33" s="108">
@@ -4203,7 +4278,7 @@
       <c r="B34" s="112" t="s">
         <v>294</v>
       </c>
-      <c r="C34" s="113">
+      <c r="C34" s="185">
         <v>7000</v>
       </c>
       <c r="D34" s="108">
@@ -4227,11 +4302,11 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="146"/>
-      <c r="B35" s="147" t="s">
-        <v>341</v>
-      </c>
-      <c r="C35" s="148">
+      <c r="A35" s="145"/>
+      <c r="B35" s="189" t="s">
+        <v>409</v>
+      </c>
+      <c r="C35" s="190">
         <v>24000</v>
       </c>
       <c r="D35" s="108">
@@ -4255,13 +4330,13 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="146">
+      <c r="A36" s="145">
         <v>45296</v>
       </c>
-      <c r="B36" s="147" t="s">
-        <v>342</v>
-      </c>
-      <c r="C36" s="148">
+      <c r="B36" s="146" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" s="147">
         <v>26000</v>
       </c>
       <c r="D36" s="108">
@@ -4285,13 +4360,13 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="143">
+      <c r="A37" s="142">
         <v>45295</v>
       </c>
-      <c r="B37" s="147" t="s">
-        <v>342</v>
-      </c>
-      <c r="C37" s="145">
+      <c r="B37" s="146" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" s="144">
         <v>120000</v>
       </c>
       <c r="D37" s="108">
@@ -4315,13 +4390,13 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="146">
+      <c r="A38" s="186">
         <v>45292</v>
       </c>
-      <c r="B38" s="147" t="s">
+      <c r="B38" s="187" t="s">
         <v>254</v>
       </c>
-      <c r="C38" s="149">
+      <c r="C38" s="188">
         <v>170000</v>
       </c>
       <c r="D38" s="108">
@@ -4332,7 +4407,7 @@
         <f t="shared" si="3"/>
         <v>-39983.999999999993</v>
       </c>
-      <c r="F38" s="114">
+      <c r="F38" s="113">
         <v>0</v>
       </c>
       <c r="G38" s="108">
@@ -4361,22 +4436,22 @@
       <c r="E41" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="116"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="115"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
       <c r="B42" t="s">
         <v>250</v>
       </c>
-      <c r="C42" s="117">
+      <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="150">
+      <c r="D42" s="148">
         <f>D21</f>
         <v>0.76480000000000004</v>
       </c>
-      <c r="E42" s="150">
+      <c r="E42" s="148">
         <f>1-D42</f>
         <v>0.23519999999999996</v>
       </c>
@@ -4386,15 +4461,15 @@
       <c r="B43" t="s">
         <v>298</v>
       </c>
-      <c r="C43" s="118">
+      <c r="C43" s="117">
         <f>$D$23*C42</f>
         <v>434000</v>
       </c>
-      <c r="D43" s="119">
+      <c r="D43" s="118">
         <f>$D$23*D42</f>
         <v>331923.20000000001</v>
       </c>
-      <c r="E43" s="119">
+      <c r="E43" s="118">
         <f>$D$23*E42</f>
         <v>102076.79999999999</v>
       </c>
@@ -4406,17 +4481,17 @@
       </c>
       <c r="C44" s="108">
         <f>D44+E44</f>
-        <v>0</v>
+        <v>434000</v>
       </c>
       <c r="D44" s="103">
-        <f>E44/D42*E42</f>
-        <v>0</v>
+        <f>C43-E44</f>
+        <v>331923.20000000001</v>
       </c>
       <c r="E44" s="103">
-        <f>$I$23*-1</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="120"/>
+        <f>$H$23*-1</f>
+        <v>102076.79999999999</v>
+      </c>
+      <c r="G44" s="119"/>
       <c r="H44" s="103"/>
       <c r="J44" s="103"/>
     </row>
@@ -4426,24 +4501,24 @@
       </c>
       <c r="C45" s="108">
         <f>C43-C44</f>
-        <v>434000</v>
+        <v>0</v>
       </c>
       <c r="D45" s="103">
         <f>D43-D44</f>
-        <v>331923.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E45" s="103">
         <f>E43-E44</f>
-        <v>102076.79999999999</v>
+        <v>0</v>
       </c>
       <c r="G45" s="103"/>
       <c r="H45" s="103"/>
       <c r="J45" s="103"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" thickBot="1">
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="121"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
       <c r="G46" s="103"/>
       <c r="H46" s="103"/>
       <c r="J46" s="103"/>
@@ -4468,7 +4543,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="C49" s="103"/>
-      <c r="D49" s="122"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="103"/>
       <c r="H49" s="103"/>
       <c r="J49" s="103"/>
@@ -4479,14 +4554,14 @@
       </c>
       <c r="C50" s="103">
         <f>D44</f>
-        <v>0</v>
+        <v>331923.20000000001</v>
       </c>
       <c r="D50" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E50" s="103">
         <f>C50*D50</f>
-        <v>0</v>
+        <v>8298.08</v>
       </c>
       <c r="H50" s="103"/>
     </row>
@@ -4497,8 +4572,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4833,7 +4909,7 @@
         <v>276</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C27">
         <v>-52.17</v>
@@ -6215,11 +6291,11 @@
       <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="124" t="s">
+      <c r="B48" s="123" t="s">
         <v>329</v>
       </c>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124">
+      <c r="C48" s="123"/>
+      <c r="D48" s="123">
         <v>170000</v>
       </c>
       <c r="F48" s="8"/>
@@ -6561,7 +6637,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
@@ -6661,13 +6737,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="7"/>
-      <c r="B10" s="153"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="52"/>
       <c r="D10" s="3">
         <f>C10*E9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="152">
+      <c r="E10" s="150">
         <f>D10+E9</f>
         <v>0</v>
       </c>
@@ -6696,7 +6772,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -6711,7 +6787,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7"/>
-      <c r="B13" s="153">
+      <c r="B13" s="151">
         <v>45292</v>
       </c>
       <c r="C13" s="52"/>
@@ -6719,7 +6795,7 @@
         <f>C13*E11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="150">
         <f>D13+E11</f>
         <v>20000</v>
       </c>
@@ -6739,7 +6815,7 @@
         <f t="shared" ref="D14:D19" si="1">C14*E13</f>
         <v>0</v>
       </c>
-      <c r="E14" s="152">
+      <c r="E14" s="150">
         <f t="shared" ref="E14:E19" si="2">D14+E13</f>
         <v>20000</v>
       </c>
@@ -6759,7 +6835,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="152">
+      <c r="E15" s="150">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -6779,7 +6855,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="152">
+      <c r="E16" s="150">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -6799,7 +6875,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="152">
+      <c r="E17" s="150">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -6819,7 +6895,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="150">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -6839,7 +6915,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="152">
+      <c r="E19" s="150">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -7188,11 +7264,11 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7"/>
-      <c r="B46" s="126" t="s">
+      <c r="B46" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="126"/>
-      <c r="D46" s="125">
+      <c r="C46" s="125"/>
+      <c r="D46" s="124">
         <v>135000</v>
       </c>
       <c r="E46" s="8"/>
@@ -7809,8 +7885,969 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D669E-8356-4324-A959-1EA6F446C492}">
   <dimension ref="A1:H77"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="3" customWidth="1"/>
+    <col min="9" max="60" width="12.140625" customWidth="1"/>
+    <col min="61" max="61" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="194" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="F1" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15">
+        <f>SUM(D9:D20)</f>
+        <v>204024</v>
+      </c>
+      <c r="E4" s="16">
+        <f>SUM(E9:E20)</f>
+        <v>204024</v>
+      </c>
+      <c r="F4" s="17">
+        <f>F20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18">
+        <f>F40</f>
+        <v>0</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" s="20">
+        <f>F37</f>
+        <v>-800</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="25">
+        <f>E4-D5</f>
+        <v>204024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <v>45167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" s="28">
+        <v>204024</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="27">
+        <f>D9-E9</f>
+        <v>204024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" ref="F10:F20" si="0">D10-E10+F9</f>
+        <v>203024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29">
+        <v>50000</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="0"/>
+        <v>153024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="100"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29">
+        <v>33000</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="0"/>
+        <v>120024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29">
+        <v>24</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32">
+        <v>120000</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="30"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="30"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="30"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="30"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="30"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="30"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="30"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="30"/>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="30"/>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35">
+        <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="30"/>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="30"/>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="30"/>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="30"/>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="30"/>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="30"/>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="30"/>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="30"/>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="30"/>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="30"/>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="36"/>
+      <c r="B36" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="42">
+        <f>SUM(C25:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45">
+        <f>D37-E37+F36</f>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="30"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49">
+        <f>SUM(E41:E49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="7">
+        <v>45402</v>
+      </c>
+      <c r="B43" t="s">
+        <v>394</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" s="3">
+        <v>204024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7">
+        <v>45402</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46"/>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7">
+        <v>45449</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" t="s">
+        <v>396</v>
+      </c>
+      <c r="C49">
+        <f>A48-A45</f>
+        <v>411</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="E51" s="63"/>
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="157">
+        <v>45402</v>
+      </c>
+      <c r="B52" t="s">
+        <v>394</v>
+      </c>
+      <c r="C52" s="159"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="160"/>
+      <c r="G52"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="159"/>
+      <c r="B53" s="158" t="s">
+        <v>363</v>
+      </c>
+      <c r="C53" s="159"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="160"/>
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="159"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="160" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="160" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="160" t="s">
+        <v>364</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="157"/>
+      <c r="B55" s="159" t="s">
+        <v>398</v>
+      </c>
+      <c r="C55" s="159"/>
+      <c r="D55" s="160">
+        <v>204024</v>
+      </c>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160">
+        <f>D55-E55</f>
+        <v>204024</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="157"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160">
+        <f t="shared" ref="F56:F63" si="2">F55+D56-E56</f>
+        <v>204024</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="157">
+        <v>45402</v>
+      </c>
+      <c r="B57" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="C57" s="159"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="160">
+        <f t="shared" si="2"/>
+        <v>204024</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="157">
+        <v>45813</v>
+      </c>
+      <c r="B58" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="C58" s="159"/>
+      <c r="E58"/>
+      <c r="F58" s="160">
+        <f t="shared" si="2"/>
+        <v>204024</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="157">
+        <v>45170</v>
+      </c>
+      <c r="B59" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="C59" s="159"/>
+      <c r="E59">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="160">
+        <f t="shared" si="2"/>
+        <v>203024</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="157">
+        <v>45199</v>
+      </c>
+      <c r="B60" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="C60" s="159"/>
+      <c r="E60">
+        <v>50000</v>
+      </c>
+      <c r="F60" s="160">
+        <f t="shared" si="2"/>
+        <v>153024</v>
+      </c>
+      <c r="G60" s="52"/>
+      <c r="H60" s="57"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="157">
+        <v>45229</v>
+      </c>
+      <c r="B61" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="C61" s="159"/>
+      <c r="E61">
+        <v>33000</v>
+      </c>
+      <c r="F61" s="160">
+        <f t="shared" si="2"/>
+        <v>120024</v>
+      </c>
+      <c r="G61" s="52"/>
+      <c r="H61" s="57"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="157">
+        <v>45260</v>
+      </c>
+      <c r="B62" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="C62" s="159"/>
+      <c r="E62">
+        <v>120000</v>
+      </c>
+      <c r="F62" s="160">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G62" s="52"/>
+      <c r="H62" s="57"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="157"/>
+      <c r="B63" s="159" t="s">
+        <v>393</v>
+      </c>
+      <c r="C63" s="159"/>
+      <c r="E63">
+        <v>24</v>
+      </c>
+      <c r="F63" s="160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="52"/>
+      <c r="H63" s="57"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="157"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="159"/>
+      <c r="E64"/>
+      <c r="F64" s="160"/>
+    </row>
+    <row r="65" spans="1:6" ht="15">
+      <c r="A65" s="157"/>
+      <c r="B65" s="159" t="s">
+        <v>374</v>
+      </c>
+      <c r="C65" s="162">
+        <f>A58-A57</f>
+        <v>411</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" s="160"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="157"/>
+      <c r="B66" s="159" t="s">
+        <v>375</v>
+      </c>
+      <c r="C66" s="158">
+        <f>(D55-24)/C65</f>
+        <v>496.35036496350364</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" s="160"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A67" s="163">
+        <v>45813</v>
+      </c>
+      <c r="B67" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="165"/>
+      <c r="D67" s="166"/>
+      <c r="E67"/>
+      <c r="F67" s="160"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" thickTop="1">
+      <c r="A68"/>
+      <c r="B68" s="159" t="s">
+        <v>377</v>
+      </c>
+      <c r="C68" s="158">
+        <f>A67-A57</f>
+        <v>411</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68" s="160"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="157"/>
+      <c r="B69" s="159" t="s">
+        <v>378</v>
+      </c>
+      <c r="C69" s="159"/>
+      <c r="D69" s="3">
+        <f>C68*C66</f>
+        <v>204000</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" s="160"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="157"/>
+      <c r="B70" s="159" t="s">
+        <v>379</v>
+      </c>
+      <c r="C70" s="159"/>
+      <c r="D70" s="3">
+        <f>D55-24-D69</f>
+        <v>0</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" s="160"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A71" s="157"/>
+      <c r="B71" s="167" t="s">
+        <v>380</v>
+      </c>
+      <c r="C71" s="167" t="s">
+        <v>381</v>
+      </c>
+      <c r="D71" s="168">
+        <f>SUM(D70:D70)</f>
+        <v>0</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" s="160"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" thickTop="1">
+      <c r="A72" s="157"/>
+      <c r="B72" s="159" t="s">
+        <v>382</v>
+      </c>
+      <c r="C72" s="159" t="s">
+        <v>381</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" s="160"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="157"/>
+      <c r="B73" s="159" t="s">
+        <v>383</v>
+      </c>
+      <c r="C73" s="159" t="s">
+        <v>384</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" s="160"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="157"/>
+      <c r="B74" s="159" t="s">
+        <v>385</v>
+      </c>
+      <c r="C74" s="159" t="s">
+        <v>384</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" s="160"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A75" s="157"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="159"/>
+      <c r="E75"/>
+      <c r="F75" s="160"/>
+    </row>
+    <row r="76" spans="1:6" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A76" s="159"/>
+      <c r="B76" s="170" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" s="171" t="s">
+        <v>381</v>
+      </c>
+      <c r="D76" s="168">
+        <f>SUM(D71:D75)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160"/>
+    </row>
+    <row r="77" spans="1:6" s="3" customFormat="1" ht="13.5" thickTop="1">
+      <c r="A77" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H117"/>
+  <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="B106" sqref="B106:B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7865,967 +8902,6 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15">
         <f>SUM(D9:D20)</f>
-        <v>204024</v>
-      </c>
-      <c r="E4" s="16">
-        <f>SUM(E9:E20)</f>
-        <v>204024</v>
-      </c>
-      <c r="F4" s="17">
-        <f>F20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="18">
-        <f>F40</f>
-        <v>0</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6" s="20">
-        <f>F37</f>
-        <v>-800</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="25">
-        <f>E4-D5</f>
-        <v>204024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7">
-        <v>45167</v>
-      </c>
-      <c r="B9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9" s="28">
-        <v>204024</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="27">
-        <f>D9-E9</f>
-        <v>204024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="27">
-        <f t="shared" ref="F10:F20" si="0">D10-E10+F9</f>
-        <v>203024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29">
-        <v>50000</v>
-      </c>
-      <c r="F11" s="27">
-        <f t="shared" si="0"/>
-        <v>153024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>395</v>
-      </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29">
-        <v>33000</v>
-      </c>
-      <c r="F12" s="27">
-        <f t="shared" si="0"/>
-        <v>120024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29">
-        <v>24</v>
-      </c>
-      <c r="F13" s="27">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32">
-        <v>120000</v>
-      </c>
-      <c r="F14" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="30"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="30"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="30"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="30"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="30"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="30"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="30"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="30"/>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="30"/>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35">
-        <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="30"/>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="30"/>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="30"/>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="30"/>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="30"/>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="30"/>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="30"/>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="30"/>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="30"/>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="30"/>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="36"/>
-      <c r="B36" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39">
-        <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="42">
-        <f>SUM(C25:C36)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45">
-        <f>D37-E37+F36</f>
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="30"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39"/>
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49">
-        <f>SUM(E41:E49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="B42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="7">
-        <v>45402</v>
-      </c>
-      <c r="B43" t="s">
-        <v>398</v>
-      </c>
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" t="s">
-        <v>399</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44" s="3">
-        <v>204024</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="7">
-        <v>45402</v>
-      </c>
-      <c r="B45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46"/>
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="7">
-        <v>45449</v>
-      </c>
-      <c r="B47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="7">
-        <v>45813</v>
-      </c>
-      <c r="B48" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48"/>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>400</v>
-      </c>
-      <c r="C49">
-        <f>A48-A45</f>
-        <v>411</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="E51" s="63"/>
-      <c r="G51"/>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="159">
-        <v>45402</v>
-      </c>
-      <c r="B52" t="s">
-        <v>398</v>
-      </c>
-      <c r="C52" s="161"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="162"/>
-      <c r="F52" s="162"/>
-      <c r="G52"/>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="161"/>
-      <c r="B53" s="160" t="s">
-        <v>367</v>
-      </c>
-      <c r="C53" s="161"/>
-      <c r="D53" s="162"/>
-      <c r="E53" s="162"/>
-      <c r="F53" s="162"/>
-      <c r="G53"/>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="161"/>
-      <c r="B54" s="161"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="162" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="162" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="162" t="s">
-        <v>368</v>
-      </c>
-      <c r="G54"/>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="159"/>
-      <c r="B55" s="161" t="s">
-        <v>402</v>
-      </c>
-      <c r="C55" s="161"/>
-      <c r="D55" s="162">
-        <v>204024</v>
-      </c>
-      <c r="E55" s="162"/>
-      <c r="F55" s="162">
-        <f>D55-E55</f>
-        <v>204024</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="159"/>
-      <c r="B56" s="161"/>
-      <c r="C56" s="161"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162">
-        <f t="shared" ref="F56:F63" si="2">F55+D56-E56</f>
-        <v>204024</v>
-      </c>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="159">
-        <v>45402</v>
-      </c>
-      <c r="B57" s="161" t="s">
-        <v>369</v>
-      </c>
-      <c r="C57" s="161"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="162">
-        <f t="shared" si="2"/>
-        <v>204024</v>
-      </c>
-      <c r="G57"/>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="159">
-        <v>45813</v>
-      </c>
-      <c r="B58" s="161" t="s">
-        <v>370</v>
-      </c>
-      <c r="C58" s="161"/>
-      <c r="E58"/>
-      <c r="F58" s="162">
-        <f t="shared" si="2"/>
-        <v>204024</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="159">
-        <v>45170</v>
-      </c>
-      <c r="B59" s="161" t="s">
-        <v>401</v>
-      </c>
-      <c r="C59" s="161"/>
-      <c r="E59">
-        <v>1000</v>
-      </c>
-      <c r="F59" s="162">
-        <f t="shared" si="2"/>
-        <v>203024</v>
-      </c>
-      <c r="G59"/>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="159">
-        <v>45199</v>
-      </c>
-      <c r="B60" s="161" t="s">
-        <v>401</v>
-      </c>
-      <c r="C60" s="161"/>
-      <c r="E60">
-        <v>50000</v>
-      </c>
-      <c r="F60" s="162">
-        <f t="shared" si="2"/>
-        <v>153024</v>
-      </c>
-      <c r="G60" s="52"/>
-      <c r="H60" s="57"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="159">
-        <v>45229</v>
-      </c>
-      <c r="B61" s="161" t="s">
-        <v>401</v>
-      </c>
-      <c r="C61" s="161"/>
-      <c r="E61">
-        <v>33000</v>
-      </c>
-      <c r="F61" s="162">
-        <f t="shared" si="2"/>
-        <v>120024</v>
-      </c>
-      <c r="G61" s="52"/>
-      <c r="H61" s="57"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="159">
-        <v>45260</v>
-      </c>
-      <c r="B62" s="161" t="s">
-        <v>401</v>
-      </c>
-      <c r="C62" s="161"/>
-      <c r="E62">
-        <v>120000</v>
-      </c>
-      <c r="F62" s="162">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="G62" s="52"/>
-      <c r="H62" s="57"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="159"/>
-      <c r="B63" s="161" t="s">
-        <v>397</v>
-      </c>
-      <c r="C63" s="161"/>
-      <c r="E63">
-        <v>24</v>
-      </c>
-      <c r="F63" s="162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="52"/>
-      <c r="H63" s="57"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="159"/>
-      <c r="B64" s="161"/>
-      <c r="C64" s="161"/>
-      <c r="E64"/>
-      <c r="F64" s="162"/>
-    </row>
-    <row r="65" spans="1:6" ht="15">
-      <c r="A65" s="159"/>
-      <c r="B65" s="161" t="s">
-        <v>378</v>
-      </c>
-      <c r="C65" s="164">
-        <f>A58-A57</f>
-        <v>411</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65" s="162"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="159"/>
-      <c r="B66" s="161" t="s">
-        <v>379</v>
-      </c>
-      <c r="C66" s="160">
-        <f>(D55-24)/C65</f>
-        <v>496.35036496350364</v>
-      </c>
-      <c r="E66"/>
-      <c r="F66" s="162"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A67" s="165">
-        <v>45813</v>
-      </c>
-      <c r="B67" s="166" t="s">
-        <v>380</v>
-      </c>
-      <c r="C67" s="167"/>
-      <c r="D67" s="168"/>
-      <c r="E67"/>
-      <c r="F67" s="162"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" thickTop="1">
-      <c r="A68"/>
-      <c r="B68" s="161" t="s">
-        <v>381</v>
-      </c>
-      <c r="C68" s="160">
-        <f>A67-A57</f>
-        <v>411</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68" s="162"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="159"/>
-      <c r="B69" s="161" t="s">
-        <v>382</v>
-      </c>
-      <c r="C69" s="161"/>
-      <c r="D69" s="3">
-        <f>C68*C66</f>
-        <v>204000</v>
-      </c>
-      <c r="E69"/>
-      <c r="F69" s="162"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="159"/>
-      <c r="B70" s="161" t="s">
-        <v>383</v>
-      </c>
-      <c r="C70" s="161"/>
-      <c r="D70" s="3">
-        <f>D55-24-D69</f>
-        <v>0</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70" s="162"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A71" s="159"/>
-      <c r="B71" s="169" t="s">
-        <v>384</v>
-      </c>
-      <c r="C71" s="169" t="s">
-        <v>385</v>
-      </c>
-      <c r="D71" s="170">
-        <f>SUM(D70:D70)</f>
-        <v>0</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71" s="162"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" thickTop="1">
-      <c r="A72" s="159"/>
-      <c r="B72" s="161" t="s">
-        <v>386</v>
-      </c>
-      <c r="C72" s="161" t="s">
-        <v>385</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72" s="162"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="159"/>
-      <c r="B73" s="161" t="s">
-        <v>387</v>
-      </c>
-      <c r="C73" s="161" t="s">
-        <v>388</v>
-      </c>
-      <c r="E73"/>
-      <c r="F73" s="162"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="159"/>
-      <c r="B74" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="C74" s="161" t="s">
-        <v>388</v>
-      </c>
-      <c r="E74"/>
-      <c r="F74" s="162"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A75" s="159"/>
-      <c r="B75" s="171"/>
-      <c r="C75" s="161"/>
-      <c r="E75"/>
-      <c r="F75" s="162"/>
-    </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="161"/>
-      <c r="B76" s="172" t="s">
-        <v>391</v>
-      </c>
-      <c r="C76" s="173" t="s">
-        <v>385</v>
-      </c>
-      <c r="D76" s="170">
-        <f>SUM(D71:D75)</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="162"/>
-      <c r="F76" s="162"/>
-    </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" ht="13.5" thickTop="1">
-      <c r="A77" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H117"/>
-  <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="13" style="7" customWidth="1"/>
-    <col min="2" max="2" width="32" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="3" customWidth="1"/>
-    <col min="9" max="60" width="12.140625" customWidth="1"/>
-    <col min="61" max="61" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="F1" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15">
-        <f>SUM(D9:D20)</f>
         <v>7000</v>
       </c>
       <c r="E4" s="16">
@@ -9050,7 +9126,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9587,56 +9663,56 @@
       <c r="H71"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="159">
+      <c r="A72" s="157">
         <v>45139</v>
       </c>
-      <c r="B72" s="160" t="s">
+      <c r="B72" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="161"/>
-      <c r="D72" s="162"/>
-      <c r="E72" s="162"/>
-      <c r="F72" s="162"/>
+      <c r="C72" s="159"/>
+      <c r="D72" s="160"/>
+      <c r="E72" s="160"/>
+      <c r="F72" s="160"/>
       <c r="G72"/>
       <c r="H72"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="161"/>
-      <c r="B73" s="160" t="s">
-        <v>367</v>
-      </c>
-      <c r="C73" s="161"/>
-      <c r="D73" s="162"/>
-      <c r="E73" s="162"/>
-      <c r="F73" s="162"/>
+      <c r="A73" s="159"/>
+      <c r="B73" s="158" t="s">
+        <v>363</v>
+      </c>
+      <c r="C73" s="159"/>
+      <c r="D73" s="160"/>
+      <c r="E73" s="160"/>
+      <c r="F73" s="160"/>
       <c r="G73"/>
       <c r="H73"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="161"/>
-      <c r="B74" s="161"/>
-      <c r="C74" s="161"/>
-      <c r="D74" s="162" t="s">
+      <c r="A74" s="159"/>
+      <c r="B74" s="159"/>
+      <c r="C74" s="159"/>
+      <c r="D74" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="162" t="s">
+      <c r="E74" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="F74" s="162" t="s">
-        <v>368</v>
+      <c r="F74" s="160" t="s">
+        <v>364</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="159"/>
-      <c r="B75" s="161"/>
-      <c r="C75" s="161"/>
-      <c r="D75" s="162">
+      <c r="A75" s="157"/>
+      <c r="B75" s="159"/>
+      <c r="C75" s="159"/>
+      <c r="D75" s="160">
         <v>96000</v>
       </c>
-      <c r="E75" s="162"/>
-      <c r="F75" s="162">
+      <c r="E75" s="160"/>
+      <c r="F75" s="160">
         <f>D75-E75</f>
         <v>96000</v>
       </c>
@@ -9644,12 +9720,12 @@
       <c r="H75"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="159"/>
-      <c r="B76" s="161"/>
-      <c r="C76" s="161"/>
-      <c r="D76" s="162"/>
-      <c r="E76" s="162"/>
-      <c r="F76" s="162">
+      <c r="A76" s="157"/>
+      <c r="B76" s="159"/>
+      <c r="C76" s="159"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160">
         <f t="shared" ref="F76:F84" si="3">F75+D76-E76</f>
         <v>96000</v>
       </c>
@@ -9657,16 +9733,16 @@
       <c r="H76"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="159">
+      <c r="A77" s="157">
         <v>45168</v>
       </c>
-      <c r="B77" s="161" t="s">
-        <v>369</v>
-      </c>
-      <c r="C77" s="161"/>
-      <c r="D77" s="162"/>
-      <c r="E77" s="162"/>
-      <c r="F77" s="162">
+      <c r="B77" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="C77" s="159"/>
+      <c r="D77" s="160"/>
+      <c r="E77" s="160"/>
+      <c r="F77" s="160">
         <f t="shared" si="3"/>
         <v>96000</v>
       </c>
@@ -9674,15 +9750,15 @@
       <c r="H77"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="159">
+      <c r="A78" s="157">
         <v>45533</v>
       </c>
-      <c r="B78" s="161" t="s">
-        <v>370</v>
-      </c>
-      <c r="C78" s="161"/>
+      <c r="B78" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="C78" s="159"/>
       <c r="E78"/>
-      <c r="F78" s="162">
+      <c r="F78" s="160">
         <f t="shared" si="3"/>
         <v>96000</v>
       </c>
@@ -9690,17 +9766,17 @@
       <c r="H78"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="159">
+      <c r="A79" s="157">
         <v>45170</v>
       </c>
-      <c r="B79" s="161" t="s">
-        <v>371</v>
-      </c>
-      <c r="C79" s="161"/>
+      <c r="B79" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="C79" s="159"/>
       <c r="E79">
         <v>65000</v>
       </c>
-      <c r="F79" s="162">
+      <c r="F79" s="160">
         <f t="shared" si="3"/>
         <v>31000</v>
       </c>
@@ -9708,17 +9784,17 @@
       <c r="H79"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="159">
+      <c r="A80" s="157">
         <v>45199</v>
       </c>
-      <c r="B80" s="161" t="s">
-        <v>372</v>
-      </c>
-      <c r="C80" s="161"/>
+      <c r="B80" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" s="159"/>
       <c r="E80">
         <v>6000</v>
       </c>
-      <c r="F80" s="162">
+      <c r="F80" s="160">
         <f t="shared" si="3"/>
         <v>25000</v>
       </c>
@@ -9726,17 +9802,17 @@
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="159">
+      <c r="A81" s="157">
         <v>45229</v>
       </c>
-      <c r="B81" s="161" t="s">
-        <v>373</v>
-      </c>
-      <c r="C81" s="161"/>
+      <c r="B81" s="159" t="s">
+        <v>369</v>
+      </c>
+      <c r="C81" s="159"/>
       <c r="E81">
         <v>6000</v>
       </c>
-      <c r="F81" s="162">
+      <c r="F81" s="160">
         <f t="shared" si="3"/>
         <v>19000</v>
       </c>
@@ -9744,17 +9820,17 @@
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="159">
+      <c r="A82" s="157">
         <v>45260</v>
       </c>
-      <c r="B82" s="161" t="s">
-        <v>374</v>
-      </c>
-      <c r="C82" s="161"/>
+      <c r="B82" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" s="159"/>
       <c r="E82">
         <v>6000</v>
       </c>
-      <c r="F82" s="162">
+      <c r="F82" s="160">
         <f t="shared" si="3"/>
         <v>13000</v>
       </c>
@@ -9762,17 +9838,17 @@
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="159">
+      <c r="A83" s="157">
         <v>45290</v>
       </c>
-      <c r="B83" s="161" t="s">
-        <v>375</v>
-      </c>
-      <c r="C83" s="161"/>
+      <c r="B83" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="C83" s="159"/>
       <c r="E83">
         <v>6000</v>
       </c>
-      <c r="F83" s="162">
+      <c r="F83" s="160">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
@@ -9780,17 +9856,17 @@
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A84" s="159">
+      <c r="A84" s="157">
         <v>45321</v>
       </c>
-      <c r="B84" s="161" t="s">
-        <v>376</v>
-      </c>
-      <c r="C84" s="163" t="s">
-        <v>377</v>
+      <c r="B84" s="159" t="s">
+        <v>372</v>
+      </c>
+      <c r="C84" s="161" t="s">
+        <v>373</v>
       </c>
       <c r="E84"/>
-      <c r="F84" s="162">
+      <c r="F84" s="160">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
@@ -9798,53 +9874,53 @@
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="13.5" thickTop="1">
-      <c r="A85" s="159"/>
-      <c r="B85" s="161"/>
-      <c r="C85" s="161"/>
+      <c r="A85" s="157"/>
+      <c r="B85" s="159"/>
+      <c r="C85" s="159"/>
       <c r="E85"/>
-      <c r="F85" s="162"/>
+      <c r="F85" s="160"/>
     </row>
     <row r="86" spans="1:8" ht="15">
-      <c r="A86" s="159"/>
-      <c r="B86" s="161" t="s">
-        <v>378</v>
-      </c>
-      <c r="C86" s="164">
+      <c r="A86" s="157"/>
+      <c r="B86" s="159" t="s">
+        <v>374</v>
+      </c>
+      <c r="C86" s="162">
         <f>A78-A77</f>
         <v>365</v>
       </c>
       <c r="E86"/>
-      <c r="F86" s="162"/>
+      <c r="F86" s="160"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="159"/>
-      <c r="B87" s="161" t="s">
-        <v>379</v>
-      </c>
-      <c r="C87" s="160">
+      <c r="A87" s="157"/>
+      <c r="B87" s="159" t="s">
+        <v>375</v>
+      </c>
+      <c r="C87" s="158">
         <f>D75/C86</f>
         <v>263.01369863013701</v>
       </c>
       <c r="E87"/>
-      <c r="F87" s="162"/>
+      <c r="F87" s="160"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A88" s="165">
+      <c r="A88" s="163">
         <v>45413</v>
       </c>
-      <c r="B88" s="166" t="s">
-        <v>380</v>
-      </c>
-      <c r="C88" s="167"/>
-      <c r="D88" s="168"/>
+      <c r="B88" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="C88" s="165"/>
+      <c r="D88" s="166"/>
       <c r="E88"/>
     </row>
     <row r="89" spans="1:8" ht="13.5" thickTop="1">
       <c r="A89"/>
-      <c r="B89" s="161" t="s">
-        <v>381</v>
-      </c>
-      <c r="C89" s="160">
+      <c r="B89" s="159" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" s="158">
         <f>A88-A77</f>
         <v>245</v>
       </c>
@@ -9852,11 +9928,11 @@
       <c r="E89"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="159"/>
-      <c r="B90" s="161" t="s">
-        <v>382</v>
-      </c>
-      <c r="C90" s="161"/>
+      <c r="A90" s="157"/>
+      <c r="B90" s="159" t="s">
+        <v>378</v>
+      </c>
+      <c r="C90" s="159"/>
       <c r="D90" s="3">
         <f>C89*C87</f>
         <v>64438.356164383571</v>
@@ -9864,90 +9940,90 @@
       <c r="E90"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="159"/>
-      <c r="B91" s="161" t="s">
-        <v>383</v>
-      </c>
-      <c r="C91" s="161"/>
+      <c r="A91" s="157"/>
+      <c r="B91" s="159" t="s">
+        <v>379</v>
+      </c>
+      <c r="C91" s="159"/>
       <c r="D91" s="3">
         <f>D75-D90</f>
         <v>31561.643835616429</v>
       </c>
       <c r="E91"/>
-      <c r="F91" s="162"/>
+      <c r="F91" s="160"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A92" s="159"/>
-      <c r="B92" s="169" t="s">
-        <v>384</v>
-      </c>
-      <c r="C92" s="169" t="s">
-        <v>385</v>
-      </c>
-      <c r="D92" s="170">
+      <c r="A92" s="157"/>
+      <c r="B92" s="167" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" s="167" t="s">
+        <v>381</v>
+      </c>
+      <c r="D92" s="168">
         <f>SUM(D91:D91)</f>
         <v>31561.643835616429</v>
       </c>
       <c r="E92"/>
-      <c r="F92" s="162"/>
+      <c r="F92" s="160"/>
     </row>
     <row r="93" spans="1:8" ht="13.5" thickTop="1">
-      <c r="A93" s="159"/>
-      <c r="B93" s="161" t="s">
-        <v>386</v>
-      </c>
-      <c r="C93" s="161" t="s">
-        <v>385</v>
+      <c r="A93" s="157"/>
+      <c r="B93" s="159" t="s">
+        <v>382</v>
+      </c>
+      <c r="C93" s="159" t="s">
+        <v>381</v>
       </c>
       <c r="D93" s="3">
         <v>794.6</v>
       </c>
       <c r="E93"/>
-      <c r="F93" s="162"/>
+      <c r="F93" s="160"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="159"/>
-      <c r="B94" s="161" t="s">
-        <v>389</v>
-      </c>
-      <c r="C94" s="161" t="s">
-        <v>388</v>
+      <c r="A94" s="157"/>
+      <c r="B94" s="159" t="s">
+        <v>385</v>
+      </c>
+      <c r="C94" s="159" t="s">
+        <v>384</v>
       </c>
       <c r="D94" s="3">
         <v>-30</v>
       </c>
       <c r="E94"/>
-      <c r="F94" s="162"/>
+      <c r="F94" s="160"/>
     </row>
     <row r="95" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A95" s="159"/>
-      <c r="B95" s="171" t="s">
-        <v>390</v>
-      </c>
-      <c r="C95" s="161" t="s">
-        <v>388</v>
+      <c r="A95" s="157"/>
+      <c r="B95" s="169" t="s">
+        <v>386</v>
+      </c>
+      <c r="C95" s="159" t="s">
+        <v>384</v>
       </c>
       <c r="D95" s="3">
         <f>F84*-1</f>
         <v>-7000</v>
       </c>
       <c r="E95"/>
-      <c r="F95" s="162"/>
+      <c r="F95" s="160"/>
     </row>
     <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="161"/>
-      <c r="B96" s="172" t="s">
-        <v>391</v>
-      </c>
-      <c r="C96" s="173" t="s">
-        <v>385</v>
-      </c>
-      <c r="D96" s="170">
+      <c r="A96" s="159"/>
+      <c r="B96" s="170" t="s">
+        <v>387</v>
+      </c>
+      <c r="C96" s="171" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" s="168">
         <f>SUM(D92:D95)</f>
         <v>25326.243835616428</v>
       </c>
-      <c r="E96" s="162"/>
-      <c r="F96" s="162"/>
+      <c r="E96" s="160"/>
+      <c r="F96" s="160"/>
     </row>
     <row r="97" spans="1:4" ht="13.5" thickTop="1">
       <c r="A97" s="7">
@@ -9962,16 +10038,20 @@
     </row>
     <row r="98" spans="1:4">
       <c r="B98" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D98" s="3">
-        <f>D96-D97</f>
-        <v>1326.2438356164275</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="B99" s="193" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="D101" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -10053,16 +10133,16 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="162"/>
+      <c r="A114" s="160"/>
       <c r="B114" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D114" s="3">
         <v>7000</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A115" s="165">
+      <c r="A115" s="163">
         <v>45413</v>
       </c>
       <c r="B115" s="3">
@@ -10073,11 +10153,11 @@
         <v>3.5264483627204029</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A116" s="165">
+      <c r="A116" s="163">
         <v>45412</v>
       </c>
       <c r="B116" s="3">
@@ -10094,7 +10174,7 @@
         <v>2.904564315352697</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -10114,7 +10194,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="182" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="180" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -10130,7 +10210,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="175"/>
+      <c r="A1" s="173"/>
       <c r="B1" s="8" t="s">
         <v>167</v>
       </c>
@@ -10141,13 +10221,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="175"/>
+      <c r="A2" s="173"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="174" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -10155,7 +10235,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -10168,7 +10248,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="175"/>
+      <c r="A4" s="173"/>
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
@@ -10188,7 +10268,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="175"/>
+      <c r="A5" s="173"/>
       <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
@@ -10201,7 +10281,7 @@
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="175"/>
+      <c r="A6" s="173"/>
       <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
@@ -10215,8 +10295,8 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="178" t="s">
-        <v>392</v>
+      <c r="A7" s="176" t="s">
+        <v>388</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
@@ -10231,7 +10311,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="175"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
@@ -10242,10 +10322,10 @@
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="181">
+      <c r="A9" s="179">
         <v>44957</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="153" t="s">
         <v>274</v>
       </c>
       <c r="C9">
@@ -10263,8 +10343,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="181"/>
-      <c r="B10" s="155" t="s">
+      <c r="A10" s="179"/>
+      <c r="B10" s="153" t="s">
         <v>275</v>
       </c>
       <c r="C10">
@@ -10281,8 +10361,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="181"/>
-      <c r="B11" s="155" t="s">
+      <c r="A11" s="179"/>
+      <c r="B11" s="153" t="s">
         <v>276</v>
       </c>
       <c r="C11">
@@ -10299,8 +10379,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="181"/>
-      <c r="B12" s="155" t="s">
+      <c r="A12" s="179"/>
+      <c r="B12" s="153" t="s">
         <v>278</v>
       </c>
       <c r="C12">
@@ -10319,8 +10399,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="181"/>
-      <c r="B13" s="155" t="s">
+      <c r="A13" s="179"/>
+      <c r="B13" s="153" t="s">
         <v>277</v>
       </c>
       <c r="C13">
@@ -10339,8 +10419,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="181"/>
-      <c r="B14" s="155" t="s">
+      <c r="A14" s="179"/>
+      <c r="B14" s="153" t="s">
         <v>279</v>
       </c>
       <c r="C14">
@@ -10357,8 +10437,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="181"/>
-      <c r="B15" s="155" t="s">
+      <c r="A15" s="179"/>
+      <c r="B15" s="153" t="s">
         <v>280</v>
       </c>
       <c r="C15">
@@ -10377,8 +10457,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="181"/>
-      <c r="B16" s="155" t="s">
+      <c r="A16" s="179"/>
+      <c r="B16" s="153" t="s">
         <v>281</v>
       </c>
       <c r="C16">
@@ -10395,8 +10475,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="181"/>
-      <c r="B17" s="155" t="s">
+      <c r="A17" s="179"/>
+      <c r="B17" s="153" t="s">
         <v>282</v>
       </c>
       <c r="C17">
@@ -10413,8 +10493,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="181"/>
-      <c r="B18" s="155" t="s">
+      <c r="A18" s="179"/>
+      <c r="B18" s="153" t="s">
         <v>263</v>
       </c>
       <c r="C18">
@@ -10431,11 +10511,11 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="181">
+      <c r="A19" s="179">
         <v>45260</v>
       </c>
-      <c r="B19" s="155" t="s">
-        <v>393</v>
+      <c r="B19" s="153" t="s">
+        <v>389</v>
       </c>
       <c r="C19">
         <v>42.645099999999999</v>
@@ -10453,10 +10533,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="181">
+      <c r="A20" s="179">
         <v>45291</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="153" t="s">
         <v>265</v>
       </c>
       <c r="C20">
@@ -10473,10 +10553,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="181">
+      <c r="A21" s="179">
         <v>45322</v>
       </c>
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="154" t="s">
         <v>274</v>
       </c>
       <c r="C21">
@@ -10492,8 +10572,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="181"/>
-      <c r="B22" s="156" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="154" t="s">
         <v>275</v>
       </c>
       <c r="C22">
@@ -10510,8 +10590,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="181"/>
-      <c r="B23" s="156" t="s">
+      <c r="A23" s="179"/>
+      <c r="B23" s="154" t="s">
         <v>276</v>
       </c>
       <c r="C23">
@@ -10528,9 +10608,9 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="181"/>
-      <c r="B24" s="158" t="s">
-        <v>350</v>
+      <c r="A24" s="179"/>
+      <c r="B24" s="156" t="s">
+        <v>349</v>
       </c>
       <c r="C24"/>
       <c r="E24" s="66"/>
@@ -10543,9 +10623,9 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="181"/>
-      <c r="B25" s="156" t="s">
-        <v>364</v>
+      <c r="A25" s="179"/>
+      <c r="B25" s="154" t="s">
+        <v>360</v>
       </c>
       <c r="C25">
         <v>3.16</v>
@@ -10563,8 +10643,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="181"/>
-      <c r="B26" s="158" t="s">
+      <c r="A26" s="179"/>
+      <c r="B26" s="156" t="s">
         <v>208</v>
       </c>
       <c r="C26"/>
@@ -10578,9 +10658,9 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="181"/>
-      <c r="B27" s="157" t="s">
-        <v>365</v>
+      <c r="A27" s="179"/>
+      <c r="B27" s="155" t="s">
+        <v>361</v>
       </c>
       <c r="C27"/>
       <c r="E27" s="66">
@@ -10593,8 +10673,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="181"/>
-      <c r="B28" s="157" t="s">
+      <c r="A28" s="179"/>
+      <c r="B28" s="155" t="s">
         <v>279</v>
       </c>
       <c r="C28"/>
@@ -10608,8 +10688,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="181"/>
-      <c r="B29" s="157" t="s">
+      <c r="A29" s="179"/>
+      <c r="B29" s="155" t="s">
         <v>280</v>
       </c>
       <c r="C29"/>
@@ -10623,8 +10703,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="181"/>
-      <c r="B30" s="157" t="s">
+      <c r="A30" s="179"/>
+      <c r="B30" s="155" t="s">
         <v>281</v>
       </c>
       <c r="C30"/>
@@ -10638,9 +10718,9 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="181"/>
-      <c r="B31" s="157" t="s">
-        <v>366</v>
+      <c r="A31" s="179"/>
+      <c r="B31" s="155" t="s">
+        <v>362</v>
       </c>
       <c r="C31"/>
       <c r="E31" s="66">
@@ -10653,8 +10733,8 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="181"/>
-      <c r="B32" s="157" t="s">
+      <c r="A32" s="179"/>
+      <c r="B32" s="155" t="s">
         <v>263</v>
       </c>
       <c r="C32"/>
@@ -10668,8 +10748,8 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="181"/>
-      <c r="B33" s="157" t="s">
+      <c r="A33" s="179"/>
+      <c r="B33" s="155" t="s">
         <v>264</v>
       </c>
       <c r="C33"/>
@@ -10683,8 +10763,8 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="181"/>
-      <c r="B34" s="157" t="s">
+      <c r="A34" s="179"/>
+      <c r="B34" s="155" t="s">
         <v>265</v>
       </c>
       <c r="C34"/>
@@ -10698,8 +10778,8 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="181"/>
-      <c r="B35" s="157" t="s">
+      <c r="A35" s="179"/>
+      <c r="B35" s="155" t="s">
         <v>274</v>
       </c>
       <c r="C35"/>
@@ -10713,8 +10793,8 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="181"/>
-      <c r="B36" s="157" t="s">
+      <c r="A36" s="179"/>
+      <c r="B36" s="155" t="s">
         <v>275</v>
       </c>
       <c r="C36"/>
@@ -10728,8 +10808,8 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="181"/>
-      <c r="B37" s="157" t="s">
+      <c r="A37" s="179"/>
+      <c r="B37" s="155" t="s">
         <v>276</v>
       </c>
       <c r="C37"/>
@@ -10743,9 +10823,9 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="181"/>
-      <c r="B38" s="157" t="s">
-        <v>364</v>
+      <c r="A38" s="179"/>
+      <c r="B38" s="155" t="s">
+        <v>360</v>
       </c>
       <c r="C38"/>
       <c r="E38" s="66">
@@ -10758,7 +10838,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="177"/>
+      <c r="A39" s="175"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -10767,7 +10847,7 @@
       <c r="G39" s="35"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="177"/>
+      <c r="A40" s="175"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -10776,7 +10856,7 @@
       <c r="G40" s="35"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="178" t="str">
+      <c r="A41" s="176" t="str">
         <f>A7</f>
         <v xml:space="preserve"> - 2024 -</v>
       </c>
@@ -10792,11 +10872,11 @@
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="177"/>
+      <c r="A42" s="175"/>
       <c r="B42" t="s">
         <v>35</v>
       </c>
@@ -10814,7 +10894,7 @@
       <c r="M42" s="57"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="177"/>
+      <c r="A43" s="175"/>
       <c r="B43" t="s">
         <v>88</v>
       </c>
@@ -10837,7 +10917,7 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="177"/>
+      <c r="A44" s="175"/>
       <c r="B44" t="s">
         <v>36</v>
       </c>
@@ -10861,7 +10941,7 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="177"/>
+      <c r="A45" s="175"/>
       <c r="B45" t="s">
         <v>37</v>
       </c>
@@ -10877,7 +10957,7 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="177"/>
+      <c r="A46" s="175"/>
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -10893,7 +10973,7 @@
       <c r="M46" s="27"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="177"/>
+      <c r="A47" s="175"/>
       <c r="B47" t="s">
         <v>39</v>
       </c>
@@ -10909,7 +10989,7 @@
       <c r="M47" s="27"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="177"/>
+      <c r="A48" s="175"/>
       <c r="B48" t="s">
         <v>89</v>
       </c>
@@ -10925,7 +11005,7 @@
       <c r="M48" s="27"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="177"/>
+      <c r="A49" s="175"/>
       <c r="B49" t="s">
         <v>90</v>
       </c>
@@ -10941,7 +11021,7 @@
       <c r="M49" s="27"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="177"/>
+      <c r="A50" s="175"/>
       <c r="B50" t="s">
         <v>91</v>
       </c>
@@ -10957,7 +11037,7 @@
       <c r="M50" s="27"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="177"/>
+      <c r="A51" s="175"/>
       <c r="B51" t="s">
         <v>92</v>
       </c>
@@ -10973,7 +11053,7 @@
       <c r="M51" s="27"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="177"/>
+      <c r="A52" s="175"/>
       <c r="B52" t="s">
         <v>40</v>
       </c>
@@ -10991,7 +11071,7 @@
       <c r="M52" s="27"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="177"/>
+      <c r="A53" s="175"/>
       <c r="B53" t="s">
         <v>41</v>
       </c>
@@ -11010,7 +11090,7 @@
       <c r="M53" s="27"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="178"/>
+      <c r="A54" s="176"/>
       <c r="B54" s="23" t="s">
         <v>42</v>
       </c>
@@ -11028,7 +11108,7 @@
       <c r="M54" s="27"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="179">
+      <c r="A55" s="177">
         <v>45657</v>
       </c>
       <c r="B55" s="41" t="s">
@@ -11051,7 +11131,7 @@
       <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="177"/>
+      <c r="A56" s="175"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -11064,7 +11144,7 @@
       <c r="M56" s="27"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="175"/>
+      <c r="A57" s="173"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -11074,7 +11154,7 @@
       <c r="M57" s="27"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="180" t="s">
+      <c r="A58" s="178" t="s">
         <v>254</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -11094,7 +11174,7 @@
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="175"/>
+      <c r="A59" s="173"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -11103,7 +11183,7 @@
       <c r="G59"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="175"/>
+      <c r="A60" s="173"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -11112,7 +11192,7 @@
       <c r="G60"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="175"/>
+      <c r="A61" s="173"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -11121,9 +11201,9 @@
       <c r="G61"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="181"/>
+      <c r="A62" s="179"/>
       <c r="B62" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -11132,7 +11212,7 @@
       <c r="G62"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="181"/>
+      <c r="A63" s="179"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -11141,7 +11221,7 @@
       <c r="G63"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="181"/>
+      <c r="A64" s="179"/>
       <c r="B64" t="s">
         <v>285</v>
       </c>
@@ -11155,7 +11235,7 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="181">
+      <c r="A65" s="179">
         <v>44651</v>
       </c>
       <c r="B65" t="s">
@@ -11171,7 +11251,7 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="181">
+      <c r="A66" s="179">
         <v>44681</v>
       </c>
       <c r="B66" t="s">
@@ -11187,7 +11267,7 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="181">
+      <c r="A67" s="179">
         <v>44711</v>
       </c>
       <c r="B67" t="s">
@@ -11203,11 +11283,11 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="181">
+      <c r="A68" s="179">
         <v>44742</v>
       </c>
       <c r="B68" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C68"/>
       <c r="F68"/>
@@ -11217,11 +11297,11 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="181">
+      <c r="A69" s="179">
         <v>44772</v>
       </c>
       <c r="B69" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C69"/>
       <c r="F69"/>
@@ -11231,11 +11311,11 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="181">
+      <c r="A70" s="179">
         <v>44803</v>
       </c>
       <c r="B70" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C70"/>
       <c r="F70"/>
@@ -11245,7 +11325,7 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="181"/>
+      <c r="A71" s="179"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -11255,7 +11335,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="B72" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -11265,7 +11345,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="B73" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -11274,7 +11354,7 @@
       <c r="G73"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="181"/>
+      <c r="A74" s="179"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -11283,7 +11363,7 @@
       <c r="G74"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="175"/>
+      <c r="A75" s="173"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -11292,7 +11372,7 @@
       <c r="G75"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="175"/>
+      <c r="A76" s="173"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -11301,7 +11381,7 @@
       <c r="G76"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="175"/>
+      <c r="A77" s="173"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -11310,7 +11390,7 @@
       <c r="G77"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="175"/>
+      <c r="A78" s="173"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -11319,7 +11399,7 @@
       <c r="G78"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="175"/>
+      <c r="A79" s="173"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -11328,7 +11408,7 @@
       <c r="G79"/>
     </row>
     <row r="80" spans="1:7" ht="20.25">
-      <c r="B80" s="174">
+      <c r="B80" s="172">
         <v>2023</v>
       </c>
       <c r="C80" s="8"/>
@@ -11338,7 +11418,7 @@
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="175"/>
+      <c r="A81" s="173"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -11347,7 +11427,7 @@
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="175">
+      <c r="A82" s="173">
         <v>45315</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -11360,7 +11440,7 @@
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="182">
+      <c r="A83" s="180">
         <v>45236</v>
       </c>
       <c r="B83" t="s">
@@ -11371,7 +11451,7 @@
       <c r="E83" s="67"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="182">
+      <c r="A84" s="180">
         <v>45236</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -11382,7 +11462,7 @@
       <c r="E84" s="67"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="184"/>
+      <c r="A85" s="182"/>
       <c r="B85"/>
       <c r="C85" s="68"/>
       <c r="D85" s="68"/>
@@ -11390,7 +11470,7 @@
       <c r="F85" s="63"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="182">
+      <c r="A86" s="180">
         <v>45236</v>
       </c>
       <c r="B86" t="s">
@@ -11457,7 +11537,7 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="182">
+      <c r="A94" s="180">
         <v>45236</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -11486,7 +11566,7 @@
       <c r="B96"/>
     </row>
     <row r="97" spans="1:11" ht="114.75">
-      <c r="A97" s="182">
+      <c r="A97" s="180">
         <v>45236</v>
       </c>
       <c r="B97"/>
@@ -11546,7 +11626,7 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="185"/>
+      <c r="A101" s="183"/>
       <c r="B101"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -11600,7 +11680,7 @@
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="185"/>
+      <c r="A106" s="183"/>
       <c r="B106" t="s">
         <v>189</v>
       </c>
@@ -11616,7 +11696,7 @@
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="185"/>
+      <c r="A107" s="183"/>
       <c r="B107" t="s">
         <v>190</v>
       </c>
@@ -11632,7 +11712,7 @@
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="186"/>
+      <c r="A108" s="184"/>
       <c r="B108" t="s">
         <v>158</v>
       </c>
@@ -11754,7 +11834,7 @@
       <c r="E116"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="181"/>
+      <c r="A117" s="179"/>
       <c r="B117" s="71" t="s">
         <v>193</v>
       </c>
@@ -11764,7 +11844,7 @@
       <c r="F117" s="74"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="181"/>
+      <c r="A118" s="179"/>
       <c r="B118" s="75" t="s">
         <v>194</v>
       </c>
@@ -11780,7 +11860,7 @@
       <c r="G118"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="181"/>
+      <c r="A119" s="179"/>
       <c r="B119" s="78" t="s">
         <v>195</v>
       </c>
@@ -12053,7 +12133,7 @@
       <c r="G141" s="57"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="182">
+      <c r="A142" s="180">
         <v>45015</v>
       </c>
       <c r="B142" t="s">
@@ -12085,7 +12165,7 @@
       <c r="G144" s="57"/>
     </row>
     <row r="145" spans="1:7" ht="20.25">
-      <c r="A145" s="183">
+      <c r="A145" s="181">
         <v>2021</v>
       </c>
       <c r="B145"/>
@@ -12126,7 +12206,7 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="181"/>
+      <c r="A149" s="179"/>
       <c r="B149" t="s">
         <v>217</v>
       </c>
@@ -12138,7 +12218,7 @@
       <c r="G149"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="181"/>
+      <c r="A150" s="179"/>
       <c r="B150" t="s">
         <v>218</v>
       </c>
@@ -12160,7 +12240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
   <dimension ref="B4:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
@@ -12181,7 +12261,7 @@
   <sheetData>
     <row r="4" spans="2:9">
       <c r="C4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -12250,7 +12330,7 @@
         <v>44742</v>
       </c>
       <c r="C10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3">
@@ -12263,7 +12343,7 @@
         <v>44772</v>
       </c>
       <c r="C11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3">
@@ -12276,7 +12356,7 @@
         <v>44803</v>
       </c>
       <c r="C12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3">
@@ -12289,13 +12369,13 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -12306,7 +12386,7 @@
       <c r="B17" s="60">
         <v>44957</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="153" t="s">
         <v>274</v>
       </c>
       <c r="D17">
@@ -12324,7 +12404,7 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="153" t="s">
         <v>275</v>
       </c>
       <c r="D18">
@@ -12341,7 +12421,7 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="153" t="s">
         <v>276</v>
       </c>
       <c r="D19">
@@ -12358,7 +12438,7 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="153" t="s">
         <v>278</v>
       </c>
       <c r="D20">
@@ -12377,7 +12457,7 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="C21" s="155" t="s">
+      <c r="C21" s="153" t="s">
         <v>277</v>
       </c>
       <c r="D21">
@@ -12396,7 +12476,7 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="153" t="s">
         <v>279</v>
       </c>
       <c r="D22">
@@ -12413,7 +12493,7 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="153" t="s">
         <v>280</v>
       </c>
       <c r="D23">
@@ -12432,7 +12512,7 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="C24" s="155" t="s">
+      <c r="C24" s="153" t="s">
         <v>281</v>
       </c>
       <c r="D24">
@@ -12449,7 +12529,7 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="C25" s="155" t="s">
+      <c r="C25" s="153" t="s">
         <v>282</v>
       </c>
       <c r="D25">
@@ -12466,7 +12546,7 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="153" t="s">
         <v>263</v>
       </c>
       <c r="D26">
@@ -12483,7 +12563,7 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="C27" s="155" t="s">
+      <c r="C27" s="153" t="s">
         <v>264</v>
       </c>
       <c r="D27">
@@ -12502,10 +12582,10 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="154">
+      <c r="B28" s="152">
         <v>45291</v>
       </c>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="153" t="s">
         <v>265</v>
       </c>
       <c r="D28">
@@ -12522,10 +12602,10 @@
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="154">
+      <c r="B29" s="152">
         <v>45322</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="154" t="s">
         <v>274</v>
       </c>
       <c r="D29">
@@ -12541,7 +12621,7 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="154" t="s">
         <v>275</v>
       </c>
       <c r="D30">
@@ -12558,7 +12638,7 @@
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="C31" s="156" t="s">
+      <c r="C31" s="154" t="s">
         <v>276</v>
       </c>
       <c r="D31">
@@ -12575,8 +12655,8 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="C32" s="158" t="s">
-        <v>350</v>
+      <c r="C32" s="156" t="s">
+        <v>349</v>
       </c>
       <c r="E32" s="66"/>
       <c r="F32" s="32">
@@ -12588,8 +12668,8 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="156" t="s">
-        <v>364</v>
+      <c r="C33" s="154" t="s">
+        <v>360</v>
       </c>
       <c r="D33">
         <v>3.16</v>
@@ -12607,7 +12687,7 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="158" t="s">
+      <c r="C34" s="156" t="s">
         <v>208</v>
       </c>
       <c r="E34" s="66"/>
@@ -12620,8 +12700,8 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="157" t="s">
-        <v>365</v>
+      <c r="C35" s="155" t="s">
+        <v>361</v>
       </c>
       <c r="E35" s="66">
         <v>17002</v>
@@ -12633,7 +12713,7 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="157" t="s">
+      <c r="C36" s="155" t="s">
         <v>279</v>
       </c>
       <c r="E36" s="66">
@@ -12645,7 +12725,7 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="157" t="s">
+      <c r="C37" s="155" t="s">
         <v>280</v>
       </c>
       <c r="E37" s="66">
@@ -12657,7 +12737,7 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="157" t="s">
+      <c r="C38" s="155" t="s">
         <v>281</v>
       </c>
       <c r="E38" s="66">
@@ -12669,8 +12749,8 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="157" t="s">
-        <v>366</v>
+      <c r="C39" s="155" t="s">
+        <v>362</v>
       </c>
       <c r="E39" s="66">
         <v>17002</v>
@@ -12681,7 +12761,7 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="157" t="s">
+      <c r="C40" s="155" t="s">
         <v>263</v>
       </c>
       <c r="E40" s="66">
@@ -12693,7 +12773,7 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="157" t="s">
+      <c r="C41" s="155" t="s">
         <v>264</v>
       </c>
       <c r="E41" s="66">
@@ -12705,7 +12785,7 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="157" t="s">
+      <c r="C42" s="155" t="s">
         <v>265</v>
       </c>
       <c r="E42" s="66">
@@ -12721,25 +12801,25 @@
         <v>45421</v>
       </c>
       <c r="C47" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="100"/>
       <c r="C48" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="100"/>
       <c r="C49" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="100"/>
       <c r="C50" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -12752,7 +12832,7 @@
       <c r="B54" s="60">
         <v>44957</v>
       </c>
-      <c r="C54" s="155" t="s">
+      <c r="C54" s="153" t="s">
         <v>274</v>
       </c>
       <c r="D54">
@@ -12770,115 +12850,115 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="C55" s="155" t="s">
+      <c r="C55" s="153" t="s">
         <v>275</v>
       </c>
       <c r="D55">
         <v>3.15</v>
       </c>
       <c r="E55" s="66">
-        <f>E54+(E54*D54/100)</f>
+        <f t="shared" ref="E55:E60" si="3">E54+(E54*D54/100)</f>
         <v>7380.18</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="27">
-        <f>E55-F55+G54</f>
+        <f t="shared" ref="G55:G79" si="4">E55-F55+G54</f>
         <v>7380.18</v>
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="C56" s="155" t="s">
+      <c r="C56" s="153" t="s">
         <v>276</v>
       </c>
       <c r="D56">
         <v>2.29</v>
       </c>
       <c r="E56" s="66">
-        <f>E55+(E55*D55/100)</f>
+        <f t="shared" si="3"/>
         <v>7612.6556700000001</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="27">
-        <f>E56-F56+G55</f>
+        <f t="shared" si="4"/>
         <v>14992.83567</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="C57" s="155" t="s">
+      <c r="C57" s="153" t="s">
         <v>278</v>
       </c>
       <c r="D57">
         <v>2.39</v>
       </c>
       <c r="E57" s="66">
-        <f>E56+(E56*D56/100)</f>
+        <f t="shared" si="3"/>
         <v>7786.9854848430004</v>
       </c>
       <c r="F57" s="29">
         <v>8425.4599999999991</v>
       </c>
       <c r="G57" s="27">
-        <f>E57-F57+G56</f>
+        <f t="shared" si="4"/>
         <v>14354.361154843002</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="C58" s="155" t="s">
+      <c r="C58" s="153" t="s">
         <v>277</v>
       </c>
       <c r="D58">
         <v>0.04</v>
       </c>
       <c r="E58" s="66">
-        <f>E57+(E57*D57/100)</f>
+        <f t="shared" si="3"/>
         <v>7973.0944379307484</v>
       </c>
       <c r="F58" s="29">
         <v>28080</v>
       </c>
       <c r="G58" s="27">
-        <f>E58-F58+G57</f>
+        <f t="shared" si="4"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="C59" s="155" t="s">
+      <c r="C59" s="153" t="s">
         <v>279</v>
       </c>
       <c r="D59">
         <v>3.92</v>
       </c>
       <c r="E59" s="66">
-        <f>E58+(E58*D58/100)</f>
+        <f t="shared" si="3"/>
         <v>7976.2836757059204</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="27">
-        <f>E59-F59+G58</f>
+        <f t="shared" si="4"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="C60" s="155" t="s">
+      <c r="C60" s="153" t="s">
         <v>280</v>
       </c>
       <c r="D60">
         <v>9.49</v>
       </c>
       <c r="E60" s="66">
-        <f>E59+(E59*D59/100)</f>
+        <f t="shared" si="3"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F60" s="32">
         <v>50000</v>
       </c>
       <c r="G60" s="27">
-        <f>E60-F60+G59</f>
+        <f t="shared" si="4"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="C61" s="155" t="s">
+      <c r="C61" s="153" t="s">
         <v>281</v>
       </c>
       <c r="D61">
@@ -12890,88 +12970,88 @@
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="27">
-        <f>E61-F61+G60</f>
+        <f t="shared" si="4"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="C62" s="155" t="s">
+      <c r="C62" s="153" t="s">
         <v>282</v>
       </c>
       <c r="D62">
         <v>4.75</v>
       </c>
       <c r="E62" s="66">
-        <f t="shared" ref="E62:E65" si="3">E61</f>
+        <f t="shared" ref="E62:E65" si="5">E61</f>
         <v>8288.9539957935922</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="27">
-        <f>E62-F62+G61</f>
+        <f t="shared" si="4"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="C63" s="155" t="s">
+      <c r="C63" s="153" t="s">
         <v>263</v>
       </c>
       <c r="D63">
         <v>3.43</v>
       </c>
       <c r="E63" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="27">
-        <f>E63-F63+G62</f>
+        <f t="shared" si="4"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="C64" s="155" t="s">
+      <c r="C64" s="153" t="s">
         <v>264</v>
       </c>
       <c r="D64">
         <v>3.28</v>
       </c>
       <c r="E64" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F64" s="32">
         <v>15887.06</v>
       </c>
       <c r="G64" s="27">
-        <f>E64-F64+G63</f>
+        <f t="shared" si="4"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="154">
+      <c r="B65" s="152">
         <v>45291</v>
       </c>
-      <c r="C65" s="155" t="s">
+      <c r="C65" s="153" t="s">
         <v>265</v>
       </c>
       <c r="D65">
         <v>2.93</v>
       </c>
       <c r="E65" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="33">
-        <f>E65-F65+G64</f>
+        <f t="shared" si="4"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="154">
+      <c r="B66" s="152">
         <v>45322</v>
       </c>
-      <c r="C66" s="156" t="s">
+      <c r="C66" s="154" t="s">
         <v>274</v>
       </c>
       <c r="D66">
@@ -12982,60 +13062,60 @@
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="33">
-        <f>E66-F66+G65</f>
+        <f t="shared" si="4"/>
         <v>70.403243241227756</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="C67" s="156" t="s">
+      <c r="C67" s="154" t="s">
         <v>275</v>
       </c>
       <c r="D67">
         <v>4.53</v>
       </c>
       <c r="E67" s="66">
-        <f t="shared" ref="E67:E68" si="4">E66+(E66*D66/100)</f>
+        <f t="shared" ref="E67:E68" si="6">E66+(E66*D66/100)</f>
         <v>14939.4</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="33">
-        <f>E67-F67+G66</f>
+        <f t="shared" si="4"/>
         <v>15009.803243241227</v>
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="C68" s="156" t="s">
+      <c r="C68" s="154" t="s">
         <v>276</v>
       </c>
       <c r="D68">
         <v>3.16</v>
       </c>
       <c r="E68" s="66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15616.15482</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="33">
-        <f>E68-F68+G67</f>
+        <f t="shared" si="4"/>
         <v>30625.958063241225</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="C69" s="158" t="s">
-        <v>350</v>
+      <c r="C69" s="156" t="s">
+        <v>349</v>
       </c>
       <c r="E69" s="66"/>
       <c r="F69" s="32">
         <v>-3795</v>
       </c>
       <c r="G69" s="33">
-        <f>E69-F69+G68</f>
+        <f t="shared" si="4"/>
         <v>34420.958063241225</v>
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="C70" s="156" t="s">
-        <v>364</v>
+      <c r="C70" s="154" t="s">
+        <v>360</v>
       </c>
       <c r="D70">
         <v>3.16</v>
@@ -13048,12 +13128,12 @@
         <v>85000</v>
       </c>
       <c r="G70" s="33">
-        <f>E70-F70+G69</f>
+        <f t="shared" si="4"/>
         <v>-34469.416624446778</v>
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="C71" s="158" t="s">
+      <c r="C71" s="156" t="s">
         <v>208</v>
       </c>
       <c r="D71">
@@ -13064,13 +13144,13 @@
         <v>-5600</v>
       </c>
       <c r="G71" s="33">
-        <f>E71-F71+G70</f>
+        <f t="shared" si="4"/>
         <v>-28869.416624446778</v>
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="C72" s="157" t="s">
-        <v>365</v>
+      <c r="C72" s="155" t="s">
+        <v>361</v>
       </c>
       <c r="E72" s="66">
         <f>E70+(E70*D71/100)</f>
@@ -13078,12 +13158,12 @@
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="33">
-        <f>E72-F72+G71</f>
+        <f t="shared" si="4"/>
         <v>-11867.318069832694</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="C73" s="157" t="s">
+      <c r="C73" s="155" t="s">
         <v>279</v>
       </c>
       <c r="E73" s="66">
@@ -13091,85 +13171,85 @@
         <v>17002.098554614084</v>
       </c>
       <c r="G73" s="33">
-        <f>E73-F73+G72</f>
+        <f t="shared" si="4"/>
         <v>5134.7804847813895</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="C74" s="157" t="s">
+      <c r="C74" s="155" t="s">
         <v>280</v>
       </c>
       <c r="E74" s="66">
-        <f t="shared" ref="E74:E79" si="5">E73+(E73*D73/100)</f>
+        <f t="shared" ref="E74:E79" si="7">E73+(E73*D73/100)</f>
         <v>17002.098554614084</v>
       </c>
       <c r="G74" s="33">
-        <f>E74-F74+G73</f>
+        <f t="shared" si="4"/>
         <v>22136.879039395473</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="C75" s="157" t="s">
+      <c r="C75" s="155" t="s">
         <v>281</v>
       </c>
       <c r="E75" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G75" s="33">
-        <f>E75-F75+G74</f>
+        <f t="shared" si="4"/>
         <v>39138.977594009557</v>
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="C76" s="157" t="s">
-        <v>366</v>
+      <c r="C76" s="155" t="s">
+        <v>362</v>
       </c>
       <c r="E76" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G76" s="33">
-        <f>E76-F76+G75</f>
+        <f t="shared" si="4"/>
         <v>56141.076148623644</v>
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="C77" s="157" t="s">
+      <c r="C77" s="155" t="s">
         <v>263</v>
       </c>
       <c r="E77" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G77" s="33">
-        <f>E77-F77+G76</f>
+        <f t="shared" si="4"/>
         <v>73143.174703237732</v>
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="C78" s="157" t="s">
+      <c r="C78" s="155" t="s">
         <v>264</v>
       </c>
       <c r="E78" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G78" s="33">
-        <f>E78-F78+G77</f>
+        <f t="shared" si="4"/>
         <v>90145.273257851819</v>
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="C79" s="157" t="s">
+      <c r="C79" s="155" t="s">
         <v>265</v>
       </c>
       <c r="E79" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G79" s="33">
-        <f>E79-F79+G78</f>
+        <f t="shared" si="4"/>
         <v>107147.37181246591</v>
       </c>
     </row>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4928FBEF-BDE4-4B23-80D4-0999F6D137CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70D8637-2C19-47B9-B9B2-5B79AA1B62F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -1371,7 +1371,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="178" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1707,8 +1707,14 @@
       <color rgb="FF000000"/>
       <name val="Ubuntu Condensed"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Sans2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1893,6 +1899,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2113,7 +2143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2435,6 +2465,16 @@
     <xf numFmtId="40" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="36" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="36" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="36" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="47" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="47" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2932,7 +2972,7 @@
       </c>
       <c r="C12" s="3">
         <f>'SnyF601-22'!E4</f>
-        <v>374001.70146702649</v>
+        <v>447218.53578899364</v>
       </c>
       <c r="D12" s="3">
         <f>'SnyF601-22'!F4</f>
@@ -2940,7 +2980,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>189084.1814670265</v>
+        <v>262301.01578899368</v>
       </c>
       <c r="F12" s="4">
         <f>'SnyF601-22'!E6</f>
@@ -3000,7 +3040,7 @@
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
-        <v>806924.61146702652</v>
+        <v>880141.44578899362</v>
       </c>
       <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
@@ -3008,7 +3048,7 @@
       </c>
       <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
-        <v>317084.18146702647</v>
+        <v>390301.01578899368</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
@@ -7885,7 +7925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D669E-8356-4324-A959-1EA6F446C492}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -10186,15 +10226,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="180" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="180" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -10255,11 +10295,11 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
-        <f>SUM(E9:E38)</f>
-        <v>374001.70146702649</v>
+        <f>SUM(E9:E39)</f>
+        <v>447218.53578899364</v>
       </c>
       <c r="F4" s="16">
-        <f>SUM(F9:F38)</f>
+        <f>SUM(F9:F39)</f>
         <v>184917.52</v>
       </c>
       <c r="G4" s="17" t="e">
@@ -10275,7 +10315,7 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="18">
-        <f>G58</f>
+        <f>G59</f>
         <v>0</v>
       </c>
       <c r="G5"/>
@@ -10288,7 +10328,7 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" s="20">
-        <f>G55</f>
+        <f>G56</f>
         <v>-2824.5300000000007</v>
       </c>
       <c r="F6" s="19"/>
@@ -10356,7 +10396,7 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="27">
-        <f t="shared" ref="G10:G38" si="1">E10-F10+G9</f>
+        <f t="shared" ref="G10:G39" si="1">E10-F10+G9</f>
         <v>7380.18</v>
       </c>
     </row>
@@ -10553,298 +10593,318 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="179">
+      <c r="A21" s="195"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="200"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="179">
         <v>45322</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B22" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>6.71</v>
       </c>
-      <c r="E21" s="66">
-        <v>14000</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33">
-        <f t="shared" si="1"/>
-        <v>14000.001334714505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="179"/>
-      <c r="B22" s="154" t="s">
-        <v>275</v>
-      </c>
-      <c r="C22">
-        <v>4.53</v>
-      </c>
       <c r="E22" s="66">
-        <f>E21+(E21*C21/100)</f>
-        <v>14939.4</v>
+        <v>17002</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="33">
-        <f t="shared" si="1"/>
-        <v>28939.401334714505</v>
+        <f>E22-F22+G20</f>
+        <v>17002.001334714507</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="179"/>
       <c r="B23" s="154" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23">
-        <v>3.16</v>
+        <v>4.53</v>
       </c>
       <c r="E23" s="66">
         <f>E22+(E22*C22/100)</f>
-        <v>15616.15482</v>
+        <v>18142.834200000001</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="33">
         <f t="shared" si="1"/>
-        <v>44555.556154714504</v>
+        <v>35144.835534714512</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="179"/>
-      <c r="B24" s="156" t="s">
-        <v>349</v>
-      </c>
-      <c r="C24"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="32">
-        <v>-3795</v>
-      </c>
+      <c r="B24" s="154" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24">
+        <v>3.16</v>
+      </c>
+      <c r="E24" s="66">
+        <f>E23+(E23*C23/100)</f>
+        <v>18964.70458926</v>
+      </c>
+      <c r="F24" s="32"/>
       <c r="G24" s="33">
         <f t="shared" si="1"/>
-        <v>48350.556154714504</v>
+        <v>54109.540123974512</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="179"/>
-      <c r="B25" s="154" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25">
-        <v>3.16</v>
-      </c>
-      <c r="E25" s="66">
-        <f>E23+(E23*C23/100)</f>
-        <v>16109.625312312</v>
-      </c>
+      <c r="B25" s="156" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="32">
-        <v>85000</v>
+        <v>-3795</v>
       </c>
       <c r="G25" s="33">
         <f t="shared" si="1"/>
-        <v>-20539.818532973499</v>
+        <v>57904.540123974512</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="179"/>
-      <c r="B26" s="156" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26"/>
-      <c r="E26" s="66"/>
+      <c r="A26" s="179">
+        <v>45397</v>
+      </c>
+      <c r="B26" s="154" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26">
+        <v>3.18</v>
+      </c>
+      <c r="E26" s="66">
+        <f>E24+(E24*C24/100)</f>
+        <v>19563.989254280616</v>
+      </c>
       <c r="F26" s="32">
-        <v>-5600</v>
+        <v>85000</v>
       </c>
       <c r="G26" s="33">
         <f t="shared" si="1"/>
-        <v>-14939.818532973499</v>
+        <v>-7531.4706217448693</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="179"/>
-      <c r="B27" s="155" t="s">
-        <v>361</v>
+      <c r="B27" s="156" t="s">
+        <v>208</v>
       </c>
       <c r="C27"/>
-      <c r="E27" s="66">
-        <v>17002</v>
-      </c>
-      <c r="F27" s="32"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="32">
+        <v>-5600</v>
+      </c>
       <c r="G27" s="33">
         <f t="shared" si="1"/>
-        <v>2062.1814670265012</v>
+        <v>-1931.4706217448693</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="179"/>
       <c r="B28" s="155" t="s">
-        <v>279</v>
-      </c>
-      <c r="C28"/>
+        <v>361</v>
+      </c>
+      <c r="C28">
+        <v>3.37</v>
+      </c>
       <c r="E28" s="66">
-        <v>17002</v>
-      </c>
-      <c r="F28"/>
+        <f>E26+(E26*C26/100)</f>
+        <v>20186.12411256674</v>
+      </c>
+      <c r="F28" s="32"/>
       <c r="G28" s="33">
         <f t="shared" si="1"/>
-        <v>19064.181467026501</v>
+        <v>18254.653490821871</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="179"/>
       <c r="B29" s="155" t="s">
-        <v>280</v>
-      </c>
-      <c r="C29"/>
+        <v>279</v>
+      </c>
+      <c r="C29">
+        <v>3.6</v>
+      </c>
       <c r="E29" s="66">
-        <v>17002</v>
+        <f>E28+(E28*C28/100)</f>
+        <v>20866.396495160239</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="33">
         <f t="shared" si="1"/>
-        <v>36066.181467026501</v>
+        <v>39121.049985982114</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="179"/>
       <c r="B30" s="155" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30"/>
+        <v>280</v>
+      </c>
+      <c r="C30">
+        <v>3.6</v>
+      </c>
       <c r="E30" s="66">
-        <v>17002</v>
+        <f t="shared" ref="E30:E39" si="2">E29+(E29*C29/100)</f>
+        <v>21617.58676898601</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="33">
         <f t="shared" si="1"/>
-        <v>53068.181467026501</v>
+        <v>60738.636754968124</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="179"/>
       <c r="B31" s="155" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="C31"/>
       <c r="E31" s="66">
-        <v>17002</v>
+        <f t="shared" si="2"/>
+        <v>22395.819892669508</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="33">
         <f t="shared" si="1"/>
-        <v>70070.181467026501</v>
+        <v>83134.456647637635</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="179"/>
       <c r="B32" s="155" t="s">
-        <v>263</v>
+        <v>362</v>
       </c>
       <c r="C32"/>
       <c r="E32" s="66">
-        <v>17002</v>
+        <f t="shared" si="2"/>
+        <v>22395.819892669508</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="33">
         <f t="shared" si="1"/>
-        <v>87072.181467026501</v>
+        <v>105530.27654030714</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="179"/>
       <c r="B33" s="155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C33"/>
       <c r="E33" s="66">
-        <v>17002</v>
+        <f t="shared" si="2"/>
+        <v>22395.819892669508</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="33">
         <f t="shared" si="1"/>
-        <v>104074.1814670265</v>
+        <v>127926.09643297664</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="179"/>
       <c r="B34" s="155" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C34"/>
       <c r="E34" s="66">
-        <v>17002</v>
+        <f t="shared" si="2"/>
+        <v>22395.819892669508</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="33">
         <f t="shared" si="1"/>
-        <v>121076.1814670265</v>
+        <v>150321.91632564616</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="179"/>
       <c r="B35" s="155" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C35"/>
       <c r="E35" s="66">
-        <v>17002</v>
+        <f t="shared" si="2"/>
+        <v>22395.819892669508</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="33">
         <f t="shared" si="1"/>
-        <v>138078.1814670265</v>
+        <v>172717.73621831567</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="179"/>
       <c r="B36" s="155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C36"/>
       <c r="E36" s="66">
-        <v>17002</v>
+        <f t="shared" si="2"/>
+        <v>22395.819892669508</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="33">
         <f t="shared" si="1"/>
-        <v>155080.1814670265</v>
+        <v>195113.55611098517</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="179"/>
       <c r="B37" s="155" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C37"/>
       <c r="E37" s="66">
-        <v>17002</v>
+        <f t="shared" si="2"/>
+        <v>22395.819892669508</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="33">
         <f t="shared" si="1"/>
-        <v>172082.1814670265</v>
+        <v>217509.37600365467</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="179"/>
       <c r="B38" s="155" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="C38"/>
       <c r="E38" s="66">
-        <v>17002</v>
+        <f t="shared" si="2"/>
+        <v>22395.819892669508</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="33">
         <f t="shared" si="1"/>
-        <v>189084.1814670265</v>
+        <v>239905.19589632418</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="175"/>
-      <c r="B39"/>
+      <c r="A39" s="179"/>
+      <c r="B39" s="155" t="s">
+        <v>360</v>
+      </c>
       <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
+      <c r="E39" s="66">
+        <f t="shared" si="2"/>
+        <v>22395.819892669508</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39" s="33">
+        <f t="shared" si="1"/>
+        <v>262301.01578899368</v>
+      </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="175"/>
@@ -10856,86 +10916,71 @@
       <c r="G40" s="35"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="176" t="str">
+      <c r="A41" s="175"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="176" t="str">
         <f>A7</f>
         <v xml:space="preserve"> - 2024 -</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B42" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C42" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="37" t="s">
+      <c r="D42" s="23"/>
+      <c r="E42" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38" t="s">
+      <c r="F42" s="38"/>
+      <c r="G42" s="38" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="175"/>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35">
-        <v>-2510.63</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="175"/>
       <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C43"/>
       <c r="D43"/>
-      <c r="E43" s="3">
-        <v>781.86</v>
-      </c>
-      <c r="F43" s="3">
-        <v>891.32</v>
-      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="35">
-        <f t="shared" ref="G43:G54" si="2">E43-F43+G42</f>
-        <v>-2620.09</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+        <v>-2510.63</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="175"/>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="3">
-        <v>2044.36</v>
+        <v>781.86</v>
       </c>
       <c r="F44" s="3">
-        <v>2248.8000000000002</v>
+        <v>891.32</v>
       </c>
       <c r="G44" s="35">
-        <f t="shared" si="2"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="J44" s="1"/>
+        <f t="shared" ref="G44:G55" si="3">E44-F44+G43</f>
+        <v>-2620.09</v>
+      </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -10943,12 +10988,20 @@
     <row r="45" spans="1:13">
       <c r="A45" s="175"/>
       <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45"/>
+        <v>36</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
       <c r="D45"/>
+      <c r="E45" s="3">
+        <v>2044.36</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2248.8000000000002</v>
+      </c>
       <c r="G45" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J45" s="1"/>
@@ -10959,28 +11012,28 @@
     <row r="46" spans="1:13">
       <c r="A46" s="175"/>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
       <c r="G46" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="27"/>
+      <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="175"/>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="G47" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J47" s="1"/>
@@ -10991,12 +11044,12 @@
     <row r="48" spans="1:13">
       <c r="A48" s="175"/>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
       <c r="G48" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J48" s="1"/>
@@ -11007,12 +11060,12 @@
     <row r="49" spans="1:13">
       <c r="A49" s="175"/>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
       <c r="G49" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J49" s="1"/>
@@ -11023,12 +11076,12 @@
     <row r="50" spans="1:13">
       <c r="A50" s="175"/>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
       <c r="G50" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J50" s="1"/>
@@ -11039,12 +11092,12 @@
     <row r="51" spans="1:13">
       <c r="A51" s="175"/>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
       <c r="G51" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J51" s="1"/>
@@ -11055,14 +11108,12 @@
     <row r="52" spans="1:13">
       <c r="A52" s="175"/>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
       <c r="G52" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="J52" s="1"/>
@@ -11073,56 +11124,51 @@
     <row r="53" spans="1:13">
       <c r="A53" s="175"/>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2824.5300000000007</v>
       </c>
-      <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="57"/>
+      <c r="L53" s="3"/>
       <c r="M53" s="27"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="176"/>
-      <c r="B54" s="23" t="s">
+      <c r="A54" s="175"/>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35">
+        <f t="shared" si="3"/>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="176"/>
+      <c r="B55" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="39">
-        <f t="shared" si="2"/>
-        <v>-2824.5300000000007</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="27"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="177">
-        <v>45657</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="42">
-        <f>SUM(C43:C54)</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45">
-        <f>E55-F55+G54</f>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="39">
+        <f t="shared" si="3"/>
         <v>-2824.5300000000007</v>
       </c>
       <c r="I55" s="1"/>
@@ -11131,56 +11177,70 @@
       <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="175"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="38"/>
-      <c r="I56"/>
+      <c r="A56" s="177">
+        <v>45657</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="42">
+        <f>SUM(C44:C55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="42"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="45">
+        <f>E56-F56+G55</f>
+        <v>-2824.5300000000007</v>
+      </c>
+      <c r="I56" s="1"/>
       <c r="K56" s="67"/>
       <c r="L56" s="3"/>
       <c r="M56" s="27"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="173"/>
+      <c r="A57" s="175"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="38"/>
+      <c r="I57"/>
+      <c r="K57" s="67"/>
       <c r="L57" s="3"/>
       <c r="M57" s="27"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="178" t="s">
-        <v>254</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="49">
-        <f>SUM(F59:F59)</f>
-        <v>0</v>
-      </c>
+      <c r="A58" s="173"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="173"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
+      <c r="A59" s="178" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="49">
+        <f>SUM(F60:F60)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="27"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="173"/>
@@ -11201,19 +11261,19 @@
       <c r="G61"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="179"/>
-      <c r="B62" t="s">
-        <v>354</v>
-      </c>
-      <c r="C62"/>
-      <c r="D62"/>
+      <c r="A62" s="173"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="179"/>
-      <c r="B63"/>
+      <c r="B63" t="s">
+        <v>354</v>
+      </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
@@ -11222,121 +11282,120 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="179"/>
-      <c r="B64" t="s">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="179"/>
+      <c r="B65" t="s">
         <v>285</v>
       </c>
-      <c r="C64"/>
-      <c r="E64" s="3">
+      <c r="C65"/>
+      <c r="E65" s="3">
         <v>48000</v>
       </c>
-      <c r="G64" s="3">
-        <f>G62+E64-F64</f>
+      <c r="G65" s="3">
+        <f>G63+E65-F65</f>
         <v>48000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="179">
-        <v>44651</v>
-      </c>
-      <c r="B65" t="s">
-        <v>286</v>
-      </c>
-      <c r="C65"/>
-      <c r="F65">
-        <v>28000</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" ref="G65:G70" si="3">G64+E65-F65</f>
-        <v>20000</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="179">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C66"/>
       <c r="F66">
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="3"/>
-        <v>16000</v>
+        <f t="shared" ref="G66:G71" si="4">G65+E66-F66</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="179">
-        <v>44711</v>
+        <v>44681</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C67"/>
       <c r="F67">
         <v>4000</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="3"/>
-        <v>12000</v>
+        <f t="shared" si="4"/>
+        <v>16000</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="179">
-        <v>44742</v>
+        <v>44711</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="C68"/>
-      <c r="F68"/>
+      <c r="F68">
+        <v>4000</v>
+      </c>
       <c r="G68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="179">
-        <v>44772</v>
+        <v>44742</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C69"/>
       <c r="F69"/>
       <c r="G69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="179">
-        <v>44803</v>
+        <v>44772</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C70"/>
       <c r="F70"/>
       <c r="G70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="179"/>
-      <c r="B71"/>
+      <c r="A71" s="179">
+        <v>44803</v>
+      </c>
+      <c r="B71" t="s">
+        <v>357</v>
+      </c>
       <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
       <c r="F71"/>
-      <c r="G71"/>
+      <c r="G71" s="3">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="B72" t="s">
-        <v>359</v>
-      </c>
+      <c r="A72" s="179"/>
+      <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
@@ -11345,7 +11404,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="B73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -11354,8 +11413,9 @@
       <c r="G73"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="179"/>
-      <c r="B74"/>
+      <c r="B74" t="s">
+        <v>358</v>
+      </c>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
@@ -11363,10 +11423,10 @@
       <c r="G74"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="173"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+      <c r="A75" s="179"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75"/>
@@ -11407,19 +11467,19 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="20.25">
-      <c r="B80" s="172">
-        <v>2023</v>
-      </c>
+    <row r="80" spans="1:7">
+      <c r="A80" s="173"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="173"/>
-      <c r="B81" s="8"/>
+    <row r="81" spans="1:7" ht="20.25">
+      <c r="B81" s="172">
+        <v>2023</v>
+      </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81"/>
@@ -11427,12 +11487,8 @@
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="173">
-        <v>45315</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>333</v>
-      </c>
+      <c r="A82" s="173"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82"/>
@@ -11440,49 +11496,54 @@
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="180">
-        <v>45236</v>
-      </c>
-      <c r="B83" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83" s="67"/>
+      <c r="A83" s="173">
+        <v>45315</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="180">
         <v>45236</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>170</v>
+      <c r="B84" t="s">
+        <v>169</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84" s="67"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="182"/>
-      <c r="B85"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63"/>
+      <c r="A85" s="180">
+        <v>45236</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85" s="67"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="180">
+      <c r="A86" s="182"/>
+      <c r="B86"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="180">
         <v>45236</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>171</v>
-      </c>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86" s="67"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="B87" t="s">
-        <v>172</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -11490,207 +11551,199 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" s="67"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="B89" s="3" t="s">
-        <v>174</v>
+      <c r="B89" t="s">
+        <v>173</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
-      <c r="E89"/>
+      <c r="E89" s="67"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="B90" t="s">
-        <v>175</v>
+      <c r="B90" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="B91" s="3" t="s">
-        <v>176</v>
+      <c r="B91" t="s">
+        <v>175</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
     </row>
     <row r="92" spans="1:7">
+      <c r="B92" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
-      <c r="E93" t="s">
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94" t="s">
         <v>177</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="180">
+    <row r="95" spans="1:7">
+      <c r="A95" s="180">
         <v>45236</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>0.65</v>
       </c>
-      <c r="D94"/>
-      <c r="E94" s="3">
+      <c r="D95"/>
+      <c r="E95" s="3">
         <v>84000</v>
       </c>
-      <c r="F94" s="3">
-        <f>E94*C94</f>
+      <c r="F95" s="3">
+        <f>E95*C95</f>
         <v>54600</v>
       </c>
-      <c r="G94" s="3">
-        <f>F94+E94</f>
+      <c r="G95" s="3">
+        <f>F95+E95</f>
         <v>138600</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="B95"/>
     </row>
     <row r="96" spans="1:7">
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:11" ht="114.75">
-      <c r="A97" s="180">
+    <row r="97" spans="1:11">
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="1:11" ht="114.75">
+      <c r="A98" s="180">
         <v>45236</v>
       </c>
-      <c r="B97"/>
-      <c r="E97" s="69" t="s">
+      <c r="B98"/>
+      <c r="E98" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="F97" s="69" t="s">
+      <c r="F98" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="G97" s="69" t="s">
+      <c r="G98" s="69" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="25.5">
-      <c r="B98" s="69" t="s">
+    <row r="99" spans="1:11" ht="25.5">
+      <c r="B99" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C99" s="3">
         <v>11.5</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E99" s="3">
         <v>138000</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="38.25">
-      <c r="B99" s="70" t="s">
+    <row r="100" spans="1:11" ht="38.25">
+      <c r="B100" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C100" s="3">
         <v>12</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <v>84000</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F100" s="3">
         <v>12000</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G100" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="37.5" customHeight="1">
-      <c r="B100" s="69" t="s">
+    <row r="101" spans="1:11" ht="37.5" customHeight="1">
+      <c r="B101" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C101" s="3">
         <v>14</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>98000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F101" s="3">
         <v>14000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G101" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="183"/>
-      <c r="B101"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-    </row>
     <row r="102" spans="1:11">
+      <c r="A102" s="183"/>
       <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="J102" s="3"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="B103" s="3" t="s">
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="B104" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G103" s="3">
-        <f t="shared" ref="G103:G114" si="4">G102+E103-F103</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="B104" t="s">
-        <v>187</v>
-      </c>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="F104" s="3">
-        <v>20.95</v>
-      </c>
       <c r="G104" s="3">
-        <f t="shared" si="4"/>
-        <v>-20.95</v>
+        <f t="shared" ref="G104:G115" si="5">G103+E104-F104</f>
+        <v>0</v>
       </c>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:11">
       <c r="B105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
       <c r="F105" s="3">
-        <v>11.93</v>
+        <v>20.95</v>
       </c>
       <c r="G105" s="3">
-        <f t="shared" si="4"/>
-        <v>-32.879999999999995</v>
+        <f t="shared" si="5"/>
+        <v>-20.95</v>
       </c>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="183"/>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
       <c r="F106" s="3">
-        <v>0</v>
+        <v>11.93</v>
       </c>
       <c r="G106" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-32.879999999999995</v>
       </c>
       <c r="J106" s="3"/>
@@ -11698,283 +11751,291 @@
     <row r="107" spans="1:11">
       <c r="A107" s="183"/>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
       <c r="F107" s="3">
-        <v>23.25</v>
+        <v>0</v>
       </c>
       <c r="G107" s="3">
-        <f t="shared" si="4"/>
-        <v>-56.129999999999995</v>
+        <f t="shared" si="5"/>
+        <v>-32.879999999999995</v>
       </c>
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="184"/>
+      <c r="A108" s="183"/>
       <c r="B108" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
       <c r="F108" s="3">
-        <v>42.14</v>
+        <v>23.25</v>
       </c>
       <c r="G108" s="3">
-        <f t="shared" si="4"/>
-        <v>-98.27</v>
+        <f t="shared" si="5"/>
+        <v>-56.129999999999995</v>
       </c>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:11">
+      <c r="A109" s="184"/>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C109"/>
       <c r="D109"/>
       <c r="F109" s="3">
-        <v>39.369999999999997</v>
+        <v>42.14</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" si="4"/>
-        <v>-137.63999999999999</v>
+        <f t="shared" si="5"/>
+        <v>-98.27</v>
       </c>
       <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
     </row>
     <row r="110" spans="1:11">
       <c r="B110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
       <c r="F110" s="3">
-        <v>150.16</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" si="4"/>
-        <v>-287.79999999999995</v>
+        <f t="shared" si="5"/>
+        <v>-137.63999999999999</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
     </row>
     <row r="111" spans="1:11">
       <c r="B111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
       <c r="F111" s="3">
-        <v>216.76</v>
+        <v>150.16</v>
       </c>
       <c r="G111" s="3">
-        <f t="shared" si="4"/>
-        <v>-504.55999999999995</v>
+        <f t="shared" si="5"/>
+        <v>-287.79999999999995</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
     </row>
     <row r="112" spans="1:11">
       <c r="B112" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
       <c r="F112" s="3">
-        <v>132.72</v>
+        <v>216.76</v>
       </c>
       <c r="G112" s="3">
-        <f t="shared" si="4"/>
-        <v>-637.28</v>
+        <f t="shared" si="5"/>
+        <v>-504.55999999999995</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="B113"/>
+      <c r="B113" t="s">
+        <v>191</v>
+      </c>
       <c r="C113"/>
       <c r="D113"/>
-      <c r="E113" s="3">
-        <v>404.76</v>
+      <c r="F113" s="3">
+        <v>132.72</v>
       </c>
       <c r="G113" s="3">
-        <f t="shared" si="4"/>
-        <v>-232.51999999999998</v>
+        <f t="shared" si="5"/>
+        <v>-637.28</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="B114" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57">
-        <f t="shared" si="4"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114" s="3">
+        <v>404.76</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" si="5"/>
         <v>-232.51999999999998</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
+      <c r="B115" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="57">
+        <f t="shared" si="5"/>
+        <v>-232.51999999999998</v>
+      </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11" ht="13.5" thickBot="1">
+    <row r="116" spans="1:11">
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
-      <c r="E116"/>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="179"/>
-      <c r="B117" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="C117" s="72"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="74"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="1:11" ht="13.5" thickBot="1">
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="179"/>
-      <c r="B118" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118" s="76">
-        <v>48000</v>
-      </c>
-      <c r="F118" s="77">
-        <f>E118</f>
-        <v>48000</v>
-      </c>
-      <c r="G118"/>
+      <c r="B118" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="72"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="74"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="179"/>
-      <c r="B119" s="78" t="s">
+      <c r="B119" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119" s="76">
+        <v>48000</v>
+      </c>
+      <c r="F119" s="77">
+        <f>E119</f>
+        <v>48000</v>
+      </c>
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="179"/>
+      <c r="B120" s="78" t="s">
         <v>195</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="57">
-        <v>6920</v>
-      </c>
-      <c r="F119" s="79">
-        <f t="shared" ref="F119:F126" si="5">F118-E119</f>
-        <v>41080</v>
-      </c>
-      <c r="G119"/>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="B120" s="80" t="s">
-        <v>196</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="57">
+        <v>6920</v>
+      </c>
+      <c r="F120" s="79">
+        <f t="shared" ref="F120:F127" si="6">F119-E120</f>
+        <v>41080</v>
+      </c>
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="B121" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="57">
         <v>13000</v>
       </c>
-      <c r="F120" s="79">
-        <f t="shared" si="5"/>
+      <c r="F121" s="79">
+        <f t="shared" si="6"/>
         <v>28080</v>
       </c>
-      <c r="G120"/>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="B121" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121" s="79">
-        <f t="shared" si="5"/>
-        <v>28080</v>
-      </c>
+      <c r="G121"/>
     </row>
     <row r="122" spans="1:11">
       <c r="B122" s="81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28080</v>
       </c>
-      <c r="G122"/>
     </row>
     <row r="123" spans="1:11">
       <c r="B123" s="81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28080</v>
       </c>
-      <c r="G123" s="57"/>
+      <c r="G123"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="B124" s="82" t="s">
-        <v>200</v>
+      <c r="B124" s="81" t="s">
+        <v>199</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28080</v>
       </c>
       <c r="G124" s="57"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="B125" s="81" t="s">
-        <v>201</v>
+      <c r="B125" s="82" t="s">
+        <v>200</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28080</v>
       </c>
       <c r="G125" s="57"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="B126" s="78" t="s">
+      <c r="B126" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126" s="79">
+        <f t="shared" si="6"/>
+        <v>28080</v>
+      </c>
+      <c r="G126" s="57"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="B127" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="57">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="57">
         <v>28080</v>
       </c>
-      <c r="F126" s="79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="57"/>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="B127" s="81"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127" s="79"/>
+      <c r="F127" s="79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G127" s="57"/>
     </row>
     <row r="128" spans="1:11">
@@ -11983,244 +12044,240 @@
       <c r="D128"/>
       <c r="E128"/>
       <c r="F128" s="79"/>
-      <c r="G128" s="83"/>
+      <c r="G128" s="57"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="B129" s="84" t="s">
-        <v>203</v>
-      </c>
+      <c r="B129" s="81"/>
       <c r="C129"/>
       <c r="D129"/>
-      <c r="E129" s="3">
-        <v>83000</v>
-      </c>
-      <c r="F129" s="79">
-        <v>83000</v>
-      </c>
+      <c r="E129"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="83"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="B130" s="81" t="s">
-        <v>198</v>
+      <c r="B130" s="84" t="s">
+        <v>203</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
+      <c r="E130" s="3">
+        <v>83000</v>
+      </c>
       <c r="F130" s="79">
-        <f t="shared" ref="F130:F136" si="6">F129-E130</f>
         <v>83000</v>
       </c>
-      <c r="G130"/>
     </row>
     <row r="131" spans="1:7">
       <c r="B131" s="81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
       <c r="F131" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F131:F137" si="7">F130-E131</f>
         <v>83000</v>
       </c>
-      <c r="G131" s="57"/>
+      <c r="G131"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="B132" s="85" t="s">
-        <v>204</v>
+      <c r="B132" s="81" t="s">
+        <v>199</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
       <c r="F132" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83000</v>
       </c>
       <c r="G132" s="57"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="B133" s="86" t="s">
-        <v>201</v>
+      <c r="B133" s="85" t="s">
+        <v>204</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
       <c r="F133" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83000</v>
       </c>
       <c r="G133" s="57"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="B134" s="86"/>
+      <c r="B134" s="86" t="s">
+        <v>201</v>
+      </c>
       <c r="C134"/>
       <c r="D134"/>
-      <c r="E134"/>
       <c r="F134" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83000</v>
       </c>
       <c r="G134" s="57"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="B135" s="87" t="s">
-        <v>205</v>
-      </c>
+      <c r="B135" s="86"/>
       <c r="C135"/>
       <c r="D135"/>
-      <c r="E135" s="57">
+      <c r="E135"/>
+      <c r="F135" s="79">
+        <f t="shared" si="7"/>
+        <v>83000</v>
+      </c>
+      <c r="G135" s="57"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="B136" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136" s="57">
         <v>50000</v>
       </c>
-      <c r="F135" s="79">
-        <f t="shared" si="6"/>
+      <c r="F136" s="79">
+        <f t="shared" si="7"/>
         <v>33000</v>
       </c>
-      <c r="G135" s="57"/>
-    </row>
-    <row r="136" spans="1:7" ht="13.5" thickBot="1">
-      <c r="B136" s="88" t="s">
+      <c r="G136" s="57"/>
+    </row>
+    <row r="137" spans="1:7" ht="13.5" thickBot="1">
+      <c r="B137" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="C136" s="89"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="89"/>
-      <c r="F136" s="90">
-        <f t="shared" si="6"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="89"/>
+      <c r="E137" s="89"/>
+      <c r="F137" s="90">
+        <f t="shared" si="7"/>
         <v>33000</v>
       </c>
-      <c r="G136" s="57"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="B137" s="26"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
       <c r="G137" s="57"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="26"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="G138" s="57"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="B139" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F138" s="57"/>
-      <c r="G138" s="57"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="B139" t="s">
-        <v>208</v>
-      </c>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139" s="3">
-        <v>1252.54</v>
-      </c>
+      <c r="F139" s="57"/>
       <c r="G139" s="57"/>
     </row>
     <row r="140" spans="1:7">
       <c r="B140" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140" s="3">
-        <v>375</v>
+        <v>1252.54</v>
       </c>
       <c r="G140" s="57"/>
     </row>
     <row r="141" spans="1:7">
       <c r="B141" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141" s="3">
-        <v>1500</v>
+        <v>375</v>
       </c>
       <c r="G141" s="57"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="180">
-        <v>45015</v>
-      </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G142" s="57"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="180">
+        <v>45015</v>
+      </c>
+      <c r="B143" t="s">
+        <v>211</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143" s="3">
         <v>1447</v>
       </c>
-      <c r="G142" s="57"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="B143" t="s">
+      <c r="G143" s="57"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="B144" t="s">
         <v>212</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="F143" s="57">
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="F144" s="57">
         <v>4574.54</v>
       </c>
-      <c r="G143" s="57"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
       <c r="G144" s="57"/>
     </row>
-    <row r="145" spans="1:7" ht="20.25">
-      <c r="A145" s="181">
-        <v>2021</v>
-      </c>
+    <row r="145" spans="1:7">
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
-      <c r="F145"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="3" t="s">
+      <c r="G145" s="57"/>
+    </row>
+    <row r="146" spans="1:7" ht="20.25">
+      <c r="A146" s="181">
+        <v>2021</v>
+      </c>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="B147" t="s">
-        <v>215</v>
-      </c>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147" s="3">
-        <v>36000</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="B148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C148"/>
       <c r="D148"/>
-      <c r="F148" s="57">
-        <v>28000</v>
+      <c r="E148" s="3">
+        <v>36000</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="179"/>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
       <c r="F149" s="57">
-        <v>4000</v>
-      </c>
-      <c r="G149"/>
+        <v>28000</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="179"/>
       <c r="B150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
@@ -12228,6 +12285,18 @@
         <v>4000</v>
       </c>
       <c r="G150"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="179"/>
+      <c r="B151" t="s">
+        <v>218</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="F151" s="57">
+        <v>4000</v>
+      </c>
+      <c r="G151"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70D8637-2C19-47B9-B9B2-5B79AA1B62F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78379C2B-A675-49D6-8E9A-149DD76CF4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -10228,7 +10228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -12309,8 +12309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
   <dimension ref="B4:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12741,7 +12741,7 @@
         <v>360</v>
       </c>
       <c r="D33">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="E33" s="66">
         <f>E31+(E31*D31/100)</f>
@@ -12772,25 +12772,33 @@
       <c r="C35" s="155" t="s">
         <v>361</v>
       </c>
+      <c r="D35">
+        <v>3.37</v>
+      </c>
       <c r="E35" s="66">
-        <v>17002</v>
+        <f>E33+(E33*D33/100)</f>
+        <v>16621.911397243523</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="33">
         <f t="shared" si="2"/>
-        <v>-2160.3319882894793</v>
+        <v>-2540.4205910459568</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="C36" s="155" t="s">
         <v>279</v>
       </c>
+      <c r="D36">
+        <v>1.64</v>
+      </c>
       <c r="E36" s="66">
-        <v>17002</v>
+        <f t="shared" ref="E36:E42" si="3">E35+(E35*D35/100)</f>
+        <v>17182.069811330628</v>
       </c>
       <c r="G36" s="33">
         <f t="shared" si="2"/>
-        <v>14841.668011710521</v>
+        <v>14641.649220284671</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -12798,11 +12806,12 @@
         <v>280</v>
       </c>
       <c r="E37" s="66">
-        <v>17002</v>
+        <f t="shared" si="3"/>
+        <v>17463.855756236451</v>
       </c>
       <c r="G37" s="33">
         <f t="shared" si="2"/>
-        <v>31843.668011710521</v>
+        <v>32105.504976521122</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -12810,11 +12819,12 @@
         <v>281</v>
       </c>
       <c r="E38" s="66">
-        <v>17002</v>
+        <f t="shared" si="3"/>
+        <v>17463.855756236451</v>
       </c>
       <c r="G38" s="33">
         <f t="shared" si="2"/>
-        <v>48845.668011710521</v>
+        <v>49569.360732757574</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -12822,11 +12832,12 @@
         <v>362</v>
       </c>
       <c r="E39" s="66">
-        <v>17002</v>
+        <f t="shared" si="3"/>
+        <v>17463.855756236451</v>
       </c>
       <c r="G39" s="33">
         <f t="shared" si="2"/>
-        <v>65847.668011710513</v>
+        <v>67033.216488994018</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -12834,11 +12845,12 @@
         <v>263</v>
       </c>
       <c r="E40" s="66">
-        <v>17002</v>
+        <f t="shared" si="3"/>
+        <v>17463.855756236451</v>
       </c>
       <c r="G40" s="33">
         <f t="shared" si="2"/>
-        <v>82849.668011710513</v>
+        <v>84497.072245230462</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -12846,11 +12858,12 @@
         <v>264</v>
       </c>
       <c r="E41" s="66">
-        <v>17002</v>
+        <f t="shared" si="3"/>
+        <v>17463.855756236451</v>
       </c>
       <c r="G41" s="33">
         <f t="shared" si="2"/>
-        <v>99851.668011710513</v>
+        <v>101960.92800146691</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -12858,11 +12871,12 @@
         <v>265</v>
       </c>
       <c r="E42" s="66">
-        <v>17002</v>
+        <f t="shared" si="3"/>
+        <v>17463.855756236451</v>
       </c>
       <c r="G42" s="33">
         <f t="shared" si="2"/>
-        <v>116853.66801171051</v>
+        <v>119424.78375770335</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -12926,12 +12940,12 @@
         <v>3.15</v>
       </c>
       <c r="E55" s="66">
-        <f t="shared" ref="E55:E60" si="3">E54+(E54*D54/100)</f>
+        <f t="shared" ref="E55:E60" si="4">E54+(E54*D54/100)</f>
         <v>7380.18</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="27">
-        <f t="shared" ref="G55:G79" si="4">E55-F55+G54</f>
+        <f t="shared" ref="G55:G79" si="5">E55-F55+G54</f>
         <v>7380.18</v>
       </c>
     </row>
@@ -12943,12 +12957,12 @@
         <v>2.29</v>
       </c>
       <c r="E56" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7612.6556700000001</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14992.83567</v>
       </c>
     </row>
@@ -12960,14 +12974,14 @@
         <v>2.39</v>
       </c>
       <c r="E57" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7786.9854848430004</v>
       </c>
       <c r="F57" s="29">
         <v>8425.4599999999991</v>
       </c>
       <c r="G57" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14354.361154843002</v>
       </c>
     </row>
@@ -12979,14 +12993,14 @@
         <v>0.04</v>
       </c>
       <c r="E58" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7973.0944379307484</v>
       </c>
       <c r="F58" s="29">
         <v>28080</v>
       </c>
       <c r="G58" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
@@ -12998,12 +13012,12 @@
         <v>3.92</v>
       </c>
       <c r="E59" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7976.2836757059204</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
@@ -13015,14 +13029,14 @@
         <v>9.49</v>
       </c>
       <c r="E60" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F60" s="32">
         <v>50000</v>
       </c>
       <c r="G60" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
@@ -13039,7 +13053,7 @@
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
@@ -13051,12 +13065,12 @@
         <v>4.75</v>
       </c>
       <c r="E62" s="66">
-        <f t="shared" ref="E62:E65" si="5">E61</f>
+        <f t="shared" ref="E62:E65" si="6">E61</f>
         <v>8288.9539957935922</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
@@ -13068,12 +13082,12 @@
         <v>3.43</v>
       </c>
       <c r="E63" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
@@ -13085,14 +13099,14 @@
         <v>3.28</v>
       </c>
       <c r="E64" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F64" s="32">
         <v>15887.06</v>
       </c>
       <c r="G64" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
@@ -13107,12 +13121,12 @@
         <v>2.93</v>
       </c>
       <c r="E65" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
@@ -13131,7 +13145,7 @@
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70.403243241227756</v>
       </c>
     </row>
@@ -13143,12 +13157,12 @@
         <v>4.53</v>
       </c>
       <c r="E67" s="66">
-        <f t="shared" ref="E67:E68" si="6">E66+(E66*D66/100)</f>
+        <f t="shared" ref="E67:E68" si="7">E66+(E66*D66/100)</f>
         <v>14939.4</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15009.803243241227</v>
       </c>
     </row>
@@ -13160,12 +13174,12 @@
         <v>3.16</v>
       </c>
       <c r="E68" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15616.15482</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30625.958063241225</v>
       </c>
     </row>
@@ -13178,7 +13192,7 @@
         <v>-3795</v>
       </c>
       <c r="G69" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34420.958063241225</v>
       </c>
     </row>
@@ -13197,7 +13211,7 @@
         <v>85000</v>
       </c>
       <c r="G70" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-34469.416624446778</v>
       </c>
     </row>
@@ -13213,7 +13227,7 @@
         <v>-5600</v>
       </c>
       <c r="G71" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-28869.416624446778</v>
       </c>
     </row>
@@ -13227,7 +13241,7 @@
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-11867.318069832694</v>
       </c>
     </row>
@@ -13240,7 +13254,7 @@
         <v>17002.098554614084</v>
       </c>
       <c r="G73" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5134.7804847813895</v>
       </c>
     </row>
@@ -13249,11 +13263,11 @@
         <v>280</v>
       </c>
       <c r="E74" s="66">
-        <f t="shared" ref="E74:E79" si="7">E73+(E73*D73/100)</f>
+        <f t="shared" ref="E74:E79" si="8">E73+(E73*D73/100)</f>
         <v>17002.098554614084</v>
       </c>
       <c r="G74" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22136.879039395473</v>
       </c>
     </row>
@@ -13262,11 +13276,11 @@
         <v>281</v>
       </c>
       <c r="E75" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G75" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39138.977594009557</v>
       </c>
     </row>
@@ -13275,11 +13289,11 @@
         <v>362</v>
       </c>
       <c r="E76" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G76" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56141.076148623644</v>
       </c>
     </row>
@@ -13288,11 +13302,11 @@
         <v>263</v>
       </c>
       <c r="E77" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G77" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73143.174703237732</v>
       </c>
     </row>
@@ -13301,11 +13315,11 @@
         <v>264</v>
       </c>
       <c r="E78" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G78" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90145.273257851819</v>
       </c>
     </row>
@@ -13314,11 +13328,11 @@
         <v>265</v>
       </c>
       <c r="E79" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G79" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107147.37181246591</v>
       </c>
     </row>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78379C2B-A675-49D6-8E9A-149DD76CF4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6403DD6-43A0-4154-8178-4680DFB4F85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="413">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -3654,8 +3654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3863,9 +3863,15 @@
         <f t="shared" si="1"/>
         <v>163107.56</v>
       </c>
+      <c r="E13" s="134">
+        <v>10000</v>
+      </c>
+      <c r="G13" s="135" t="s">
+        <v>340</v>
+      </c>
       <c r="H13" s="98">
         <f t="shared" si="0"/>
-        <v>173107.56</v>
+        <v>163107.56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3879,9 +3885,15 @@
         <f t="shared" si="1"/>
         <v>153107.56</v>
       </c>
+      <c r="E14" s="134">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="135" t="s">
+        <v>340</v>
+      </c>
       <c r="H14" s="98">
         <f t="shared" si="0"/>
-        <v>173107.56</v>
+        <v>153107.56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3897,7 +3909,7 @@
       </c>
       <c r="H15" s="98">
         <f t="shared" si="0"/>
-        <v>173107.56</v>
+        <v>153107.56</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3913,7 +3925,7 @@
       </c>
       <c r="H16" s="98">
         <f t="shared" si="0"/>
-        <v>173107.56</v>
+        <v>153107.56</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3929,7 +3941,7 @@
       </c>
       <c r="H17" s="98">
         <f t="shared" si="0"/>
-        <v>173107.56</v>
+        <v>153107.56</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3945,7 +3957,7 @@
       </c>
       <c r="H18" s="98">
         <f t="shared" si="0"/>
-        <v>173107.56</v>
+        <v>153107.56</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3961,7 +3973,7 @@
       </c>
       <c r="H19" s="98">
         <f t="shared" si="0"/>
-        <v>173107.56</v>
+        <v>153107.56</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4623,7 +4635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6634,8 +6646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A9" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G6" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6646,7 +6658,7 @@
     <col min="4" max="4" width="13" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="3" customWidth="1"/>
     <col min="9" max="60" width="12.140625" customWidth="1"/>
     <col min="61" max="61" width="9.140625" customWidth="1"/>
@@ -10228,7 +10240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -12309,7 +12321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
   <dimension ref="B4:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6403DD6-43A0-4154-8178-4680DFB4F85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D299310-EFA3-448D-88A7-81701144E050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="418">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1348,6 +1348,21 @@
       </rPr>
       <t xml:space="preserve"> - SULEYMAN AKAN</t>
     </r>
+  </si>
+  <si>
+    <t>Sözleşme DV</t>
+  </si>
+  <si>
+    <t>Usulsüzlük cezası</t>
+  </si>
+  <si>
+    <t>tüfe</t>
+  </si>
+  <si>
+    <t>aylık kira</t>
+  </si>
+  <si>
+    <t>bakiye</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2473,6 +2488,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="47" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3654,7 +3672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -12319,10 +12337,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
-  <dimension ref="B4:I79"/>
+  <dimension ref="B4:I81"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12461,6 +12479,18 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:9">
+      <c r="D16" s="201" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="201" t="s">
+        <v>416</v>
+      </c>
+      <c r="F16" s="201" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="201" t="s">
+        <v>417</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="2:7">
@@ -12497,7 +12527,7 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="27">
-        <f t="shared" ref="G18:G42" si="2">E18-F18+G17</f>
+        <f t="shared" ref="G18:G44" si="2">E18-F18+G17</f>
         <v>7380.18</v>
       </c>
     </row>
@@ -12605,8 +12635,8 @@
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="27">
-        <f t="shared" si="2"/>
-        <v>-30411.731005732334</v>
+        <f>E23-F24+G23</f>
+        <v>-31198.352739933143</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -12622,8 +12652,8 @@
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="27">
-        <f t="shared" si="2"/>
-        <v>-20511.18544188144</v>
+        <f>E23-F25+G24</f>
+        <v>-22909.398744139551</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -12640,7 +12670,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="27">
         <f t="shared" si="2"/>
-        <v>-10140.363963747628</v>
+        <v>-12538.577266005739</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -12658,8 +12688,8 @@
         <v>15887.06</v>
       </c>
       <c r="G27" s="27">
-        <f t="shared" si="2"/>
-        <v>-15300.883308913826</v>
+        <f>E23-F27+G26</f>
+        <v>-20136.683270212146</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -12678,8 +12708,8 @@
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="33">
-        <f t="shared" si="2"/>
-        <v>-4222.5121206014755</v>
+        <f>E23-F28+G27</f>
+        <v>-11847.729274418554</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -12698,7 +12728,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="33">
         <f t="shared" si="2"/>
-        <v>9777.4878793985245</v>
+        <v>2152.2707255814457</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -12715,7 +12745,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="33">
         <f t="shared" si="2"/>
-        <v>24716.887879398524</v>
+        <v>17091.670725581447</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -12732,7 +12762,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="33">
         <f t="shared" si="2"/>
-        <v>40333.042699398524</v>
+        <v>32707.825545581447</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -12745,7 +12775,7 @@
       </c>
       <c r="G32" s="33">
         <f t="shared" si="2"/>
-        <v>44128.042699398524</v>
+        <v>36502.825545581451</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -12764,7 +12794,7 @@
       </c>
       <c r="G33" s="33">
         <f t="shared" si="2"/>
-        <v>-24762.331988289479</v>
+        <v>-32387.549142106553</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -12777,7 +12807,7 @@
       </c>
       <c r="G34" s="33">
         <f t="shared" si="2"/>
-        <v>-19162.331988289479</v>
+        <v>-26787.549142106553</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -12793,525 +12823,538 @@
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="33">
-        <f t="shared" si="2"/>
-        <v>-2540.4205910459568</v>
+        <f>E33-F35+G34</f>
+        <v>-10677.923829794552</v>
       </c>
     </row>
     <row r="36" spans="2:7">
+      <c r="B36" s="100">
+        <v>45442</v>
+      </c>
       <c r="C36" s="155" t="s">
-        <v>279</v>
-      </c>
-      <c r="D36">
-        <v>1.64</v>
+        <v>413</v>
       </c>
       <c r="E36" s="66">
-        <f t="shared" ref="E36:E42" si="3">E35+(E35*D35/100)</f>
-        <v>17182.069811330628</v>
-      </c>
+        <v>278.97000000000003</v>
+      </c>
+      <c r="F36" s="32"/>
       <c r="G36" s="33">
         <f t="shared" si="2"/>
-        <v>14641.649220284671</v>
+        <v>-10398.953829794553</v>
       </c>
     </row>
     <row r="37" spans="2:7">
+      <c r="B37" s="100"/>
       <c r="C37" s="155" t="s">
-        <v>280</v>
+        <v>414</v>
       </c>
       <c r="E37" s="66">
-        <f t="shared" si="3"/>
-        <v>17463.855756236451</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="F37" s="32"/>
       <c r="G37" s="33">
         <f t="shared" si="2"/>
-        <v>32105.504976521122</v>
+        <v>-7398.9538297945528</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="C38" s="155" t="s">
-        <v>281</v>
+        <v>279</v>
+      </c>
+      <c r="D38">
+        <v>1.64</v>
       </c>
       <c r="E38" s="66">
-        <f t="shared" si="3"/>
-        <v>17463.855756236451</v>
+        <f>E35+(E35*D35/100)</f>
+        <v>17182.069811330628</v>
       </c>
       <c r="G38" s="33">
         <f t="shared" si="2"/>
-        <v>49569.360732757574</v>
+        <v>9783.1159815360752</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="C39" s="155" t="s">
-        <v>362</v>
+        <v>280</v>
+      </c>
+      <c r="D39">
+        <v>3.23</v>
       </c>
       <c r="E39" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E39:E44" si="3">E38+(E38*D38/100)</f>
         <v>17463.855756236451</v>
       </c>
       <c r="G39" s="33">
         <f t="shared" si="2"/>
-        <v>67033.216488994018</v>
+        <v>27246.971737772525</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="C40" s="155" t="s">
-        <v>263</v>
+        <v>281</v>
+      </c>
+      <c r="D40">
+        <v>2.4700000000000002</v>
       </c>
       <c r="E40" s="66">
         <f t="shared" si="3"/>
-        <v>17463.855756236451</v>
+        <v>18027.938297162887</v>
       </c>
       <c r="G40" s="33">
         <f t="shared" si="2"/>
-        <v>84497.072245230462</v>
+        <v>45274.910034935412</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="C41" s="155" t="s">
-        <v>264</v>
+        <v>362</v>
+      </c>
+      <c r="D41">
+        <v>2.4700000000000002</v>
       </c>
       <c r="E41" s="66">
         <f t="shared" si="3"/>
-        <v>17463.855756236451</v>
+        <v>18473.228373102811</v>
       </c>
       <c r="G41" s="33">
         <f t="shared" si="2"/>
-        <v>101960.92800146691</v>
+        <v>63748.138408038227</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="C42" s="155" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E42" s="66">
         <f t="shared" si="3"/>
-        <v>17463.855756236451</v>
+        <v>18929.517113918449</v>
       </c>
       <c r="G42" s="33">
         <f t="shared" si="2"/>
-        <v>119424.78375770335</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="100">
+        <v>82677.65552195668</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="C43" s="155" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="66">
+        <f t="shared" si="3"/>
+        <v>18929.517113918449</v>
+      </c>
+      <c r="G43" s="33">
+        <f t="shared" si="2"/>
+        <v>101607.17263587513</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="C44" s="155" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="66">
+        <f t="shared" si="3"/>
+        <v>18929.517113918449</v>
+      </c>
+      <c r="G44" s="33">
+        <f t="shared" si="2"/>
+        <v>120536.68974979359</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="100">
         <v>45421</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="100"/>
-      <c r="C48" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="100"/>
-      <c r="C49" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="100"/>
       <c r="C50" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="100"/>
+      <c r="C51" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="100"/>
+      <c r="C52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="100"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="60">
+      <c r="B54" s="100"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="60">
         <v>44957</v>
       </c>
-      <c r="C54" s="153" t="s">
+      <c r="C56" s="153" t="s">
         <v>274</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>6.65</v>
       </c>
-      <c r="E54" s="66">
+      <c r="E56" s="66">
         <v>6920</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F56" s="29">
         <v>6920</v>
       </c>
-      <c r="G54" s="27">
-        <f>E54-F54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="C55" s="153" t="s">
+      <c r="G56" s="27">
+        <f>E56-F56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="C57" s="153" t="s">
         <v>275</v>
       </c>
-      <c r="D55">
+      <c r="D57">
         <v>3.15</v>
       </c>
-      <c r="E55" s="66">
-        <f t="shared" ref="E55:E60" si="4">E54+(E54*D54/100)</f>
+      <c r="E57" s="66">
+        <f t="shared" ref="E57:E62" si="4">E56+(E56*D56/100)</f>
         <v>7380.18</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="27">
-        <f t="shared" ref="G55:G79" si="5">E55-F55+G54</f>
+      <c r="F57" s="29"/>
+      <c r="G57" s="27">
+        <f t="shared" ref="G57:G81" si="5">E57-F57+G56</f>
         <v>7380.18</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
-      <c r="C56" s="153" t="s">
+    <row r="58" spans="2:7">
+      <c r="C58" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="D56">
+      <c r="D58">
         <v>2.29</v>
       </c>
-      <c r="E56" s="66">
+      <c r="E58" s="66">
         <f t="shared" si="4"/>
         <v>7612.6556700000001</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="27">
+      <c r="F58" s="29"/>
+      <c r="G58" s="27">
         <f t="shared" si="5"/>
         <v>14992.83567</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
-      <c r="C57" s="153" t="s">
+    <row r="59" spans="2:7">
+      <c r="C59" s="153" t="s">
         <v>278</v>
       </c>
-      <c r="D57">
+      <c r="D59">
         <v>2.39</v>
       </c>
-      <c r="E57" s="66">
+      <c r="E59" s="66">
         <f t="shared" si="4"/>
         <v>7786.9854848430004</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F59" s="29">
         <v>8425.4599999999991</v>
       </c>
-      <c r="G57" s="27">
+      <c r="G59" s="27">
         <f t="shared" si="5"/>
         <v>14354.361154843002</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
-      <c r="C58" s="153" t="s">
+    <row r="60" spans="2:7">
+      <c r="C60" s="153" t="s">
         <v>277</v>
       </c>
-      <c r="D58">
+      <c r="D60">
         <v>0.04</v>
       </c>
-      <c r="E58" s="66">
+      <c r="E60" s="66">
         <f t="shared" si="4"/>
         <v>7973.0944379307484</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F60" s="29">
         <v>28080</v>
       </c>
-      <c r="G58" s="27">
+      <c r="G60" s="27">
         <f t="shared" si="5"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
-      <c r="C59" s="153" t="s">
+    <row r="61" spans="2:7">
+      <c r="C61" s="153" t="s">
         <v>279</v>
       </c>
-      <c r="D59">
+      <c r="D61">
         <v>3.92</v>
       </c>
-      <c r="E59" s="66">
+      <c r="E61" s="66">
         <f t="shared" si="4"/>
         <v>7976.2836757059204</v>
-      </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="27">
-        <f t="shared" si="5"/>
-        <v>2223.7392684796696</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="C60" s="153" t="s">
-        <v>280</v>
-      </c>
-      <c r="D60">
-        <v>9.49</v>
-      </c>
-      <c r="E60" s="66">
-        <f t="shared" si="4"/>
-        <v>8288.9539957935922</v>
-      </c>
-      <c r="F60" s="32">
-        <v>50000</v>
-      </c>
-      <c r="G60" s="27">
-        <f t="shared" si="5"/>
-        <v>-39487.306735726735</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="C61" s="153" t="s">
-        <v>281</v>
-      </c>
-      <c r="D61">
-        <v>9.09</v>
-      </c>
-      <c r="E61" s="66">
-        <f>E60</f>
-        <v>8288.9539957935922</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="27">
         <f t="shared" si="5"/>
-        <v>-31198.352739933143</v>
+        <v>2223.7392684796696</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="C62" s="153" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D62">
-        <v>4.75</v>
+        <v>9.49</v>
       </c>
       <c r="E62" s="66">
-        <f t="shared" ref="E62:E65" si="6">E61</f>
+        <f t="shared" si="4"/>
         <v>8288.9539957935922</v>
       </c>
-      <c r="F62" s="32"/>
+      <c r="F62" s="32">
+        <v>50000</v>
+      </c>
       <c r="G62" s="27">
         <f t="shared" si="5"/>
-        <v>-22909.398744139551</v>
+        <v>-39487.306735726735</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="C63" s="153" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="D63">
-        <v>3.43</v>
+        <v>9.09</v>
       </c>
       <c r="E63" s="66">
-        <f t="shared" si="6"/>
+        <f>E62</f>
         <v>8288.9539957935922</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="27">
         <f t="shared" si="5"/>
-        <v>-14620.444748345959</v>
+        <v>-31198.352739933143</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="C64" s="153" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="D64">
-        <v>3.28</v>
+        <v>4.75</v>
       </c>
       <c r="E64" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E64:E67" si="6">E63</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="F64" s="32">
-        <v>15887.06</v>
-      </c>
+      <c r="F64" s="32"/>
       <c r="G64" s="27">
         <f t="shared" si="5"/>
-        <v>-22218.550752552364</v>
+        <v>-22909.398744139551</v>
       </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="152">
-        <v>45291</v>
-      </c>
       <c r="C65" s="153" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D65">
-        <v>2.93</v>
+        <v>3.43</v>
       </c>
       <c r="E65" s="66">
         <f t="shared" si="6"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F65" s="32"/>
-      <c r="G65" s="33">
+      <c r="G65" s="27">
         <f t="shared" si="5"/>
-        <v>-13929.596756758772</v>
+        <v>-14620.444748345959</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="152">
-        <v>45322</v>
-      </c>
-      <c r="C66" s="154" t="s">
-        <v>274</v>
+      <c r="C66" s="153" t="s">
+        <v>264</v>
       </c>
       <c r="D66">
-        <v>6.71</v>
+        <v>3.28</v>
       </c>
       <c r="E66" s="66">
-        <v>14000</v>
-      </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="33">
+        <f t="shared" si="6"/>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F66" s="32">
+        <v>15887.06</v>
+      </c>
+      <c r="G66" s="27">
         <f t="shared" si="5"/>
-        <v>70.403243241227756</v>
+        <v>-22218.550752552364</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="C67" s="154" t="s">
-        <v>275</v>
+      <c r="B67" s="152">
+        <v>45291</v>
+      </c>
+      <c r="C67" s="153" t="s">
+        <v>265</v>
       </c>
       <c r="D67">
-        <v>4.53</v>
+        <v>2.93</v>
       </c>
       <c r="E67" s="66">
-        <f t="shared" ref="E67:E68" si="7">E66+(E66*D66/100)</f>
-        <v>14939.4</v>
+        <f t="shared" si="6"/>
+        <v>8288.9539957935922</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="33">
         <f t="shared" si="5"/>
-        <v>15009.803243241227</v>
+        <v>-13929.596756758772</v>
       </c>
     </row>
     <row r="68" spans="2:7">
+      <c r="B68" s="152">
+        <v>45322</v>
+      </c>
       <c r="C68" s="154" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D68">
-        <v>3.16</v>
+        <v>6.71</v>
       </c>
       <c r="E68" s="66">
-        <f t="shared" si="7"/>
-        <v>15616.15482</v>
+        <v>14000</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="33">
         <f t="shared" si="5"/>
-        <v>30625.958063241225</v>
+        <v>70.403243241227756</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="C69" s="156" t="s">
-        <v>349</v>
-      </c>
-      <c r="E69" s="66"/>
-      <c r="F69" s="32">
-        <v>-3795</v>
-      </c>
+      <c r="C69" s="154" t="s">
+        <v>275</v>
+      </c>
+      <c r="D69">
+        <v>4.53</v>
+      </c>
+      <c r="E69" s="66">
+        <f t="shared" ref="E69:E70" si="7">E68+(E68*D68/100)</f>
+        <v>14939.4</v>
+      </c>
+      <c r="F69" s="32"/>
       <c r="G69" s="33">
         <f t="shared" si="5"/>
-        <v>34420.958063241225</v>
+        <v>15009.803243241227</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="C70" s="154" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="D70">
         <v>3.16</v>
       </c>
       <c r="E70" s="66">
-        <f>E68+(E68*D68/100)</f>
-        <v>16109.625312312</v>
-      </c>
-      <c r="F70" s="32">
-        <v>85000</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>15616.15482</v>
+      </c>
+      <c r="F70" s="32"/>
       <c r="G70" s="33">
         <f t="shared" si="5"/>
-        <v>-34469.416624446778</v>
+        <v>30625.958063241225</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="C71" s="156" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71">
-        <v>5.54</v>
+        <v>349</v>
       </c>
       <c r="E71" s="66"/>
       <c r="F71" s="32">
-        <v>-5600</v>
+        <v>-3795</v>
       </c>
       <c r="G71" s="33">
         <f t="shared" si="5"/>
-        <v>-28869.416624446778</v>
+        <v>34420.958063241225</v>
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="C72" s="155" t="s">
-        <v>361</v>
+      <c r="C72" s="154" t="s">
+        <v>360</v>
+      </c>
+      <c r="D72">
+        <v>3.16</v>
       </c>
       <c r="E72" s="66">
-        <f>E70+(E70*D71/100)</f>
-        <v>17002.098554614084</v>
-      </c>
-      <c r="F72" s="32"/>
+        <f>E70+(E70*D70/100)</f>
+        <v>16109.625312312</v>
+      </c>
+      <c r="F72" s="32">
+        <v>85000</v>
+      </c>
       <c r="G72" s="33">
         <f t="shared" si="5"/>
-        <v>-11867.318069832694</v>
+        <v>-34469.416624446778</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="C73" s="155" t="s">
-        <v>279</v>
-      </c>
-      <c r="E73" s="66">
-        <f>E72+(E72*D72/100)</f>
-        <v>17002.098554614084</v>
+      <c r="C73" s="156" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73">
+        <v>5.54</v>
+      </c>
+      <c r="E73" s="66"/>
+      <c r="F73" s="32">
+        <v>-5600</v>
       </c>
       <c r="G73" s="33">
         <f t="shared" si="5"/>
-        <v>5134.7804847813895</v>
+        <v>-28869.416624446778</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="C74" s="155" t="s">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="E74" s="66">
-        <f t="shared" ref="E74:E79" si="8">E73+(E73*D73/100)</f>
+        <f>E72+(E72*D73/100)</f>
         <v>17002.098554614084</v>
       </c>
+      <c r="F74" s="32"/>
       <c r="G74" s="33">
         <f t="shared" si="5"/>
-        <v>22136.879039395473</v>
+        <v>-11867.318069832694</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="C75" s="155" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E75" s="66">
-        <f t="shared" si="8"/>
+        <f>E74+(E74*D74/100)</f>
         <v>17002.098554614084</v>
       </c>
       <c r="G75" s="33">
         <f t="shared" si="5"/>
-        <v>39138.977594009557</v>
+        <v>5134.7804847813895</v>
       </c>
     </row>
     <row r="76" spans="2:7">
       <c r="C76" s="155" t="s">
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="E76" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E76:E81" si="8">E75+(E75*D75/100)</f>
         <v>17002.098554614084</v>
       </c>
       <c r="G76" s="33">
         <f t="shared" si="5"/>
-        <v>56141.076148623644</v>
+        <v>22136.879039395473</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="C77" s="155" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E77" s="66">
         <f t="shared" si="8"/>
@@ -13319,12 +13362,12 @@
       </c>
       <c r="G77" s="33">
         <f t="shared" si="5"/>
-        <v>73143.174703237732</v>
+        <v>39138.977594009557</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="C78" s="155" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="E78" s="66">
         <f t="shared" si="8"/>
@@ -13332,18 +13375,44 @@
       </c>
       <c r="G78" s="33">
         <f t="shared" si="5"/>
-        <v>90145.273257851819</v>
+        <v>56141.076148623644</v>
       </c>
     </row>
     <row r="79" spans="2:7">
       <c r="C79" s="155" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E79" s="66">
         <f t="shared" si="8"/>
         <v>17002.098554614084</v>
       </c>
       <c r="G79" s="33">
+        <f t="shared" si="5"/>
+        <v>73143.174703237732</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="C80" s="155" t="s">
+        <v>264</v>
+      </c>
+      <c r="E80" s="66">
+        <f t="shared" si="8"/>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="G80" s="33">
+        <f t="shared" si="5"/>
+        <v>90145.273257851819</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" s="155" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" s="66">
+        <f t="shared" si="8"/>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="G81" s="33">
         <f t="shared" si="5"/>
         <v>107147.37181246591</v>
       </c>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F2027-B238-4C6B-9568-A12E1DE8884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711F90B5-559B-4C7E-AC20-EF626362947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="912" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
     <sheet name="SnyA105-22" sheetId="2" r:id="rId2"/>
     <sheet name="SnyB202-22" sheetId="3" r:id="rId3"/>
     <sheet name="SnyC301-22" sheetId="4" r:id="rId4"/>
-    <sheet name="SnyE503-24" sheetId="17" r:id="rId5"/>
-    <sheet name="SnyE502-22" sheetId="5" r:id="rId6"/>
-    <sheet name="SnyF601-22" sheetId="6" r:id="rId7"/>
-    <sheet name="Sayfa1" sheetId="15" r:id="rId8"/>
-    <sheet name="SnyG702-22" sheetId="7" r:id="rId9"/>
-    <sheet name="SnH_yazıhane" sheetId="8" r:id="rId10"/>
-    <sheet name="NAZAN" sheetId="16" r:id="rId11"/>
+    <sheet name="SnyCD-HSP" sheetId="18" r:id="rId5"/>
+    <sheet name="SnyE503-24" sheetId="17" r:id="rId6"/>
+    <sheet name="SnyE502-22" sheetId="5" r:id="rId7"/>
+    <sheet name="SnyF601-22" sheetId="6" r:id="rId8"/>
+    <sheet name="Sayfa1" sheetId="15" r:id="rId9"/>
+    <sheet name="SnyG702-22" sheetId="7" r:id="rId10"/>
+    <sheet name="SnH_yazıhane" sheetId="8" r:id="rId11"/>
+    <sheet name="NAZAN" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="458">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1359,12 +1360,126 @@
   <si>
     <t>Ocak yıllık 131*57,5%=206-&gt;265</t>
   </si>
+  <si>
+    <t xml:space="preserve"> - 2025 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 2024 - 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tüfe endeks </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bedel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tüfe 10 </t>
+  </si>
+  <si>
+    <t>tüfe 9</t>
+  </si>
+  <si>
+    <t>tüfe 8</t>
+  </si>
+  <si>
+    <t>tüfe 7</t>
+  </si>
+  <si>
+    <t>tüfe 6</t>
+  </si>
+  <si>
+    <t>tüfe 5</t>
+  </si>
+  <si>
+    <t>tüfe 4</t>
+  </si>
+  <si>
+    <t>tüfe 3</t>
+  </si>
+  <si>
+    <t>tüfe 2</t>
+  </si>
+  <si>
+    <t>tüfe 01-2024</t>
+  </si>
+  <si>
+    <t>kira tüfe farkı</t>
+  </si>
+  <si>
+    <t>tüfe 12</t>
+  </si>
+  <si>
+    <t>tüfe 11</t>
+  </si>
+  <si>
+    <t>SNYCD-HESAP</t>
+  </si>
+  <si>
+    <t>2024-2025 - 1/12 Aralık</t>
+  </si>
+  <si>
+    <t>2023-2024 - 2/12 Ocak</t>
+  </si>
+  <si>
+    <t>2023-2024 - 3/12 Şubat</t>
+  </si>
+  <si>
+    <t>2023-2024 - 4/12 Mart</t>
+  </si>
+  <si>
+    <t>2023-2024 - 5/12 Nisan</t>
+  </si>
+  <si>
+    <t>2023-2024 - 6/12 Mayıs</t>
+  </si>
+  <si>
+    <t>2023-2024 - 7/12 Haziran</t>
+  </si>
+  <si>
+    <t>2023-2024 - 8/12 Temmuz</t>
+  </si>
+  <si>
+    <t>2023-2024 - 9/12 Ağustos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 - 2024 10/12 Eylül  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-2024 - 11/12 Ekim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tüfe 11 </t>
+  </si>
+  <si>
+    <t>keşif harç masraf için emrullaha havale</t>
+  </si>
+  <si>
+    <t>2024 - 12/12 Kasım</t>
+  </si>
+  <si>
+    <t>tüfe 2025-02</t>
+  </si>
+  <si>
+    <t>tüfe 2025-01</t>
+  </si>
+  <si>
+    <t>tüfe 2024-12</t>
+  </si>
+  <si>
+    <t>2024 - 1/12 Aralık</t>
+  </si>
+  <si>
+    <t>2024 - 2/12 Ocak</t>
+  </si>
+  <si>
+    <t>avukat-noter vs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="15">
+  <numFmts count="19">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy;@"/>
     <numFmt numFmtId="165" formatCode="[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
@@ -1380,8 +1495,12 @@
     <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="177" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="178" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="179" formatCode="0.00&quot; &quot;;[Red]&quot;-&quot;0.00&quot; &quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00&quot; &quot;;[Red]&quot;-&quot;#,##0.00&quot; &quot;"/>
+    <numFmt numFmtId="181" formatCode="[$-409]#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="[$-41F]#,##0.00"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="54">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1723,6 +1842,48 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Liberation Sans2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Abyssinica SIL"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Abyssinica SIL"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Abyssinica SIL"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Abyssinica SIL"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Abyssinica SIL"/>
       <charset val="162"/>
     </font>
   </fonts>
@@ -2197,7 +2358,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2537,6 +2698,88 @@
     <xf numFmtId="4" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="16" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="49" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="49" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2987,7 +3230,7 @@
       </c>
       <c r="C10" s="3">
         <f>'SnyC301-22'!E4</f>
-        <v>160000</v>
+        <v>162230</v>
       </c>
       <c r="D10" s="3">
         <f>'SnyC301-22'!F4</f>
@@ -2995,7 +3238,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>27230</v>
       </c>
       <c r="F10" s="4">
         <f>'SnyC301-22'!E6</f>
@@ -3103,7 +3346,7 @@
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
-        <v>880141.44578899362</v>
+        <v>882371.44578899362</v>
       </c>
       <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
@@ -3111,7 +3354,7 @@
       </c>
       <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
-        <v>390301.01578899368</v>
+        <v>392531.01578899368</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
@@ -3347,6 +3590,803 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15">
+        <f>SUM(D9:D20)</f>
+        <v>51000</v>
+      </c>
+      <c r="E4" s="16">
+        <f>SUM(E9:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <f>F20</f>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18">
+        <f>F40</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="19">
+        <f>F37</f>
+        <v>-1200</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="23">
+        <f>E4-D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7"/>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <v>45198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="24">
+        <v>51000</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="3">
+        <f>D9-E9</f>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="54">
+        <v>45194</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:F20" si="0">D10-E10+F9</f>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="54">
+        <v>45195</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="54">
+        <v>45229</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="92">
+        <v>45244</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="26">
+        <v>45258</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="26"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="26"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="26"/>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="26"/>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25" s="31">
+        <v>483.72</v>
+      </c>
+      <c r="E25" s="31">
+        <v>483.72</v>
+      </c>
+      <c r="F25" s="31">
+        <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
+        <v>-1200</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="26"/>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="31">
+        <v>439.85</v>
+      </c>
+      <c r="E26" s="31">
+        <v>439.85</v>
+      </c>
+      <c r="F26" s="31">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="26"/>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="26"/>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="26"/>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="26"/>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="26"/>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="26"/>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="26"/>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="26"/>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="26"/>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="32"/>
+      <c r="B36" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35">
+        <v>45291</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="36">
+        <f>SUM(C25:C36)</f>
+        <v>40</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39">
+        <f>D37-E37+F36</f>
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="26"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43">
+        <f>SUM(E41:E55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7"/>
+      <c r="B42" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7"/>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7"/>
+      <c r="B44" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42">
+        <v>96000</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="44"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="84">
+        <v>45237</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="B57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <f t="shared" ref="E57:E71" si="2">E56+C57-D57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="54"/>
+      <c r="C58" s="3"/>
+      <c r="E58" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="54">
+        <v>44956</v>
+      </c>
+      <c r="B59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="54">
+        <v>44985</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="54">
+        <v>45015</v>
+      </c>
+      <c r="B61" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="54">
+        <v>45046</v>
+      </c>
+      <c r="B62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="54"/>
+      <c r="E63" s="3">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="54"/>
+      <c r="B64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="3">
+        <v>400</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="54"/>
+      <c r="B65" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="54"/>
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="54"/>
+      <c r="C67" s="3"/>
+      <c r="E67" s="3">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="54">
+        <v>44998</v>
+      </c>
+      <c r="B68" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68">
+        <v>2400</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="54">
+        <v>44998</v>
+      </c>
+      <c r="B69" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69">
+        <v>2400</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="2"/>
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D70">
+        <v>-342.4</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="2"/>
+        <v>-57.600000000000023</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71">
+        <v>-57.6</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -3713,7 +4753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J51"/>
   <sheetViews>
@@ -5820,7 +6860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -6701,10 +7741,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G6" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6768,7 +7808,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15">
         <f>SUM(E9:E21)</f>
-        <v>160000</v>
+        <v>162230</v>
       </c>
       <c r="F4" s="16">
         <f>SUM(F9:F21)</f>
@@ -6776,7 +7816,7 @@
       </c>
       <c r="G4" s="17">
         <f>G21</f>
-        <v>25000</v>
+        <v>27230</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6787,7 +7827,7 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="18">
-        <f>G40</f>
+        <f>G53</f>
         <v>0</v>
       </c>
       <c r="G5"/>
@@ -6800,7 +7840,7 @@
       <c r="C6" s="14"/>
       <c r="D6"/>
       <c r="E6" s="52">
-        <f>G37</f>
+        <f>G50</f>
         <v>-4079.59</v>
       </c>
       <c r="F6" s="14"/>
@@ -6872,7 +7912,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f>E11-F11+G10</f>
         <v>20000</v>
       </c>
     </row>
@@ -6893,7 +7933,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
+      <c r="A13" s="32" t="s">
+        <v>388</v>
+      </c>
       <c r="B13" s="141">
         <v>45292</v>
       </c>
@@ -6997,19 +8039,21 @@
       <c r="B18" t="s">
         <v>279</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="46">
+        <v>0.03</v>
+      </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E18" s="140">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7017,48 +8061,56 @@
       <c r="B19" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="46">
+        <v>0.05</v>
+      </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="E19" s="140">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>21630</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>27230</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="26"/>
-      <c r="B20"/>
+      <c r="B20" t="s">
+        <v>281</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>27230</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="26"/>
-      <c r="B21"/>
+      <c r="B21" t="s">
+        <v>262</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>27230</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="26"/>
-      <c r="B22"/>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="30"/>
@@ -7067,7 +8119,9 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="26"/>
-      <c r="B23"/>
+      <c r="B23" t="s">
+        <v>264</v>
+      </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" s="30"/>
@@ -7075,913 +8129,1041 @@
       <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34">
-        <v>3000</v>
-      </c>
+      <c r="A24" s="26"/>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="26"/>
+      <c r="A25" s="32" t="s">
+        <v>420</v>
+      </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25" s="30"/>
       <c r="F25" s="31"/>
-      <c r="G25" s="31">
-        <v>-3924.11</v>
-      </c>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="26"/>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="C26"/>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>875.64</v>
-      </c>
-      <c r="F26">
-        <v>875.64</v>
-      </c>
-      <c r="G26" s="31">
-        <f t="shared" ref="G26:G37" si="3">E26-F26+G25</f>
-        <v>-3924.11</v>
-      </c>
+      <c r="D26"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="26"/>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="C27"/>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1036.52</v>
-      </c>
-      <c r="F27">
-        <v>1192</v>
-      </c>
-      <c r="G27" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
-      </c>
+      <c r="D27"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="26"/>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
+      <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="F28"/>
-      <c r="G28" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
-      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="26"/>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
+      <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="F29"/>
-      <c r="G29" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
-      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26"/>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
+      <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="F30"/>
-      <c r="G30" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
-      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26"/>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
+      <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
-      <c r="F31"/>
-      <c r="G31" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
-      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
+      <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="F32"/>
-      <c r="G32" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
-      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="26"/>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
+      <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="F33"/>
-      <c r="G33" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
-      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="26"/>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
+      <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="F34"/>
-      <c r="G34" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
-      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="26"/>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
+      <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="F35"/>
-      <c r="G35" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
-      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26"/>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
+      <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36" s="30"/>
       <c r="F36" s="31"/>
-      <c r="G36" s="31">
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="26"/>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31">
+        <v>-3924.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="26"/>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>875.64</v>
+      </c>
+      <c r="F39">
+        <v>875.64</v>
+      </c>
+      <c r="G39" s="31">
+        <f t="shared" ref="G39:G50" si="3">E39-F39+G38</f>
+        <v>-3924.11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="26"/>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1036.52</v>
+      </c>
+      <c r="F40">
+        <v>1192</v>
+      </c>
+      <c r="G40" s="31">
         <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="32"/>
-      <c r="B37" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34">
+    <row r="41" spans="1:7">
+      <c r="A41" s="26"/>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="F41"/>
+      <c r="G41" s="31">
         <f t="shared" si="3"/>
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="35">
-        <v>45291</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="36">
-        <f>SUM(D26:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39">
-        <f>E38-F38+G37</f>
-        <v>-4079.59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="88" t="s">
-        <v>256</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43">
-        <f>SUM(F41:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-    </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="7"/>
+      <c r="A42" s="26"/>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
+      <c r="F42"/>
+      <c r="G42" s="31">
+        <f t="shared" si="3"/>
+        <v>-4079.59</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7"/>
+      <c r="A43" s="26"/>
       <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="F43"/>
+      <c r="G43" s="31">
+        <f t="shared" si="3"/>
+        <v>-4079.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="26"/>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="F44"/>
+      <c r="G44" s="31">
+        <f t="shared" si="3"/>
+        <v>-4079.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="26"/>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="F45"/>
+      <c r="G45" s="31">
+        <f t="shared" si="3"/>
+        <v>-4079.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="26"/>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="F46"/>
+      <c r="G46" s="31">
+        <f t="shared" si="3"/>
+        <v>-4079.59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="26"/>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="F47"/>
+      <c r="G47" s="31">
+        <f t="shared" si="3"/>
+        <v>-4079.59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="26"/>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="F48"/>
+      <c r="G48" s="31">
+        <f t="shared" si="3"/>
+        <v>-4079.59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="26"/>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31">
+        <f t="shared" si="3"/>
+        <v>-4079.59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="32"/>
+      <c r="B50" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34">
+        <f t="shared" si="3"/>
+        <v>-4079.59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="35">
+        <v>45291</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="36">
+        <f>SUM(D39:D50)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39">
+        <f>E51-F51+G50</f>
+        <v>-4079.59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="7"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43">
+        <f>SUM(F54:F58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="7"/>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="7"/>
+      <c r="B56" t="s">
         <v>98</v>
       </c>
-      <c r="C43"/>
-      <c r="D43" s="3">
+      <c r="C56"/>
+      <c r="D56" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="7"/>
-      <c r="B44" t="s">
+    <row r="57" spans="1:7">
+      <c r="A57" s="7"/>
+      <c r="B57" t="s">
         <v>99</v>
       </c>
-      <c r="C44"/>
-      <c r="D44" s="3">
+      <c r="C57"/>
+      <c r="D57" s="3">
         <v>43160</v>
       </c>
-      <c r="G44" s="44"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="7"/>
-      <c r="B45" s="21" t="s">
+      <c r="G57" s="44"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="7"/>
+      <c r="B58" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="42">
+      <c r="C58" s="21"/>
+      <c r="D58" s="42">
         <v>82000</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="G45" s="45"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="7"/>
-      <c r="B46" t="s">
+      <c r="E58" s="8"/>
+      <c r="G58" s="45"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="7"/>
+      <c r="B59" t="s">
         <v>332</v>
       </c>
-      <c r="C46"/>
-      <c r="D46" s="3">
+      <c r="C59"/>
+      <c r="D59" s="3">
         <v>135000</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="G46" s="45"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="54">
+      <c r="E59" s="8"/>
+      <c r="G59" s="45"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="54">
         <v>45214</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B60" t="s">
         <v>267</v>
       </c>
-      <c r="C47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="54">
+      <c r="C60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="54">
         <v>45214</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B61" t="s">
         <v>268</v>
       </c>
-      <c r="C48"/>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="54">
+      <c r="C61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="54">
         <v>45214</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B62" t="s">
         <v>101</v>
       </c>
-      <c r="C49"/>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="54">
-        <v>44321</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="54">
-        <v>44367</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51"/>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="54">
-        <v>44459</v>
-      </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="54">
-        <v>44459</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="54">
-        <v>44433</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54"/>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="54">
-        <v>44449</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55"/>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="54">
-        <v>44201</v>
-      </c>
-      <c r="B56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56"/>
-      <c r="E56" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="54">
-        <v>44931</v>
-      </c>
-      <c r="B57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="54">
-        <v>44252</v>
-      </c>
-      <c r="B58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58"/>
-      <c r="E58" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="54">
-        <v>44285</v>
-      </c>
-      <c r="B59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59"/>
-      <c r="E59" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="54">
-        <v>44413</v>
-      </c>
-      <c r="B60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60"/>
-      <c r="E60" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="B61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="54"/>
-      <c r="B62"/>
       <c r="C62"/>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="54"/>
-      <c r="B63"/>
+    <row r="63" spans="1:7">
+      <c r="A63" s="54">
+        <v>44321</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
       <c r="C63"/>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5">
-      <c r="B64"/>
+    <row r="64" spans="1:7">
+      <c r="A64" s="54">
+        <v>44367</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
       <c r="C64"/>
-      <c r="D64"/>
       <c r="E64"/>
     </row>
-    <row r="65" spans="2:8">
-      <c r="B65"/>
+    <row r="65" spans="1:8">
+      <c r="A65" s="54">
+        <v>44459</v>
+      </c>
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
       <c r="C65"/>
       <c r="E65"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="51"/>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="54">
+        <v>44459</v>
+      </c>
+      <c r="B66" t="s">
+        <v>105</v>
+      </c>
       <c r="C66"/>
       <c r="E66"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="51"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="54">
+        <v>44433</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
       <c r="C67"/>
       <c r="E67"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="51"/>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="3" t="s">
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="54">
+        <v>44449</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="54">
+        <v>44201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69"/>
+      <c r="E69" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="54">
+        <v>44931</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="54">
+        <v>44252</v>
+      </c>
+      <c r="B71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71"/>
+      <c r="E71" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="54">
+        <v>44285</v>
+      </c>
+      <c r="B72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72"/>
+      <c r="E72" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="54">
+        <v>44413</v>
+      </c>
+      <c r="B73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73"/>
+      <c r="E73" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="54"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="54"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="E78"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="51"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="E79"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="51"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="E80"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="51"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="51"/>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="F69" s="1"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="51"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" t="s">
+      <c r="F81" s="1"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="51"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="F82" s="1"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="51"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" t="s">
         <v>117</v>
       </c>
-      <c r="C70"/>
-      <c r="E70">
+      <c r="C83"/>
+      <c r="E83">
         <v>42.07</v>
       </c>
-      <c r="F70" s="3">
-        <f>D70-E70</f>
+      <c r="F83" s="3">
+        <f>D83-E83</f>
         <v>-42.07</v>
       </c>
-      <c r="G70" s="46"/>
-      <c r="H70" s="51"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" t="s">
+      <c r="G83" s="46"/>
+      <c r="H83" s="51"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" t="s">
         <v>118</v>
       </c>
-      <c r="C71"/>
-      <c r="E71">
+      <c r="C84"/>
+      <c r="E84">
         <v>34.450000000000003</v>
       </c>
-      <c r="F71" s="3">
-        <f t="shared" ref="F71:F82" si="4">F70+D71-E71</f>
+      <c r="F84" s="3">
+        <f t="shared" ref="F84:F95" si="4">F83+D84-E84</f>
         <v>-76.52000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
-      <c r="B72" t="s">
+    <row r="85" spans="2:8">
+      <c r="B85" t="s">
         <v>119</v>
       </c>
-      <c r="C72"/>
-      <c r="E72">
+      <c r="C85"/>
+      <c r="E85">
         <v>20.05</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F85" s="3">
         <f t="shared" si="4"/>
         <v>-96.570000000000007</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
-      <c r="B73" t="s">
+    <row r="86" spans="2:8">
+      <c r="B86" t="s">
         <v>120</v>
       </c>
-      <c r="C73"/>
-      <c r="E73">
+      <c r="C86"/>
+      <c r="E86">
         <v>34.700000000000003</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F86" s="3">
         <f t="shared" si="4"/>
         <v>-131.27000000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
-      <c r="B74" t="s">
+    <row r="87" spans="2:8">
+      <c r="B87" t="s">
         <v>121</v>
       </c>
-      <c r="C74"/>
-      <c r="E74">
+      <c r="C87"/>
+      <c r="E87">
         <v>34.340000000000003</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F87" s="3">
         <f t="shared" si="4"/>
         <v>-165.61</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
-      <c r="B75" t="s">
+    <row r="88" spans="2:8">
+      <c r="B88" t="s">
         <v>122</v>
       </c>
-      <c r="C75"/>
-      <c r="E75">
+      <c r="C88"/>
+      <c r="E88">
         <v>-65.91</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F88" s="3">
         <f t="shared" si="4"/>
         <v>-99.700000000000017</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
-      <c r="B76" t="s">
+    <row r="89" spans="2:8">
+      <c r="B89" t="s">
         <v>123</v>
       </c>
-      <c r="C76"/>
-      <c r="E76">
+      <c r="C89"/>
+      <c r="E89">
         <v>31.54</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F89" s="3">
         <f t="shared" si="4"/>
         <v>-131.24</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
-      <c r="B77" t="s">
+    <row r="90" spans="2:8">
+      <c r="B90" t="s">
         <v>124</v>
       </c>
-      <c r="C77"/>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="C90"/>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
         <f t="shared" si="4"/>
         <v>-131.24</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
-      <c r="B78" t="s">
+    <row r="91" spans="2:8">
+      <c r="B91" t="s">
         <v>125</v>
       </c>
-      <c r="C78"/>
-      <c r="E78">
+      <c r="C91"/>
+      <c r="E91">
         <v>45.99</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F91" s="3">
         <f t="shared" si="4"/>
         <v>-177.23000000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
-      <c r="B79" t="s">
+    <row r="92" spans="2:8">
+      <c r="B92" t="s">
         <v>126</v>
       </c>
-      <c r="C79"/>
-      <c r="E79">
+      <c r="C92"/>
+      <c r="E92">
         <v>42.89</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F92" s="3">
         <f t="shared" si="4"/>
         <v>-220.12</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
-      <c r="B80" t="s">
+    <row r="93" spans="2:8">
+      <c r="B93" t="s">
         <v>127</v>
       </c>
-      <c r="C80"/>
-      <c r="E80">
+      <c r="C93"/>
+      <c r="E93">
         <v>34.979999999999997</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F93" s="3">
         <f t="shared" si="4"/>
         <v>-255.1</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
-      <c r="B81" t="s">
+    <row r="94" spans="2:8">
+      <c r="B94" t="s">
         <v>128</v>
       </c>
-      <c r="C81"/>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="C94"/>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <f t="shared" si="4"/>
         <v>-255.1</v>
       </c>
     </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="1" t="s">
+    <row r="95" spans="2:8">
+      <c r="B95" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="51">
+      <c r="C95" s="1"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="51">
         <f t="shared" si="4"/>
         <v>-255.1</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="1" t="s">
+    <row r="98" spans="2:6">
+      <c r="B98" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="51">
+      <c r="C98" s="1"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="51">
         <v>-255.1</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
-      <c r="B86" t="s">
+    <row r="99" spans="2:6">
+      <c r="B99" t="s">
         <v>131</v>
       </c>
-      <c r="C86"/>
-      <c r="E86">
+      <c r="C99"/>
+      <c r="E99">
         <v>30.04</v>
       </c>
-      <c r="F86" s="3">
-        <f t="shared" ref="F86:F101" si="5">F85+D86-E86</f>
+      <c r="F99" s="3">
+        <f t="shared" ref="F99:F114" si="5">F98+D99-E99</f>
         <v>-285.14</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="55">
+    <row r="100" spans="2:6">
+      <c r="B100" s="55">
         <v>44593</v>
       </c>
-      <c r="C87" s="55"/>
-      <c r="E87">
+      <c r="C100" s="55"/>
+      <c r="E100">
         <v>135.32</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F100" s="3">
         <f t="shared" si="5"/>
         <v>-420.46</v>
       </c>
     </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="55">
+    <row r="101" spans="2:6">
+      <c r="B101" s="55">
         <v>44621</v>
       </c>
-      <c r="C88" s="55"/>
-      <c r="E88">
+      <c r="C101" s="55"/>
+      <c r="E101">
         <v>98.9</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F101" s="3">
         <f t="shared" si="5"/>
         <v>-519.36</v>
       </c>
     </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="55">
+    <row r="102" spans="2:6">
+      <c r="B102" s="55">
         <v>44652</v>
       </c>
-      <c r="C89" s="55"/>
-      <c r="E89">
+      <c r="C102" s="55"/>
+      <c r="E102">
         <v>135.6</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F102" s="3">
         <f t="shared" si="5"/>
         <v>-654.96</v>
       </c>
     </row>
-    <row r="90" spans="2:6">
-      <c r="B90" t="s">
+    <row r="103" spans="2:6">
+      <c r="B103" t="s">
         <v>132</v>
       </c>
-      <c r="C90"/>
-      <c r="E90">
+      <c r="C103"/>
+      <c r="E103">
         <v>214.37</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F103" s="3">
         <f t="shared" si="5"/>
         <v>-869.33</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
-      <c r="B91" t="s">
+    <row r="104" spans="2:6">
+      <c r="B104" t="s">
         <v>133</v>
       </c>
-      <c r="C91"/>
-      <c r="E91">
+      <c r="C104"/>
+      <c r="E104">
         <v>427.65</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F104" s="3">
         <f t="shared" si="5"/>
         <v>-1296.98</v>
       </c>
     </row>
-    <row r="92" spans="2:6">
-      <c r="B92" t="s">
+    <row r="105" spans="2:6">
+      <c r="B105" t="s">
         <v>134</v>
       </c>
-      <c r="C92"/>
-      <c r="E92">
+      <c r="C105"/>
+      <c r="E105">
         <v>446.55</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F105" s="3">
         <f t="shared" si="5"/>
         <v>-1743.53</v>
       </c>
     </row>
-    <row r="93" spans="2:6">
-      <c r="B93" t="s">
+    <row r="106" spans="2:6">
+      <c r="B106" t="s">
         <v>135</v>
       </c>
-      <c r="C93"/>
-      <c r="E93">
+      <c r="C106"/>
+      <c r="E106">
         <v>333.96</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F106" s="3">
         <f t="shared" si="5"/>
         <v>-2077.4899999999998</v>
       </c>
     </row>
-    <row r="94" spans="2:6">
-      <c r="B94" t="s">
+    <row r="107" spans="2:6">
+      <c r="B107" t="s">
         <v>136</v>
       </c>
-      <c r="C94"/>
-      <c r="E94">
+      <c r="C107"/>
+      <c r="E107">
         <v>324.51</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F107" s="3">
         <f t="shared" si="5"/>
         <v>-2402</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
-      <c r="B95" t="s">
+    <row r="108" spans="2:6">
+      <c r="B108" t="s">
         <v>137</v>
       </c>
-      <c r="C95"/>
-      <c r="E95">
+      <c r="C108"/>
+      <c r="E108">
         <v>331.27</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F108" s="3">
         <f t="shared" si="5"/>
         <v>-2733.27</v>
       </c>
     </row>
-    <row r="96" spans="2:6">
-      <c r="B96" t="s">
+    <row r="109" spans="2:6">
+      <c r="B109" t="s">
         <v>138</v>
       </c>
-      <c r="C96"/>
-      <c r="D96" s="3">
+      <c r="C109"/>
+      <c r="D109" s="3">
         <v>50</v>
       </c>
-      <c r="E96"/>
-      <c r="F96" s="3">
+      <c r="E109"/>
+      <c r="F109" s="3">
         <f t="shared" si="5"/>
         <v>-2683.27</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="55">
+    <row r="110" spans="2:6">
+      <c r="B110" s="55">
         <v>44866</v>
       </c>
-      <c r="C97" s="55"/>
-      <c r="E97">
+      <c r="C110" s="55"/>
+      <c r="E110">
         <v>412.42</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F110" s="3">
         <f t="shared" si="5"/>
         <v>-3095.69</v>
       </c>
     </row>
-    <row r="98" spans="2:6">
-      <c r="B98" t="s">
+    <row r="111" spans="2:6">
+      <c r="B111" t="s">
         <v>128</v>
       </c>
-      <c r="C98"/>
-      <c r="E98">
+      <c r="C111"/>
+      <c r="E111">
         <v>426.12</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F111" s="3">
         <f t="shared" si="5"/>
         <v>-3521.81</v>
       </c>
     </row>
-    <row r="99" spans="2:6">
-      <c r="B99" t="s">
+    <row r="112" spans="2:6">
+      <c r="B112" t="s">
         <v>139</v>
       </c>
-      <c r="C99"/>
-      <c r="D99" s="3">
+      <c r="C112"/>
+      <c r="D112" s="3">
         <v>2000</v>
       </c>
-      <c r="E99"/>
-      <c r="F99" s="3">
+      <c r="E112"/>
+      <c r="F112" s="3">
         <f t="shared" si="5"/>
         <v>-1521.81</v>
       </c>
     </row>
-    <row r="100" spans="2:6">
-      <c r="B100" t="s">
+    <row r="113" spans="2:6">
+      <c r="B113" t="s">
         <v>140</v>
       </c>
-      <c r="C100"/>
-      <c r="D100" s="3">
+      <c r="C113"/>
+      <c r="D113" s="3">
         <v>500</v>
       </c>
-      <c r="E100"/>
-      <c r="F100" s="3">
+      <c r="E113"/>
+      <c r="F113" s="3">
         <f t="shared" si="5"/>
         <v>-1021.81</v>
       </c>
     </row>
-    <row r="101" spans="2:6">
-      <c r="B101" t="s">
+    <row r="114" spans="2:6">
+      <c r="B114" t="s">
         <v>141</v>
       </c>
-      <c r="C101"/>
-      <c r="E101"/>
-      <c r="F101" s="51">
+      <c r="C114"/>
+      <c r="E114"/>
+      <c r="F114" s="51">
         <f t="shared" si="5"/>
         <v>-1021.81</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -7989,6 +9171,935 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1C87F-6CBB-48CF-9073-716B69FD2C1F}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="204"/>
+      <c r="B1" s="205" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1" s="206"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="211"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="217" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="208"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219">
+        <f>SUM(F8:F51)</f>
+        <v>355853.14073210838</v>
+      </c>
+      <c r="G3" s="219">
+        <f>SUM(G8:G51)</f>
+        <v>135000</v>
+      </c>
+      <c r="H3" s="220">
+        <f>F3-G3</f>
+        <v>220853.14073210838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="217"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="220"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="221" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="222" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="223" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="224" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="225" t="s">
+        <v>423</v>
+      </c>
+      <c r="F5" s="226" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="227" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="227" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="204"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210">
+        <f t="shared" ref="H6:H37" si="0">H7+F6-G6</f>
+        <v>220853.14073210832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="204"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210">
+        <f t="shared" si="0"/>
+        <v>220853.14073210832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="204">
+        <v>45687</v>
+      </c>
+      <c r="B8" s="228" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="206">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="207">
+        <f>(C8/C10)-1</f>
+        <v>3.4482758620689724E-2</v>
+      </c>
+      <c r="E8" s="229"/>
+      <c r="F8" s="209">
+        <f>H9*D8</f>
+        <v>7361.7713577369586</v>
+      </c>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210">
+        <f t="shared" ref="H8:H9" si="1">H9+F8-G8</f>
+        <v>220853.14073210832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="204"/>
+      <c r="B9" s="228" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="206"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="209">
+        <f>F11+E10</f>
+        <v>34000</v>
+      </c>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210">
+        <f t="shared" si="1"/>
+        <v>213491.36937437137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="204">
+        <v>45656</v>
+      </c>
+      <c r="B10" s="228" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" s="206">
+        <v>2900</v>
+      </c>
+      <c r="D10" s="207">
+        <f>(C10/C12)-1</f>
+        <v>3.5714285714285809E-2</v>
+      </c>
+      <c r="E10" s="229"/>
+      <c r="F10" s="209">
+        <f>H11*D10</f>
+        <v>6189.3575646335112</v>
+      </c>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210">
+        <f t="shared" ref="H10:H11" si="2">H11+F10-G10</f>
+        <v>179491.36937437137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="204"/>
+      <c r="B11" s="228" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="206"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="209">
+        <v>34000</v>
+      </c>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210">
+        <f t="shared" si="2"/>
+        <v>173302.01180973786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="204">
+        <v>45626</v>
+      </c>
+      <c r="B12" s="228" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="206">
+        <v>2800</v>
+      </c>
+      <c r="D12" s="207">
+        <f>(C12/C14)-1</f>
+        <v>3.7037037037036979E-2</v>
+      </c>
+      <c r="E12" s="229"/>
+      <c r="F12" s="209">
+        <f>H13*D12</f>
+        <v>4975.0718503477738</v>
+      </c>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210">
+        <f t="shared" ref="H12:H13" si="3">H13+F12-G12</f>
+        <v>139302.01180973786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="204"/>
+      <c r="B13" s="228" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="206"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="209">
+        <v>20000</v>
+      </c>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210">
+        <f t="shared" si="3"/>
+        <v>134326.93995939009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="204">
+        <v>45595</v>
+      </c>
+      <c r="B14" s="228" t="s">
+        <v>449</v>
+      </c>
+      <c r="C14" s="206">
+        <v>2700</v>
+      </c>
+      <c r="D14" s="207">
+        <f>(C14/C16)-1</f>
+        <v>3.8461538461538547E-2</v>
+      </c>
+      <c r="E14" s="229"/>
+      <c r="F14" s="209">
+        <f>H15*D14</f>
+        <v>4234.3311096070502</v>
+      </c>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210">
+        <f t="shared" ref="H14:H15" si="4">H15+F14-G14</f>
+        <v>114326.9399593901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="204"/>
+      <c r="B15" s="228" t="s">
+        <v>450</v>
+      </c>
+      <c r="C15" s="206"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="209">
+        <v>7080.3</v>
+      </c>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210">
+        <f t="shared" si="4"/>
+        <v>110092.60884978305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="204">
+        <v>45595</v>
+      </c>
+      <c r="B16" s="228" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="206">
+        <v>2600</v>
+      </c>
+      <c r="D16" s="207">
+        <f>(C16/C18)-1</f>
+        <v>2.923013585837797E-2</v>
+      </c>
+      <c r="E16" s="229"/>
+      <c r="F16" s="209">
+        <f>H17*D16</f>
+        <v>2925.5495713338419</v>
+      </c>
+      <c r="G16" s="210"/>
+      <c r="H16" s="210">
+        <f t="shared" si="0"/>
+        <v>103012.30884978305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="204"/>
+      <c r="B17" s="228" t="s">
+        <v>448</v>
+      </c>
+      <c r="C17" s="206"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="209">
+        <f>F19+E18</f>
+        <v>20000</v>
+      </c>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210">
+        <f t="shared" si="0"/>
+        <v>100086.7592784492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="204">
+        <v>45565</v>
+      </c>
+      <c r="B18" s="228" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="231">
+        <v>2526.16</v>
+      </c>
+      <c r="D18" s="207">
+        <f>(C18/C20)-1</f>
+        <v>2.9681984559824404E-2</v>
+      </c>
+      <c r="E18" s="229"/>
+      <c r="F18" s="209">
+        <f>IF(H19&lt;=0,,(H19*D18))</f>
+        <v>2308.6098309911645</v>
+      </c>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210">
+        <f t="shared" si="0"/>
+        <v>80086.759278449201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="204"/>
+      <c r="B19" s="228" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" s="206"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="209">
+        <f>F21+E20</f>
+        <v>20000</v>
+      </c>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210">
+        <f t="shared" si="0"/>
+        <v>77778.14944745804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="204">
+        <v>45534</v>
+      </c>
+      <c r="B20" s="228" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20" s="206">
+        <v>2453.34</v>
+      </c>
+      <c r="D20" s="207">
+        <f>(C20/C22)-1</f>
+        <v>2.4744162733386421E-2</v>
+      </c>
+      <c r="E20" s="229"/>
+      <c r="F20" s="209">
+        <f>IF(H21&lt;=0,,(H21*D20))</f>
+        <v>1395.1501109782737</v>
+      </c>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210">
+        <f t="shared" si="0"/>
+        <v>57778.149447458032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="204"/>
+      <c r="B21" s="228" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" s="206"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="209">
+        <f>F23+E22</f>
+        <v>20000</v>
+      </c>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210">
+        <f t="shared" si="0"/>
+        <v>56382.999336479756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="204">
+        <v>45503</v>
+      </c>
+      <c r="B22" s="228" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="206">
+        <v>2394.1</v>
+      </c>
+      <c r="D22" s="207">
+        <f>(C22/C24)-1</f>
+        <v>3.2255560969089547E-2</v>
+      </c>
+      <c r="E22" s="229"/>
+      <c r="F22" s="209">
+        <f>IF(H23&lt;=0,,(H23*D22))</f>
+        <v>1136.8832464650766</v>
+      </c>
+      <c r="G22" s="210"/>
+      <c r="H22" s="210">
+        <f t="shared" si="0"/>
+        <v>36382.999336479756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="204"/>
+      <c r="B23" s="228" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="206"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209">
+        <f>F25+E24</f>
+        <v>20000</v>
+      </c>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210">
+        <f t="shared" si="0"/>
+        <v>35246.116090014679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="204">
+        <v>45473</v>
+      </c>
+      <c r="B24" s="228" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="206">
+        <v>2319.29</v>
+      </c>
+      <c r="D24" s="207">
+        <f>(C24/C26)-1</f>
+        <v>1.6407739334312055E-2</v>
+      </c>
+      <c r="E24" s="229"/>
+      <c r="F24" s="209">
+        <f>IF(H25&lt;=0,,(H25*D24))</f>
+        <v>246.11609001468082</v>
+      </c>
+      <c r="G24" s="210"/>
+      <c r="H24" s="210">
+        <f t="shared" si="0"/>
+        <v>15246.116090014681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="204"/>
+      <c r="B25" s="228" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="206"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="209">
+        <f>F27+E26</f>
+        <v>20000</v>
+      </c>
+      <c r="G25" s="210"/>
+      <c r="H25" s="210">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="204">
+        <v>45442</v>
+      </c>
+      <c r="B26" s="228" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" s="206">
+        <v>2281.85</v>
+      </c>
+      <c r="D26" s="207">
+        <f>(C26/C28)-1</f>
+        <v>3.3680634201585402E-2</v>
+      </c>
+      <c r="E26" s="229"/>
+      <c r="F26" s="209">
+        <f>IF(H27&lt;=0,,(H27*D26))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="210"/>
+      <c r="H26" s="210">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="204"/>
+      <c r="B27" s="228" t="s">
+        <v>443</v>
+      </c>
+      <c r="C27" s="206"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="209">
+        <f>F29+E28</f>
+        <v>20000</v>
+      </c>
+      <c r="G27" s="210"/>
+      <c r="H27" s="210">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="204">
+        <v>45412</v>
+      </c>
+      <c r="B28" s="228" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" s="206">
+        <v>2207.5</v>
+      </c>
+      <c r="D28" s="207">
+        <f>(C28/C30)-1</f>
+        <v>3.1797594731405532E-2</v>
+      </c>
+      <c r="E28" s="229"/>
+      <c r="F28" s="209">
+        <f>IF(H29&lt;=0,,(H29*D28))</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="210"/>
+      <c r="H28" s="210">
+        <f t="shared" si="0"/>
+        <v>-25000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="204"/>
+      <c r="B29" s="228" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29" s="206"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="208"/>
+      <c r="F29" s="209">
+        <f>F31+E30</f>
+        <v>20000</v>
+      </c>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210">
+        <f t="shared" si="0"/>
+        <v>-25000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="204">
+        <v>45381</v>
+      </c>
+      <c r="B30" s="228" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="206">
+        <v>2139.4699999999998</v>
+      </c>
+      <c r="D30" s="207">
+        <f>(C30/C32)-1</f>
+        <v>3.1626709356375349E-2</v>
+      </c>
+      <c r="E30" s="229"/>
+      <c r="F30" s="209">
+        <f>IF(H31&lt;=0,,(H31*D30))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210">
+        <f t="shared" si="0"/>
+        <v>-45000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="204"/>
+      <c r="B31" s="228" t="s">
+        <v>441</v>
+      </c>
+      <c r="C31" s="206"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="209">
+        <f>F33+E32</f>
+        <v>20000</v>
+      </c>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210">
+        <f t="shared" si="0"/>
+        <v>-45000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="204">
+        <v>45351</v>
+      </c>
+      <c r="B32" s="228" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" s="206">
+        <v>2073.88</v>
+      </c>
+      <c r="D32" s="207">
+        <f>(C32/C34)-1</f>
+        <v>4.5291882138285056E-2</v>
+      </c>
+      <c r="E32" s="229"/>
+      <c r="F32" s="209">
+        <f>IF(H33&lt;=0,,(H33*D32))</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="210"/>
+      <c r="H32" s="210">
+        <f t="shared" si="0"/>
+        <v>-65000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="204"/>
+      <c r="B33" s="228" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="206"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="209">
+        <f>F36+E34</f>
+        <v>20000</v>
+      </c>
+      <c r="G33" s="210"/>
+      <c r="H33" s="210">
+        <f t="shared" si="0"/>
+        <v>-65000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="204">
+        <v>45321</v>
+      </c>
+      <c r="B34" s="228" t="s">
+        <v>433</v>
+      </c>
+      <c r="C34" s="206">
+        <v>1984.02</v>
+      </c>
+      <c r="D34" s="207">
+        <f>(C34/C37)-1</f>
+        <v>6.7033097053856627E-2</v>
+      </c>
+      <c r="E34" s="229"/>
+      <c r="F34" s="209">
+        <f>IF(H35&lt;=0,,(H35*D34))</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="210"/>
+      <c r="H34" s="210">
+        <f t="shared" si="0"/>
+        <v>-85000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="204"/>
+      <c r="B35" s="228" t="s">
+        <v>457</v>
+      </c>
+      <c r="C35" s="206"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="209"/>
+      <c r="F35" s="209">
+        <v>10000</v>
+      </c>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210">
+        <f t="shared" si="0"/>
+        <v>-85000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="204"/>
+      <c r="B36" s="228" t="s">
+        <v>439</v>
+      </c>
+      <c r="C36" s="206"/>
+      <c r="D36" s="207"/>
+      <c r="F36" s="209">
+        <f>F38+E37</f>
+        <v>20000</v>
+      </c>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210">
+        <f t="shared" si="0"/>
+        <v>-95000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="204">
+        <v>45290</v>
+      </c>
+      <c r="B37" s="228" t="s">
+        <v>435</v>
+      </c>
+      <c r="C37" s="206">
+        <v>1859.38</v>
+      </c>
+      <c r="D37" s="207">
+        <f>(C37/C40)-1</f>
+        <v>2.9272073069471327E-2</v>
+      </c>
+      <c r="E37" s="229"/>
+      <c r="F37" s="209">
+        <f>IF(H38&lt;=0,,(H38*D37))</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210">
+        <f t="shared" si="0"/>
+        <v>-115000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="204"/>
+      <c r="B38" s="228" t="s">
+        <v>438</v>
+      </c>
+      <c r="C38" s="206"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="209">
+        <v>20000</v>
+      </c>
+      <c r="G38" s="210"/>
+      <c r="H38" s="210">
+        <f>H39+F38-G38</f>
+        <v>-115000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="204"/>
+      <c r="B39" s="228"/>
+      <c r="C39" s="206"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="210">
+        <v>135000</v>
+      </c>
+      <c r="H39" s="210">
+        <f>H41+F39-G39</f>
+        <v>-135000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="204">
+        <v>45260</v>
+      </c>
+      <c r="B40" s="228" t="s">
+        <v>436</v>
+      </c>
+      <c r="C40" s="206">
+        <v>1806.5</v>
+      </c>
+      <c r="D40" s="207"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="210"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="204"/>
+      <c r="B41" s="228"/>
+      <c r="C41" s="206"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="210"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="204"/>
+      <c r="B42" s="210"/>
+      <c r="C42" s="206"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="210"/>
+      <c r="H42" s="210"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="204"/>
+      <c r="B43" s="228"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="229"/>
+      <c r="F43" s="209"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="210"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="204"/>
+      <c r="B44" s="228"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="207"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="209"/>
+      <c r="G44" s="210"/>
+      <c r="H44" s="210"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="204"/>
+      <c r="B45" s="228"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="207"/>
+      <c r="E45" s="208"/>
+      <c r="F45" s="209"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="204"/>
+      <c r="B46" s="228"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="210"/>
+      <c r="H46" s="210"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="204"/>
+      <c r="B47" s="228"/>
+      <c r="C47" s="206"/>
+      <c r="D47" s="207"/>
+      <c r="E47" s="208"/>
+      <c r="F47" s="209"/>
+      <c r="G47" s="210"/>
+      <c r="H47" s="210"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="204"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="207"/>
+      <c r="E48" s="208"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="210"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="204"/>
+      <c r="B49" s="228"/>
+      <c r="C49" s="206"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="229"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="230"/>
+      <c r="H49" s="210"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="204"/>
+      <c r="B50" s="228"/>
+      <c r="C50" s="206"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="209"/>
+      <c r="F50" s="209"/>
+      <c r="G50" s="230"/>
+      <c r="H50" s="210"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="204"/>
+      <c r="B51" s="210"/>
+      <c r="C51" s="206"/>
+      <c r="D51" s="207"/>
+      <c r="E51" s="208"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="210"/>
+      <c r="H51" s="210"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D669E-8356-4324-A959-1EA6F446C492}">
   <dimension ref="A1:H77"/>
   <sheetViews>
@@ -8947,7 +11058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H117"/>
   <sheetViews>
@@ -10287,7 +12398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M151"/>
   <sheetViews>
@@ -12366,11 +14477,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
   <dimension ref="B4:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -13013,7 +15124,7 @@
         <v>275</v>
       </c>
       <c r="E46" s="60">
-        <f t="shared" ref="E45:E47" si="5">E45+(E45*D45/100)</f>
+        <f t="shared" ref="E46:E47" si="5">E45+(E45*D45/100)</f>
         <v>22000</v>
       </c>
       <c r="G46" s="29">
@@ -13510,801 +15621,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G71"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="83" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15">
-        <f>SUM(D9:D20)</f>
-        <v>51000</v>
-      </c>
-      <c r="E4" s="16">
-        <f>SUM(E9:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <f>F20</f>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="18">
-        <f>F40</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="19">
-        <f>F37</f>
-        <v>-1200</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="23">
-        <f>E4-D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
-      <c r="B8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7">
-        <v>45198</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="24">
-        <v>51000</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="3">
-        <f>D9-E9</f>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="54">
-        <v>45194</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="3">
-        <f t="shared" ref="F10:F20" si="0">D10-E10+F9</f>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="54">
-        <v>45195</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="54">
-        <v>45229</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="92">
-        <v>45244</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="26">
-        <v>45258</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="26"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="26"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="26"/>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31">
-        <v>-1200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="26"/>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25">
-        <v>40</v>
-      </c>
-      <c r="D25" s="31">
-        <v>483.72</v>
-      </c>
-      <c r="E25" s="31">
-        <v>483.72</v>
-      </c>
-      <c r="F25" s="31">
-        <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
-        <v>-1200</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="26"/>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="31">
-        <v>439.85</v>
-      </c>
-      <c r="E26" s="31">
-        <v>439.85</v>
-      </c>
-      <c r="F26" s="31">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="26"/>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="26"/>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="26"/>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="26"/>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="26"/>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="26"/>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="26"/>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="26"/>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="26"/>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="32"/>
-      <c r="B36" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34">
-        <f t="shared" si="1"/>
-        <v>-1200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="35">
-        <v>45291</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="36">
-        <f>SUM(C25:C36)</f>
-        <v>40</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39">
-        <f>D37-E37+F36</f>
-        <v>-1200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="26"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43">
-        <f>SUM(E41:E55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="7"/>
-      <c r="B42" t="s">
-        <v>221</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="7"/>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="7"/>
-      <c r="B44" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42">
-        <v>96000</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="44"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="84">
-        <v>45237</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="B49" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="B50" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="B51" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="B52" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="B56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="B57" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3">
-        <f t="shared" ref="E57:E71" si="2">E56+C57-D57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="54"/>
-      <c r="C58" s="3"/>
-      <c r="E58" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="54">
-        <v>44956</v>
-      </c>
-      <c r="B59" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="54">
-        <v>44985</v>
-      </c>
-      <c r="B60" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="54">
-        <v>45015</v>
-      </c>
-      <c r="B61" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="54">
-        <v>45046</v>
-      </c>
-      <c r="B62" t="s">
-        <v>236</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3">
-        <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="54"/>
-      <c r="E63" s="3">
-        <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="54"/>
-      <c r="B64" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C64" s="3">
-        <v>400</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="54"/>
-      <c r="B65" t="s">
-        <v>238</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="54"/>
-      <c r="B66" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="54"/>
-      <c r="C67" s="3"/>
-      <c r="E67" s="3">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="54">
-        <v>44998</v>
-      </c>
-      <c r="B68" t="s">
-        <v>240</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68">
-        <v>2400</v>
-      </c>
-      <c r="E68" s="3">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="54">
-        <v>44998</v>
-      </c>
-      <c r="B69" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69">
-        <v>2400</v>
-      </c>
-      <c r="E69" s="3">
-        <f t="shared" si="2"/>
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="B70" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70">
-        <v>-342.4</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" si="2"/>
-        <v>-57.600000000000023</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="B71" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D71">
-        <v>-57.6</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711F90B5-559B-4C7E-AC20-EF626362947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06817DA8-53F2-4FDC-879C-1CB3703CF3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="912" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="SnyE503-24" sheetId="17" r:id="rId6"/>
     <sheet name="SnyE502-22" sheetId="5" r:id="rId7"/>
     <sheet name="SnyF601-22" sheetId="6" r:id="rId8"/>
-    <sheet name="Sayfa1" sheetId="15" r:id="rId9"/>
+    <sheet name="snyF-HSP" sheetId="15" r:id="rId9"/>
     <sheet name="SnyG702-22" sheetId="7" r:id="rId10"/>
     <sheet name="SnH_yazıhane" sheetId="8" r:id="rId11"/>
     <sheet name="NAZAN" sheetId="16" r:id="rId12"/>
@@ -1887,7 +1887,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2101,12 +2101,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
@@ -2120,24 +2114,6 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor rgb="FFE2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2358,7 +2334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2677,28 +2653,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="4" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="18" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="16" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="4" fontId="16" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2781,6 +2744,10 @@
     <xf numFmtId="179" fontId="49" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="47" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6860,7 +6827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -9190,909 +9157,909 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="204"/>
-      <c r="B1" s="205" t="s">
+      <c r="A1" s="199"/>
+      <c r="B1" s="200" t="s">
         <v>421</v>
       </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="211"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
     </row>
     <row r="3" spans="1:8" ht="18">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="212" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="219">
+      <c r="B3" s="203"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214">
         <f>SUM(F8:F51)</f>
         <v>355853.14073210838</v>
       </c>
-      <c r="G3" s="219">
+      <c r="G3" s="214">
         <f>SUM(G8:G51)</f>
         <v>135000</v>
       </c>
-      <c r="H3" s="220">
+      <c r="H3" s="215">
         <f>F3-G3</f>
         <v>220853.14073210838</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="217"/>
-      <c r="B4" s="208"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208" t="s">
+      <c r="A4" s="212"/>
+      <c r="B4" s="203"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203" t="s">
         <v>434</v>
       </c>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="220"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="215"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="223" t="s">
+      <c r="C5" s="218" t="s">
         <v>422</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="219" t="s">
         <v>350</v>
       </c>
-      <c r="E5" s="225" t="s">
+      <c r="E5" s="220" t="s">
         <v>423</v>
       </c>
-      <c r="F5" s="226" t="s">
+      <c r="F5" s="221" t="s">
         <v>213</v>
       </c>
-      <c r="G5" s="227" t="s">
+      <c r="G5" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="227" t="s">
+      <c r="H5" s="222" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="204"/>
-      <c r="B6" s="208"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210">
+      <c r="A6" s="199"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205">
         <f t="shared" ref="H6:H37" si="0">H7+F6-G6</f>
         <v>220853.14073210832</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="204"/>
-      <c r="B7" s="228"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210">
+      <c r="A7" s="199"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="205">
         <f t="shared" si="0"/>
         <v>220853.14073210832</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="204">
+      <c r="A8" s="199">
         <v>45687</v>
       </c>
-      <c r="B8" s="228" t="s">
+      <c r="B8" s="223" t="s">
         <v>452</v>
       </c>
-      <c r="C8" s="206">
+      <c r="C8" s="201">
         <v>3000</v>
       </c>
-      <c r="D8" s="207">
+      <c r="D8" s="202">
         <f>(C8/C10)-1</f>
         <v>3.4482758620689724E-2</v>
       </c>
-      <c r="E8" s="229"/>
-      <c r="F8" s="209">
+      <c r="E8" s="224"/>
+      <c r="F8" s="204">
         <f>H9*D8</f>
         <v>7361.7713577369586</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210">
+      <c r="G8" s="205"/>
+      <c r="H8" s="205">
         <f t="shared" ref="H8:H9" si="1">H9+F8-G8</f>
         <v>220853.14073210832</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="204"/>
-      <c r="B9" s="228" t="s">
+      <c r="A9" s="199"/>
+      <c r="B9" s="223" t="s">
         <v>456</v>
       </c>
-      <c r="C9" s="206"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="209">
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="204">
         <f>F11+E10</f>
         <v>34000</v>
       </c>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210">
+      <c r="G9" s="205"/>
+      <c r="H9" s="205">
         <f t="shared" si="1"/>
         <v>213491.36937437137</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="204">
+      <c r="A10" s="199">
         <v>45656</v>
       </c>
-      <c r="B10" s="228" t="s">
+      <c r="B10" s="223" t="s">
         <v>453</v>
       </c>
-      <c r="C10" s="206">
+      <c r="C10" s="201">
         <v>2900</v>
       </c>
-      <c r="D10" s="207">
+      <c r="D10" s="202">
         <f>(C10/C12)-1</f>
         <v>3.5714285714285809E-2</v>
       </c>
-      <c r="E10" s="229"/>
-      <c r="F10" s="209">
+      <c r="E10" s="224"/>
+      <c r="F10" s="204">
         <f>H11*D10</f>
         <v>6189.3575646335112</v>
       </c>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210">
+      <c r="G10" s="205"/>
+      <c r="H10" s="205">
         <f t="shared" ref="H10:H11" si="2">H11+F10-G10</f>
         <v>179491.36937437137</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="204"/>
-      <c r="B11" s="228" t="s">
+      <c r="A11" s="199"/>
+      <c r="B11" s="223" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="206"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209">
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="204">
         <v>34000</v>
       </c>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210">
+      <c r="G11" s="205"/>
+      <c r="H11" s="205">
         <f t="shared" si="2"/>
         <v>173302.01180973786</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="204">
+      <c r="A12" s="199">
         <v>45626</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="223" t="s">
         <v>454</v>
       </c>
-      <c r="C12" s="206">
+      <c r="C12" s="201">
         <v>2800</v>
       </c>
-      <c r="D12" s="207">
+      <c r="D12" s="202">
         <f>(C12/C14)-1</f>
         <v>3.7037037037036979E-2</v>
       </c>
-      <c r="E12" s="229"/>
-      <c r="F12" s="209">
+      <c r="E12" s="224"/>
+      <c r="F12" s="204">
         <f>H13*D12</f>
         <v>4975.0718503477738</v>
       </c>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210">
+      <c r="G12" s="205"/>
+      <c r="H12" s="205">
         <f t="shared" ref="H12:H13" si="3">H13+F12-G12</f>
         <v>139302.01180973786</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="204"/>
-      <c r="B13" s="228" t="s">
+      <c r="A13" s="199"/>
+      <c r="B13" s="223" t="s">
         <v>451</v>
       </c>
-      <c r="C13" s="206"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="209">
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="204">
         <v>20000</v>
       </c>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210">
+      <c r="G13" s="205"/>
+      <c r="H13" s="205">
         <f t="shared" si="3"/>
         <v>134326.93995939009</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="204">
+      <c r="A14" s="199">
         <v>45595</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="223" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="206">
+      <c r="C14" s="201">
         <v>2700</v>
       </c>
-      <c r="D14" s="207">
+      <c r="D14" s="202">
         <f>(C14/C16)-1</f>
         <v>3.8461538461538547E-2</v>
       </c>
-      <c r="E14" s="229"/>
-      <c r="F14" s="209">
+      <c r="E14" s="224"/>
+      <c r="F14" s="204">
         <f>H15*D14</f>
         <v>4234.3311096070502</v>
       </c>
-      <c r="G14" s="210"/>
-      <c r="H14" s="210">
+      <c r="G14" s="205"/>
+      <c r="H14" s="205">
         <f t="shared" ref="H14:H15" si="4">H15+F14-G14</f>
         <v>114326.9399593901</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="204"/>
-      <c r="B15" s="228" t="s">
+      <c r="A15" s="199"/>
+      <c r="B15" s="223" t="s">
         <v>450</v>
       </c>
-      <c r="C15" s="206"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="209">
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204">
         <v>7080.3</v>
       </c>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210">
+      <c r="G15" s="205"/>
+      <c r="H15" s="205">
         <f t="shared" si="4"/>
         <v>110092.60884978305</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="204">
+      <c r="A16" s="199">
         <v>45595</v>
       </c>
-      <c r="B16" s="228" t="s">
+      <c r="B16" s="223" t="s">
         <v>424</v>
       </c>
-      <c r="C16" s="206">
+      <c r="C16" s="201">
         <v>2600</v>
       </c>
-      <c r="D16" s="207">
+      <c r="D16" s="202">
         <f>(C16/C18)-1</f>
         <v>2.923013585837797E-2</v>
       </c>
-      <c r="E16" s="229"/>
-      <c r="F16" s="209">
+      <c r="E16" s="224"/>
+      <c r="F16" s="204">
         <f>H17*D16</f>
         <v>2925.5495713338419</v>
       </c>
-      <c r="G16" s="210"/>
-      <c r="H16" s="210">
+      <c r="G16" s="205"/>
+      <c r="H16" s="205">
         <f t="shared" si="0"/>
         <v>103012.30884978305</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="204"/>
-      <c r="B17" s="228" t="s">
+      <c r="A17" s="199"/>
+      <c r="B17" s="223" t="s">
         <v>448</v>
       </c>
-      <c r="C17" s="206"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="209">
+      <c r="C17" s="201"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="204">
         <f>F19+E18</f>
         <v>20000</v>
       </c>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210">
+      <c r="G17" s="205"/>
+      <c r="H17" s="205">
         <f t="shared" si="0"/>
         <v>100086.7592784492</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="204">
+      <c r="A18" s="199">
         <v>45565</v>
       </c>
-      <c r="B18" s="228" t="s">
+      <c r="B18" s="223" t="s">
         <v>425</v>
       </c>
-      <c r="C18" s="231">
+      <c r="C18" s="226">
         <v>2526.16</v>
       </c>
-      <c r="D18" s="207">
+      <c r="D18" s="202">
         <f>(C18/C20)-1</f>
         <v>2.9681984559824404E-2</v>
       </c>
-      <c r="E18" s="229"/>
-      <c r="F18" s="209">
+      <c r="E18" s="224"/>
+      <c r="F18" s="204">
         <f>IF(H19&lt;=0,,(H19*D18))</f>
         <v>2308.6098309911645</v>
       </c>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210">
+      <c r="G18" s="205"/>
+      <c r="H18" s="205">
         <f t="shared" si="0"/>
         <v>80086.759278449201</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="204"/>
-      <c r="B19" s="228" t="s">
+      <c r="A19" s="199"/>
+      <c r="B19" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="206"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="208"/>
-      <c r="F19" s="209">
+      <c r="C19" s="201"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="204">
         <f>F21+E20</f>
         <v>20000</v>
       </c>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210">
+      <c r="G19" s="205"/>
+      <c r="H19" s="205">
         <f t="shared" si="0"/>
         <v>77778.14944745804</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="204">
+      <c r="A20" s="199">
         <v>45534</v>
       </c>
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="223" t="s">
         <v>426</v>
       </c>
-      <c r="C20" s="206">
+      <c r="C20" s="201">
         <v>2453.34</v>
       </c>
-      <c r="D20" s="207">
+      <c r="D20" s="202">
         <f>(C20/C22)-1</f>
         <v>2.4744162733386421E-2</v>
       </c>
-      <c r="E20" s="229"/>
-      <c r="F20" s="209">
+      <c r="E20" s="224"/>
+      <c r="F20" s="204">
         <f>IF(H21&lt;=0,,(H21*D20))</f>
         <v>1395.1501109782737</v>
       </c>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210">
+      <c r="G20" s="205"/>
+      <c r="H20" s="205">
         <f t="shared" si="0"/>
         <v>57778.149447458032</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="204"/>
-      <c r="B21" s="228" t="s">
+      <c r="A21" s="199"/>
+      <c r="B21" s="223" t="s">
         <v>446</v>
       </c>
-      <c r="C21" s="206"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="209">
+      <c r="C21" s="201"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="204">
         <f>F23+E22</f>
         <v>20000</v>
       </c>
-      <c r="G21" s="210"/>
-      <c r="H21" s="210">
+      <c r="G21" s="205"/>
+      <c r="H21" s="205">
         <f t="shared" si="0"/>
         <v>56382.999336479756</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="204">
+      <c r="A22" s="199">
         <v>45503</v>
       </c>
-      <c r="B22" s="228" t="s">
+      <c r="B22" s="223" t="s">
         <v>427</v>
       </c>
-      <c r="C22" s="206">
+      <c r="C22" s="201">
         <v>2394.1</v>
       </c>
-      <c r="D22" s="207">
+      <c r="D22" s="202">
         <f>(C22/C24)-1</f>
         <v>3.2255560969089547E-2</v>
       </c>
-      <c r="E22" s="229"/>
-      <c r="F22" s="209">
+      <c r="E22" s="224"/>
+      <c r="F22" s="204">
         <f>IF(H23&lt;=0,,(H23*D22))</f>
         <v>1136.8832464650766</v>
       </c>
-      <c r="G22" s="210"/>
-      <c r="H22" s="210">
+      <c r="G22" s="205"/>
+      <c r="H22" s="205">
         <f t="shared" si="0"/>
         <v>36382.999336479756</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="204"/>
-      <c r="B23" s="228" t="s">
+      <c r="A23" s="199"/>
+      <c r="B23" s="223" t="s">
         <v>445</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209">
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="204">
         <f>F25+E24</f>
         <v>20000</v>
       </c>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210">
+      <c r="G23" s="205"/>
+      <c r="H23" s="205">
         <f t="shared" si="0"/>
         <v>35246.116090014679</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="204">
+      <c r="A24" s="199">
         <v>45473</v>
       </c>
-      <c r="B24" s="228" t="s">
+      <c r="B24" s="223" t="s">
         <v>428</v>
       </c>
-      <c r="C24" s="206">
+      <c r="C24" s="201">
         <v>2319.29</v>
       </c>
-      <c r="D24" s="207">
+      <c r="D24" s="202">
         <f>(C24/C26)-1</f>
         <v>1.6407739334312055E-2</v>
       </c>
-      <c r="E24" s="229"/>
-      <c r="F24" s="209">
+      <c r="E24" s="224"/>
+      <c r="F24" s="204">
         <f>IF(H25&lt;=0,,(H25*D24))</f>
         <v>246.11609001468082</v>
       </c>
-      <c r="G24" s="210"/>
-      <c r="H24" s="210">
+      <c r="G24" s="205"/>
+      <c r="H24" s="205">
         <f t="shared" si="0"/>
         <v>15246.116090014681</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="204"/>
-      <c r="B25" s="228" t="s">
+      <c r="A25" s="199"/>
+      <c r="B25" s="223" t="s">
         <v>444</v>
       </c>
-      <c r="C25" s="206"/>
-      <c r="D25" s="207"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="209">
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204">
         <f>F27+E26</f>
         <v>20000</v>
       </c>
-      <c r="G25" s="210"/>
-      <c r="H25" s="210">
+      <c r="G25" s="205"/>
+      <c r="H25" s="205">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="204">
+      <c r="A26" s="199">
         <v>45442</v>
       </c>
-      <c r="B26" s="228" t="s">
+      <c r="B26" s="223" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="206">
+      <c r="C26" s="201">
         <v>2281.85</v>
       </c>
-      <c r="D26" s="207">
+      <c r="D26" s="202">
         <f>(C26/C28)-1</f>
         <v>3.3680634201585402E-2</v>
       </c>
-      <c r="E26" s="229"/>
-      <c r="F26" s="209">
+      <c r="E26" s="224"/>
+      <c r="F26" s="204">
         <f>IF(H27&lt;=0,,(H27*D26))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="210"/>
-      <c r="H26" s="210">
+      <c r="G26" s="205"/>
+      <c r="H26" s="205">
         <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="204"/>
-      <c r="B27" s="228" t="s">
+      <c r="A27" s="199"/>
+      <c r="B27" s="223" t="s">
         <v>443</v>
       </c>
-      <c r="C27" s="206"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="208"/>
-      <c r="F27" s="209">
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="204">
         <f>F29+E28</f>
         <v>20000</v>
       </c>
-      <c r="G27" s="210"/>
-      <c r="H27" s="210">
+      <c r="G27" s="205"/>
+      <c r="H27" s="205">
         <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="204">
+      <c r="A28" s="199">
         <v>45412</v>
       </c>
-      <c r="B28" s="228" t="s">
+      <c r="B28" s="223" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="206">
+      <c r="C28" s="201">
         <v>2207.5</v>
       </c>
-      <c r="D28" s="207">
+      <c r="D28" s="202">
         <f>(C28/C30)-1</f>
         <v>3.1797594731405532E-2</v>
       </c>
-      <c r="E28" s="229"/>
-      <c r="F28" s="209">
+      <c r="E28" s="224"/>
+      <c r="F28" s="204">
         <f>IF(H29&lt;=0,,(H29*D28))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="210"/>
-      <c r="H28" s="210">
+      <c r="G28" s="205"/>
+      <c r="H28" s="205">
         <f t="shared" si="0"/>
         <v>-25000</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="204"/>
-      <c r="B29" s="228" t="s">
+      <c r="A29" s="199"/>
+      <c r="B29" s="223" t="s">
         <v>442</v>
       </c>
-      <c r="C29" s="206"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="208"/>
-      <c r="F29" s="209">
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="204">
         <f>F31+E30</f>
         <v>20000</v>
       </c>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210">
+      <c r="G29" s="205"/>
+      <c r="H29" s="205">
         <f t="shared" si="0"/>
         <v>-25000</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="204">
+      <c r="A30" s="199">
         <v>45381</v>
       </c>
-      <c r="B30" s="228" t="s">
+      <c r="B30" s="223" t="s">
         <v>431</v>
       </c>
-      <c r="C30" s="206">
+      <c r="C30" s="201">
         <v>2139.4699999999998</v>
       </c>
-      <c r="D30" s="207">
+      <c r="D30" s="202">
         <f>(C30/C32)-1</f>
         <v>3.1626709356375349E-2</v>
       </c>
-      <c r="E30" s="229"/>
-      <c r="F30" s="209">
+      <c r="E30" s="224"/>
+      <c r="F30" s="204">
         <f>IF(H31&lt;=0,,(H31*D30))</f>
         <v>0</v>
       </c>
-      <c r="G30" s="210"/>
-      <c r="H30" s="210">
+      <c r="G30" s="205"/>
+      <c r="H30" s="205">
         <f t="shared" si="0"/>
         <v>-45000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="204"/>
-      <c r="B31" s="228" t="s">
+      <c r="A31" s="199"/>
+      <c r="B31" s="223" t="s">
         <v>441</v>
       </c>
-      <c r="C31" s="206"/>
-      <c r="D31" s="207"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="209">
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204">
         <f>F33+E32</f>
         <v>20000</v>
       </c>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210">
+      <c r="G31" s="205"/>
+      <c r="H31" s="205">
         <f t="shared" si="0"/>
         <v>-45000</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="204">
+      <c r="A32" s="199">
         <v>45351</v>
       </c>
-      <c r="B32" s="228" t="s">
+      <c r="B32" s="223" t="s">
         <v>432</v>
       </c>
-      <c r="C32" s="206">
+      <c r="C32" s="201">
         <v>2073.88</v>
       </c>
-      <c r="D32" s="207">
+      <c r="D32" s="202">
         <f>(C32/C34)-1</f>
         <v>4.5291882138285056E-2</v>
       </c>
-      <c r="E32" s="229"/>
-      <c r="F32" s="209">
+      <c r="E32" s="224"/>
+      <c r="F32" s="204">
         <f>IF(H33&lt;=0,,(H33*D32))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="210"/>
-      <c r="H32" s="210">
+      <c r="G32" s="205"/>
+      <c r="H32" s="205">
         <f t="shared" si="0"/>
         <v>-65000</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="204"/>
-      <c r="B33" s="228" t="s">
+      <c r="A33" s="199"/>
+      <c r="B33" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="C33" s="206"/>
-      <c r="D33" s="207"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="209">
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="204">
         <f>F36+E34</f>
         <v>20000</v>
       </c>
-      <c r="G33" s="210"/>
-      <c r="H33" s="210">
+      <c r="G33" s="205"/>
+      <c r="H33" s="205">
         <f t="shared" si="0"/>
         <v>-65000</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="204">
+      <c r="A34" s="199">
         <v>45321</v>
       </c>
-      <c r="B34" s="228" t="s">
+      <c r="B34" s="223" t="s">
         <v>433</v>
       </c>
-      <c r="C34" s="206">
+      <c r="C34" s="201">
         <v>1984.02</v>
       </c>
-      <c r="D34" s="207">
+      <c r="D34" s="202">
         <f>(C34/C37)-1</f>
         <v>6.7033097053856627E-2</v>
       </c>
-      <c r="E34" s="229"/>
-      <c r="F34" s="209">
+      <c r="E34" s="224"/>
+      <c r="F34" s="204">
         <f>IF(H35&lt;=0,,(H35*D34))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="210"/>
-      <c r="H34" s="210">
+      <c r="G34" s="205"/>
+      <c r="H34" s="205">
         <f t="shared" si="0"/>
         <v>-85000</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="204"/>
-      <c r="B35" s="228" t="s">
+      <c r="A35" s="199"/>
+      <c r="B35" s="223" t="s">
         <v>457</v>
       </c>
-      <c r="C35" s="206"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209">
+      <c r="C35" s="201"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204">
         <v>10000</v>
       </c>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210">
+      <c r="G35" s="205"/>
+      <c r="H35" s="205">
         <f t="shared" si="0"/>
         <v>-85000</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="204"/>
-      <c r="B36" s="228" t="s">
+      <c r="A36" s="199"/>
+      <c r="B36" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="C36" s="206"/>
-      <c r="D36" s="207"/>
-      <c r="F36" s="209">
+      <c r="C36" s="201"/>
+      <c r="D36" s="202"/>
+      <c r="F36" s="204">
         <f>F38+E37</f>
         <v>20000</v>
       </c>
-      <c r="G36" s="210"/>
-      <c r="H36" s="210">
+      <c r="G36" s="205"/>
+      <c r="H36" s="205">
         <f t="shared" si="0"/>
         <v>-95000</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="204">
+      <c r="A37" s="199">
         <v>45290</v>
       </c>
-      <c r="B37" s="228" t="s">
+      <c r="B37" s="223" t="s">
         <v>435</v>
       </c>
-      <c r="C37" s="206">
+      <c r="C37" s="201">
         <v>1859.38</v>
       </c>
-      <c r="D37" s="207">
+      <c r="D37" s="202">
         <f>(C37/C40)-1</f>
         <v>2.9272073069471327E-2</v>
       </c>
-      <c r="E37" s="229"/>
-      <c r="F37" s="209">
+      <c r="E37" s="224"/>
+      <c r="F37" s="204">
         <f>IF(H38&lt;=0,,(H38*D37))</f>
         <v>0</v>
       </c>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210">
+      <c r="G37" s="205"/>
+      <c r="H37" s="205">
         <f t="shared" si="0"/>
         <v>-115000</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="204"/>
-      <c r="B38" s="228" t="s">
+      <c r="A38" s="199"/>
+      <c r="B38" s="223" t="s">
         <v>438</v>
       </c>
-      <c r="C38" s="206"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="209">
+      <c r="C38" s="201"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="204">
         <v>20000</v>
       </c>
-      <c r="G38" s="210"/>
-      <c r="H38" s="210">
+      <c r="G38" s="205"/>
+      <c r="H38" s="205">
         <f>H39+F38-G38</f>
         <v>-115000</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="204"/>
-      <c r="B39" s="228"/>
-      <c r="C39" s="206"/>
-      <c r="D39" s="207"/>
-      <c r="E39" s="208"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="210">
+      <c r="A39" s="199"/>
+      <c r="B39" s="223"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="202"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="205">
         <v>135000</v>
       </c>
-      <c r="H39" s="210">
+      <c r="H39" s="205">
         <f>H41+F39-G39</f>
         <v>-135000</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="204">
+      <c r="A40" s="199">
         <v>45260</v>
       </c>
-      <c r="B40" s="228" t="s">
+      <c r="B40" s="223" t="s">
         <v>436</v>
       </c>
-      <c r="C40" s="206">
+      <c r="C40" s="201">
         <v>1806.5</v>
       </c>
-      <c r="D40" s="207"/>
-      <c r="E40" s="229"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="210"/>
-      <c r="H40" s="210"/>
+      <c r="D40" s="202"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="205"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="204"/>
-      <c r="B41" s="228"/>
-      <c r="C41" s="206"/>
-      <c r="D41" s="207"/>
-      <c r="E41" s="209"/>
-      <c r="F41" s="209"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="210"/>
+      <c r="A41" s="199"/>
+      <c r="B41" s="223"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="205"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="204"/>
-      <c r="B42" s="210"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="207"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="209"/>
-      <c r="G42" s="210"/>
-      <c r="H42" s="210"/>
+      <c r="A42" s="199"/>
+      <c r="B42" s="205"/>
+      <c r="C42" s="201"/>
+      <c r="D42" s="202"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="205"/>
+      <c r="H42" s="205"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="204"/>
-      <c r="B43" s="228"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="229"/>
-      <c r="F43" s="209"/>
-      <c r="G43" s="210"/>
-      <c r="H43" s="210"/>
+      <c r="A43" s="199"/>
+      <c r="B43" s="223"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="205"/>
+      <c r="H43" s="205"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="204"/>
-      <c r="B44" s="228"/>
-      <c r="C44" s="206"/>
-      <c r="D44" s="207"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="209"/>
-      <c r="G44" s="210"/>
-      <c r="H44" s="210"/>
+      <c r="A44" s="199"/>
+      <c r="B44" s="223"/>
+      <c r="C44" s="201"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="204"/>
+      <c r="F44" s="204"/>
+      <c r="G44" s="205"/>
+      <c r="H44" s="205"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="204"/>
-      <c r="B45" s="228"/>
-      <c r="C45" s="206"/>
-      <c r="D45" s="207"/>
-      <c r="E45" s="208"/>
-      <c r="F45" s="209"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
+      <c r="A45" s="199"/>
+      <c r="B45" s="223"/>
+      <c r="C45" s="201"/>
+      <c r="D45" s="202"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="205"/>
+      <c r="H45" s="205"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="204"/>
-      <c r="B46" s="228"/>
-      <c r="C46" s="206"/>
-      <c r="D46" s="207"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="209"/>
-      <c r="G46" s="210"/>
-      <c r="H46" s="210"/>
+      <c r="A46" s="199"/>
+      <c r="B46" s="223"/>
+      <c r="C46" s="201"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="204"/>
-      <c r="B47" s="228"/>
-      <c r="C47" s="206"/>
-      <c r="D47" s="207"/>
-      <c r="E47" s="208"/>
-      <c r="F47" s="209"/>
-      <c r="G47" s="210"/>
-      <c r="H47" s="210"/>
+      <c r="A47" s="199"/>
+      <c r="B47" s="223"/>
+      <c r="C47" s="201"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="204"/>
+      <c r="G47" s="205"/>
+      <c r="H47" s="205"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="204"/>
-      <c r="B48" s="210"/>
-      <c r="C48" s="206"/>
-      <c r="D48" s="207"/>
-      <c r="E48" s="208"/>
-      <c r="F48" s="209"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
+      <c r="A48" s="199"/>
+      <c r="B48" s="205"/>
+      <c r="C48" s="201"/>
+      <c r="D48" s="202"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="205"/>
+      <c r="H48" s="205"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="204"/>
-      <c r="B49" s="228"/>
-      <c r="C49" s="206"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="229"/>
-      <c r="F49" s="209"/>
-      <c r="G49" s="230"/>
-      <c r="H49" s="210"/>
+      <c r="A49" s="199"/>
+      <c r="B49" s="223"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="202"/>
+      <c r="E49" s="224"/>
+      <c r="F49" s="204"/>
+      <c r="G49" s="225"/>
+      <c r="H49" s="205"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="204"/>
-      <c r="B50" s="228"/>
-      <c r="C50" s="206"/>
-      <c r="D50" s="207"/>
-      <c r="E50" s="209"/>
-      <c r="F50" s="209"/>
-      <c r="G50" s="230"/>
-      <c r="H50" s="210"/>
+      <c r="A50" s="199"/>
+      <c r="B50" s="223"/>
+      <c r="C50" s="201"/>
+      <c r="D50" s="202"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="204"/>
+      <c r="G50" s="225"/>
+      <c r="H50" s="205"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="204"/>
-      <c r="B51" s="210"/>
-      <c r="C51" s="206"/>
-      <c r="D51" s="207"/>
-      <c r="E51" s="208"/>
-      <c r="F51" s="209"/>
-      <c r="G51" s="210"/>
-      <c r="H51" s="210"/>
+      <c r="A51" s="199"/>
+      <c r="B51" s="205"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="204"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="205"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12402,7 +12369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -14479,10 +14446,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
-  <dimension ref="B4:I87"/>
+  <dimension ref="B4:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14491,21 +14458,23 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:10">
       <c r="C4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:10">
       <c r="C6" t="s">
         <v>285</v>
       </c>
@@ -14513,12 +14482,13 @@
         <v>48000</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <f>H4+E6-F6</f>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <f>I4+E6-G6</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:10">
       <c r="B7" s="54">
         <v>44651</v>
       </c>
@@ -14526,15 +14496,16 @@
         <v>286</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7">
+      <c r="F7" s="3"/>
+      <c r="G7">
         <v>28000</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" ref="G7:G12" si="0">G6+E7-F7</f>
+      <c r="H7" s="3">
+        <f t="shared" ref="H7:H12" si="0">H6+E7-G7</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:10">
       <c r="B8" s="54">
         <v>44681</v>
       </c>
@@ -14542,15 +14513,16 @@
         <v>283</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8">
+      <c r="F8" s="3"/>
+      <c r="G8">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:10">
       <c r="B9" s="54">
         <v>44711</v>
       </c>
@@ -14558,15 +14530,16 @@
         <v>284</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9">
+      <c r="F9" s="3"/>
+      <c r="G9">
         <v>4000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:10">
       <c r="B10" s="54">
         <v>44742</v>
       </c>
@@ -14574,12 +14547,13 @@
         <v>355</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="G10" s="3">
+      <c r="F10" s="3"/>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:10">
       <c r="B11" s="54">
         <v>44772</v>
       </c>
@@ -14587,12 +14561,13 @@
         <v>356</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="G11" s="3">
+      <c r="F11" s="3"/>
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:10">
       <c r="B12" s="54">
         <v>44803</v>
       </c>
@@ -14600,42 +14575,44 @@
         <v>357</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="G12" s="3">
+      <c r="F12" s="3"/>
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="2:9">
+    <row r="13" spans="2:10">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" t="s">
         <v>359</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>358</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="D16" s="191" t="s">
         <v>415</v>
       </c>
       <c r="E16" s="191" t="s">
         <v>416</v>
       </c>
-      <c r="F16" s="191" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="191" t="s">
         <v>214</v>
       </c>
-      <c r="G16" s="191" t="s">
+      <c r="H16" s="191" t="s">
         <v>417</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="54">
         <v>44957</v>
       </c>
@@ -14648,15 +14625,16 @@
       <c r="E17" s="60">
         <v>6920</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="60"/>
+      <c r="G17" s="25">
         <v>6920</v>
       </c>
-      <c r="G17" s="3">
-        <f>E17-F17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="3">
+        <f>E17-G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="C18" s="143" t="s">
         <v>275</v>
       </c>
@@ -14667,13 +14645,17 @@
         <f t="shared" ref="E18:E31" si="1">E17+(E17*D17/100)</f>
         <v>7380.18</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="3">
-        <f>E18-F18+G17</f>
+      <c r="F18" s="60">
+        <f>E18</f>
         <v>7380.18</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="G18" s="25"/>
+      <c r="H18" s="3">
+        <f>F18-G18+H17</f>
+        <v>7380.18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="C19" s="143" t="s">
         <v>276</v>
       </c>
@@ -14684,13 +14666,17 @@
         <f t="shared" si="1"/>
         <v>7612.6556700000001</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="3">
-        <f t="shared" ref="G19:G44" si="2">E19-F19+G18</f>
+      <c r="F19" s="60">
+        <f>E19</f>
+        <v>7612.6556700000001</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="3">
+        <f t="shared" ref="H19:H47" si="2">F19-G19+H18</f>
         <v>14992.83567</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:8">
       <c r="C20" s="143" t="s">
         <v>278</v>
       </c>
@@ -14701,15 +14687,19 @@
         <f t="shared" si="1"/>
         <v>7786.9854848430004</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="60">
+        <f>E20</f>
+        <v>7786.9854848430004</v>
+      </c>
+      <c r="G20" s="25">
         <v>8425.4599999999991</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <f t="shared" si="2"/>
         <v>14354.361154843002</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:8">
       <c r="C21" s="143" t="s">
         <v>277</v>
       </c>
@@ -14720,15 +14710,19 @@
         <f t="shared" si="1"/>
         <v>7973.0944379307484</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="60">
+        <f>E21</f>
+        <v>7973.0944379307484</v>
+      </c>
+      <c r="G21" s="25">
         <v>28080</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <f t="shared" si="2"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:8">
       <c r="C22" s="143" t="s">
         <v>279</v>
       </c>
@@ -14739,32 +14733,40 @@
         <f t="shared" si="1"/>
         <v>7976.2836757059204</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3">
+      <c r="F22" s="60">
+        <f>E22</f>
+        <v>7976.2836757059204</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="3">
         <f t="shared" si="2"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:8">
       <c r="C23" s="143" t="s">
         <v>280</v>
       </c>
       <c r="D23">
         <v>9.49</v>
       </c>
-      <c r="E23" s="194">
+      <c r="E23" s="193">
         <f t="shared" si="1"/>
         <v>8288.9539957935922</v>
       </c>
-      <c r="F23" s="195">
+      <c r="F23" s="15">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G23" s="194">
         <v>50000</v>
       </c>
-      <c r="G23" s="196">
+      <c r="H23" s="3">
         <f t="shared" si="2"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:8">
       <c r="C24" s="143" t="s">
         <v>281</v>
       </c>
@@ -14775,13 +14777,17 @@
         <f t="shared" si="1"/>
         <v>9075.5757299944034</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="196">
-        <f>E23-F24+G23</f>
+      <c r="F24" s="15">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:8">
       <c r="C25" s="143" t="s">
         <v>282</v>
       </c>
@@ -14792,13 +14798,17 @@
         <f t="shared" si="1"/>
         <v>9900.5455638508938</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="196">
-        <f>E23-F25+G24</f>
+      <c r="F25" s="15">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G25" s="227"/>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:8">
       <c r="C26" s="143" t="s">
         <v>263</v>
       </c>
@@ -14809,13 +14819,17 @@
         <f t="shared" si="1"/>
         <v>10370.821478133812</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="196">
-        <f>E23-F26+G25</f>
+      <c r="F26" s="15">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:8">
       <c r="C27" s="143" t="s">
         <v>264</v>
       </c>
@@ -14826,15 +14840,19 @@
         <f t="shared" si="1"/>
         <v>10726.540654833801</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="15">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G27" s="28">
         <v>15887.06</v>
       </c>
-      <c r="G27" s="196">
-        <f>E23-F27+G26</f>
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:8">
       <c r="B28" s="142">
         <v>45291</v>
       </c>
@@ -14848,13 +14866,17 @@
         <f t="shared" si="1"/>
         <v>11078.371188312351</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="197">
-        <f>E23-F28+G27</f>
+      <c r="F28" s="15">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:8">
       <c r="B29" s="142">
         <v>45322</v>
       </c>
@@ -14867,13 +14889,17 @@
       <c r="E29" s="60">
         <v>14000</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="197">
-        <f>E23-F29+G28</f>
+      <c r="F29" s="15">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
         <v>-5640.6427609651801</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:8">
       <c r="C30" s="144" t="s">
         <v>275</v>
       </c>
@@ -14884,13 +14910,17 @@
         <f t="shared" si="1"/>
         <v>14939.4</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29">
+      <c r="F30" s="60">
+        <f>E30</f>
+        <v>14939.4</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="3">
         <f t="shared" si="2"/>
         <v>9298.7572390348196</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:8">
       <c r="C31" s="144" t="s">
         <v>276</v>
       </c>
@@ -14901,85 +14931,109 @@
         <f t="shared" si="1"/>
         <v>15616.15482</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29">
+      <c r="F31" s="60">
+        <f>E31</f>
+        <v>15616.15482</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="3">
         <f t="shared" si="2"/>
         <v>24914.912059034818</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:8">
       <c r="C32" s="146" t="s">
         <v>349</v>
       </c>
       <c r="E32" s="60">
         <v>3795</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29">
+      <c r="F32" s="60">
+        <f>E32</f>
+        <v>3795</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="3">
         <f t="shared" si="2"/>
         <v>28709.912059034818</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:8">
       <c r="C33" s="146" t="s">
         <v>208</v>
       </c>
       <c r="E33" s="60">
         <v>5600</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29">
+      <c r="F33" s="60">
+        <f>E33</f>
+        <v>5600</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="3">
         <f t="shared" si="2"/>
         <v>34309.912059034818</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:8">
       <c r="C34" s="145" t="s">
         <v>413</v>
       </c>
       <c r="E34" s="60">
         <v>278.97000000000003</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29">
+      <c r="F34" s="60">
+        <f>E34</f>
+        <v>278.97000000000003</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="3">
         <f t="shared" si="2"/>
         <v>34588.882059034819</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:8">
       <c r="C35" s="145" t="s">
         <v>414</v>
       </c>
       <c r="E35" s="60">
-        <v>3000</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="60">
+        <f>E35</f>
+        <v>10000</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="3">
         <f t="shared" si="2"/>
-        <v>37588.882059034819</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+        <v>44588.882059034819</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="C36" s="144" t="s">
         <v>360</v>
       </c>
       <c r="D36">
         <v>3.18</v>
       </c>
-      <c r="E36" s="194">
+      <c r="E36" s="193">
         <f>E31+(E31*D31/100)</f>
         <v>16109.625312312</v>
       </c>
-      <c r="F36" s="195">
+      <c r="F36" s="15">
+        <f>E36</f>
+        <v>16109.625312312</v>
+      </c>
+      <c r="G36" s="194">
         <v>85000</v>
       </c>
-      <c r="G36" s="197">
+      <c r="H36" s="3">
         <f t="shared" si="2"/>
-        <v>-31301.492628653185</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="C37" s="199" t="s">
+        <v>-24301.492628653185</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="C37" s="195" t="s">
         <v>361</v>
       </c>
       <c r="D37">
@@ -14989,122 +15043,156 @@
         <f>E36+(E36*D36/100)</f>
         <v>16621.911397243523</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="197">
-        <f>E36-F37+G36</f>
-        <v>-15191.867316341184</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="C38" s="199" t="s">
+      <c r="F37" s="15">
+        <f>E36</f>
+        <v>16109.625312312</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="3">
+        <f t="shared" si="2"/>
+        <v>-8191.8673163411841</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="C38" s="195" t="s">
         <v>279</v>
       </c>
       <c r="D38" s="145">
         <v>1.64</v>
       </c>
-      <c r="E38" s="193">
+      <c r="E38" s="192">
         <f>E37+(E37*D37/100)</f>
         <v>17182.069811330628</v>
       </c>
-      <c r="F38" s="145"/>
-      <c r="G38" s="197">
-        <f>E37-F38+G37</f>
-        <v>1430.0440809023385</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="C39" s="199" t="s">
+      <c r="F38" s="198">
+        <f>E37</f>
+        <v>16621.911397243523</v>
+      </c>
+      <c r="G38" s="145"/>
+      <c r="H38" s="3">
+        <f t="shared" si="2"/>
+        <v>8430.0440809023385</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="C39" s="195" t="s">
         <v>280</v>
       </c>
       <c r="D39" s="145">
         <v>3.23</v>
       </c>
-      <c r="E39" s="193">
+      <c r="E39" s="192">
         <f t="shared" ref="E39:E44" si="3">E38+(E38*D38/100)</f>
         <v>17463.855756236451</v>
       </c>
-      <c r="F39" s="145"/>
-      <c r="G39" s="198">
+      <c r="F39" s="192">
+        <f>E39</f>
+        <v>17463.855756236451</v>
+      </c>
+      <c r="G39" s="145"/>
+      <c r="H39" s="3">
         <f t="shared" si="2"/>
-        <v>18893.89983713879</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="C40" s="199" t="s">
+        <v>25893.89983713879</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="C40" s="195" t="s">
         <v>281</v>
       </c>
       <c r="D40" s="145">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E40" s="193">
+      <c r="E40" s="192">
         <f t="shared" si="3"/>
         <v>18027.938297162887</v>
       </c>
-      <c r="F40" s="145"/>
-      <c r="G40" s="192">
+      <c r="F40" s="192">
+        <f>E40</f>
+        <v>18027.938297162887</v>
+      </c>
+      <c r="G40" s="145"/>
+      <c r="H40" s="3">
         <f t="shared" si="2"/>
-        <v>36921.838134301681</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="C41" s="199" t="s">
+        <v>43921.838134301681</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="C41" s="195" t="s">
         <v>362</v>
       </c>
       <c r="D41" s="145">
         <v>2.97</v>
       </c>
-      <c r="E41" s="193">
+      <c r="E41" s="192">
         <f t="shared" si="3"/>
         <v>18473.228373102811</v>
       </c>
-      <c r="F41" s="145"/>
-      <c r="G41" s="192">
+      <c r="F41" s="192">
+        <f>E41</f>
+        <v>18473.228373102811</v>
+      </c>
+      <c r="G41" s="145"/>
+      <c r="H41" s="3">
         <f t="shared" si="2"/>
-        <v>55395.066507404495</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="C42" s="200" t="s">
+        <v>62395.066507404495</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="C42" s="196" t="s">
         <v>263</v>
       </c>
-      <c r="D42" s="201"/>
-      <c r="E42" s="202">
+      <c r="D42" s="228">
+        <v>5</v>
+      </c>
+      <c r="E42" s="192">
         <f t="shared" si="3"/>
         <v>19021.883255783963</v>
       </c>
-      <c r="F42" s="201"/>
-      <c r="G42" s="203">
+      <c r="F42" s="192">
+        <f>E42</f>
+        <v>19021.883255783963</v>
+      </c>
+      <c r="G42" s="197"/>
+      <c r="H42" s="3">
         <f t="shared" si="2"/>
-        <v>74416.949763188459</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
+        <v>81416.949763188459</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="C43" s="145" t="s">
         <v>264</v>
       </c>
+      <c r="D43" s="145">
+        <v>5</v>
+      </c>
       <c r="E43" s="60">
         <f t="shared" si="3"/>
-        <v>19021.883255783963</v>
-      </c>
-      <c r="G43" s="29">
+        <v>19972.977418573162</v>
+      </c>
+      <c r="F43" s="192">
+        <f>E43</f>
+        <v>19972.977418573162</v>
+      </c>
+      <c r="H43" s="3">
         <f t="shared" si="2"/>
-        <v>93438.833018972422</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
+        <v>101389.92718176162</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
       <c r="C44" s="145" t="s">
         <v>265</v>
       </c>
       <c r="E44" s="60">
         <f t="shared" si="3"/>
-        <v>19021.883255783963</v>
-      </c>
-      <c r="G44" s="29">
+        <v>20971.626289501819</v>
+      </c>
+      <c r="F44" s="60"/>
+      <c r="H44" s="3">
         <f t="shared" si="2"/>
-        <v>112460.71627475639</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
+        <v>101389.92718176162</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45">
         <v>2025</v>
       </c>
@@ -15114,53 +15202,59 @@
       <c r="E45" s="60">
         <v>22000</v>
       </c>
-      <c r="G45" s="29">
-        <f t="shared" ref="G45:G47" si="4">E45-F45+G44</f>
-        <v>134460.71627475639</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
+      <c r="F45" s="60"/>
+      <c r="H45" s="3">
+        <f t="shared" si="2"/>
+        <v>101389.92718176162</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
       <c r="C46" s="144" t="s">
         <v>275</v>
       </c>
       <c r="E46" s="60">
-        <f t="shared" ref="E46:E47" si="5">E45+(E45*D45/100)</f>
+        <f t="shared" ref="E46:E47" si="4">E45+(E45*D45/100)</f>
         <v>22000</v>
       </c>
-      <c r="G46" s="29">
-        <f t="shared" si="4"/>
-        <v>156460.71627475639</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
+      <c r="F46" s="60"/>
+      <c r="H46" s="3">
+        <f t="shared" si="2"/>
+        <v>101389.92718176162</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
       <c r="C47" s="144" t="s">
         <v>276</v>
       </c>
       <c r="E47" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22000</v>
       </c>
-      <c r="G47" s="29">
-        <f t="shared" si="4"/>
-        <v>178460.71627475639</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
+      <c r="F47" s="60"/>
+      <c r="H47" s="3">
+        <f t="shared" si="2"/>
+        <v>101389.92718176162</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
       <c r="C48" s="145"/>
       <c r="E48" s="60"/>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="2:7">
+      <c r="F48" s="60"/>
+      <c r="H48" s="29"/>
+    </row>
+    <row r="49" spans="2:8">
       <c r="C49" s="145"/>
       <c r="E49" s="60"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="2:7">
+      <c r="F49" s="60"/>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="2:8">
       <c r="C50" s="145"/>
       <c r="E50" s="60"/>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="55" spans="2:7">
+      <c r="F50" s="60"/>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="92">
         <v>45421</v>
       </c>
@@ -15168,31 +15262,31 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:8">
       <c r="B56" s="92"/>
       <c r="C56" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:8">
       <c r="B57" s="92"/>
       <c r="C57" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:8">
       <c r="B58" s="92"/>
       <c r="C58" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:8">
       <c r="B59" s="92"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:8">
       <c r="B60" s="92"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:8">
       <c r="B62" s="54">
         <v>44957</v>
       </c>
@@ -15205,15 +15299,16 @@
       <c r="E62" s="60">
         <v>6920</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="60"/>
+      <c r="G62" s="25">
         <v>6920</v>
       </c>
-      <c r="G62" s="3">
-        <f>E62-F62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
+      <c r="H62" s="3">
+        <f>E62-G62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
       <c r="C63" s="143" t="s">
         <v>275</v>
       </c>
@@ -15221,16 +15316,17 @@
         <v>3.15</v>
       </c>
       <c r="E63" s="60">
-        <f t="shared" ref="E63:E68" si="6">E62+(E62*D62/100)</f>
+        <f t="shared" ref="E63:E68" si="5">E62+(E62*D62/100)</f>
         <v>7380.18</v>
       </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="3">
-        <f t="shared" ref="G63:G87" si="7">E63-F63+G62</f>
+      <c r="F63" s="60"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="3">
+        <f t="shared" ref="H63:H87" si="6">E63-G63+H62</f>
         <v>7380.18</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:8">
       <c r="C64" s="143" t="s">
         <v>276</v>
       </c>
@@ -15238,16 +15334,17 @@
         <v>2.29</v>
       </c>
       <c r="E64" s="60">
+        <f t="shared" si="5"/>
+        <v>7612.6556700000001</v>
+      </c>
+      <c r="F64" s="60"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="3">
         <f t="shared" si="6"/>
-        <v>7612.6556700000001</v>
-      </c>
-      <c r="F64" s="25"/>
-      <c r="G64" s="3">
-        <f t="shared" si="7"/>
         <v>14992.83567</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:8">
       <c r="C65" s="143" t="s">
         <v>278</v>
       </c>
@@ -15255,18 +15352,19 @@
         <v>2.39</v>
       </c>
       <c r="E65" s="60">
+        <f t="shared" si="5"/>
+        <v>7786.9854848430004</v>
+      </c>
+      <c r="F65" s="60"/>
+      <c r="G65" s="25">
+        <v>8425.4599999999991</v>
+      </c>
+      <c r="H65" s="3">
         <f t="shared" si="6"/>
-        <v>7786.9854848430004</v>
-      </c>
-      <c r="F65" s="25">
-        <v>8425.4599999999991</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" si="7"/>
         <v>14354.361154843002</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:8">
       <c r="C66" s="143" t="s">
         <v>277</v>
       </c>
@@ -15274,18 +15372,19 @@
         <v>0.04</v>
       </c>
       <c r="E66" s="60">
+        <f t="shared" si="5"/>
+        <v>7973.0944379307484</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="25">
+        <v>28080</v>
+      </c>
+      <c r="H66" s="3">
         <f t="shared" si="6"/>
-        <v>7973.0944379307484</v>
-      </c>
-      <c r="F66" s="25">
-        <v>28080</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" si="7"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:8">
       <c r="C67" s="143" t="s">
         <v>279</v>
       </c>
@@ -15293,16 +15392,17 @@
         <v>3.92</v>
       </c>
       <c r="E67" s="60">
+        <f t="shared" si="5"/>
+        <v>7976.2836757059204</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="3">
         <f t="shared" si="6"/>
-        <v>7976.2836757059204</v>
-      </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="3">
-        <f t="shared" si="7"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:8">
       <c r="C68" s="143" t="s">
         <v>280</v>
       </c>
@@ -15310,18 +15410,19 @@
         <v>9.49</v>
       </c>
       <c r="E68" s="60">
+        <f t="shared" si="5"/>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="28">
+        <v>50000</v>
+      </c>
+      <c r="H68" s="3">
         <f t="shared" si="6"/>
-        <v>8288.9539957935922</v>
-      </c>
-      <c r="F68" s="28">
-        <v>50000</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" si="7"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:8">
       <c r="C69" s="143" t="s">
         <v>281</v>
       </c>
@@ -15332,13 +15433,14 @@
         <f>E68</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="3">
-        <f t="shared" si="7"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="3">
+        <f t="shared" si="6"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:8">
       <c r="C70" s="143" t="s">
         <v>282</v>
       </c>
@@ -15346,16 +15448,17 @@
         <v>4.75</v>
       </c>
       <c r="E70" s="60">
-        <f t="shared" ref="E70:E73" si="8">E69</f>
+        <f t="shared" ref="E70:E73" si="7">E69</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="3">
-        <f t="shared" si="7"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="3">
+        <f t="shared" si="6"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:8">
       <c r="C71" s="143" t="s">
         <v>263</v>
       </c>
@@ -15363,16 +15466,17 @@
         <v>3.43</v>
       </c>
       <c r="E71" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8288.9539957935922</v>
       </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="3">
-        <f t="shared" si="7"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="3">
+        <f t="shared" si="6"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:8">
       <c r="C72" s="143" t="s">
         <v>264</v>
       </c>
@@ -15380,18 +15484,19 @@
         <v>3.28</v>
       </c>
       <c r="E72" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8288.9539957935922</v>
       </c>
-      <c r="F72" s="28">
+      <c r="F72" s="60"/>
+      <c r="G72" s="28">
         <v>15887.06</v>
       </c>
-      <c r="G72" s="3">
-        <f t="shared" si="7"/>
+      <c r="H72" s="3">
+        <f t="shared" si="6"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:8">
       <c r="B73" s="142">
         <v>45291</v>
       </c>
@@ -15402,16 +15507,17 @@
         <v>2.93</v>
       </c>
       <c r="E73" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8288.9539957935922</v>
       </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29">
-        <f t="shared" si="7"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29">
+        <f t="shared" si="6"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:8">
       <c r="B74" s="142">
         <v>45322</v>
       </c>
@@ -15424,13 +15530,14 @@
       <c r="E74" s="60">
         <v>14000</v>
       </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="29">
-        <f t="shared" si="7"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="29">
+        <f t="shared" si="6"/>
         <v>70.403243241227756</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:8">
       <c r="C75" s="144" t="s">
         <v>275</v>
       </c>
@@ -15438,16 +15545,17 @@
         <v>4.53</v>
       </c>
       <c r="E75" s="60">
-        <f t="shared" ref="E75:E76" si="9">E74+(E74*D74/100)</f>
+        <f t="shared" ref="E75:E76" si="8">E74+(E74*D74/100)</f>
         <v>14939.4</v>
       </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="29">
-        <f t="shared" si="7"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="29">
+        <f t="shared" si="6"/>
         <v>15009.803243241227</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:8">
       <c r="C76" s="144" t="s">
         <v>276</v>
       </c>
@@ -15455,29 +15563,31 @@
         <v>3.16</v>
       </c>
       <c r="E76" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>15616.15482</v>
       </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29">
-        <f t="shared" si="7"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="29">
+        <f t="shared" si="6"/>
         <v>30625.958063241225</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:8">
       <c r="C77" s="146" t="s">
         <v>349</v>
       </c>
       <c r="E77" s="60"/>
-      <c r="F77" s="28">
+      <c r="F77" s="60"/>
+      <c r="G77" s="28">
         <v>-3795</v>
       </c>
-      <c r="G77" s="29">
-        <f t="shared" si="7"/>
+      <c r="H77" s="29">
+        <f t="shared" si="6"/>
         <v>34420.958063241225</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:8">
       <c r="C78" s="144" t="s">
         <v>360</v>
       </c>
@@ -15488,15 +15598,16 @@
         <f>E76+(E76*D76/100)</f>
         <v>16109.625312312</v>
       </c>
-      <c r="F78" s="28">
+      <c r="F78" s="60"/>
+      <c r="G78" s="28">
         <v>85000</v>
       </c>
-      <c r="G78" s="29">
-        <f>E78-F78+G77</f>
+      <c r="H78" s="29">
+        <f>E78-G78+H77</f>
         <v>-34469.416624446778</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:8">
       <c r="C79" s="146" t="s">
         <v>208</v>
       </c>
@@ -15504,15 +15615,16 @@
         <v>5.54</v>
       </c>
       <c r="E79" s="60"/>
-      <c r="F79" s="28">
+      <c r="F79" s="60"/>
+      <c r="G79" s="28">
         <v>-5600</v>
       </c>
-      <c r="G79" s="29">
-        <f>E79-F79+G78</f>
+      <c r="H79" s="29">
+        <f>E79-G79+H78</f>
         <v>-28869.416624446778</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:8">
       <c r="C80" s="145" t="s">
         <v>361</v>
       </c>
@@ -15520,13 +15632,14 @@
         <f>E78+(E78*D79/100)</f>
         <v>17002.098554614084</v>
       </c>
-      <c r="F80" s="28"/>
-      <c r="G80" s="29">
-        <f>E80-F80+G79</f>
+      <c r="F80" s="60"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="29">
+        <f>E80-G80+H79</f>
         <v>-11867.318069832694</v>
       </c>
     </row>
-    <row r="81" spans="3:7">
+    <row r="81" spans="3:8">
       <c r="C81" s="145" t="s">
         <v>279</v>
       </c>
@@ -15534,86 +15647,93 @@
         <f>E80+(E80*D80/100)</f>
         <v>17002.098554614084</v>
       </c>
-      <c r="G81" s="29">
-        <f t="shared" si="7"/>
+      <c r="F81" s="60"/>
+      <c r="H81" s="29">
+        <f t="shared" si="6"/>
         <v>5134.7804847813895</v>
       </c>
     </row>
-    <row r="82" spans="3:7">
+    <row r="82" spans="3:8">
       <c r="C82" s="145" t="s">
         <v>280</v>
       </c>
       <c r="E82" s="60">
-        <f t="shared" ref="E82:E87" si="10">E81+(E81*D81/100)</f>
+        <f t="shared" ref="E82:E87" si="9">E81+(E81*D81/100)</f>
         <v>17002.098554614084</v>
       </c>
-      <c r="G82" s="29">
-        <f t="shared" si="7"/>
+      <c r="F82" s="60"/>
+      <c r="H82" s="29">
+        <f t="shared" si="6"/>
         <v>22136.879039395473</v>
       </c>
     </row>
-    <row r="83" spans="3:7">
+    <row r="83" spans="3:8">
       <c r="C83" s="145" t="s">
         <v>281</v>
       </c>
       <c r="E83" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17002.098554614084</v>
       </c>
-      <c r="G83" s="29">
-        <f t="shared" si="7"/>
+      <c r="F83" s="60"/>
+      <c r="H83" s="29">
+        <f t="shared" si="6"/>
         <v>39138.977594009557</v>
       </c>
     </row>
-    <row r="84" spans="3:7">
+    <row r="84" spans="3:8">
       <c r="C84" s="145" t="s">
         <v>362</v>
       </c>
       <c r="E84" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17002.098554614084</v>
       </c>
-      <c r="G84" s="29">
-        <f t="shared" si="7"/>
+      <c r="F84" s="60"/>
+      <c r="H84" s="29">
+        <f t="shared" si="6"/>
         <v>56141.076148623644</v>
       </c>
     </row>
-    <row r="85" spans="3:7">
+    <row r="85" spans="3:8">
       <c r="C85" s="145" t="s">
         <v>263</v>
       </c>
       <c r="E85" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17002.098554614084</v>
       </c>
-      <c r="G85" s="29">
-        <f t="shared" si="7"/>
+      <c r="F85" s="60"/>
+      <c r="H85" s="29">
+        <f t="shared" si="6"/>
         <v>73143.174703237732</v>
       </c>
     </row>
-    <row r="86" spans="3:7">
+    <row r="86" spans="3:8">
       <c r="C86" s="145" t="s">
         <v>264</v>
       </c>
       <c r="E86" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17002.098554614084</v>
       </c>
-      <c r="G86" s="29">
-        <f t="shared" si="7"/>
+      <c r="F86" s="60"/>
+      <c r="H86" s="29">
+        <f t="shared" si="6"/>
         <v>90145.273257851819</v>
       </c>
     </row>
-    <row r="87" spans="3:7">
+    <row r="87" spans="3:8">
       <c r="C87" s="145" t="s">
         <v>265</v>
       </c>
       <c r="E87" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17002.098554614084</v>
       </c>
-      <c r="G87" s="29">
-        <f t="shared" si="7"/>
+      <c r="F87" s="60"/>
+      <c r="H87" s="29">
+        <f t="shared" si="6"/>
         <v>107147.37181246591</v>
       </c>
     </row>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06817DA8-53F2-4FDC-879C-1CB3703CF3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40403F91-A488-4C6D-870E-217F44730F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="912" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,23 @@
     <sheet name="SnH_yazıhane" sheetId="8" r:id="rId11"/>
     <sheet name="NAZAN" sheetId="16" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="459">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1473,6 +1484,9 @@
   </si>
   <si>
     <t>avukat-noter vs</t>
+  </si>
+  <si>
+    <t>ödenmedi</t>
   </si>
 </sst>
 </file>
@@ -4724,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4977,6 +4991,9 @@
         <f t="shared" si="1"/>
         <v>143107.56</v>
       </c>
+      <c r="F15" t="s">
+        <v>458</v>
+      </c>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
         <v>153107.56</v>
@@ -4993,6 +5010,9 @@
         <f t="shared" si="1"/>
         <v>133107.56</v>
       </c>
+      <c r="F16" t="s">
+        <v>458</v>
+      </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
         <v>153107.56</v>
@@ -5009,6 +5029,9 @@
         <f t="shared" si="1"/>
         <v>123107.56</v>
       </c>
+      <c r="F17" t="s">
+        <v>458</v>
+      </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
         <v>153107.56</v>
@@ -5024,6 +5047,9 @@
       <c r="D18" s="90">
         <f t="shared" si="1"/>
         <v>113107.56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>458</v>
       </c>
       <c r="H18" s="90">
         <f t="shared" si="0"/>
@@ -5367,7 +5393,7 @@
       <c r="A33" s="135">
         <v>45397</v>
       </c>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="179" t="s">
         <v>352</v>
       </c>
       <c r="C33" s="137">
@@ -14448,7 +14474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
   <dimension ref="B4:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -14646,7 +14672,7 @@
         <v>7380.18</v>
       </c>
       <c r="F18" s="60">
-        <f>E18</f>
+        <f t="shared" ref="F18:F23" si="2">E18</f>
         <v>7380.18</v>
       </c>
       <c r="G18" s="25"/>
@@ -14667,12 +14693,12 @@
         <v>7612.6556700000001</v>
       </c>
       <c r="F19" s="60">
-        <f>E19</f>
+        <f t="shared" si="2"/>
         <v>7612.6556700000001</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="3">
-        <f t="shared" ref="H19:H47" si="2">F19-G19+H18</f>
+        <f t="shared" ref="H19:H47" si="3">F19-G19+H18</f>
         <v>14992.83567</v>
       </c>
     </row>
@@ -14688,14 +14714,14 @@
         <v>7786.9854848430004</v>
       </c>
       <c r="F20" s="60">
-        <f>E20</f>
+        <f t="shared" si="2"/>
         <v>7786.9854848430004</v>
       </c>
       <c r="G20" s="25">
         <v>8425.4599999999991</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14354.361154843002</v>
       </c>
     </row>
@@ -14711,14 +14737,14 @@
         <v>7973.0944379307484</v>
       </c>
       <c r="F21" s="60">
-        <f>E21</f>
+        <f t="shared" si="2"/>
         <v>7973.0944379307484</v>
       </c>
       <c r="G21" s="25">
         <v>28080</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
@@ -14734,12 +14760,12 @@
         <v>7976.2836757059204</v>
       </c>
       <c r="F22" s="60">
-        <f>E22</f>
+        <f t="shared" si="2"/>
         <v>7976.2836757059204</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
@@ -14755,14 +14781,14 @@
         <v>8288.9539957935922</v>
       </c>
       <c r="F23" s="15">
-        <f>E23</f>
+        <f t="shared" si="2"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="G23" s="194">
         <v>50000</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
@@ -14783,7 +14809,7 @@
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
@@ -14804,7 +14830,7 @@
       </c>
       <c r="G25" s="227"/>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
@@ -14825,7 +14851,7 @@
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
@@ -14848,7 +14874,7 @@
         <v>15887.06</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
@@ -14872,7 +14898,7 @@
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
@@ -14895,7 +14921,7 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5640.6427609651801</v>
       </c>
     </row>
@@ -14911,12 +14937,12 @@
         <v>14939.4</v>
       </c>
       <c r="F30" s="60">
-        <f>E30</f>
+        <f t="shared" ref="F30:F36" si="4">E30</f>
         <v>14939.4</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9298.7572390348196</v>
       </c>
     </row>
@@ -14932,12 +14958,12 @@
         <v>15616.15482</v>
       </c>
       <c r="F31" s="60">
-        <f>E31</f>
+        <f t="shared" si="4"/>
         <v>15616.15482</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24914.912059034818</v>
       </c>
     </row>
@@ -14949,12 +14975,12 @@
         <v>3795</v>
       </c>
       <c r="F32" s="60">
-        <f>E32</f>
+        <f t="shared" si="4"/>
         <v>3795</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28709.912059034818</v>
       </c>
     </row>
@@ -14966,12 +14992,12 @@
         <v>5600</v>
       </c>
       <c r="F33" s="60">
-        <f>E33</f>
+        <f t="shared" si="4"/>
         <v>5600</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34309.912059034818</v>
       </c>
     </row>
@@ -14983,12 +15009,12 @@
         <v>278.97000000000003</v>
       </c>
       <c r="F34" s="60">
-        <f>E34</f>
+        <f t="shared" si="4"/>
         <v>278.97000000000003</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34588.882059034819</v>
       </c>
     </row>
@@ -15000,12 +15026,12 @@
         <v>10000</v>
       </c>
       <c r="F35" s="60">
-        <f>E35</f>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44588.882059034819</v>
       </c>
     </row>
@@ -15021,14 +15047,14 @@
         <v>16109.625312312</v>
       </c>
       <c r="F36" s="15">
-        <f>E36</f>
+        <f t="shared" si="4"/>
         <v>16109.625312312</v>
       </c>
       <c r="G36" s="194">
         <v>85000</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-24301.492628653185</v>
       </c>
     </row>
@@ -15049,7 +15075,7 @@
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8191.8673163411841</v>
       </c>
     </row>
@@ -15070,7 +15096,7 @@
       </c>
       <c r="G38" s="145"/>
       <c r="H38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8430.0440809023385</v>
       </c>
     </row>
@@ -15082,7 +15108,7 @@
         <v>3.23</v>
       </c>
       <c r="E39" s="192">
-        <f t="shared" ref="E39:E44" si="3">E38+(E38*D38/100)</f>
+        <f t="shared" ref="E39:E44" si="5">E38+(E38*D38/100)</f>
         <v>17463.855756236451</v>
       </c>
       <c r="F39" s="192">
@@ -15091,7 +15117,7 @@
       </c>
       <c r="G39" s="145"/>
       <c r="H39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25893.89983713879</v>
       </c>
     </row>
@@ -15103,7 +15129,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="E40" s="192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18027.938297162887</v>
       </c>
       <c r="F40" s="192">
@@ -15112,7 +15138,7 @@
       </c>
       <c r="G40" s="145"/>
       <c r="H40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43921.838134301681</v>
       </c>
     </row>
@@ -15124,7 +15150,7 @@
         <v>2.97</v>
       </c>
       <c r="E41" s="192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18473.228373102811</v>
       </c>
       <c r="F41" s="192">
@@ -15133,7 +15159,7 @@
       </c>
       <c r="G41" s="145"/>
       <c r="H41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62395.066507404495</v>
       </c>
     </row>
@@ -15145,7 +15171,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19021.883255783963</v>
       </c>
       <c r="F42" s="192">
@@ -15154,7 +15180,7 @@
       </c>
       <c r="G42" s="197"/>
       <c r="H42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81416.949763188459</v>
       </c>
     </row>
@@ -15166,7 +15192,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19972.977418573162</v>
       </c>
       <c r="F43" s="192">
@@ -15174,7 +15200,7 @@
         <v>19972.977418573162</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101389.92718176162</v>
       </c>
     </row>
@@ -15183,12 +15209,12 @@
         <v>265</v>
       </c>
       <c r="E44" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20971.626289501819</v>
       </c>
       <c r="F44" s="60"/>
       <c r="H44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101389.92718176162</v>
       </c>
     </row>
@@ -15204,7 +15230,7 @@
       </c>
       <c r="F45" s="60"/>
       <c r="H45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101389.92718176162</v>
       </c>
     </row>
@@ -15213,12 +15239,12 @@
         <v>275</v>
       </c>
       <c r="E46" s="60">
-        <f t="shared" ref="E46:E47" si="4">E45+(E45*D45/100)</f>
+        <f t="shared" ref="E46:E47" si="6">E45+(E45*D45/100)</f>
         <v>22000</v>
       </c>
       <c r="F46" s="60"/>
       <c r="H46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101389.92718176162</v>
       </c>
     </row>
@@ -15227,12 +15253,12 @@
         <v>276</v>
       </c>
       <c r="E47" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22000</v>
       </c>
       <c r="F47" s="60"/>
       <c r="H47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101389.92718176162</v>
       </c>
     </row>
@@ -15316,13 +15342,13 @@
         <v>3.15</v>
       </c>
       <c r="E63" s="60">
-        <f t="shared" ref="E63:E68" si="5">E62+(E62*D62/100)</f>
+        <f t="shared" ref="E63:E68" si="7">E62+(E62*D62/100)</f>
         <v>7380.18</v>
       </c>
       <c r="F63" s="60"/>
       <c r="G63" s="25"/>
       <c r="H63" s="3">
-        <f t="shared" ref="H63:H87" si="6">E63-G63+H62</f>
+        <f t="shared" ref="H63:H87" si="8">E63-G63+H62</f>
         <v>7380.18</v>
       </c>
     </row>
@@ -15334,13 +15360,13 @@
         <v>2.29</v>
       </c>
       <c r="E64" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7612.6556700000001</v>
       </c>
       <c r="F64" s="60"/>
       <c r="G64" s="25"/>
       <c r="H64" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14992.83567</v>
       </c>
     </row>
@@ -15352,7 +15378,7 @@
         <v>2.39</v>
       </c>
       <c r="E65" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7786.9854848430004</v>
       </c>
       <c r="F65" s="60"/>
@@ -15360,7 +15386,7 @@
         <v>8425.4599999999991</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14354.361154843002</v>
       </c>
     </row>
@@ -15372,7 +15398,7 @@
         <v>0.04</v>
       </c>
       <c r="E66" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7973.0944379307484</v>
       </c>
       <c r="F66" s="60"/>
@@ -15380,7 +15406,7 @@
         <v>28080</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
@@ -15392,13 +15418,13 @@
         <v>3.92</v>
       </c>
       <c r="E67" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7976.2836757059204</v>
       </c>
       <c r="F67" s="60"/>
       <c r="G67" s="28"/>
       <c r="H67" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
@@ -15410,7 +15436,7 @@
         <v>9.49</v>
       </c>
       <c r="E68" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F68" s="60"/>
@@ -15418,7 +15444,7 @@
         <v>50000</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
@@ -15436,7 +15462,7 @@
       <c r="F69" s="60"/>
       <c r="G69" s="28"/>
       <c r="H69" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
@@ -15448,13 +15474,13 @@
         <v>4.75</v>
       </c>
       <c r="E70" s="60">
-        <f t="shared" ref="E70:E73" si="7">E69</f>
+        <f t="shared" ref="E70:E73" si="9">E69</f>
         <v>8288.9539957935922</v>
       </c>
       <c r="F70" s="60"/>
       <c r="G70" s="28"/>
       <c r="H70" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
@@ -15466,13 +15492,13 @@
         <v>3.43</v>
       </c>
       <c r="E71" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F71" s="60"/>
       <c r="G71" s="28"/>
       <c r="H71" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
@@ -15484,7 +15510,7 @@
         <v>3.28</v>
       </c>
       <c r="E72" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F72" s="60"/>
@@ -15492,7 +15518,7 @@
         <v>15887.06</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
@@ -15507,13 +15533,13 @@
         <v>2.93</v>
       </c>
       <c r="E73" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F73" s="60"/>
       <c r="G73" s="28"/>
       <c r="H73" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
@@ -15533,7 +15559,7 @@
       <c r="F74" s="60"/>
       <c r="G74" s="28"/>
       <c r="H74" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>70.403243241227756</v>
       </c>
     </row>
@@ -15545,13 +15571,13 @@
         <v>4.53</v>
       </c>
       <c r="E75" s="60">
-        <f t="shared" ref="E75:E76" si="8">E74+(E74*D74/100)</f>
+        <f t="shared" ref="E75:E76" si="10">E74+(E74*D74/100)</f>
         <v>14939.4</v>
       </c>
       <c r="F75" s="60"/>
       <c r="G75" s="28"/>
       <c r="H75" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15009.803243241227</v>
       </c>
     </row>
@@ -15563,13 +15589,13 @@
         <v>3.16</v>
       </c>
       <c r="E76" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15616.15482</v>
       </c>
       <c r="F76" s="60"/>
       <c r="G76" s="28"/>
       <c r="H76" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30625.958063241225</v>
       </c>
     </row>
@@ -15583,7 +15609,7 @@
         <v>-3795</v>
       </c>
       <c r="H77" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>34420.958063241225</v>
       </c>
     </row>
@@ -15649,7 +15675,7 @@
       </c>
       <c r="F81" s="60"/>
       <c r="H81" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5134.7804847813895</v>
       </c>
     </row>
@@ -15658,12 +15684,12 @@
         <v>280</v>
       </c>
       <c r="E82" s="60">
-        <f t="shared" ref="E82:E87" si="9">E81+(E81*D81/100)</f>
+        <f t="shared" ref="E82:E87" si="11">E81+(E81*D81/100)</f>
         <v>17002.098554614084</v>
       </c>
       <c r="F82" s="60"/>
       <c r="H82" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22136.879039395473</v>
       </c>
     </row>
@@ -15672,12 +15698,12 @@
         <v>281</v>
       </c>
       <c r="E83" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F83" s="60"/>
       <c r="H83" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>39138.977594009557</v>
       </c>
     </row>
@@ -15686,12 +15712,12 @@
         <v>362</v>
       </c>
       <c r="E84" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F84" s="60"/>
       <c r="H84" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>56141.076148623644</v>
       </c>
     </row>
@@ -15700,12 +15726,12 @@
         <v>263</v>
       </c>
       <c r="E85" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F85" s="60"/>
       <c r="H85" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>73143.174703237732</v>
       </c>
     </row>
@@ -15714,12 +15740,12 @@
         <v>264</v>
       </c>
       <c r="E86" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F86" s="60"/>
       <c r="H86" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90145.273257851819</v>
       </c>
     </row>
@@ -15728,12 +15754,12 @@
         <v>265</v>
       </c>
       <c r="E87" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F87" s="60"/>
       <c r="H87" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>107147.37181246591</v>
       </c>
     </row>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\xaagitme\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40403F91-A488-4C6D-870E-217F44730F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B3464F-71D7-4119-B04B-F0E9A98482A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="912" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,12 @@
     <sheet name="SnH_yazıhane" sheetId="8" r:id="rId11"/>
     <sheet name="NAZAN" sheetId="16" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="463">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1487,6 +1476,18 @@
   </si>
   <si>
     <t>ödenmedi</t>
+  </si>
+  <si>
+    <t>ÖDEME</t>
+  </si>
+  <si>
+    <t>bedeli</t>
+  </si>
+  <si>
+    <t>ödenecek</t>
+  </si>
+  <si>
+    <t>boya masrafı</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2349,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2761,7 +2762,6 @@
     <xf numFmtId="4" fontId="47" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4738,7 +4738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -14472,10 +14472,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
-  <dimension ref="B4:J87"/>
+  <dimension ref="B4:J90"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14620,6 +14620,9 @@
       <c r="B15" t="s">
         <v>358</v>
       </c>
+      <c r="E15" s="191" t="s">
+        <v>416</v>
+      </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10">
@@ -14627,9 +14630,11 @@
         <v>415</v>
       </c>
       <c r="E16" s="191" t="s">
-        <v>416</v>
-      </c>
-      <c r="F16" s="191"/>
+        <v>460</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>461</v>
+      </c>
       <c r="G16" s="191" t="s">
         <v>214</v>
       </c>
@@ -14698,7 +14703,7 @@
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="3">
-        <f t="shared" ref="H19:H47" si="3">F19-G19+H18</f>
+        <f t="shared" ref="H19:H50" si="3">F19-G19+H18</f>
         <v>14992.83567</v>
       </c>
     </row>
@@ -15108,7 +15113,7 @@
         <v>3.23</v>
       </c>
       <c r="E39" s="192">
-        <f t="shared" ref="E39:E44" si="5">E38+(E38*D38/100)</f>
+        <f t="shared" ref="E39:E43" si="5">E38+(E38*D38/100)</f>
         <v>17463.855756236451</v>
       </c>
       <c r="F39" s="192">
@@ -15167,7 +15172,7 @@
       <c r="C42" s="196" t="s">
         <v>263</v>
       </c>
-      <c r="D42" s="228">
+      <c r="D42" s="145">
         <v>5</v>
       </c>
       <c r="E42" s="192">
@@ -15206,560 +15211,608 @@
     </row>
     <row r="44" spans="2:8">
       <c r="C44" s="145" t="s">
-        <v>265</v>
-      </c>
-      <c r="E44" s="60">
-        <f t="shared" si="5"/>
-        <v>20971.626289501819</v>
-      </c>
-      <c r="F44" s="60"/>
+        <v>462</v>
+      </c>
+      <c r="D44" s="145"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="192">
+        <v>5000</v>
+      </c>
       <c r="H44" s="3">
         <f t="shared" si="3"/>
-        <v>101389.92718176162</v>
+        <v>106389.92718176162</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45">
-        <v>2025</v>
-      </c>
-      <c r="C45" s="144" t="s">
-        <v>419</v>
-      </c>
-      <c r="E45" s="60">
-        <v>22000</v>
-      </c>
-      <c r="F45" s="60"/>
+      <c r="C45" s="145" t="s">
+        <v>459</v>
+      </c>
+      <c r="D45" s="145"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="192"/>
+      <c r="G45">
+        <v>185000</v>
+      </c>
       <c r="H45" s="3">
         <f t="shared" si="3"/>
-        <v>101389.92718176162</v>
+        <v>-78610.072818238375</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="C46" s="144" t="s">
-        <v>275</v>
+      <c r="C46" s="145" t="s">
+        <v>265</v>
       </c>
       <c r="E46" s="60">
-        <f t="shared" ref="E46:E47" si="6">E45+(E45*D45/100)</f>
-        <v>22000</v>
-      </c>
-      <c r="F46" s="60"/>
+        <f>E43+(E43*D43/100)</f>
+        <v>20971.626289501819</v>
+      </c>
+      <c r="F46" s="192">
+        <f>E46</f>
+        <v>20971.626289501819</v>
+      </c>
       <c r="H46" s="3">
         <f t="shared" si="3"/>
-        <v>101389.92718176162</v>
+        <v>-57638.44652873656</v>
       </c>
     </row>
     <row r="47" spans="2:8">
+      <c r="B47">
+        <v>2025</v>
+      </c>
       <c r="C47" s="144" t="s">
-        <v>276</v>
+        <v>419</v>
       </c>
       <c r="E47" s="60">
-        <f t="shared" si="6"/>
-        <v>22000</v>
-      </c>
-      <c r="F47" s="60"/>
+        <v>25000</v>
+      </c>
+      <c r="F47" s="192">
+        <f>E47</f>
+        <v>25000</v>
+      </c>
       <c r="H47" s="3">
         <f t="shared" si="3"/>
-        <v>101389.92718176162</v>
+        <v>-32638.44652873656</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="C48" s="145"/>
+      <c r="C48" s="144"/>
       <c r="E48" s="60"/>
       <c r="F48" s="60"/>
-      <c r="H48" s="29"/>
+      <c r="H48" s="3">
+        <f t="shared" si="3"/>
+        <v>-32638.44652873656</v>
+      </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="C49" s="145"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="H49" s="29"/>
+      <c r="C49" s="144" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" s="60">
+        <v>26000</v>
+      </c>
+      <c r="F49" s="192">
+        <f>E49</f>
+        <v>26000</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="3"/>
+        <v>-6638.4465287365601</v>
+      </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="C50" s="145"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="H50" s="29"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="92">
+      <c r="C50" s="144" t="s">
+        <v>276</v>
+      </c>
+      <c r="E50" s="60">
+        <v>27000</v>
+      </c>
+      <c r="F50" s="192">
+        <f>E50</f>
+        <v>27000</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="3"/>
+        <v>20361.55347126344</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="C51" s="145"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="H51" s="29"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="C52" s="145"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="H52" s="29"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="C53" s="145"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="92">
         <v>45421</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="92"/>
-      <c r="C56" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="92"/>
-      <c r="C57" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="92"/>
-      <c r="C58" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="92"/>
+      <c r="C59" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="92"/>
+      <c r="C60" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="92"/>
+      <c r="C61" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="54">
+      <c r="B62" s="92"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="92"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="54">
         <v>44957</v>
       </c>
-      <c r="C62" s="143" t="s">
+      <c r="C65" s="143" t="s">
         <v>274</v>
       </c>
-      <c r="D62">
+      <c r="D65">
         <v>6.65</v>
       </c>
-      <c r="E62" s="60">
+      <c r="E65" s="60">
         <v>6920</v>
-      </c>
-      <c r="F62" s="60"/>
-      <c r="G62" s="25">
-        <v>6920</v>
-      </c>
-      <c r="H62" s="3">
-        <f>E62-G62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="C63" s="143" t="s">
-        <v>275</v>
-      </c>
-      <c r="D63">
-        <v>3.15</v>
-      </c>
-      <c r="E63" s="60">
-        <f t="shared" ref="E63:E68" si="7">E62+(E62*D62/100)</f>
-        <v>7380.18</v>
-      </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="3">
-        <f t="shared" ref="H63:H87" si="8">E63-G63+H62</f>
-        <v>7380.18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="C64" s="143" t="s">
-        <v>276</v>
-      </c>
-      <c r="D64">
-        <v>2.29</v>
-      </c>
-      <c r="E64" s="60">
-        <f t="shared" si="7"/>
-        <v>7612.6556700000001</v>
-      </c>
-      <c r="F64" s="60"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="3">
-        <f t="shared" si="8"/>
-        <v>14992.83567</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="C65" s="143" t="s">
-        <v>278</v>
-      </c>
-      <c r="D65">
-        <v>2.39</v>
-      </c>
-      <c r="E65" s="60">
-        <f t="shared" si="7"/>
-        <v>7786.9854848430004</v>
       </c>
       <c r="F65" s="60"/>
       <c r="G65" s="25">
-        <v>8425.4599999999991</v>
+        <v>6920</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="8"/>
-        <v>14354.361154843002</v>
+        <f>E65-G65</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="C66" s="143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D66">
-        <v>0.04</v>
+        <v>3.15</v>
       </c>
       <c r="E66" s="60">
-        <f t="shared" si="7"/>
-        <v>7973.0944379307484</v>
+        <f t="shared" ref="E66:E71" si="6">E65+(E65*D65/100)</f>
+        <v>7380.18</v>
       </c>
       <c r="F66" s="60"/>
-      <c r="G66" s="25">
-        <v>28080</v>
-      </c>
+      <c r="G66" s="25"/>
       <c r="H66" s="3">
-        <f t="shared" si="8"/>
-        <v>-5752.5444072262508</v>
+        <f t="shared" ref="H66:H90" si="7">E66-G66+H65</f>
+        <v>7380.18</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="C67" s="143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D67">
-        <v>3.92</v>
+        <v>2.29</v>
       </c>
       <c r="E67" s="60">
+        <f t="shared" si="6"/>
+        <v>7612.6556700000001</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="3">
         <f t="shared" si="7"/>
-        <v>7976.2836757059204</v>
-      </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="3">
-        <f t="shared" si="8"/>
-        <v>2223.7392684796696</v>
+        <v>14992.83567</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="C68" s="143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D68">
-        <v>9.49</v>
+        <v>2.39</v>
       </c>
       <c r="E68" s="60">
+        <f t="shared" si="6"/>
+        <v>7786.9854848430004</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="25">
+        <v>8425.4599999999991</v>
+      </c>
+      <c r="H68" s="3">
         <f t="shared" si="7"/>
-        <v>8288.9539957935922</v>
-      </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="28">
-        <v>50000</v>
-      </c>
-      <c r="H68" s="3">
-        <f t="shared" si="8"/>
-        <v>-39487.306735726735</v>
+        <v>14354.361154843002</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="C69" s="143" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D69">
-        <v>9.09</v>
+        <v>0.04</v>
       </c>
       <c r="E69" s="60">
-        <f>E68</f>
-        <v>8288.9539957935922</v>
+        <f t="shared" si="6"/>
+        <v>7973.0944379307484</v>
       </c>
       <c r="F69" s="60"/>
-      <c r="G69" s="28"/>
+      <c r="G69" s="25">
+        <v>28080</v>
+      </c>
       <c r="H69" s="3">
-        <f t="shared" si="8"/>
-        <v>-31198.352739933143</v>
+        <f t="shared" si="7"/>
+        <v>-5752.5444072262508</v>
       </c>
     </row>
     <row r="70" spans="2:8">
       <c r="C70" s="143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D70">
-        <v>4.75</v>
+        <v>3.92</v>
       </c>
       <c r="E70" s="60">
-        <f t="shared" ref="E70:E73" si="9">E69</f>
-        <v>8288.9539957935922</v>
+        <f t="shared" si="6"/>
+        <v>7976.2836757059204</v>
       </c>
       <c r="F70" s="60"/>
       <c r="G70" s="28"/>
       <c r="H70" s="3">
-        <f t="shared" si="8"/>
-        <v>-22909.398744139551</v>
+        <f t="shared" si="7"/>
+        <v>2223.7392684796696</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="C71" s="143" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="D71">
-        <v>3.43</v>
+        <v>9.49</v>
       </c>
       <c r="E71" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F71" s="60"/>
-      <c r="G71" s="28"/>
+      <c r="G71" s="28">
+        <v>50000</v>
+      </c>
       <c r="H71" s="3">
-        <f t="shared" si="8"/>
-        <v>-14620.444748345959</v>
+        <f t="shared" si="7"/>
+        <v>-39487.306735726735</v>
       </c>
     </row>
     <row r="72" spans="2:8">
       <c r="C72" s="143" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="D72">
-        <v>3.28</v>
+        <v>9.09</v>
       </c>
       <c r="E72" s="60">
-        <f t="shared" si="9"/>
+        <f>E71</f>
         <v>8288.9539957935922</v>
       </c>
       <c r="F72" s="60"/>
-      <c r="G72" s="28">
-        <v>15887.06</v>
-      </c>
+      <c r="G72" s="28"/>
       <c r="H72" s="3">
-        <f t="shared" si="8"/>
-        <v>-22218.550752552364</v>
+        <f t="shared" si="7"/>
+        <v>-31198.352739933143</v>
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="142">
-        <v>45291</v>
-      </c>
       <c r="C73" s="143" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D73">
-        <v>2.93</v>
+        <v>4.75</v>
       </c>
       <c r="E73" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E73:E76" si="8">E72</f>
         <v>8288.9539957935922</v>
       </c>
       <c r="F73" s="60"/>
       <c r="G73" s="28"/>
-      <c r="H73" s="29">
+      <c r="H73" s="3">
+        <f t="shared" si="7"/>
+        <v>-22909.398744139551</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="C74" s="143" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74">
+        <v>3.43</v>
+      </c>
+      <c r="E74" s="60">
         <f t="shared" si="8"/>
-        <v>-13929.596756758772</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="142">
-        <v>45322</v>
-      </c>
-      <c r="C74" s="144" t="s">
-        <v>274</v>
-      </c>
-      <c r="D74">
-        <v>6.71</v>
-      </c>
-      <c r="E74" s="60">
-        <v>14000</v>
+        <v>8288.9539957935922</v>
       </c>
       <c r="F74" s="60"/>
       <c r="G74" s="28"/>
-      <c r="H74" s="29">
+      <c r="H74" s="3">
+        <f t="shared" si="7"/>
+        <v>-14620.444748345959</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="C75" s="143" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75">
+        <v>3.28</v>
+      </c>
+      <c r="E75" s="60">
         <f t="shared" si="8"/>
-        <v>70.403243241227756</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="C75" s="144" t="s">
-        <v>275</v>
-      </c>
-      <c r="D75">
-        <v>4.53</v>
-      </c>
-      <c r="E75" s="60">
-        <f t="shared" ref="E75:E76" si="10">E74+(E74*D74/100)</f>
-        <v>14939.4</v>
+        <v>8288.9539957935922</v>
       </c>
       <c r="F75" s="60"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="29">
+      <c r="G75" s="28">
+        <v>15887.06</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="7"/>
+        <v>-22218.550752552364</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="142">
+        <v>45291</v>
+      </c>
+      <c r="C76" s="143" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76">
+        <v>2.93</v>
+      </c>
+      <c r="E76" s="60">
         <f t="shared" si="8"/>
-        <v>15009.803243241227</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="C76" s="144" t="s">
-        <v>276</v>
-      </c>
-      <c r="D76">
-        <v>3.16</v>
-      </c>
-      <c r="E76" s="60">
-        <f t="shared" si="10"/>
-        <v>15616.15482</v>
+        <v>8288.9539957935922</v>
       </c>
       <c r="F76" s="60"/>
       <c r="G76" s="28"/>
       <c r="H76" s="29">
-        <f t="shared" si="8"/>
-        <v>30625.958063241225</v>
+        <f t="shared" si="7"/>
+        <v>-13929.596756758772</v>
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="C77" s="146" t="s">
-        <v>349</v>
-      </c>
-      <c r="E77" s="60"/>
+      <c r="B77" s="142">
+        <v>45322</v>
+      </c>
+      <c r="C77" s="144" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77">
+        <v>6.71</v>
+      </c>
+      <c r="E77" s="60">
+        <v>14000</v>
+      </c>
       <c r="F77" s="60"/>
-      <c r="G77" s="28">
-        <v>-3795</v>
-      </c>
+      <c r="G77" s="28"/>
       <c r="H77" s="29">
-        <f t="shared" si="8"/>
-        <v>34420.958063241225</v>
+        <f t="shared" si="7"/>
+        <v>70.403243241227756</v>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="C78" s="144" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78">
+        <v>4.53</v>
+      </c>
+      <c r="E78" s="60">
+        <f t="shared" ref="E78:E79" si="9">E77+(E77*D77/100)</f>
+        <v>14939.4</v>
+      </c>
+      <c r="F78" s="60"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29">
+        <f t="shared" si="7"/>
+        <v>15009.803243241227</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="C79" s="144" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79">
+        <v>3.16</v>
+      </c>
+      <c r="E79" s="60">
+        <f t="shared" si="9"/>
+        <v>15616.15482</v>
+      </c>
+      <c r="F79" s="60"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29">
+        <f t="shared" si="7"/>
+        <v>30625.958063241225</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="C80" s="146" t="s">
+        <v>349</v>
+      </c>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="28">
+        <v>-3795</v>
+      </c>
+      <c r="H80" s="29">
+        <f t="shared" si="7"/>
+        <v>34420.958063241225</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81" s="144" t="s">
         <v>360</v>
       </c>
-      <c r="D78">
+      <c r="D81">
         <v>3.16</v>
       </c>
-      <c r="E78" s="60">
-        <f>E76+(E76*D76/100)</f>
+      <c r="E81" s="60">
+        <f>E79+(E79*D79/100)</f>
         <v>16109.625312312</v>
       </c>
-      <c r="F78" s="60"/>
-      <c r="G78" s="28">
+      <c r="F81" s="60"/>
+      <c r="G81" s="28">
         <v>85000</v>
       </c>
-      <c r="H78" s="29">
-        <f>E78-G78+H77</f>
+      <c r="H81" s="29">
+        <f>E81-G81+H80</f>
         <v>-34469.416624446778</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
-      <c r="C79" s="146" t="s">
+    <row r="82" spans="3:8">
+      <c r="C82" s="146" t="s">
         <v>208</v>
       </c>
-      <c r="D79">
+      <c r="D82">
         <v>5.54</v>
       </c>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="28">
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="28">
         <v>-5600</v>
       </c>
-      <c r="H79" s="29">
-        <f>E79-G79+H78</f>
+      <c r="H82" s="29">
+        <f>E82-G82+H81</f>
         <v>-28869.416624446778</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="C80" s="145" t="s">
-        <v>361</v>
-      </c>
-      <c r="E80" s="60">
-        <f>E78+(E78*D79/100)</f>
-        <v>17002.098554614084</v>
-      </c>
-      <c r="F80" s="60"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="29">
-        <f>E80-G80+H79</f>
-        <v>-11867.318069832694</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8">
-      <c r="C81" s="145" t="s">
-        <v>279</v>
-      </c>
-      <c r="E81" s="60">
-        <f>E80+(E80*D80/100)</f>
-        <v>17002.098554614084</v>
-      </c>
-      <c r="F81" s="60"/>
-      <c r="H81" s="29">
-        <f t="shared" si="8"/>
-        <v>5134.7804847813895</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8">
-      <c r="C82" s="145" t="s">
-        <v>280</v>
-      </c>
-      <c r="E82" s="60">
-        <f t="shared" ref="E82:E87" si="11">E81+(E81*D81/100)</f>
-        <v>17002.098554614084</v>
-      </c>
-      <c r="F82" s="60"/>
-      <c r="H82" s="29">
-        <f t="shared" si="8"/>
-        <v>22136.879039395473</v>
       </c>
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="145" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="E83" s="60">
-        <f t="shared" si="11"/>
+        <f>E81+(E81*D82/100)</f>
         <v>17002.098554614084</v>
       </c>
       <c r="F83" s="60"/>
+      <c r="G83" s="28"/>
       <c r="H83" s="29">
-        <f t="shared" si="8"/>
-        <v>39138.977594009557</v>
+        <f>E83-G83+H82</f>
+        <v>-11867.318069832694</v>
       </c>
     </row>
     <row r="84" spans="3:8">
       <c r="C84" s="145" t="s">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="E84" s="60">
-        <f t="shared" si="11"/>
+        <f>E83+(E83*D83/100)</f>
         <v>17002.098554614084</v>
       </c>
       <c r="F84" s="60"/>
       <c r="H84" s="29">
-        <f t="shared" si="8"/>
-        <v>56141.076148623644</v>
+        <f t="shared" si="7"/>
+        <v>5134.7804847813895</v>
       </c>
     </row>
     <row r="85" spans="3:8">
       <c r="C85" s="145" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="E85" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E85:E90" si="10">E84+(E84*D84/100)</f>
         <v>17002.098554614084</v>
       </c>
       <c r="F85" s="60"/>
       <c r="H85" s="29">
-        <f t="shared" si="8"/>
-        <v>73143.174703237732</v>
+        <f t="shared" si="7"/>
+        <v>22136.879039395473</v>
       </c>
     </row>
     <row r="86" spans="3:8">
       <c r="C86" s="145" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="E86" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F86" s="60"/>
       <c r="H86" s="29">
-        <f t="shared" si="8"/>
-        <v>90145.273257851819</v>
+        <f t="shared" si="7"/>
+        <v>39138.977594009557</v>
       </c>
     </row>
     <row r="87" spans="3:8">
       <c r="C87" s="145" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="E87" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F87" s="60"/>
       <c r="H87" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
+        <v>56141.076148623644</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8">
+      <c r="C88" s="145" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" s="60">
+        <f t="shared" si="10"/>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="F88" s="60"/>
+      <c r="H88" s="29">
+        <f t="shared" si="7"/>
+        <v>73143.174703237732</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8">
+      <c r="C89" s="145" t="s">
+        <v>264</v>
+      </c>
+      <c r="E89" s="60">
+        <f t="shared" si="10"/>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="F89" s="60"/>
+      <c r="H89" s="29">
+        <f t="shared" si="7"/>
+        <v>90145.273257851819</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8">
+      <c r="C90" s="145" t="s">
+        <v>265</v>
+      </c>
+      <c r="E90" s="60">
+        <f t="shared" si="10"/>
+        <v>17002.098554614084</v>
+      </c>
+      <c r="F90" s="60"/>
+      <c r="H90" s="29">
+        <f t="shared" si="7"/>
         <v>107147.37181246591</v>
       </c>
     </row>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\xaagitme\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B3464F-71D7-4119-B04B-F0E9A98482A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245CFC5A-EA06-4FFA-B445-D95CB26B8554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="912" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,23 @@
     <sheet name="SnH_yazıhane" sheetId="8" r:id="rId11"/>
     <sheet name="NAZAN" sheetId="16" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="464">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1488,6 +1499,9 @@
   </si>
   <si>
     <t>boya masrafı</t>
+  </si>
+  <si>
+    <t>snyF-icradan</t>
   </si>
 </sst>
 </file>
@@ -4738,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4811,14 +4825,14 @@
       </c>
       <c r="H6" s="122">
         <f>H23*-1</f>
-        <v>102076.79999999999</v>
+        <v>137356.79999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="D7" s="95"/>
       <c r="H7" s="122">
         <f>H6+H5</f>
-        <v>223107.56</v>
+        <v>258387.56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4830,7 +4844,7 @@
       </c>
       <c r="D8" s="90">
         <f>H7-C8</f>
-        <v>213107.56</v>
+        <v>248387.56</v>
       </c>
       <c r="E8" s="124">
         <v>10000</v>
@@ -4841,7 +4855,7 @@
       </c>
       <c r="H8" s="126">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
-        <v>213107.56</v>
+        <v>248387.56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4853,7 +4867,7 @@
       </c>
       <c r="D9" s="90">
         <f t="shared" ref="D9:D19" si="1">D8-C9</f>
-        <v>203107.56</v>
+        <v>238387.56</v>
       </c>
       <c r="E9" s="124">
         <v>10000</v>
@@ -4864,7 +4878,7 @@
       </c>
       <c r="H9" s="90">
         <f t="shared" si="0"/>
-        <v>203107.56</v>
+        <v>238387.56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4876,7 +4890,7 @@
       </c>
       <c r="D10" s="90">
         <f t="shared" si="1"/>
-        <v>193107.56</v>
+        <v>228387.56</v>
       </c>
       <c r="E10" s="124">
         <v>10000</v>
@@ -4887,7 +4901,7 @@
       </c>
       <c r="H10" s="90">
         <f t="shared" si="0"/>
-        <v>193107.56</v>
+        <v>228387.56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4899,7 +4913,7 @@
       </c>
       <c r="D11" s="90">
         <f t="shared" si="1"/>
-        <v>183107.56</v>
+        <v>218387.56</v>
       </c>
       <c r="E11" s="124">
         <v>10000</v>
@@ -4910,7 +4924,7 @@
       </c>
       <c r="H11" s="90">
         <f t="shared" si="0"/>
-        <v>183107.56</v>
+        <v>218387.56</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4922,7 +4936,7 @@
       </c>
       <c r="D12" s="90">
         <f t="shared" si="1"/>
-        <v>173107.56</v>
+        <v>208387.56</v>
       </c>
       <c r="E12" s="124">
         <v>10000</v>
@@ -4933,7 +4947,7 @@
       </c>
       <c r="H12" s="90">
         <f t="shared" si="0"/>
-        <v>173107.56</v>
+        <v>208387.56</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4945,7 +4959,7 @@
       </c>
       <c r="D13" s="90">
         <f t="shared" si="1"/>
-        <v>163107.56</v>
+        <v>198387.56</v>
       </c>
       <c r="E13" s="124">
         <v>10000</v>
@@ -4955,7 +4969,7 @@
       </c>
       <c r="H13" s="90">
         <f t="shared" si="0"/>
-        <v>163107.56</v>
+        <v>198387.56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4967,7 +4981,7 @@
       </c>
       <c r="D14" s="90">
         <f t="shared" si="1"/>
-        <v>153107.56</v>
+        <v>188387.56</v>
       </c>
       <c r="E14" s="124">
         <v>10000</v>
@@ -4977,7 +4991,7 @@
       </c>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
-        <v>153107.56</v>
+        <v>188387.56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4989,14 +5003,14 @@
       </c>
       <c r="D15" s="90">
         <f t="shared" si="1"/>
-        <v>143107.56</v>
+        <v>178387.56</v>
       </c>
       <c r="F15" t="s">
         <v>458</v>
       </c>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
-        <v>153107.56</v>
+        <v>188387.56</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5008,14 +5022,14 @@
       </c>
       <c r="D16" s="90">
         <f t="shared" si="1"/>
-        <v>133107.56</v>
+        <v>168387.56</v>
       </c>
       <c r="F16" t="s">
         <v>458</v>
       </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
-        <v>153107.56</v>
+        <v>188387.56</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5027,33 +5041,33 @@
       </c>
       <c r="D17" s="90">
         <f t="shared" si="1"/>
-        <v>123107.56</v>
+        <v>158387.56</v>
       </c>
       <c r="F17" t="s">
         <v>458</v>
       </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
-        <v>153107.56</v>
+        <v>188387.56</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="123">
-        <v>45597</v>
+        <v>45623</v>
       </c>
       <c r="C18" s="94">
         <v>10000</v>
       </c>
       <c r="D18" s="90">
         <f t="shared" si="1"/>
-        <v>113107.56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>458</v>
+        <v>148387.56</v>
+      </c>
+      <c r="E18" s="124">
+        <v>40000</v>
       </c>
       <c r="H18" s="90">
         <f t="shared" si="0"/>
-        <v>153107.56</v>
+        <v>148387.56</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5065,11 +5079,11 @@
       </c>
       <c r="D19" s="90">
         <f t="shared" si="1"/>
-        <v>102076.8</v>
+        <v>137356.79999999999</v>
       </c>
       <c r="H19" s="90">
         <f t="shared" si="0"/>
-        <v>153107.56</v>
+        <v>148387.56</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5124,24 +5138,24 @@
       </c>
       <c r="C23" s="118">
         <f>SUBTOTAL(109,C24:C38)</f>
-        <v>611000</v>
+        <v>591000</v>
       </c>
       <c r="D23" s="118">
         <f>SUBTOTAL(109,D24:D38)</f>
-        <v>434000</v>
+        <v>584000</v>
       </c>
       <c r="E23" s="118">
         <f>SUM(E24:E38)</f>
-        <v>-41630.399999999994</v>
+        <v>-1646.3999999999999</v>
       </c>
       <c r="F23" s="117"/>
       <c r="G23" s="118">
         <f>SUBTOTAL(109,$G$24:$G$38)</f>
-        <v>-102076.79999999999</v>
+        <v>-137356.79999999996</v>
       </c>
       <c r="H23" s="118">
         <f>H24</f>
-        <v>-102076.79999999999</v>
+        <v>-137356.79999999999</v>
       </c>
       <c r="J23" s="98"/>
     </row>
@@ -5169,7 +5183,7 @@
       </c>
       <c r="H24" s="95">
         <f t="shared" ref="H24:H37" si="5">H25+G24</f>
-        <v>-102076.79999999999</v>
+        <v>-137356.79999999999</v>
       </c>
       <c r="J24" s="98"/>
     </row>
@@ -5194,7 +5208,7 @@
       </c>
       <c r="H25" s="95">
         <f t="shared" si="5"/>
-        <v>-102076.79999999999</v>
+        <v>-137356.79999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5218,7 +5232,7 @@
       </c>
       <c r="H26" s="95">
         <f t="shared" si="5"/>
-        <v>-102076.79999999999</v>
+        <v>-137356.79999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5242,31 +5256,37 @@
       </c>
       <c r="H27" s="95">
         <f t="shared" si="5"/>
-        <v>-102076.79999999999</v>
+        <v>-137356.79999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="132"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="134"/>
+      <c r="A28" s="132">
+        <v>45607</v>
+      </c>
+      <c r="B28" s="179" t="s">
+        <v>463</v>
+      </c>
+      <c r="C28" s="134">
+        <v>150000</v>
+      </c>
       <c r="D28" s="100">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="E28" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F28" s="97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="100">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-35279.999999999993</v>
       </c>
       <c r="H28" s="95">
         <f t="shared" si="5"/>
-        <v>-102076.79999999999</v>
+        <v>-137356.79999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5544,16 +5564,14 @@
       <c r="B38" s="177" t="s">
         <v>254</v>
       </c>
-      <c r="C38" s="178">
-        <v>170000</v>
-      </c>
+      <c r="C38" s="178"/>
       <c r="D38" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E38" s="101">
         <f t="shared" si="3"/>
-        <v>-39983.999999999993</v>
+        <v>0</v>
       </c>
       <c r="F38" s="105">
         <v>0</v>
@@ -5611,15 +5629,15 @@
       </c>
       <c r="C43" s="109">
         <f>$D$23*C42</f>
-        <v>434000</v>
+        <v>584000</v>
       </c>
       <c r="D43" s="110">
         <f>$D$23*D42</f>
-        <v>331923.20000000001</v>
+        <v>446643.20000000001</v>
       </c>
       <c r="E43" s="110">
         <f>$D$23*E42</f>
-        <v>102076.79999999999</v>
+        <v>137356.79999999999</v>
       </c>
       <c r="H43" s="95"/>
     </row>
@@ -5629,15 +5647,15 @@
       </c>
       <c r="C44" s="100">
         <f>D44+E44</f>
-        <v>434000</v>
+        <v>584000</v>
       </c>
       <c r="D44" s="95">
         <f>C43-E44</f>
-        <v>331923.20000000001</v>
+        <v>446643.20000000001</v>
       </c>
       <c r="E44" s="95">
         <f>$H$23*-1</f>
-        <v>102076.79999999999</v>
+        <v>137356.79999999999</v>
       </c>
       <c r="G44" s="111"/>
       <c r="H44" s="95"/>
@@ -5702,14 +5720,14 @@
       </c>
       <c r="C50" s="95">
         <f>D44</f>
-        <v>331923.20000000001</v>
+        <v>446643.20000000001</v>
       </c>
       <c r="D50" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E50" s="95">
         <f>C50*D50</f>
-        <v>8298.08</v>
+        <v>11166.080000000002</v>
       </c>
       <c r="H50" s="95"/>
     </row>
@@ -14474,7 +14492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
   <dimension ref="B4:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245CFC5A-EA06-4FFA-B445-D95CB26B8554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6794E65E-654F-49EA-BC11-00C6C6C5E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="912" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -26,18 +26,7 @@
     <sheet name="SnH_yazıhane" sheetId="8" r:id="rId11"/>
     <sheet name="NAZAN" sheetId="16" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1529,12 +1518,20 @@
     <numFmt numFmtId="181" formatCode="[$-409]#,##0.00"/>
     <numFmt numFmtId="182" formatCode="[$-41F]#,##0.00"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="57">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans1"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1915,6 +1912,18 @@
       <name val="Abyssinica SIL"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -2146,7 +2155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2340,246 +2349,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="20" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="21" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="40" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="32" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="40" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="27" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="28" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="40" fontId="34" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="35" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="35" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="36" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="3" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2594,13 +2616,13 @@
     <xf numFmtId="175" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="40" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="32" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="33" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="19" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
@@ -2609,175 +2631,177 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="40" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="42" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="41" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="43" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="40" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="37" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="175" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="40" fontId="36" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="2" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="40" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="36" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="36" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="36" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="47" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="47" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="37" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="3" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="3" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="37" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="37" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="37" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="48" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="48" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="47" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="48" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="19" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="19" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="16" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="50" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="50" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="50" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="50" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="49" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="50" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="47" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="48" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="55" fillId="0" borderId="19" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="55" fillId="0" borderId="19" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="22">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2793,6 +2817,8 @@
     <cellStyle name="Hyperlink" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Neutral" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="21" xr:uid="{0C4B450B-2E42-45E7-88E9-149834F883CB}"/>
+    <cellStyle name="Normal 3" xfId="20" xr:uid="{987A8240-C803-4F59-AF25-39925FA1612F}"/>
     <cellStyle name="Note" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Result" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Status" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
@@ -4752,7 +4778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -7754,7 +7780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -9174,7 +9200,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -9185,8 +9211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1C87F-6CBB-48CF-9073-716B69FD2C1F}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9197,7 +9223,7 @@
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
@@ -9232,7 +9258,7 @@
       <c r="E3" s="213"/>
       <c r="F3" s="214">
         <f>SUM(F8:F51)</f>
-        <v>355853.14073210838</v>
+        <v>391125.38304173289</v>
       </c>
       <c r="G3" s="214">
         <f>SUM(G8:G51)</f>
@@ -9240,7 +9266,7 @@
       </c>
       <c r="H3" s="215">
         <f>F3-G3</f>
-        <v>220853.14073210838</v>
+        <v>256125.38304173289</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
@@ -9291,7 +9317,7 @@
       <c r="G6" s="205"/>
       <c r="H6" s="205">
         <f t="shared" ref="H6:H37" si="0">H7+F6-G6</f>
-        <v>220853.14073210832</v>
+        <v>256125.38304173292</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9304,7 +9330,7 @@
       <c r="G7" s="205"/>
       <c r="H7" s="205">
         <f t="shared" si="0"/>
-        <v>220853.14073210832</v>
+        <v>256125.38304173292</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9321,15 +9347,18 @@
         <f>(C8/C10)-1</f>
         <v>3.4482758620689724E-2</v>
       </c>
-      <c r="E8" s="224"/>
+      <c r="E8" s="224">
+        <f>C8</f>
+        <v>3000</v>
+      </c>
       <c r="F8" s="204">
         <f>H9*D8</f>
-        <v>7361.7713577369586</v>
+        <v>8537.5127680577807</v>
       </c>
       <c r="G8" s="205"/>
       <c r="H8" s="205">
         <f t="shared" ref="H8:H9" si="1">H9+F8-G8</f>
-        <v>220853.14073210832</v>
+        <v>256125.38304173292</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9342,12 +9371,12 @@
       <c r="E9" s="203"/>
       <c r="F9" s="204">
         <f>F11+E10</f>
-        <v>34000</v>
+        <v>36900</v>
       </c>
       <c r="G9" s="205"/>
       <c r="H9" s="205">
         <f t="shared" si="1"/>
-        <v>213491.36937437137</v>
+        <v>247587.87027367513</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9364,15 +9393,18 @@
         <f>(C10/C12)-1</f>
         <v>3.5714285714285809E-2</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="224">
+        <f>C10</f>
+        <v>2900</v>
+      </c>
       <c r="F10" s="204">
         <f>H11*D10</f>
-        <v>6189.3575646335112</v>
+        <v>7265.0989749543332</v>
       </c>
       <c r="G10" s="205"/>
       <c r="H10" s="205">
         <f t="shared" ref="H10:H11" si="2">H11+F10-G10</f>
-        <v>179491.36937437137</v>
+        <v>210687.87027367513</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9389,7 +9421,7 @@
       <c r="G11" s="205"/>
       <c r="H11" s="205">
         <f t="shared" si="2"/>
-        <v>173302.01180973786</v>
+        <v>203422.77129872079</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9404,17 +9436,20 @@
       </c>
       <c r="D12" s="202">
         <f>(C12/C14)-1</f>
-        <v>3.7037037037036979E-2</v>
-      </c>
-      <c r="E12" s="224"/>
+        <v>5.372888308501711E-2</v>
+      </c>
+      <c r="E12" s="224">
+        <f>C12</f>
+        <v>2800</v>
+      </c>
       <c r="F12" s="204">
         <f>H13*D12</f>
-        <v>4975.0718503477738</v>
+        <v>8638.7460922565606</v>
       </c>
       <c r="G12" s="205"/>
       <c r="H12" s="205">
         <f t="shared" ref="H12:H13" si="3">H13+F12-G12</f>
-        <v>139302.01180973786</v>
+        <v>169422.77129872079</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9431,32 +9466,35 @@
       <c r="G13" s="205"/>
       <c r="H13" s="205">
         <f t="shared" si="3"/>
-        <v>134326.93995939009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>160784.02520646423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" thickBot="1">
       <c r="A14" s="199">
         <v>45595</v>
       </c>
       <c r="B14" s="223" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="201">
-        <v>2700</v>
+      <c r="C14" s="229">
+        <v>2657.23</v>
       </c>
       <c r="D14" s="202">
         <f>(C14/C16)-1</f>
-        <v>3.8461538461538547E-2</v>
-      </c>
-      <c r="E14" s="224"/>
+        <v>2.2440176843369075E-2</v>
+      </c>
+      <c r="E14" s="224">
+        <f>C14</f>
+        <v>2657.23</v>
+      </c>
       <c r="F14" s="204">
         <f>H15*D14</f>
-        <v>4234.3311096070502</v>
+        <v>3089.8809474682425</v>
       </c>
       <c r="G14" s="205"/>
       <c r="H14" s="205">
         <f t="shared" ref="H14:H15" si="4">H15+F14-G14</f>
-        <v>114326.9399593901</v>
+        <v>140784.02520646423</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9473,32 +9511,35 @@
       <c r="G15" s="205"/>
       <c r="H15" s="205">
         <f t="shared" si="4"/>
-        <v>110092.60884978305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>137694.14425899598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="A16" s="199">
         <v>45595</v>
       </c>
       <c r="B16" s="223" t="s">
         <v>424</v>
       </c>
-      <c r="C16" s="201">
-        <v>2600</v>
+      <c r="C16" s="228">
+        <v>2598.91</v>
       </c>
       <c r="D16" s="202">
         <f>(C16/C18)-1</f>
-        <v>2.923013585837797E-2</v>
-      </c>
-      <c r="E16" s="224"/>
+        <v>2.8798650916806556E-2</v>
+      </c>
+      <c r="E16" s="224">
+        <f>F17*D16</f>
+        <v>722.77594190279012</v>
+      </c>
       <c r="F16" s="204">
         <f>H17*D16</f>
-        <v>2925.5495713338419</v>
+        <v>3656.2086297109036</v>
       </c>
       <c r="G16" s="205"/>
       <c r="H16" s="205">
         <f t="shared" si="0"/>
-        <v>103012.30884978305</v>
+        <v>130613.84425899599</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9511,12 +9552,12 @@
       <c r="E17" s="203"/>
       <c r="F17" s="204">
         <f>F19+E18</f>
-        <v>20000</v>
+        <v>25097.562520923038</v>
       </c>
       <c r="G17" s="205"/>
       <c r="H17" s="205">
         <f t="shared" si="0"/>
-        <v>100086.7592784492</v>
+        <v>126957.63562928508</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9533,15 +9574,18 @@
         <f>(C18/C20)-1</f>
         <v>2.9681984559824404E-2</v>
       </c>
-      <c r="E18" s="224"/>
+      <c r="E18" s="224">
+        <f>F19*D18</f>
+        <v>723.47139641733145</v>
+      </c>
       <c r="F18" s="204">
         <f>IF(H19&lt;=0,,(H19*D18))</f>
-        <v>2308.6098309911645</v>
+        <v>2936.2552347241999</v>
       </c>
       <c r="G18" s="205"/>
       <c r="H18" s="205">
         <f t="shared" si="0"/>
-        <v>80086.759278449201</v>
+        <v>101860.07310836205</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9554,12 +9598,12 @@
       <c r="E19" s="203"/>
       <c r="F19" s="204">
         <f>F21+E20</f>
-        <v>20000</v>
+        <v>24374.091124505707</v>
       </c>
       <c r="G19" s="205"/>
       <c r="H19" s="205">
         <f t="shared" si="0"/>
-        <v>77778.14944745804</v>
+        <v>98923.817873637847</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9576,15 +9620,18 @@
         <f>(C20/C22)-1</f>
         <v>2.4744162733386421E-2</v>
       </c>
-      <c r="E20" s="224"/>
+      <c r="E20" s="224">
+        <f>F21*D20</f>
+        <v>588.55322059548553</v>
+      </c>
       <c r="F20" s="204">
         <f>IF(H21&lt;=0,,(H21*D20))</f>
-        <v>1395.1501109782737</v>
+        <v>1800.1279124045666</v>
       </c>
       <c r="G20" s="205"/>
       <c r="H20" s="205">
         <f t="shared" si="0"/>
-        <v>57778.149447458032</v>
+        <v>74549.72674913214</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9597,12 +9644,12 @@
       <c r="E21" s="203"/>
       <c r="F21" s="204">
         <f>F23+E22</f>
-        <v>20000</v>
+        <v>23785.537903910223</v>
       </c>
       <c r="G21" s="205"/>
       <c r="H21" s="205">
         <f t="shared" si="0"/>
-        <v>56382.999336479756</v>
+        <v>72749.598836727571</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9619,15 +9666,18 @@
         <f>(C22/C24)-1</f>
         <v>3.2255560969089547E-2</v>
       </c>
-      <c r="E22" s="224"/>
+      <c r="E22" s="224">
+        <f>F23*D22</f>
+        <v>743.24217475941555</v>
+      </c>
       <c r="F22" s="204">
         <f>IF(H23&lt;=0,,(H23*D22))</f>
-        <v>1136.8832464650766</v>
+        <v>1530.0118618203296</v>
       </c>
       <c r="G22" s="205"/>
       <c r="H22" s="205">
         <f t="shared" si="0"/>
-        <v>36382.999336479756</v>
+        <v>48964.060932817345</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9640,12 +9690,12 @@
       <c r="E23" s="203"/>
       <c r="F23" s="204">
         <f>F25+E24</f>
-        <v>20000</v>
+        <v>23042.295729150806</v>
       </c>
       <c r="G23" s="205"/>
       <c r="H23" s="205">
         <f t="shared" si="0"/>
-        <v>35246.116090014679</v>
+        <v>47434.049070997018</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9662,15 +9712,18 @@
         <f>(C24/C26)-1</f>
         <v>1.6407739334312055E-2</v>
       </c>
-      <c r="E24" s="224"/>
+      <c r="E24" s="224">
+        <f>F25*D24</f>
+        <v>371.96881463698173</v>
+      </c>
       <c r="F24" s="204">
         <f>IF(H25&lt;=0,,(H25*D24))</f>
-        <v>246.11609001468082</v>
+        <v>393.75293521669187</v>
       </c>
       <c r="G24" s="205"/>
       <c r="H24" s="205">
         <f t="shared" si="0"/>
-        <v>15246.116090014681</v>
+        <v>24391.753341846212</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9683,12 +9736,12 @@
       <c r="E25" s="203"/>
       <c r="F25" s="204">
         <f>F27+E26</f>
-        <v>20000</v>
+        <v>22670.326914513826</v>
       </c>
       <c r="G25" s="205"/>
       <c r="H25" s="205">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>23998.000406629519</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9705,15 +9758,18 @@
         <f>(C26/C28)-1</f>
         <v>3.3680634201585402E-2</v>
       </c>
-      <c r="E26" s="224"/>
+      <c r="E26" s="224">
+        <f>F27*D26</f>
+        <v>738.67204509240219</v>
+      </c>
       <c r="F26" s="204">
         <f>IF(H27&lt;=0,,(H27*D26))</f>
-        <v>0</v>
+        <v>43.259865520871898</v>
       </c>
       <c r="G26" s="205"/>
       <c r="H26" s="205">
         <f t="shared" si="0"/>
-        <v>-5000</v>
+        <v>1327.6734921156938</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9723,15 +9779,15 @@
       </c>
       <c r="C27" s="201"/>
       <c r="D27" s="202"/>
-      <c r="E27" s="203"/>
+      <c r="E27" s="201"/>
       <c r="F27" s="204">
         <f>F29+E28</f>
-        <v>20000</v>
+        <v>21931.654869421422</v>
       </c>
       <c r="G27" s="205"/>
       <c r="H27" s="205">
         <f t="shared" si="0"/>
-        <v>-5000</v>
+        <v>1284.4136265948218</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9748,7 +9804,10 @@
         <f>(C28/C30)-1</f>
         <v>3.1797594731405532E-2</v>
       </c>
-      <c r="E28" s="224"/>
+      <c r="E28" s="224">
+        <f>F29*D28</f>
+        <v>675.88243749342848</v>
+      </c>
       <c r="F28" s="204">
         <f>IF(H29&lt;=0,,(H29*D28))</f>
         <v>0</v>
@@ -9756,7 +9815,7 @@
       <c r="G28" s="205"/>
       <c r="H28" s="205">
         <f t="shared" si="0"/>
-        <v>-25000</v>
+        <v>-20647.2412428266</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9769,12 +9828,12 @@
       <c r="E29" s="203"/>
       <c r="F29" s="204">
         <f>F31+E30</f>
-        <v>20000</v>
+        <v>21255.772431927991</v>
       </c>
       <c r="G29" s="205"/>
       <c r="H29" s="205">
         <f t="shared" si="0"/>
-        <v>-25000</v>
+        <v>-20647.2412428266</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9799,7 +9858,7 @@
       <c r="G30" s="205"/>
       <c r="H30" s="205">
         <f t="shared" si="0"/>
-        <v>-45000</v>
+        <v>-41903.013674754591</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9812,12 +9871,12 @@
       <c r="E31" s="203"/>
       <c r="F31" s="204">
         <f>F33+E32</f>
-        <v>20000</v>
+        <v>21255.772431927991</v>
       </c>
       <c r="G31" s="205"/>
       <c r="H31" s="205">
         <f t="shared" si="0"/>
-        <v>-45000</v>
+        <v>-41903.013674754591</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9842,7 +9901,7 @@
       <c r="G32" s="205"/>
       <c r="H32" s="205">
         <f t="shared" si="0"/>
-        <v>-65000</v>
+        <v>-63158.786106682586</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9855,12 +9914,12 @@
       <c r="E33" s="203"/>
       <c r="F33" s="204">
         <f>F36+E34</f>
-        <v>20000</v>
+        <v>21255.772431927991</v>
       </c>
       <c r="G33" s="205"/>
       <c r="H33" s="205">
         <f t="shared" si="0"/>
-        <v>-65000</v>
+        <v>-63158.786106682586</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9877,7 +9936,10 @@
         <f>(C34/C37)-1</f>
         <v>6.7033097053856627E-2</v>
       </c>
-      <c r="E34" s="224"/>
+      <c r="E34" s="224">
+        <f>F35*D34</f>
+        <v>670.33097053856625</v>
+      </c>
       <c r="F34" s="204">
         <f>IF(H35&lt;=0,,(H35*D34))</f>
         <v>0</v>
@@ -9885,7 +9947,7 @@
       <c r="G34" s="205"/>
       <c r="H34" s="205">
         <f t="shared" si="0"/>
-        <v>-85000</v>
+        <v>-84414.558538610581</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9902,7 +9964,7 @@
       <c r="G35" s="205"/>
       <c r="H35" s="205">
         <f t="shared" si="0"/>
-        <v>-85000</v>
+        <v>-84414.558538610581</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9914,12 +9976,12 @@
       <c r="D36" s="202"/>
       <c r="F36" s="204">
         <f>F38+E37</f>
-        <v>20000</v>
+        <v>20585.441461389426</v>
       </c>
       <c r="G36" s="205"/>
       <c r="H36" s="205">
         <f t="shared" si="0"/>
-        <v>-95000</v>
+        <v>-94414.558538610581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -9936,7 +9998,10 @@
         <f>(C37/C40)-1</f>
         <v>2.9272073069471327E-2</v>
       </c>
-      <c r="E37" s="224"/>
+      <c r="E37" s="224">
+        <f>F38*D37</f>
+        <v>585.44146138942654</v>
+      </c>
       <c r="F37" s="204">
         <f>IF(H38&lt;=0,,(H38*D37))</f>
         <v>0</v>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6794E65E-654F-49EA-BC11-00C6C6C5E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E60C09-02F6-4C1E-BCCA-485B9172265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="912" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,23 @@
     <sheet name="SnH_yazıhane" sheetId="8" r:id="rId11"/>
     <sheet name="NAZAN" sheetId="16" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="465">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1491,6 +1502,9 @@
   </si>
   <si>
     <t>snyF-icradan</t>
+  </si>
+  <si>
+    <t>snyCD-işbank</t>
   </si>
 </sst>
 </file>
@@ -4778,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4851,14 +4865,14 @@
       </c>
       <c r="H6" s="122">
         <f>H23*-1</f>
-        <v>137356.79999999999</v>
+        <v>188512.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="D7" s="95"/>
       <c r="H7" s="122">
         <f>H6+H5</f>
-        <v>258387.56</v>
+        <v>309543.56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4870,7 +4884,7 @@
       </c>
       <c r="D8" s="90">
         <f>H7-C8</f>
-        <v>248387.56</v>
+        <v>299543.56</v>
       </c>
       <c r="E8" s="124">
         <v>10000</v>
@@ -4881,7 +4895,7 @@
       </c>
       <c r="H8" s="126">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
-        <v>248387.56</v>
+        <v>299543.56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4893,7 +4907,7 @@
       </c>
       <c r="D9" s="90">
         <f t="shared" ref="D9:D19" si="1">D8-C9</f>
-        <v>238387.56</v>
+        <v>289543.56</v>
       </c>
       <c r="E9" s="124">
         <v>10000</v>
@@ -4904,7 +4918,7 @@
       </c>
       <c r="H9" s="90">
         <f t="shared" si="0"/>
-        <v>238387.56</v>
+        <v>289543.56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4916,7 +4930,7 @@
       </c>
       <c r="D10" s="90">
         <f t="shared" si="1"/>
-        <v>228387.56</v>
+        <v>279543.56</v>
       </c>
       <c r="E10" s="124">
         <v>10000</v>
@@ -4927,7 +4941,7 @@
       </c>
       <c r="H10" s="90">
         <f t="shared" si="0"/>
-        <v>228387.56</v>
+        <v>279543.56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4939,7 +4953,7 @@
       </c>
       <c r="D11" s="90">
         <f t="shared" si="1"/>
-        <v>218387.56</v>
+        <v>269543.56</v>
       </c>
       <c r="E11" s="124">
         <v>10000</v>
@@ -4950,7 +4964,7 @@
       </c>
       <c r="H11" s="90">
         <f t="shared" si="0"/>
-        <v>218387.56</v>
+        <v>269543.56</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4962,7 +4976,7 @@
       </c>
       <c r="D12" s="90">
         <f t="shared" si="1"/>
-        <v>208387.56</v>
+        <v>259543.56</v>
       </c>
       <c r="E12" s="124">
         <v>10000</v>
@@ -4973,7 +4987,7 @@
       </c>
       <c r="H12" s="90">
         <f t="shared" si="0"/>
-        <v>208387.56</v>
+        <v>259543.56</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4985,7 +4999,7 @@
       </c>
       <c r="D13" s="90">
         <f t="shared" si="1"/>
-        <v>198387.56</v>
+        <v>249543.56</v>
       </c>
       <c r="E13" s="124">
         <v>10000</v>
@@ -4995,7 +5009,7 @@
       </c>
       <c r="H13" s="90">
         <f t="shared" si="0"/>
-        <v>198387.56</v>
+        <v>249543.56</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5007,7 +5021,7 @@
       </c>
       <c r="D14" s="90">
         <f t="shared" si="1"/>
-        <v>188387.56</v>
+        <v>239543.56</v>
       </c>
       <c r="E14" s="124">
         <v>10000</v>
@@ -5017,7 +5031,7 @@
       </c>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
-        <v>188387.56</v>
+        <v>239543.56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5029,14 +5043,14 @@
       </c>
       <c r="D15" s="90">
         <f t="shared" si="1"/>
-        <v>178387.56</v>
+        <v>229543.56</v>
       </c>
       <c r="F15" t="s">
         <v>458</v>
       </c>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
-        <v>188387.56</v>
+        <v>239543.56</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5048,14 +5062,14 @@
       </c>
       <c r="D16" s="90">
         <f t="shared" si="1"/>
-        <v>168387.56</v>
+        <v>219543.56</v>
       </c>
       <c r="F16" t="s">
         <v>458</v>
       </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
-        <v>188387.56</v>
+        <v>239543.56</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5067,49 +5081,58 @@
       </c>
       <c r="D17" s="90">
         <f t="shared" si="1"/>
-        <v>158387.56</v>
+        <v>209543.56</v>
       </c>
       <c r="F17" t="s">
         <v>458</v>
       </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
-        <v>188387.56</v>
+        <v>239543.56</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="123">
         <v>45623</v>
       </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
       <c r="C18" s="94">
         <v>10000</v>
       </c>
       <c r="D18" s="90">
         <f t="shared" si="1"/>
-        <v>148387.56</v>
+        <v>199543.56</v>
       </c>
       <c r="E18" s="124">
         <v>40000</v>
       </c>
       <c r="H18" s="90">
         <f t="shared" si="0"/>
-        <v>148387.56</v>
+        <v>199543.56</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="123">
         <v>45627</v>
       </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
       <c r="C19" s="94">
         <v>11030.76</v>
       </c>
       <c r="D19" s="90">
         <f t="shared" si="1"/>
-        <v>137356.79999999999</v>
+        <v>188512.8</v>
+      </c>
+      <c r="E19" s="124">
+        <v>60000</v>
       </c>
       <c r="H19" s="90">
         <f t="shared" si="0"/>
-        <v>148387.56</v>
+        <v>139543.56</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5164,11 +5187,11 @@
       </c>
       <c r="C23" s="118">
         <f>SUBTOTAL(109,C24:C38)</f>
-        <v>591000</v>
+        <v>808500</v>
       </c>
       <c r="D23" s="118">
         <f>SUBTOTAL(109,D24:D38)</f>
-        <v>584000</v>
+        <v>801500</v>
       </c>
       <c r="E23" s="118">
         <f>SUM(E24:E38)</f>
@@ -5177,11 +5200,11 @@
       <c r="F23" s="117"/>
       <c r="G23" s="118">
         <f>SUBTOTAL(109,$G$24:$G$38)</f>
-        <v>-137356.79999999996</v>
+        <v>-188512.8</v>
       </c>
       <c r="H23" s="118">
         <f>H24</f>
-        <v>-137356.79999999999</v>
+        <v>-188512.8</v>
       </c>
       <c r="J23" s="98"/>
     </row>
@@ -5209,7 +5232,7 @@
       </c>
       <c r="H24" s="95">
         <f t="shared" ref="H24:H37" si="5">H25+G24</f>
-        <v>-137356.79999999999</v>
+        <v>-188512.8</v>
       </c>
       <c r="J24" s="98"/>
     </row>
@@ -5234,7 +5257,7 @@
       </c>
       <c r="H25" s="95">
         <f t="shared" si="5"/>
-        <v>-137356.79999999999</v>
+        <v>-188512.8</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5258,31 +5281,37 @@
       </c>
       <c r="H26" s="95">
         <f t="shared" si="5"/>
-        <v>-137356.79999999999</v>
+        <v>-188512.8</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="135"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
+      <c r="A27" s="135">
+        <v>45631</v>
+      </c>
+      <c r="B27" s="136" t="s">
+        <v>464</v>
+      </c>
+      <c r="C27" s="137">
+        <v>219000</v>
+      </c>
       <c r="D27" s="100">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>219000</v>
       </c>
       <c r="E27" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F27" s="97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="100">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-51508.799999999996</v>
       </c>
       <c r="H27" s="95">
         <f t="shared" si="5"/>
-        <v>-137356.79999999999</v>
+        <v>-188512.8</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5293,11 +5322,11 @@
         <v>463</v>
       </c>
       <c r="C28" s="134">
-        <v>150000</v>
+        <v>148500</v>
       </c>
       <c r="D28" s="100">
         <f t="shared" si="2"/>
-        <v>150000</v>
+        <v>148500</v>
       </c>
       <c r="E28" s="101">
         <f t="shared" si="3"/>
@@ -5308,11 +5337,11 @@
       </c>
       <c r="G28" s="100">
         <f t="shared" si="4"/>
-        <v>-35279.999999999993</v>
+        <v>-34927.199999999997</v>
       </c>
       <c r="H28" s="95">
         <f t="shared" si="5"/>
-        <v>-137356.79999999999</v>
+        <v>-137004</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5655,15 +5684,15 @@
       </c>
       <c r="C43" s="109">
         <f>$D$23*C42</f>
-        <v>584000</v>
+        <v>801500</v>
       </c>
       <c r="D43" s="110">
         <f>$D$23*D42</f>
-        <v>446643.20000000001</v>
+        <v>612987.20000000007</v>
       </c>
       <c r="E43" s="110">
         <f>$D$23*E42</f>
-        <v>137356.79999999999</v>
+        <v>188512.79999999996</v>
       </c>
       <c r="H43" s="95"/>
     </row>
@@ -5673,15 +5702,15 @@
       </c>
       <c r="C44" s="100">
         <f>D44+E44</f>
-        <v>584000</v>
+        <v>801500</v>
       </c>
       <c r="D44" s="95">
         <f>C43-E44</f>
-        <v>446643.20000000001</v>
+        <v>612987.19999999995</v>
       </c>
       <c r="E44" s="95">
         <f>$H$23*-1</f>
-        <v>137356.79999999999</v>
+        <v>188512.8</v>
       </c>
       <c r="G44" s="111"/>
       <c r="H44" s="95"/>
@@ -5746,14 +5775,14 @@
       </c>
       <c r="C50" s="95">
         <f>D44</f>
-        <v>446643.20000000001</v>
+        <v>612987.19999999995</v>
       </c>
       <c r="D50" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E50" s="95">
         <f>C50*D50</f>
-        <v>11166.080000000002</v>
+        <v>15324.68</v>
       </c>
       <c r="H50" s="95"/>
     </row>
@@ -7780,7 +7809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -9209,10 +9238,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1C87F-6CBB-48CF-9073-716B69FD2C1F}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9257,16 +9286,16 @@
       <c r="D3" s="202"/>
       <c r="E3" s="213"/>
       <c r="F3" s="214">
-        <f>SUM(F8:F51)</f>
-        <v>391125.38304173289</v>
+        <f>SUM(F8:F52)</f>
+        <v>375482.52589887567</v>
       </c>
       <c r="G3" s="214">
-        <f>SUM(G8:G51)</f>
-        <v>135000</v>
+        <f>SUM(G8:G52)</f>
+        <v>354000</v>
       </c>
       <c r="H3" s="215">
         <f>F3-G3</f>
-        <v>256125.38304173289</v>
+        <v>21482.525898875669</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
@@ -9316,8 +9345,8 @@
       <c r="F6" s="204"/>
       <c r="G6" s="205"/>
       <c r="H6" s="205">
-        <f t="shared" ref="H6:H37" si="0">H7+F6-G6</f>
-        <v>256125.38304173292</v>
+        <f t="shared" ref="H6:H38" si="0">H7+F6-G6</f>
+        <v>21482.525898875727</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9330,7 +9359,7 @@
       <c r="G7" s="205"/>
       <c r="H7" s="205">
         <f t="shared" si="0"/>
-        <v>256125.38304173292</v>
+        <v>21482.525898875727</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9353,12 +9382,12 @@
       </c>
       <c r="F8" s="204">
         <f>H9*D8</f>
-        <v>8537.5127680577807</v>
+        <v>716.08419662919232</v>
       </c>
       <c r="G8" s="205"/>
       <c r="H8" s="205">
-        <f t="shared" ref="H8:H9" si="1">H9+F8-G8</f>
-        <v>256125.38304173292</v>
+        <f t="shared" ref="H8:H25" si="1">H9+F8-G8</f>
+        <v>21482.525898875727</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9376,7 +9405,7 @@
       <c r="G9" s="205"/>
       <c r="H9" s="205">
         <f t="shared" si="1"/>
-        <v>247587.87027367513</v>
+        <v>20766.441702246535</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9390,7 +9419,7 @@
         <v>2900</v>
       </c>
       <c r="D10" s="202">
-        <f>(C10/C12)-1</f>
+        <f>(C10/C13)-1</f>
         <v>3.5714285714285809E-2</v>
       </c>
       <c r="E10" s="224">
@@ -9399,12 +9428,12 @@
       </c>
       <c r="F10" s="204">
         <f>H11*D10</f>
-        <v>7265.0989749543332</v>
+        <v>-556.32959647425889</v>
       </c>
       <c r="G10" s="205"/>
       <c r="H10" s="205">
-        <f t="shared" ref="H10:H11" si="2">H11+F10-G10</f>
-        <v>210687.87027367513</v>
+        <f t="shared" si="1"/>
+        <v>-16133.558297753467</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9420,415 +9449,412 @@
       </c>
       <c r="G11" s="205"/>
       <c r="H11" s="205">
-        <f t="shared" si="2"/>
-        <v>203422.77129872079</v>
+        <f t="shared" si="1"/>
+        <v>-15577.228701279208</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="199">
+      <c r="A12" s="199"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="205">
+        <v>219000</v>
+      </c>
+      <c r="H12" s="205">
+        <f t="shared" si="1"/>
+        <v>-49577.228701279208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="199">
         <v>45626</v>
       </c>
-      <c r="B12" s="223" t="s">
+      <c r="B13" s="223" t="s">
         <v>454</v>
       </c>
-      <c r="C12" s="201">
+      <c r="C13" s="201">
         <v>2800</v>
       </c>
-      <c r="D12" s="202">
-        <f>(C12/C14)-1</f>
+      <c r="D13" s="202">
+        <f>(C13/C15)-1</f>
         <v>5.372888308501711E-2</v>
       </c>
-      <c r="E12" s="224">
-        <f>C12</f>
+      <c r="E13" s="224">
+        <f>C13</f>
         <v>2800</v>
       </c>
-      <c r="F12" s="204">
-        <f>H13*D12</f>
+      <c r="F13" s="204">
+        <f>H14*D13</f>
         <v>8638.7460922565606</v>
-      </c>
-      <c r="G12" s="205"/>
-      <c r="H12" s="205">
-        <f t="shared" ref="H12:H13" si="3">H13+F12-G12</f>
-        <v>169422.77129872079</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="199"/>
-      <c r="B13" s="223" t="s">
-        <v>451</v>
-      </c>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="204">
-        <v>20000</v>
       </c>
       <c r="G13" s="205"/>
       <c r="H13" s="205">
-        <f t="shared" si="3"/>
-        <v>160784.02520646423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A14" s="199">
-        <v>45595</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>169422.77129872079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="199"/>
       <c r="B14" s="223" t="s">
-        <v>449</v>
-      </c>
-      <c r="C14" s="229">
-        <v>2657.23</v>
-      </c>
-      <c r="D14" s="202">
-        <f>(C14/C16)-1</f>
-        <v>2.2440176843369075E-2</v>
-      </c>
-      <c r="E14" s="224">
-        <f>C14</f>
-        <v>2657.23</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C14" s="201"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="203"/>
       <c r="F14" s="204">
-        <f>H15*D14</f>
-        <v>3089.8809474682425</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="205"/>
       <c r="H14" s="205">
-        <f t="shared" ref="H14:H15" si="4">H15+F14-G14</f>
-        <v>140784.02520646423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="199"/>
+        <f t="shared" si="1"/>
+        <v>160784.02520646423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A15" s="199">
+        <v>45595</v>
+      </c>
       <c r="B15" s="223" t="s">
-        <v>450</v>
-      </c>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
+        <v>449</v>
+      </c>
+      <c r="C15" s="229">
+        <v>2657.23</v>
+      </c>
+      <c r="D15" s="202">
+        <f>(C15/C17)-1</f>
+        <v>2.2440176843369075E-2</v>
+      </c>
+      <c r="E15" s="224">
+        <f>C15</f>
+        <v>2657.23</v>
+      </c>
       <c r="F15" s="204">
-        <v>7080.3</v>
+        <f>H16*D15</f>
+        <v>3089.8809474682425</v>
       </c>
       <c r="G15" s="205"/>
       <c r="H15" s="205">
-        <f t="shared" si="4"/>
-        <v>137694.14425899598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A16" s="199">
-        <v>45595</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>140784.02520646423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="199"/>
       <c r="B16" s="223" t="s">
-        <v>424</v>
-      </c>
-      <c r="C16" s="228">
-        <v>2598.91</v>
-      </c>
-      <c r="D16" s="202">
-        <f>(C16/C18)-1</f>
-        <v>2.8798650916806556E-2</v>
-      </c>
-      <c r="E16" s="224">
-        <f>F17*D16</f>
-        <v>722.77594190279012</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="C16" s="201"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="203"/>
       <c r="F16" s="204">
-        <f>H17*D16</f>
-        <v>3656.2086297109036</v>
+        <v>7080.3</v>
       </c>
       <c r="G16" s="205"/>
       <c r="H16" s="205">
-        <f t="shared" si="0"/>
-        <v>130613.84425899599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="199"/>
+        <f t="shared" si="1"/>
+        <v>137694.14425899598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A17" s="199">
+        <v>45595</v>
+      </c>
       <c r="B17" s="223" t="s">
-        <v>448</v>
-      </c>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="203"/>
+        <v>424</v>
+      </c>
+      <c r="C17" s="228">
+        <v>2598.91</v>
+      </c>
+      <c r="D17" s="202">
+        <f>(C17/C19)-1</f>
+        <v>2.8798650916806556E-2</v>
+      </c>
+      <c r="E17" s="224">
+        <f>F18*D17</f>
+        <v>722.77594190279012</v>
+      </c>
       <c r="F17" s="204">
-        <f>F19+E18</f>
-        <v>25097.562520923038</v>
+        <f>H18*D17</f>
+        <v>3656.2086297109036</v>
       </c>
       <c r="G17" s="205"/>
       <c r="H17" s="205">
-        <f t="shared" si="0"/>
-        <v>126957.63562928508</v>
+        <f t="shared" si="1"/>
+        <v>130613.84425899599</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="199">
-        <v>45565</v>
-      </c>
+      <c r="A18" s="199"/>
       <c r="B18" s="223" t="s">
-        <v>425</v>
-      </c>
-      <c r="C18" s="226">
-        <v>2526.16</v>
-      </c>
-      <c r="D18" s="202">
-        <f>(C18/C20)-1</f>
-        <v>2.9681984559824404E-2</v>
-      </c>
-      <c r="E18" s="224">
-        <f>F19*D18</f>
-        <v>723.47139641733145</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="203"/>
       <c r="F18" s="204">
-        <f>IF(H19&lt;=0,,(H19*D18))</f>
-        <v>2936.2552347241999</v>
+        <f>F20+E19</f>
+        <v>25097.562520923038</v>
       </c>
       <c r="G18" s="205"/>
       <c r="H18" s="205">
-        <f t="shared" si="0"/>
-        <v>101860.07310836205</v>
+        <f t="shared" si="1"/>
+        <v>126957.63562928508</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="199"/>
+      <c r="A19" s="199">
+        <v>45565</v>
+      </c>
       <c r="B19" s="223" t="s">
-        <v>447</v>
-      </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="203"/>
+        <v>425</v>
+      </c>
+      <c r="C19" s="226">
+        <v>2526.16</v>
+      </c>
+      <c r="D19" s="202">
+        <f>(C19/C21)-1</f>
+        <v>2.9681984559824404E-2</v>
+      </c>
+      <c r="E19" s="224">
+        <f>F20*D19</f>
+        <v>723.47139641733145</v>
+      </c>
       <c r="F19" s="204">
-        <f>F21+E20</f>
-        <v>24374.091124505707</v>
+        <f>IF(H20&lt;=0,,(H20*D19))</f>
+        <v>2936.2552347241999</v>
       </c>
       <c r="G19" s="205"/>
       <c r="H19" s="205">
-        <f t="shared" si="0"/>
-        <v>98923.817873637847</v>
+        <f t="shared" si="1"/>
+        <v>101860.07310836205</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="199">
-        <v>45534</v>
-      </c>
+      <c r="A20" s="199"/>
       <c r="B20" s="223" t="s">
-        <v>426</v>
-      </c>
-      <c r="C20" s="201">
-        <v>2453.34</v>
-      </c>
-      <c r="D20" s="202">
-        <f>(C20/C22)-1</f>
-        <v>2.4744162733386421E-2</v>
-      </c>
-      <c r="E20" s="224">
-        <f>F21*D20</f>
-        <v>588.55322059548553</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C20" s="201"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="203"/>
       <c r="F20" s="204">
-        <f>IF(H21&lt;=0,,(H21*D20))</f>
-        <v>1800.1279124045666</v>
+        <f>F22+E21</f>
+        <v>24374.091124505707</v>
       </c>
       <c r="G20" s="205"/>
       <c r="H20" s="205">
-        <f t="shared" si="0"/>
-        <v>74549.72674913214</v>
+        <f t="shared" si="1"/>
+        <v>98923.817873637847</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="199"/>
+      <c r="A21" s="199">
+        <v>45534</v>
+      </c>
       <c r="B21" s="223" t="s">
-        <v>446</v>
-      </c>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="203"/>
+        <v>426</v>
+      </c>
+      <c r="C21" s="201">
+        <v>2453.34</v>
+      </c>
+      <c r="D21" s="202">
+        <f>(C21/C23)-1</f>
+        <v>2.4744162733386421E-2</v>
+      </c>
+      <c r="E21" s="224">
+        <f>F22*D21</f>
+        <v>588.55322059548553</v>
+      </c>
       <c r="F21" s="204">
-        <f>F23+E22</f>
-        <v>23785.537903910223</v>
+        <f>IF(H22&lt;=0,,(H22*D21))</f>
+        <v>1800.1279124045666</v>
       </c>
       <c r="G21" s="205"/>
       <c r="H21" s="205">
-        <f t="shared" si="0"/>
-        <v>72749.598836727571</v>
+        <f t="shared" si="1"/>
+        <v>74549.72674913214</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="199">
-        <v>45503</v>
-      </c>
+      <c r="A22" s="199"/>
       <c r="B22" s="223" t="s">
-        <v>427</v>
-      </c>
-      <c r="C22" s="201">
-        <v>2394.1</v>
-      </c>
-      <c r="D22" s="202">
-        <f>(C22/C24)-1</f>
-        <v>3.2255560969089547E-2</v>
-      </c>
-      <c r="E22" s="224">
-        <f>F23*D22</f>
-        <v>743.24217475941555</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="203"/>
       <c r="F22" s="204">
-        <f>IF(H23&lt;=0,,(H23*D22))</f>
-        <v>1530.0118618203296</v>
+        <f>F24+E23</f>
+        <v>23785.537903910223</v>
       </c>
       <c r="G22" s="205"/>
       <c r="H22" s="205">
-        <f t="shared" si="0"/>
-        <v>48964.060932817345</v>
+        <f t="shared" si="1"/>
+        <v>72749.598836727571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="199"/>
+      <c r="A23" s="199">
+        <v>45503</v>
+      </c>
       <c r="B23" s="223" t="s">
-        <v>445</v>
-      </c>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="203"/>
+        <v>427</v>
+      </c>
+      <c r="C23" s="201">
+        <v>2394.1</v>
+      </c>
+      <c r="D23" s="202">
+        <f>(C23/C25)-1</f>
+        <v>3.2255560969089547E-2</v>
+      </c>
+      <c r="E23" s="224">
+        <f>F24*D23</f>
+        <v>743.24217475941555</v>
+      </c>
       <c r="F23" s="204">
-        <f>F25+E24</f>
-        <v>23042.295729150806</v>
+        <f>IF(H24&lt;=0,,(H24*D23))</f>
+        <v>1530.0118618203296</v>
       </c>
       <c r="G23" s="205"/>
       <c r="H23" s="205">
-        <f t="shared" si="0"/>
-        <v>47434.049070997018</v>
+        <f t="shared" si="1"/>
+        <v>48964.060932817345</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="199">
-        <v>45473</v>
-      </c>
+      <c r="A24" s="199"/>
       <c r="B24" s="223" t="s">
-        <v>428</v>
-      </c>
-      <c r="C24" s="201">
-        <v>2319.29</v>
-      </c>
-      <c r="D24" s="202">
-        <f>(C24/C26)-1</f>
-        <v>1.6407739334312055E-2</v>
-      </c>
-      <c r="E24" s="224">
-        <f>F25*D24</f>
-        <v>371.96881463698173</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="203"/>
       <c r="F24" s="204">
-        <f>IF(H25&lt;=0,,(H25*D24))</f>
-        <v>393.75293521669187</v>
+        <f>F26+E25</f>
+        <v>23042.295729150806</v>
       </c>
       <c r="G24" s="205"/>
       <c r="H24" s="205">
-        <f t="shared" si="0"/>
-        <v>24391.753341846212</v>
+        <f t="shared" si="1"/>
+        <v>47434.049070997018</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="199"/>
+      <c r="A25" s="199">
+        <v>45473</v>
+      </c>
       <c r="B25" s="223" t="s">
-        <v>444</v>
-      </c>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="203"/>
+        <v>428</v>
+      </c>
+      <c r="C25" s="201">
+        <v>2319.29</v>
+      </c>
+      <c r="D25" s="202">
+        <f>(C25/C27)-1</f>
+        <v>1.6407739334312055E-2</v>
+      </c>
+      <c r="E25" s="224">
+        <f>F26*D25</f>
+        <v>371.96881463698173</v>
+      </c>
       <c r="F25" s="204">
-        <f>F27+E26</f>
-        <v>22670.326914513826</v>
+        <f>IF(H26&lt;=0,,(H26*D25))</f>
+        <v>393.75293521669187</v>
       </c>
       <c r="G25" s="205"/>
       <c r="H25" s="205">
-        <f t="shared" si="0"/>
-        <v>23998.000406629519</v>
+        <f t="shared" si="1"/>
+        <v>24391.753341846212</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="199">
-        <v>45442</v>
-      </c>
+      <c r="A26" s="199"/>
       <c r="B26" s="223" t="s">
-        <v>429</v>
-      </c>
-      <c r="C26" s="201">
-        <v>2281.85</v>
-      </c>
-      <c r="D26" s="202">
-        <f>(C26/C28)-1</f>
-        <v>3.3680634201585402E-2</v>
-      </c>
-      <c r="E26" s="224">
-        <f>F27*D26</f>
-        <v>738.67204509240219</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="203"/>
       <c r="F26" s="204">
-        <f>IF(H27&lt;=0,,(H27*D26))</f>
-        <v>43.259865520871898</v>
+        <f>F28+E27</f>
+        <v>22670.326914513826</v>
       </c>
       <c r="G26" s="205"/>
       <c r="H26" s="205">
         <f t="shared" si="0"/>
-        <v>1327.6734921156938</v>
+        <v>23998.000406629519</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="199"/>
+      <c r="A27" s="199">
+        <v>45442</v>
+      </c>
       <c r="B27" s="223" t="s">
-        <v>443</v>
-      </c>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="201"/>
+        <v>429</v>
+      </c>
+      <c r="C27" s="201">
+        <v>2281.85</v>
+      </c>
+      <c r="D27" s="202">
+        <f>(C27/C29)-1</f>
+        <v>3.3680634201585402E-2</v>
+      </c>
+      <c r="E27" s="224">
+        <f>F28*D27</f>
+        <v>738.67204509240219</v>
+      </c>
       <c r="F27" s="204">
-        <f>F29+E28</f>
-        <v>21931.654869421422</v>
+        <f>IF(H28&lt;=0,,(H28*D27))</f>
+        <v>43.259865520871898</v>
       </c>
       <c r="G27" s="205"/>
       <c r="H27" s="205">
         <f t="shared" si="0"/>
-        <v>1284.4136265948218</v>
+        <v>1327.6734921156938</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="199">
-        <v>45412</v>
-      </c>
+      <c r="A28" s="199"/>
       <c r="B28" s="223" t="s">
-        <v>430</v>
-      </c>
-      <c r="C28" s="201">
-        <v>2207.5</v>
-      </c>
-      <c r="D28" s="202">
-        <f>(C28/C30)-1</f>
-        <v>3.1797594731405532E-2</v>
-      </c>
-      <c r="E28" s="224">
-        <f>F29*D28</f>
-        <v>675.88243749342848</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="201"/>
       <c r="F28" s="204">
-        <f>IF(H29&lt;=0,,(H29*D28))</f>
-        <v>0</v>
+        <f>F30+E29</f>
+        <v>21931.654869421422</v>
       </c>
       <c r="G28" s="205"/>
       <c r="H28" s="205">
         <f t="shared" si="0"/>
-        <v>-20647.2412428266</v>
+        <v>1284.4136265948218</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="199"/>
+      <c r="A29" s="199">
+        <v>45412</v>
+      </c>
       <c r="B29" s="223" t="s">
-        <v>442</v>
-      </c>
-      <c r="C29" s="201"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="203"/>
+        <v>430</v>
+      </c>
+      <c r="C29" s="201">
+        <v>2207.5</v>
+      </c>
+      <c r="D29" s="202">
+        <f>(C29/C31)-1</f>
+        <v>3.1797594731405532E-2</v>
+      </c>
+      <c r="E29" s="224">
+        <f>F30*D29</f>
+        <v>675.88243749342848</v>
+      </c>
       <c r="F29" s="204">
-        <f>F31+E30</f>
-        <v>21255.772431927991</v>
+        <f>IF(H30&lt;=0,,(H30*D29))</f>
+        <v>0</v>
       </c>
       <c r="G29" s="205"/>
       <c r="H29" s="205">
@@ -9837,41 +9863,41 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="199">
-        <v>45381</v>
-      </c>
+      <c r="A30" s="199"/>
       <c r="B30" s="223" t="s">
-        <v>431</v>
-      </c>
-      <c r="C30" s="201">
-        <v>2139.4699999999998</v>
-      </c>
-      <c r="D30" s="202">
-        <f>(C30/C32)-1</f>
-        <v>3.1626709356375349E-2</v>
-      </c>
-      <c r="E30" s="224"/>
+        <v>442</v>
+      </c>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="203"/>
       <c r="F30" s="204">
-        <f>IF(H31&lt;=0,,(H31*D30))</f>
-        <v>0</v>
+        <f>F32+E31</f>
+        <v>21255.772431927991</v>
       </c>
       <c r="G30" s="205"/>
       <c r="H30" s="205">
         <f t="shared" si="0"/>
-        <v>-41903.013674754591</v>
+        <v>-20647.2412428266</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="199"/>
+      <c r="A31" s="199">
+        <v>45381</v>
+      </c>
       <c r="B31" s="223" t="s">
-        <v>441</v>
-      </c>
-      <c r="C31" s="201"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="203"/>
+        <v>431</v>
+      </c>
+      <c r="C31" s="201">
+        <v>2139.4699999999998</v>
+      </c>
+      <c r="D31" s="202">
+        <f>(C31/C33)-1</f>
+        <v>3.1626709356375349E-2</v>
+      </c>
+      <c r="E31" s="224"/>
       <c r="F31" s="204">
-        <f>F33+E32</f>
-        <v>21255.772431927991</v>
+        <f>IF(H32&lt;=0,,(H32*D31))</f>
+        <v>0</v>
       </c>
       <c r="G31" s="205"/>
       <c r="H31" s="205">
@@ -9880,41 +9906,41 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="199">
-        <v>45351</v>
-      </c>
+      <c r="A32" s="199"/>
       <c r="B32" s="223" t="s">
-        <v>432</v>
-      </c>
-      <c r="C32" s="201">
-        <v>2073.88</v>
-      </c>
-      <c r="D32" s="202">
-        <f>(C32/C34)-1</f>
-        <v>4.5291882138285056E-2</v>
-      </c>
-      <c r="E32" s="224"/>
+        <v>441</v>
+      </c>
+      <c r="C32" s="201"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="203"/>
       <c r="F32" s="204">
-        <f>IF(H33&lt;=0,,(H33*D32))</f>
-        <v>0</v>
+        <f>F34+E33</f>
+        <v>21255.772431927991</v>
       </c>
       <c r="G32" s="205"/>
       <c r="H32" s="205">
         <f t="shared" si="0"/>
-        <v>-63158.786106682586</v>
+        <v>-41903.013674754591</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="199"/>
+      <c r="A33" s="199">
+        <v>45351</v>
+      </c>
       <c r="B33" s="223" t="s">
-        <v>440</v>
-      </c>
-      <c r="C33" s="201"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="203"/>
+        <v>432</v>
+      </c>
+      <c r="C33" s="201">
+        <v>2073.88</v>
+      </c>
+      <c r="D33" s="202">
+        <f>(C33/C35)-1</f>
+        <v>4.5291882138285056E-2</v>
+      </c>
+      <c r="E33" s="224"/>
       <c r="F33" s="204">
-        <f>F36+E34</f>
-        <v>21255.772431927991</v>
+        <f>IF(H34&lt;=0,,(H34*D33))</f>
+        <v>0</v>
       </c>
       <c r="G33" s="205"/>
       <c r="H33" s="205">
@@ -9923,43 +9949,44 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="199">
-        <v>45321</v>
-      </c>
+      <c r="A34" s="199"/>
       <c r="B34" s="223" t="s">
-        <v>433</v>
-      </c>
-      <c r="C34" s="201">
-        <v>1984.02</v>
-      </c>
-      <c r="D34" s="202">
-        <f>(C34/C37)-1</f>
-        <v>6.7033097053856627E-2</v>
-      </c>
-      <c r="E34" s="224">
-        <f>F35*D34</f>
-        <v>670.33097053856625</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C34" s="201"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="203"/>
       <c r="F34" s="204">
-        <f>IF(H35&lt;=0,,(H35*D34))</f>
-        <v>0</v>
+        <f>F37+E35</f>
+        <v>21255.772431927991</v>
       </c>
       <c r="G34" s="205"/>
       <c r="H34" s="205">
         <f t="shared" si="0"/>
-        <v>-84414.558538610581</v>
+        <v>-63158.786106682586</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="199"/>
+      <c r="A35" s="199">
+        <v>45321</v>
+      </c>
       <c r="B35" s="223" t="s">
-        <v>457</v>
-      </c>
-      <c r="C35" s="201"/>
-      <c r="D35" s="202"/>
-      <c r="E35" s="204"/>
+        <v>433</v>
+      </c>
+      <c r="C35" s="201">
+        <v>1984.02</v>
+      </c>
+      <c r="D35" s="202">
+        <f>(C35/C38)-1</f>
+        <v>6.7033097053856627E-2</v>
+      </c>
+      <c r="E35" s="224">
+        <f>F36*D35</f>
+        <v>670.33097053856625</v>
+      </c>
       <c r="F35" s="204">
-        <v>10000</v>
+        <f>IF(H36&lt;=0,,(H36*D35))</f>
+        <v>0</v>
       </c>
       <c r="G35" s="205"/>
       <c r="H35" s="205">
@@ -9970,122 +9997,129 @@
     <row r="36" spans="1:8">
       <c r="A36" s="199"/>
       <c r="B36" s="223" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="C36" s="201"/>
       <c r="D36" s="202"/>
+      <c r="E36" s="204"/>
       <c r="F36" s="204">
-        <f>F38+E37</f>
-        <v>20585.441461389426</v>
+        <v>10000</v>
       </c>
       <c r="G36" s="205"/>
       <c r="H36" s="205">
         <f t="shared" si="0"/>
-        <v>-94414.558538610581</v>
+        <v>-84414.558538610581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="199">
-        <v>45290</v>
-      </c>
+      <c r="A37" s="199"/>
       <c r="B37" s="223" t="s">
-        <v>435</v>
-      </c>
-      <c r="C37" s="201">
-        <v>1859.38</v>
-      </c>
-      <c r="D37" s="202">
-        <f>(C37/C40)-1</f>
-        <v>2.9272073069471327E-2</v>
-      </c>
-      <c r="E37" s="224">
-        <f>F38*D37</f>
-        <v>585.44146138942654</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C37" s="201"/>
+      <c r="D37" s="202"/>
       <c r="F37" s="204">
-        <f>IF(H38&lt;=0,,(H38*D37))</f>
-        <v>0</v>
+        <f>F39+E38</f>
+        <v>20585.441461389426</v>
       </c>
       <c r="G37" s="205"/>
       <c r="H37" s="205">
         <f t="shared" si="0"/>
-        <v>-115000</v>
+        <v>-94414.558538610581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="199"/>
+      <c r="A38" s="199">
+        <v>45290</v>
+      </c>
       <c r="B38" s="223" t="s">
-        <v>438</v>
-      </c>
-      <c r="C38" s="201"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="203"/>
+        <v>435</v>
+      </c>
+      <c r="C38" s="201">
+        <v>1859.38</v>
+      </c>
+      <c r="D38" s="202">
+        <f>(C38/C41)-1</f>
+        <v>2.9272073069471327E-2</v>
+      </c>
+      <c r="E38" s="224">
+        <f>F39*D38</f>
+        <v>585.44146138942654</v>
+      </c>
       <c r="F38" s="204">
-        <v>20000</v>
+        <f>IF(H39&lt;=0,,(H39*D38))</f>
+        <v>0</v>
       </c>
       <c r="G38" s="205"/>
       <c r="H38" s="205">
-        <f>H39+F38-G38</f>
+        <f t="shared" si="0"/>
         <v>-115000</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="199"/>
-      <c r="B39" s="223"/>
+      <c r="B39" s="223" t="s">
+        <v>438</v>
+      </c>
       <c r="C39" s="201"/>
       <c r="D39" s="202"/>
       <c r="E39" s="203"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="205">
+      <c r="F39" s="204">
+        <v>20000</v>
+      </c>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205">
+        <f>H40+F39-G39</f>
+        <v>-115000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="199"/>
+      <c r="B40" s="223"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="202"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="205">
         <v>135000</v>
       </c>
-      <c r="H39" s="205">
-        <f>H41+F39-G39</f>
+      <c r="H40" s="205">
+        <f>H42+F40-G40</f>
         <v>-135000</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="199">
+    <row r="41" spans="1:8">
+      <c r="A41" s="199">
         <v>45260</v>
       </c>
-      <c r="B40" s="223" t="s">
+      <c r="B41" s="223" t="s">
         <v>436</v>
       </c>
-      <c r="C40" s="201">
+      <c r="C41" s="201">
         <v>1806.5</v>
       </c>
-      <c r="D40" s="202"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="199"/>
-      <c r="B41" s="223"/>
-      <c r="C41" s="201"/>
       <c r="D41" s="202"/>
-      <c r="E41" s="204"/>
+      <c r="E41" s="224"/>
       <c r="F41" s="204"/>
       <c r="G41" s="205"/>
       <c r="H41" s="205"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="199"/>
-      <c r="B42" s="205"/>
+      <c r="B42" s="223"/>
       <c r="C42" s="201"/>
       <c r="D42" s="202"/>
-      <c r="E42" s="203"/>
+      <c r="E42" s="204"/>
       <c r="F42" s="204"/>
       <c r="G42" s="205"/>
       <c r="H42" s="205"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="199"/>
-      <c r="B43" s="223"/>
+      <c r="B43" s="205"/>
       <c r="C43" s="201"/>
       <c r="D43" s="202"/>
-      <c r="E43" s="224"/>
+      <c r="E43" s="203"/>
       <c r="F43" s="204"/>
       <c r="G43" s="205"/>
       <c r="H43" s="205"/>
@@ -10095,7 +10129,7 @@
       <c r="B44" s="223"/>
       <c r="C44" s="201"/>
       <c r="D44" s="202"/>
-      <c r="E44" s="204"/>
+      <c r="E44" s="224"/>
       <c r="F44" s="204"/>
       <c r="G44" s="205"/>
       <c r="H44" s="205"/>
@@ -10105,7 +10139,7 @@
       <c r="B45" s="223"/>
       <c r="C45" s="201"/>
       <c r="D45" s="202"/>
-      <c r="E45" s="203"/>
+      <c r="E45" s="204"/>
       <c r="F45" s="204"/>
       <c r="G45" s="205"/>
       <c r="H45" s="205"/>
@@ -10132,7 +10166,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="199"/>
-      <c r="B48" s="205"/>
+      <c r="B48" s="223"/>
       <c r="C48" s="201"/>
       <c r="D48" s="202"/>
       <c r="E48" s="203"/>
@@ -10142,12 +10176,12 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="199"/>
-      <c r="B49" s="223"/>
+      <c r="B49" s="205"/>
       <c r="C49" s="201"/>
       <c r="D49" s="202"/>
-      <c r="E49" s="224"/>
+      <c r="E49" s="203"/>
       <c r="F49" s="204"/>
-      <c r="G49" s="225"/>
+      <c r="G49" s="205"/>
       <c r="H49" s="205"/>
     </row>
     <row r="50" spans="1:8">
@@ -10155,20 +10189,30 @@
       <c r="B50" s="223"/>
       <c r="C50" s="201"/>
       <c r="D50" s="202"/>
-      <c r="E50" s="204"/>
+      <c r="E50" s="224"/>
       <c r="F50" s="204"/>
       <c r="G50" s="225"/>
       <c r="H50" s="205"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="199"/>
-      <c r="B51" s="205"/>
+      <c r="B51" s="223"/>
       <c r="C51" s="201"/>
       <c r="D51" s="202"/>
-      <c r="E51" s="203"/>
+      <c r="E51" s="204"/>
       <c r="F51" s="204"/>
-      <c r="G51" s="205"/>
+      <c r="G51" s="225"/>
       <c r="H51" s="205"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="199"/>
+      <c r="B52" s="205"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="205"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02-24-sny.xlsx
+++ b/02-24-sny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E60C09-02F6-4C1E-BCCA-485B9172265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D57133-9704-4F4B-A356-1F055720478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,8 @@
     <sheet name="snyF-HSP" sheetId="15" r:id="rId9"/>
     <sheet name="SnyG702-22" sheetId="7" r:id="rId10"/>
     <sheet name="SnH_yazıhane" sheetId="8" r:id="rId11"/>
-    <sheet name="NAZAN" sheetId="16" r:id="rId12"/>
+    <sheet name="NAZAN_25" sheetId="19" r:id="rId12"/>
+    <sheet name="NAZAN_24" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="471">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1505,6 +1506,24 @@
   </si>
   <si>
     <t>snyCD-işbank</t>
+  </si>
+  <si>
+    <t>2025 yılı Toplam</t>
+  </si>
+  <si>
+    <t>2025 YILI NAZAN BALCI</t>
+  </si>
+  <si>
+    <t>snyB bankadan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPLAM ÖDEME </t>
+  </si>
+  <si>
+    <t>DEVREDEN</t>
+  </si>
+  <si>
+    <t>2024 yıl sonu nazan devreden kira geliri</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1958,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2168,8 +2187,44 @@
         <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF6F9D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF6F9D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2372,6 +2427,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2399,7 +2491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2814,6 +2906,27 @@
     </xf>
     <xf numFmtId="2" fontId="55" fillId="0" borderId="19" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="55" fillId="0" borderId="19" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="3" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="37" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="3" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="3" fillId="21" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2853,8 +2966,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}" name="Tablo14" displayName="Tablo14" ref="A22:H38" totalsRowShown="0">
-  <autoFilter ref="A22:H38" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CD5396B-AF3B-4E02-B816-7FFFC3CDB203}" name="Tablo142" displayName="Tablo142" ref="A24:H40" totalsRowShown="0">
+  <autoFilter ref="A24:H40" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{411BB1D6-998E-4B35-80A9-FDD140F71C9B}" name="Tarih"/>
+    <tableColumn id="2" xr3:uid="{279E89D5-CF7B-4AA4-8F3F-A2F7799804F3}" name="Açıklama"/>
+    <tableColumn id="3" xr3:uid="{7B6F3018-A9BB-490E-873E-D93844513DCF}" name="snyA-H"/>
+    <tableColumn id="4" xr3:uid="{FA32F072-E2EA-46AC-B242-F6C7256D57BC}" name="Oran %"/>
+    <tableColumn id="5" xr3:uid="{D9E41724-8CD4-47D3-8C33-64A9C6B329F5}" name="Oran TL Tutar"/>
+    <tableColumn id="6" xr3:uid="{ABC94480-EC81-475F-9675-83716669439E}" name="Ödendi"/>
+    <tableColumn id="7" xr3:uid="{DA0E4B3E-9561-4A95-BB81-1101733DF7BB}" name="Oran TL"/>
+    <tableColumn id="8" xr3:uid="{92FAC635-681E-4D15-B288-C760EFC78F48}" name="Genel Toplam"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}" name="Tablo14" displayName="Tablo14" ref="A24:H40" totalsRowShown="0">
+  <autoFilter ref="A24:H40" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D3DD65DA-8808-4B04-9C86-0D85ADD82B5F}" name="Tarih"/>
     <tableColumn id="2" xr3:uid="{5717C5FB-B766-4D73-8672-0AAAD2937C24}" name="Açıklama"/>
@@ -4789,11 +4919,945 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F3B4BF-5428-4CFE-9CCD-7224C312B45E}">
+  <dimension ref="A2:J53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="B2" s="93" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="D5" s="248">
+        <v>139543.56</v>
+      </c>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="H5" s="121">
+        <f>D5</f>
+        <v>139543.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="D6" s="95"/>
+      <c r="G6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H6" s="122">
+        <f>H25*-1</f>
+        <v>68207.999999999985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="D7" s="95"/>
+      <c r="H7" s="122">
+        <f>H6+H5</f>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="123">
+        <v>45661</v>
+      </c>
+      <c r="C8" s="94">
+        <v>15000</v>
+      </c>
+      <c r="D8" s="90">
+        <f>H7-C8</f>
+        <v>192751.56</v>
+      </c>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="126">
+        <f t="shared" ref="H8:H19" si="0">H7-E8</f>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="123">
+        <v>45689</v>
+      </c>
+      <c r="C9" s="94">
+        <f>C8</f>
+        <v>15000</v>
+      </c>
+      <c r="D9" s="90">
+        <f t="shared" ref="D9:D19" si="1">D8-C9</f>
+        <v>177751.56</v>
+      </c>
+      <c r="E9" s="124"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="123">
+        <v>45717</v>
+      </c>
+      <c r="C10" s="94">
+        <f t="shared" ref="C10:C19" si="2">C9</f>
+        <v>15000</v>
+      </c>
+      <c r="D10" s="90">
+        <f t="shared" si="1"/>
+        <v>162751.56</v>
+      </c>
+      <c r="E10" s="124"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="123">
+        <v>45748</v>
+      </c>
+      <c r="C11" s="94">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="D11" s="90">
+        <f t="shared" si="1"/>
+        <v>147751.56</v>
+      </c>
+      <c r="E11" s="124"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="123">
+        <v>45778</v>
+      </c>
+      <c r="C12" s="94">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="D12" s="90">
+        <f t="shared" si="1"/>
+        <v>132751.56</v>
+      </c>
+      <c r="E12" s="124"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="123">
+        <v>45809</v>
+      </c>
+      <c r="C13" s="94">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="D13" s="90">
+        <f t="shared" si="1"/>
+        <v>117751.56</v>
+      </c>
+      <c r="E13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="123">
+        <v>45839</v>
+      </c>
+      <c r="C14" s="94">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="D14" s="90">
+        <f t="shared" si="1"/>
+        <v>102751.56</v>
+      </c>
+      <c r="E14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="123">
+        <v>45870</v>
+      </c>
+      <c r="C15" s="94">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="D15" s="90">
+        <f t="shared" si="1"/>
+        <v>87751.56</v>
+      </c>
+      <c r="H15" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="123">
+        <v>45901</v>
+      </c>
+      <c r="C16" s="94">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="D16" s="90">
+        <f t="shared" si="1"/>
+        <v>72751.56</v>
+      </c>
+      <c r="H16" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="123">
+        <v>45931</v>
+      </c>
+      <c r="C17" s="94">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="D17" s="90">
+        <f t="shared" si="1"/>
+        <v>57751.56</v>
+      </c>
+      <c r="H17" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="123">
+        <v>45988</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="94">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="D18" s="90">
+        <f t="shared" si="1"/>
+        <v>42751.56</v>
+      </c>
+      <c r="E18" s="124"/>
+      <c r="H18" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="123">
+        <v>45992</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="94">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="D19" s="90">
+        <f t="shared" si="1"/>
+        <v>27751.559999999998</v>
+      </c>
+      <c r="E19" s="124"/>
+      <c r="H19" s="90">
+        <f t="shared" si="0"/>
+        <v>207751.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="123"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="124"/>
+      <c r="H20" s="90"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="123"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="124"/>
+      <c r="H21" s="90"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="94"/>
+      <c r="D22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="95"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
+      <c r="B23" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="127">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="E23" s="127">
+        <f>1-D23</f>
+        <v>0.23519999999999996</v>
+      </c>
+      <c r="H23" s="95"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="128" t="s">
+        <v>290</v>
+      </c>
+      <c r="F24" s="130" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="128" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" s="131" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="116"/>
+      <c r="B25" s="117" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" s="118">
+        <f>SUBTOTAL(109,C26:C40)</f>
+        <v>290000</v>
+      </c>
+      <c r="D25" s="118">
+        <f>SUBTOTAL(109,D26:D40)</f>
+        <v>290000</v>
+      </c>
+      <c r="E25" s="118">
+        <f>SUM(E26:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="117"/>
+      <c r="G25" s="118">
+        <f>SUBTOTAL(109,$G$26:$G$40)</f>
+        <v>-68207.999999999985</v>
+      </c>
+      <c r="H25" s="118">
+        <f>H26</f>
+        <v>-68207.999999999985</v>
+      </c>
+      <c r="J25" s="98"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="99">
+        <v>46021</v>
+      </c>
+      <c r="B26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="100">
+        <f t="shared" ref="D26:D40" si="3">IF(F26=1,$C26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="101">
+        <f t="shared" ref="E26:E40" si="4">IF(F26=0,C26*$E$23*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="97">
+        <v>0</v>
+      </c>
+      <c r="G26" s="100">
+        <f t="shared" ref="G26:G40" si="5">IF(F26=1,C26*$E$23*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="95">
+        <f t="shared" ref="H26:H39" si="6">H27+G26</f>
+        <v>-68207.999999999985</v>
+      </c>
+      <c r="J26" s="98"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="232"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="97">
+        <v>0</v>
+      </c>
+      <c r="G27" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="234"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="97">
+        <v>0</v>
+      </c>
+      <c r="G28" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="234"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="97">
+        <v>0</v>
+      </c>
+      <c r="G29" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="232"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="97">
+        <v>0</v>
+      </c>
+      <c r="G30" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="232"/>
+      <c r="B31" s="237"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="97">
+        <v>0</v>
+      </c>
+      <c r="G31" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="232"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="97">
+        <v>0</v>
+      </c>
+      <c r="G32" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="232"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="97">
+        <v>0</v>
+      </c>
+      <c r="G33" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="238"/>
+      <c r="D34" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="97">
+        <v>0</v>
+      </c>
+      <c r="G34" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="234"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="97">
+        <v>0</v>
+      </c>
+      <c r="G35" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="230"/>
+      <c r="B36" s="231"/>
+      <c r="C36" s="241"/>
+      <c r="D36" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="97">
+        <v>0</v>
+      </c>
+      <c r="G36" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="234"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="97">
+        <v>0</v>
+      </c>
+      <c r="G37" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="234"/>
+      <c r="B38" s="235"/>
+      <c r="C38" s="239"/>
+      <c r="D38" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="97">
+        <v>0</v>
+      </c>
+      <c r="G38" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="232"/>
+      <c r="B39" s="235"/>
+      <c r="C39" s="238"/>
+      <c r="D39" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="97">
+        <v>0</v>
+      </c>
+      <c r="G39" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="95">
+        <f t="shared" si="6"/>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="176">
+        <v>45660</v>
+      </c>
+      <c r="B40" s="177" t="s">
+        <v>467</v>
+      </c>
+      <c r="C40" s="178">
+        <v>290000</v>
+      </c>
+      <c r="D40" s="100">
+        <f t="shared" si="3"/>
+        <v>290000</v>
+      </c>
+      <c r="E40" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="105">
+        <v>1</v>
+      </c>
+      <c r="G40" s="100">
+        <f t="shared" si="5"/>
+        <v>-68207.999999999985</v>
+      </c>
+      <c r="H40" s="95">
+        <f>G40</f>
+        <v>-68207.999999999985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="C43" s="100" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="107"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="B44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="108">
+        <v>1</v>
+      </c>
+      <c r="D44" s="138">
+        <f>D23</f>
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="E44" s="138">
+        <f>1-D44</f>
+        <v>0.23519999999999996</v>
+      </c>
+      <c r="H44" s="95"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="109">
+        <f>$D$25*C44</f>
+        <v>290000</v>
+      </c>
+      <c r="D45" s="110">
+        <f>$D$25*D44</f>
+        <v>221792</v>
+      </c>
+      <c r="E45" s="110">
+        <f>$D$25*E44</f>
+        <v>68207.999999999985</v>
+      </c>
+      <c r="H45" s="95"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="100">
+        <f>D46+E46</f>
+        <v>290000</v>
+      </c>
+      <c r="D46" s="95">
+        <f>C45-E46</f>
+        <v>221792</v>
+      </c>
+      <c r="E46" s="95">
+        <f>$H$25*-1</f>
+        <v>68207.999999999985</v>
+      </c>
+      <c r="G46" s="111"/>
+      <c r="H46" s="95"/>
+      <c r="J46" s="95"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" s="100">
+        <f>C45-C46</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="95">
+        <f>D45-D46</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="95">
+        <f>E45-E46</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="J47" s="95"/>
+    </row>
+    <row r="48" spans="1:10" ht="13.5" thickBot="1">
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="J48" s="95"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="H49" s="95"/>
+      <c r="J49" s="95"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="C50" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="J50" s="95"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="C51" s="95"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="J51" s="95"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="95">
+        <f>D46</f>
+        <v>221792</v>
+      </c>
+      <c r="D52" s="46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E52" s="95">
+        <f>C52*D52</f>
+        <v>5544.8</v>
+      </c>
+      <c r="H52" s="95"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="E53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
-  <dimension ref="A2:J51"/>
+  <dimension ref="A2:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4864,7 +5928,7 @@
         <v>339</v>
       </c>
       <c r="H6" s="122">
-        <f>H23*-1</f>
+        <f>H25*-1</f>
         <v>188512.8</v>
       </c>
     </row>
@@ -5091,7 +6155,7 @@
         <v>239543.56</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="13.5" thickBot="1">
       <c r="A18" s="123">
         <v>45623</v>
       </c>
@@ -5113,7 +6177,7 @@
         <v>199543.56</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="13.5" thickBot="1">
       <c r="A19" s="123">
         <v>45627</v>
       </c>
@@ -5130,184 +6194,152 @@
       <c r="E19" s="124">
         <v>60000</v>
       </c>
-      <c r="H19" s="90">
+      <c r="G19" s="246" t="s">
+        <v>469</v>
+      </c>
+      <c r="H19" s="247">
         <f t="shared" si="0"/>
         <v>139543.56</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="C20" s="94"/>
-      <c r="D20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="95"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75">
-      <c r="B21" s="96" t="s">
+    <row r="20" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A20" s="123"/>
+      <c r="C20" s="243"/>
+      <c r="D20" s="244" t="s">
+        <v>468</v>
+      </c>
+      <c r="E20" s="245">
+        <f>SUM(E8:E19)</f>
+        <v>170000</v>
+      </c>
+      <c r="H20" s="90"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="123"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="124"/>
+      <c r="H21" s="90"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="94"/>
+      <c r="D22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="95"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
+      <c r="B23" s="96" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="127">
+      <c r="D23" s="127">
         <v>0.76480000000000004</v>
       </c>
-      <c r="E21" s="127">
-        <f>1-D21</f>
+      <c r="E23" s="127">
+        <f>1-D23</f>
         <v>0.23519999999999996</v>
       </c>
-      <c r="H21" s="95"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="116" t="s">
+      <c r="H23" s="95"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B24" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C24" s="128" t="s">
         <v>288</v>
       </c>
-      <c r="D22" s="129" t="s">
+      <c r="D24" s="129" t="s">
         <v>289</v>
       </c>
-      <c r="E22" s="128" t="s">
+      <c r="E24" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="F22" s="130" t="s">
+      <c r="F24" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="G22" s="128" t="s">
+      <c r="G24" s="128" t="s">
         <v>292</v>
       </c>
-      <c r="H22" s="131" t="s">
+      <c r="H24" s="131" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="116"/>
+      <c r="B25" s="117" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="118">
-        <f>SUBTOTAL(109,C24:C38)</f>
+      <c r="C25" s="118">
+        <f>SUBTOTAL(109,C26:C40)</f>
         <v>808500</v>
       </c>
-      <c r="D23" s="118">
-        <f>SUBTOTAL(109,D24:D38)</f>
+      <c r="D25" s="118">
+        <f>SUBTOTAL(109,D26:D40)</f>
         <v>801500</v>
       </c>
-      <c r="E23" s="118">
-        <f>SUM(E24:E38)</f>
+      <c r="E25" s="118">
+        <f>SUM(E26:E40)</f>
         <v>-1646.3999999999999</v>
       </c>
-      <c r="F23" s="117"/>
-      <c r="G23" s="118">
-        <f>SUBTOTAL(109,$G$24:$G$38)</f>
+      <c r="F25" s="117"/>
+      <c r="G25" s="118">
+        <f>SUBTOTAL(109,$G$26:$G$40)</f>
         <v>-188512.8</v>
       </c>
-      <c r="H23" s="118">
-        <f>H24</f>
+      <c r="H25" s="118">
+        <f>H26</f>
         <v>-188512.8</v>
       </c>
-      <c r="J23" s="98"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="99">
+      <c r="J25" s="98"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="99">
         <v>45656</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>293</v>
       </c>
-      <c r="D24" s="100">
-        <f t="shared" ref="D24:D38" si="2">IF(F24=1,$C24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="101">
-        <f t="shared" ref="E24:E38" si="3">IF(F24=0,C24*$E$21*-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="97">
-        <v>0</v>
-      </c>
-      <c r="G24" s="100">
-        <f t="shared" ref="G24:G38" si="4">IF(F24=1,C24*$E$21*-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="95">
-        <f t="shared" ref="H24:H37" si="5">H25+G24</f>
+      <c r="D26" s="100">
+        <f t="shared" ref="D26:D40" si="2">IF(F26=1,$C26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="101">
+        <f t="shared" ref="E26:E40" si="3">IF(F26=0,C26*$E$23*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="97">
+        <v>0</v>
+      </c>
+      <c r="G26" s="100">
+        <f t="shared" ref="G26:G40" si="4">IF(F26=1,C26*$E$23*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="95">
+        <f t="shared" ref="H26:H39" si="5">H27+G26</f>
         <v>-188512.8</v>
       </c>
-      <c r="J24" s="98"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="132"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="100">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="97">
-        <v>0</v>
-      </c>
-      <c r="G25" s="100">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="95">
-        <f t="shared" si="5"/>
-        <v>-188512.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="135"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="100">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="97">
-        <v>0</v>
-      </c>
-      <c r="G26" s="100">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="95">
-        <f t="shared" si="5"/>
-        <v>-188512.8</v>
-      </c>
+      <c r="J26" s="98"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="135">
-        <v>45631</v>
-      </c>
-      <c r="B27" s="136" t="s">
-        <v>464</v>
-      </c>
-      <c r="C27" s="137">
-        <v>219000</v>
-      </c>
+      <c r="A27" s="132"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="100">
         <f t="shared" si="2"/>
-        <v>219000</v>
+        <v>0</v>
       </c>
       <c r="E27" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F27" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="100">
         <f t="shared" si="4"/>
-        <v>-51508.799999999996</v>
+        <v>0</v>
       </c>
       <c r="H27" s="95">
         <f t="shared" si="5"/>
@@ -5315,48 +6347,42 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="132">
-        <v>45607</v>
-      </c>
-      <c r="B28" s="179" t="s">
-        <v>463</v>
-      </c>
-      <c r="C28" s="134">
-        <v>148500</v>
-      </c>
+      <c r="A28" s="135"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="137"/>
       <c r="D28" s="100">
         <f t="shared" si="2"/>
-        <v>148500</v>
+        <v>0</v>
       </c>
       <c r="E28" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F28" s="97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="100">
         <f t="shared" si="4"/>
-        <v>-34927.199999999997</v>
+        <v>0</v>
       </c>
       <c r="H28" s="95">
         <f t="shared" si="5"/>
-        <v>-137004</v>
+        <v>-188512.8</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="132">
-        <v>45405</v>
-      </c>
-      <c r="B29" s="181" t="s">
-        <v>353</v>
-      </c>
-      <c r="C29" s="182">
-        <v>33000</v>
+      <c r="A29" s="135">
+        <v>45631</v>
+      </c>
+      <c r="B29" s="136" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" s="137">
+        <v>219000</v>
       </c>
       <c r="D29" s="100">
         <f t="shared" si="2"/>
-        <v>33000</v>
+        <v>219000</v>
       </c>
       <c r="E29" s="101">
         <f t="shared" si="3"/>
@@ -5367,26 +6393,26 @@
       </c>
       <c r="G29" s="100">
         <f t="shared" si="4"/>
-        <v>-7761.5999999999985</v>
+        <v>-51508.799999999996</v>
       </c>
       <c r="H29" s="95">
         <f t="shared" si="5"/>
-        <v>-102076.79999999999</v>
+        <v>-188512.8</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="132">
-        <v>45405</v>
-      </c>
-      <c r="B30" s="133" t="s">
-        <v>408</v>
+        <v>45607</v>
+      </c>
+      <c r="B30" s="179" t="s">
+        <v>463</v>
       </c>
       <c r="C30" s="134">
-        <v>170000</v>
+        <v>148500</v>
       </c>
       <c r="D30" s="100">
         <f t="shared" si="2"/>
-        <v>170000</v>
+        <v>148500</v>
       </c>
       <c r="E30" s="101">
         <f t="shared" si="3"/>
@@ -5397,26 +6423,26 @@
       </c>
       <c r="G30" s="100">
         <f t="shared" si="4"/>
-        <v>-39983.999999999993</v>
+        <v>-34927.199999999997</v>
       </c>
       <c r="H30" s="95">
         <f t="shared" si="5"/>
-        <v>-94315.199999999983</v>
+        <v>-137004</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="132">
         <v>45405</v>
       </c>
-      <c r="B31" s="133" t="s">
-        <v>407</v>
-      </c>
-      <c r="C31" s="134">
-        <v>-25000</v>
+      <c r="B31" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="182">
+        <v>33000</v>
       </c>
       <c r="D31" s="100">
         <f t="shared" si="2"/>
-        <v>-25000</v>
+        <v>33000</v>
       </c>
       <c r="E31" s="101">
         <f t="shared" si="3"/>
@@ -5427,56 +6453,56 @@
       </c>
       <c r="G31" s="100">
         <f t="shared" si="4"/>
-        <v>5879.9999999999991</v>
+        <v>-7761.5999999999985</v>
       </c>
       <c r="H31" s="95">
         <f t="shared" si="5"/>
-        <v>-54331.199999999997</v>
+        <v>-102076.79999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="132">
-        <v>45397</v>
+        <v>45405</v>
       </c>
       <c r="B32" s="133" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C32" s="134">
-        <v>1000</v>
+        <v>170000</v>
       </c>
       <c r="D32" s="100">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>170000</v>
       </c>
       <c r="E32" s="101">
-        <f t="shared" ref="E32" si="6">IF(F32=0,C32*$E$21*-1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F32" s="97">
         <v>1</v>
       </c>
       <c r="G32" s="100">
-        <f t="shared" ref="G32" si="7">IF(F32=1,C32*$E$21*-1,0)</f>
-        <v>-235.19999999999996</v>
+        <f t="shared" si="4"/>
+        <v>-39983.999999999993</v>
       </c>
       <c r="H32" s="95">
         <f t="shared" si="5"/>
-        <v>-60211.199999999997</v>
+        <v>-94315.199999999983</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="135">
-        <v>45397</v>
-      </c>
-      <c r="B33" s="179" t="s">
-        <v>352</v>
-      </c>
-      <c r="C33" s="137">
-        <v>85000</v>
+      <c r="A33" s="132">
+        <v>45405</v>
+      </c>
+      <c r="B33" s="133" t="s">
+        <v>407</v>
+      </c>
+      <c r="C33" s="134">
+        <v>-25000</v>
       </c>
       <c r="D33" s="100">
         <f t="shared" si="2"/>
-        <v>85000</v>
+        <v>-25000</v>
       </c>
       <c r="E33" s="101">
         <f t="shared" si="3"/>
@@ -5487,309 +6513,369 @@
       </c>
       <c r="G33" s="100">
         <f t="shared" si="4"/>
-        <v>-19991.999999999996</v>
+        <v>5879.9999999999991</v>
       </c>
       <c r="H33" s="95">
         <f t="shared" si="5"/>
-        <v>-59976</v>
+        <v>-54331.199999999997</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="99">
-        <v>45321</v>
-      </c>
-      <c r="B34" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="C34" s="175">
-        <v>7000</v>
+      <c r="A34" s="132">
+        <v>45397</v>
+      </c>
+      <c r="B34" s="133" t="s">
+        <v>406</v>
+      </c>
+      <c r="C34" s="134">
+        <v>1000</v>
       </c>
       <c r="D34" s="100">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E34" s="101">
+        <f t="shared" ref="E34" si="6">IF(F34=0,C34*$E$23*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="97">
+        <v>1</v>
+      </c>
+      <c r="G34" s="100">
+        <f t="shared" ref="G34" si="7">IF(F34=1,C34*$E$23*-1,0)</f>
+        <v>-235.19999999999996</v>
+      </c>
+      <c r="H34" s="95">
+        <f t="shared" si="5"/>
+        <v>-60211.199999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="135">
+        <v>45397</v>
+      </c>
+      <c r="B35" s="179" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" s="137">
+        <v>85000</v>
+      </c>
+      <c r="D35" s="100">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
+      <c r="E35" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="97">
+        <v>1</v>
+      </c>
+      <c r="G35" s="100">
+        <f t="shared" si="4"/>
+        <v>-19991.999999999996</v>
+      </c>
+      <c r="H35" s="95">
+        <f t="shared" si="5"/>
+        <v>-59976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="99">
+        <v>45321</v>
+      </c>
+      <c r="B36" s="104" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="175">
+        <v>7000</v>
+      </c>
+      <c r="D36" s="100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="101">
         <f t="shared" si="3"/>
         <v>-1646.3999999999999</v>
       </c>
-      <c r="F34" s="97">
-        <v>0</v>
-      </c>
-      <c r="G34" s="100">
+      <c r="F36" s="97">
+        <v>0</v>
+      </c>
+      <c r="G36" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H34" s="95">
+      <c r="H36" s="95">
         <f t="shared" si="5"/>
         <v>-39984</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="135"/>
-      <c r="B35" s="179" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" s="135"/>
+      <c r="B37" s="179" t="s">
         <v>409</v>
       </c>
-      <c r="C35" s="180">
+      <c r="C37" s="180">
         <v>24000</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D37" s="100">
         <f t="shared" si="2"/>
         <v>24000</v>
       </c>
-      <c r="E35" s="101">
+      <c r="E37" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="97">
+      <c r="F37" s="97">
         <v>1</v>
       </c>
-      <c r="G35" s="100">
+      <c r="G37" s="100">
         <f t="shared" si="4"/>
         <v>-5644.7999999999993</v>
       </c>
-      <c r="H35" s="95">
+      <c r="H37" s="95">
         <f t="shared" si="5"/>
         <v>-39984</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="135">
+    <row r="38" spans="1:10">
+      <c r="A38" s="135">
         <v>45296</v>
       </c>
-      <c r="B36" s="136" t="s">
+      <c r="B38" s="136" t="s">
         <v>341</v>
       </c>
-      <c r="C36" s="137">
+      <c r="C38" s="137">
         <v>26000</v>
       </c>
-      <c r="D36" s="100">
+      <c r="D38" s="100">
         <f t="shared" si="2"/>
         <v>26000</v>
       </c>
-      <c r="E36" s="101">
+      <c r="E38" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F36" s="97">
+      <c r="F38" s="97">
         <v>1</v>
       </c>
-      <c r="G36" s="100">
+      <c r="G38" s="100">
         <f t="shared" si="4"/>
         <v>-6115.1999999999989</v>
       </c>
-      <c r="H36" s="95">
+      <c r="H38" s="95">
         <f t="shared" si="5"/>
         <v>-34339.199999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="132">
+    <row r="39" spans="1:10">
+      <c r="A39" s="132">
         <v>45295</v>
       </c>
-      <c r="B37" s="136" t="s">
+      <c r="B39" s="136" t="s">
         <v>341</v>
       </c>
-      <c r="C37" s="134">
+      <c r="C39" s="134">
         <v>120000</v>
       </c>
-      <c r="D37" s="100">
+      <c r="D39" s="100">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
-      <c r="E37" s="101">
+      <c r="E39" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F37" s="97">
+      <c r="F39" s="97">
         <v>1</v>
       </c>
-      <c r="G37" s="100">
+      <c r="G39" s="100">
         <f t="shared" si="4"/>
         <v>-28223.999999999996</v>
       </c>
-      <c r="H37" s="95">
+      <c r="H39" s="95">
         <f t="shared" si="5"/>
         <v>-28223.999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="176">
+    <row r="40" spans="1:10">
+      <c r="A40" s="176">
         <v>45292</v>
       </c>
-      <c r="B38" s="177" t="s">
+      <c r="B40" s="177" t="s">
         <v>254</v>
       </c>
-      <c r="C38" s="178"/>
-      <c r="D38" s="100">
+      <c r="C40" s="178"/>
+      <c r="D40" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E38" s="101">
+      <c r="E40" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="105">
-        <v>0</v>
-      </c>
-      <c r="G38" s="100">
+      <c r="F40" s="105">
+        <v>0</v>
+      </c>
+      <c r="G40" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H38" s="95">
-        <f>G38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="C41" s="100" t="s">
+      <c r="H40" s="95">
+        <f>G40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="C43" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="D41" s="95" t="s">
+      <c r="D43" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="E41" s="95" t="s">
+      <c r="E43" s="95" t="s">
         <v>297</v>
       </c>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="107"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75">
-      <c r="B42" t="s">
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="107"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="B44" t="s">
         <v>250</v>
       </c>
-      <c r="C42" s="108">
+      <c r="C44" s="108">
         <v>1</v>
       </c>
-      <c r="D42" s="138">
-        <f>D21</f>
+      <c r="D44" s="138">
+        <f>D23</f>
         <v>0.76480000000000004</v>
       </c>
-      <c r="E42" s="138">
-        <f>1-D42</f>
+      <c r="E44" s="138">
+        <f>1-D44</f>
         <v>0.23519999999999996</v>
       </c>
-      <c r="H42" s="95"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="B43" t="s">
-        <v>298</v>
-      </c>
-      <c r="C43" s="109">
-        <f>$D$23*C42</f>
-        <v>801500</v>
-      </c>
-      <c r="D43" s="110">
-        <f>$D$23*D42</f>
-        <v>612987.20000000007</v>
-      </c>
-      <c r="E43" s="110">
-        <f>$D$23*E42</f>
-        <v>188512.79999999996</v>
-      </c>
-      <c r="H43" s="95"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="B44" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" s="100">
-        <f>D44+E44</f>
-        <v>801500</v>
-      </c>
-      <c r="D44" s="95">
-        <f>C43-E44</f>
-        <v>612987.19999999995</v>
-      </c>
-      <c r="E44" s="95">
-        <f>$H$23*-1</f>
-        <v>188512.8</v>
-      </c>
-      <c r="G44" s="111"/>
       <c r="H44" s="95"/>
-      <c r="J44" s="95"/>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" t="s">
-        <v>299</v>
-      </c>
-      <c r="C45" s="100">
-        <f>C43-C44</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="95">
-        <f>D43-D44</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="95">
-        <f>E43-E44</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="95"/>
+        <v>298</v>
+      </c>
+      <c r="C45" s="109">
+        <f>$D$25*C44</f>
+        <v>801500</v>
+      </c>
+      <c r="D45" s="110">
+        <f>$D$25*D44</f>
+        <v>612987.20000000007</v>
+      </c>
+      <c r="E45" s="110">
+        <f>$D$25*E44</f>
+        <v>188512.79999999996</v>
+      </c>
       <c r="H45" s="95"/>
-      <c r="J45" s="95"/>
-    </row>
-    <row r="46" spans="1:10" ht="13.5" thickBot="1">
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="G46" s="95"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="100">
+        <f>D46+E46</f>
+        <v>801500</v>
+      </c>
+      <c r="D46" s="95">
+        <f>C45-E46</f>
+        <v>612987.19999999995</v>
+      </c>
+      <c r="E46" s="95">
+        <f>$H$25*-1</f>
+        <v>188512.8</v>
+      </c>
+      <c r="G46" s="111"/>
       <c r="H46" s="95"/>
       <c r="J46" s="95"/>
     </row>
     <row r="47" spans="1:10">
+      <c r="B47" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" s="100">
+        <f>C45-C46</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="95">
+        <f>D45-D46</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="95">
+        <f>E45-E46</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="95"/>
       <c r="H47" s="95"/>
       <c r="J47" s="95"/>
     </row>
-    <row r="48" spans="1:10">
-      <c r="C48" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>302</v>
-      </c>
+    <row r="48" spans="1:10" ht="13.5" thickBot="1">
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
       <c r="G48" s="95"/>
       <c r="H48" s="95"/>
       <c r="J48" s="95"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="C49" s="95"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="95"/>
       <c r="H49" s="95"/>
       <c r="J49" s="95"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="95" t="s">
+      <c r="C50" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="J50" s="95"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="C51" s="95"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="J51" s="95"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="C50" s="95">
-        <f>D44</f>
+      <c r="C52" s="95">
+        <f>D46</f>
         <v>612987.19999999995</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D52" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E50" s="95">
-        <f>C50*D50</f>
+      <c r="E52" s="95">
+        <f>C52*D52</f>
         <v>15324.68</v>
       </c>
-      <c r="H50" s="95"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="E51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
+      <c r="H52" s="95"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="E53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
